--- a/OTHERS/DOC/物理設計書.xlsx
+++ b/OTHERS/DOC/物理設計書.xlsx
@@ -4,18 +4,21 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28125" windowHeight="12420" activeTab="1"/>
+    <workbookView windowWidth="28125" windowHeight="12420" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="資材一覧" sheetId="5" r:id="rId1"/>
-    <sheet name="マスタ情報管理" sheetId="6" r:id="rId2"/>
+    <sheet name="権限" sheetId="8" r:id="rId2"/>
+    <sheet name="Session設計" sheetId="7" r:id="rId3"/>
+    <sheet name="マスタ情報管理" sheetId="6" r:id="rId4"/>
+    <sheet name="ファイル階層設計" sheetId="9" r:id="rId5"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="300" uniqueCount="233">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="403" uniqueCount="286">
   <si>
     <t>番号</t>
   </si>
@@ -47,7 +50,7 @@
     <t>ログイン</t>
   </si>
   <si>
-    <t>login.js</t>
+    <t>common_login.js</t>
   </si>
   <si>
     <t>COMMON.xml</t>
@@ -65,7 +68,13 @@
     <t>画面初期化</t>
   </si>
   <si>
-    <t>shoplist_init.js</t>
+    <t>common_shoplist.js</t>
+  </si>
+  <si>
+    <t>店舗選択</t>
+  </si>
+  <si>
+    <t>common_chooseshop.js</t>
   </si>
   <si>
     <t>0301</t>
@@ -128,6 +137,12 @@
     <t>MASTER.xml</t>
   </si>
   <si>
+    <t>新規ボタン押下</t>
+  </si>
+  <si>
+    <t>masterinfo_add.js</t>
+  </si>
+  <si>
     <t>検索ボタン押下</t>
   </si>
   <si>
@@ -194,9 +209,6 @@
     <t>DELIVERY.xml</t>
   </si>
   <si>
-    <t>新規ボタン押下</t>
-  </si>
-  <si>
     <t>delivery_add.js</t>
   </si>
   <si>
@@ -578,6 +590,111 @@
     <t>uploadpic.jsp</t>
   </si>
   <si>
+    <t>SmartID</t>
+  </si>
+  <si>
+    <t>UserID</t>
+  </si>
+  <si>
+    <t>店舗ID</t>
+  </si>
+  <si>
+    <t>23-A-001</t>
+  </si>
+  <si>
+    <t>AAAAA</t>
+  </si>
+  <si>
+    <t>Smart-Bear</t>
+  </si>
+  <si>
+    <t>BBBBB</t>
+  </si>
+  <si>
+    <t>xxxxxx</t>
+  </si>
+  <si>
+    <t>【セッション内容】</t>
+  </si>
+  <si>
+    <t>SMART_ID</t>
+  </si>
+  <si>
+    <t>ユーザー情報管理</t>
+  </si>
+  <si>
+    <t>Password</t>
+  </si>
+  <si>
+    <t>jly99641</t>
+  </si>
+  <si>
+    <t>bruss_liu</t>
+  </si>
+  <si>
+    <t>abcdefg</t>
+  </si>
+  <si>
+    <t>USER_ID</t>
+  </si>
+  <si>
+    <t>メニュー画面から</t>
+  </si>
+  <si>
+    <t>ロール情報管理</t>
+  </si>
+  <si>
+    <t>ロール</t>
+  </si>
+  <si>
+    <t>SHOP_ID</t>
+  </si>
+  <si>
+    <t>user</t>
+  </si>
+  <si>
+    <t>admin</t>
+  </si>
+  <si>
+    <t>ROLE</t>
+  </si>
+  <si>
+    <t>権限</t>
+  </si>
+  <si>
+    <t>PMSN-A01-01</t>
+  </si>
+  <si>
+    <t>PMSN-A02-01</t>
+  </si>
+  <si>
+    <t>権限情報管理</t>
+  </si>
+  <si>
+    <t>権限ID</t>
+  </si>
+  <si>
+    <t>権限内容</t>
+  </si>
+  <si>
+    <t>権限区分</t>
+  </si>
+  <si>
+    <t>0301-01</t>
+  </si>
+  <si>
+    <t>XXXXXX</t>
+  </si>
+  <si>
+    <t>ON</t>
+  </si>
+  <si>
+    <t>0301-02</t>
+  </si>
+  <si>
+    <t>YYYYYY</t>
+  </si>
+  <si>
     <t>jsp</t>
   </si>
   <si>
@@ -714,6 +831,51 @@
   </si>
   <si>
     <t>dtl_btn_cancel</t>
+  </si>
+  <si>
+    <t>storage</t>
+  </si>
+  <si>
+    <t>common</t>
+  </si>
+  <si>
+    <t>templates</t>
+  </si>
+  <si>
+    <t>XXXXXXXX1</t>
+  </si>
+  <si>
+    <t>XXXXXXXX2</t>
+  </si>
+  <si>
+    <t>XXXXXXXX3</t>
+  </si>
+  <si>
+    <t>XXXXXXXX4</t>
+  </si>
+  <si>
+    <t>upload</t>
+  </si>
+  <si>
+    <t>import</t>
+  </si>
+  <si>
+    <t>upload_bak</t>
+  </si>
+  <si>
+    <t>process</t>
+  </si>
+  <si>
+    <t>backup</t>
+  </si>
+  <si>
+    <t>purchasefile</t>
+  </si>
+  <si>
+    <t>20230118-151418</t>
+  </si>
+  <si>
+    <t>20230118-151419</t>
   </si>
 </sst>
 </file>
@@ -722,14 +884,37 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="176" formatCode="_-&quot;\&quot;* #,##0_-\ ;\-&quot;\&quot;* #,##0_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
-    <numFmt numFmtId="177" formatCode="_-&quot;\&quot;* #,##0.00_-\ ;\-&quot;\&quot;* #,##0.00_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
+    <numFmt numFmtId="176" formatCode="_-&quot;\&quot;* #,##0.00_-\ ;\-&quot;\&quot;* #,##0.00_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
+    <numFmt numFmtId="177" formatCode="_-&quot;\&quot;* #,##0_-\ ;\-&quot;\&quot;* #,##0_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
     <numFmt numFmtId="178" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="22">
+  <fonts count="25">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF1552D1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF1552D1"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -892,12 +1077,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="37">
+  <fills count="39">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -908,6 +1099,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7" tint="0.8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1110,7 +1307,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="42">
+  <borders count="65">
     <border>
       <left/>
       <right/>
@@ -1119,61 +1316,29 @@
       <diagonal/>
     </border>
     <border>
-      <left style="medium">
+      <left style="thin">
         <color auto="1"/>
       </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="medium">
+      <right/>
+      <top style="thin">
         <color auto="1"/>
       </top>
       <bottom/>
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="medium">
+      <left/>
+      <right/>
+      <top style="thin">
         <color auto="1"/>
       </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="medium">
-        <color auto="1"/>
-      </top>
-      <bottom style="hair">
+      <bottom style="thin">
         <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="medium">
-        <color auto="1"/>
-      </right>
-      <top style="medium">
-        <color auto="1"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
         <color auto="1"/>
       </left>
       <right style="thin">
@@ -1187,6 +1352,143 @@
       <left style="thin">
         <color auto="1"/>
       </left>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom style="hair">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
       <right style="thin">
         <color auto="1"/>
       </right>
@@ -1286,7 +1588,7 @@
       <top style="medium">
         <color auto="1"/>
       </top>
-      <bottom style="medium">
+      <bottom style="thin">
         <color auto="1"/>
       </bottom>
       <diagonal/>
@@ -1301,7 +1603,22 @@
       <top style="medium">
         <color auto="1"/>
       </top>
-      <bottom style="medium">
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
         <color auto="1"/>
       </bottom>
       <diagonal/>
@@ -1310,10 +1627,103 @@
       <left style="thin">
         <color auto="1"/>
       </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
       <right style="medium">
         <color auto="1"/>
       </right>
       <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
         <color auto="1"/>
       </top>
       <bottom style="medium">
@@ -1325,10 +1735,131 @@
       <left style="medium">
         <color auto="1"/>
       </left>
-      <right style="thin">
+      <right/>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
         <color auto="1"/>
       </right>
       <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
       <bottom style="medium">
         <color auto="1"/>
       </bottom>
@@ -1341,7 +1872,9 @@
       <right style="thin">
         <color auto="1"/>
       </right>
-      <top/>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
       <bottom style="medium">
         <color auto="1"/>
       </bottom>
@@ -1351,10 +1884,10 @@
       <left style="thin">
         <color auto="1"/>
       </left>
-      <right style="thin">
+      <right style="medium">
         <color auto="1"/>
       </right>
-      <top style="hair">
+      <top style="medium">
         <color auto="1"/>
       </top>
       <bottom style="medium">
@@ -1370,7 +1903,7 @@
         <color auto="1"/>
       </right>
       <top/>
-      <bottom style="thin">
+      <bottom style="medium">
         <color auto="1"/>
       </bottom>
       <diagonal/>
@@ -1383,7 +1916,7 @@
         <color auto="1"/>
       </right>
       <top/>
-      <bottom style="thin">
+      <bottom style="medium">
         <color auto="1"/>
       </bottom>
       <diagonal/>
@@ -1398,7 +1931,20 @@
       <top style="hair">
         <color auto="1"/>
       </top>
-      <bottom style="thin">
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="hair">
         <color auto="1"/>
       </bottom>
       <diagonal/>
@@ -1410,9 +1956,7 @@
       <right style="thin">
         <color auto="1"/>
       </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
+      <top/>
       <bottom style="thin">
         <color auto="1"/>
       </bottom>
@@ -1425,7 +1969,7 @@
       <right style="thin">
         <color auto="1"/>
       </right>
-      <top style="thin">
+      <top style="hair">
         <color auto="1"/>
       </top>
       <bottom style="thin">
@@ -1456,19 +2000,6 @@
       <top style="thin">
         <color auto="1"/>
       </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
       <bottom style="hair">
         <color auto="1"/>
       </bottom>
@@ -1498,81 +2029,6 @@
         <color auto="1"/>
       </top>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="medium">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="medium">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="medium">
-        <color auto="1"/>
-      </right>
-      <top style="medium">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="medium">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="medium">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="medium">
-        <color auto="1"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -1678,118 +2134,112 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="57" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="34" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="35" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="58" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="36" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="36" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="37" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="15" borderId="38" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="15" borderId="34" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="16" borderId="39" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="40" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="41" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="59" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="59" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="60" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="17" borderId="61" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="17" borderId="57" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="18" borderId="62" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="63" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="64" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1798,75 +2248,120 @@
     <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="121">
+  <cellXfs count="171">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="12" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="13" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="15" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="16" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="18" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="19" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="20" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
@@ -1875,259 +2370,412 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="37" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="41" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="42" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="43" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="44" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="45" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="47" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="48" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="49" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="49" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="11" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="12" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="13" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="15" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="3" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="16" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="16" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="47" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="48" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="49" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="49" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="50" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="16" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="47" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="48" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="49" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="49" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="12" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="15" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="51" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="52" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="52" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="51" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="51" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="52" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="52" xfId="0" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="6" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="7" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="16" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="17" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="18" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="18" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="51" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="52" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="52" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="16" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="17" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="18" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="19" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="20" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="20" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="21" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="21" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="19" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="53" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="54" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="54" xfId="0" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="47" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="48" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="48" xfId="0" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="49" xfId="0" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="55" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="56" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1">
@@ -2136,34 +2784,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyBorder="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
@@ -2172,70 +2793,55 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFill="1" applyBorder="1" quotePrefix="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" quotePrefix="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" quotePrefix="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" quotePrefix="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1" quotePrefix="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" quotePrefix="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="19" xfId="0" applyFill="1" applyBorder="1" quotePrefix="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" quotePrefix="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" quotePrefix="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" quotePrefix="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" quotePrefix="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyFill="1" applyBorder="1" quotePrefix="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFill="1" applyBorder="1" quotePrefix="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" quotePrefix="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="44" xfId="0" applyFill="1" applyBorder="1" quotePrefix="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFill="1" applyBorder="1" quotePrefix="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="11" xfId="0" applyFill="1" applyBorder="1" quotePrefix="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="0" applyFill="1" applyBorder="1" quotePrefix="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="19" xfId="0" applyFill="1" applyBorder="1" quotePrefix="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" quotePrefix="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="51" xfId="0" applyFill="1" applyBorder="1" quotePrefix="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="15" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" quotePrefix="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" quotePrefix="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" quotePrefix="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyBorder="1" quotePrefix="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyFill="1" applyBorder="1" quotePrefix="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyFill="1" applyBorder="1" quotePrefix="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1" quotePrefix="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" quotePrefix="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="53" xfId="0" applyBorder="1" quotePrefix="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" quotePrefix="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" quotePrefix="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" quotePrefix="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -2593,11 +3199,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
   <dimension ref="B2:G82"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13:G16"/>
+      <selection activeCell="G3" sqref="G3:G5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="20" customHeight="1" outlineLevelCol="6"/>
@@ -2610,1128 +3218,1136 @@
     <col min="6" max="7" width="30.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" s="16" customFormat="1" ht="30" customHeight="1" spans="2:7">
-      <c r="B2" s="17" t="s">
+    <row r="2" s="65" customFormat="1" ht="30" customHeight="1" spans="2:7">
+      <c r="B2" s="66" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="18" t="s">
+      <c r="C2" s="67" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="18" t="s">
+      <c r="D2" s="67" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="18" t="s">
+      <c r="E2" s="67" t="s">
         <v>3</v>
       </c>
-      <c r="F2" s="18" t="s">
+      <c r="F2" s="67" t="s">
         <v>4</v>
       </c>
-      <c r="G2" s="19" t="s">
+      <c r="G2" s="68" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="3" customHeight="1" spans="2:7">
-      <c r="B3" s="121" t="s">
+      <c r="B3" s="171" t="s">
         <v>6</v>
       </c>
-      <c r="C3" s="21" t="s">
+      <c r="C3" s="70" t="s">
         <v>7</v>
       </c>
-      <c r="D3" s="21" t="s">
+      <c r="D3" s="70" t="s">
         <v>8</v>
       </c>
-      <c r="E3" s="21" t="s">
+      <c r="E3" s="70" t="s">
         <v>9</v>
       </c>
-      <c r="F3" s="21" t="s">
+      <c r="F3" s="70" t="s">
         <v>10</v>
       </c>
-      <c r="G3" s="22" t="s">
+      <c r="G3" s="71" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="4" customHeight="1" spans="2:7">
-      <c r="B4" s="121" t="s">
+      <c r="B4" s="172" t="s">
         <v>12</v>
       </c>
-      <c r="C4" s="21" t="s">
+      <c r="C4" s="73" t="s">
         <v>13</v>
       </c>
-      <c r="D4" s="21" t="s">
+      <c r="D4" s="73" t="s">
         <v>14</v>
       </c>
-      <c r="E4" s="21" t="s">
+      <c r="E4" s="74" t="s">
         <v>15</v>
       </c>
-      <c r="F4" s="21" t="s">
+      <c r="F4" s="74" t="s">
         <v>16</v>
       </c>
-      <c r="G4" s="23"/>
+      <c r="G4" s="75"/>
     </row>
     <row r="5" customHeight="1" spans="2:7">
-      <c r="B5" s="122" t="s">
+      <c r="B5" s="76"/>
+      <c r="C5" s="77"/>
+      <c r="D5" s="77"/>
+      <c r="E5" s="78" t="s">
         <v>17</v>
       </c>
-      <c r="C5" s="25" t="s">
+      <c r="F5" s="78" t="s">
         <v>18</v>
       </c>
-      <c r="D5" s="25" t="s">
+      <c r="G5" s="75"/>
+    </row>
+    <row r="6" customHeight="1" spans="2:7">
+      <c r="B6" s="172" t="s">
         <v>19</v>
       </c>
-      <c r="E5" s="26" t="s">
+      <c r="C6" s="73" t="s">
+        <v>20</v>
+      </c>
+      <c r="D6" s="73" t="s">
+        <v>21</v>
+      </c>
+      <c r="E6" s="74" t="s">
         <v>15</v>
       </c>
-      <c r="F5" s="26" t="s">
-        <v>20</v>
-      </c>
-      <c r="G5" s="22" t="s">
+      <c r="F6" s="74" t="s">
+        <v>22</v>
+      </c>
+      <c r="G6" s="79" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="6" customHeight="1" spans="2:7">
-      <c r="B6" s="27"/>
-      <c r="C6" s="28"/>
-      <c r="D6" s="28"/>
-      <c r="E6" s="29"/>
-      <c r="F6" s="30"/>
-      <c r="G6" s="31"/>
-    </row>
     <row r="7" customHeight="1" spans="2:7">
-      <c r="B7" s="27"/>
-      <c r="C7" s="28"/>
-      <c r="D7" s="28"/>
-      <c r="E7" s="29"/>
-      <c r="F7" s="30"/>
-      <c r="G7" s="31"/>
+      <c r="B7" s="80"/>
+      <c r="C7" s="81"/>
+      <c r="D7" s="81"/>
+      <c r="E7" s="82"/>
+      <c r="F7" s="83"/>
+      <c r="G7" s="84"/>
     </row>
     <row r="8" customHeight="1" spans="2:7">
-      <c r="B8" s="32"/>
-      <c r="C8" s="33"/>
-      <c r="D8" s="33"/>
-      <c r="E8" s="34"/>
-      <c r="F8" s="35"/>
-      <c r="G8" s="23"/>
+      <c r="B8" s="173" t="s">
+        <v>23</v>
+      </c>
+      <c r="C8" s="86" t="s">
+        <v>24</v>
+      </c>
+      <c r="D8" s="86" t="s">
+        <v>25</v>
+      </c>
+      <c r="E8" s="87" t="s">
+        <v>15</v>
+      </c>
+      <c r="F8" s="87" t="s">
+        <v>26</v>
+      </c>
+      <c r="G8" s="88" t="s">
+        <v>27</v>
+      </c>
     </row>
     <row r="9" customHeight="1" spans="2:7">
-      <c r="B9" s="123" t="s">
-        <v>21</v>
-      </c>
-      <c r="C9" s="37" t="s">
-        <v>22</v>
-      </c>
-      <c r="D9" s="37" t="s">
-        <v>23</v>
-      </c>
-      <c r="E9" s="38" t="s">
+      <c r="B9" s="89"/>
+      <c r="C9" s="90"/>
+      <c r="D9" s="90"/>
+      <c r="E9" s="91" t="s">
+        <v>28</v>
+      </c>
+      <c r="F9" s="92" t="s">
+        <v>29</v>
+      </c>
+      <c r="G9" s="93"/>
+    </row>
+    <row r="10" customHeight="1" spans="2:7">
+      <c r="B10" s="89"/>
+      <c r="C10" s="90"/>
+      <c r="D10" s="90"/>
+      <c r="E10" s="91" t="s">
+        <v>30</v>
+      </c>
+      <c r="F10" s="92" t="s">
+        <v>31</v>
+      </c>
+      <c r="G10" s="93"/>
+    </row>
+    <row r="11" customHeight="1" spans="2:7">
+      <c r="B11" s="94"/>
+      <c r="C11" s="95"/>
+      <c r="D11" s="95"/>
+      <c r="E11" s="96" t="s">
+        <v>32</v>
+      </c>
+      <c r="F11" s="97" t="s">
+        <v>33</v>
+      </c>
+      <c r="G11" s="98"/>
+    </row>
+    <row r="12" customHeight="1" spans="2:7">
+      <c r="B12" s="174" t="s">
+        <v>34</v>
+      </c>
+      <c r="C12" s="15" t="s">
+        <v>35</v>
+      </c>
+      <c r="D12" s="15" t="s">
+        <v>36</v>
+      </c>
+      <c r="E12" s="16" t="s">
         <v>15</v>
       </c>
-      <c r="F9" s="38" t="s">
-        <v>24</v>
-      </c>
-      <c r="G9" s="39" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="10" customHeight="1" spans="2:7">
-      <c r="B10" s="40"/>
-      <c r="C10" s="41"/>
-      <c r="D10" s="41"/>
-      <c r="E10" s="42" t="s">
-        <v>26</v>
-      </c>
-      <c r="F10" s="43" t="s">
-        <v>27</v>
-      </c>
-      <c r="G10" s="44"/>
-    </row>
-    <row r="11" customHeight="1" spans="2:7">
-      <c r="B11" s="40"/>
-      <c r="C11" s="41"/>
-      <c r="D11" s="41"/>
-      <c r="E11" s="42" t="s">
-        <v>28</v>
-      </c>
-      <c r="F11" s="43" t="s">
-        <v>29</v>
-      </c>
-      <c r="G11" s="44"/>
-    </row>
-    <row r="12" customHeight="1" spans="2:7">
-      <c r="B12" s="45"/>
-      <c r="C12" s="46"/>
-      <c r="D12" s="46"/>
-      <c r="E12" s="47" t="s">
-        <v>30</v>
-      </c>
-      <c r="F12" s="48" t="s">
-        <v>31</v>
-      </c>
-      <c r="G12" s="49"/>
+      <c r="F12" s="16" t="s">
+        <v>37</v>
+      </c>
+      <c r="G12" s="17" t="s">
+        <v>38</v>
+      </c>
     </row>
     <row r="13" customHeight="1" spans="2:7">
-      <c r="B13" s="124" t="s">
-        <v>32</v>
-      </c>
-      <c r="C13" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="D13" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="E13" s="3" t="s">
+      <c r="B13" s="18"/>
+      <c r="C13" s="19"/>
+      <c r="D13" s="19"/>
+      <c r="E13" s="99" t="s">
+        <v>39</v>
+      </c>
+      <c r="F13" s="99" t="s">
+        <v>40</v>
+      </c>
+      <c r="G13" s="21"/>
+    </row>
+    <row r="14" customHeight="1" spans="2:7">
+      <c r="B14" s="18"/>
+      <c r="C14" s="19"/>
+      <c r="D14" s="19"/>
+      <c r="E14" s="20" t="s">
+        <v>41</v>
+      </c>
+      <c r="F14" s="20" t="s">
+        <v>42</v>
+      </c>
+      <c r="G14" s="21"/>
+    </row>
+    <row r="15" customHeight="1" spans="2:7">
+      <c r="B15" s="18"/>
+      <c r="C15" s="19"/>
+      <c r="D15" s="19"/>
+      <c r="E15" s="22" t="s">
+        <v>43</v>
+      </c>
+      <c r="F15" s="22" t="s">
+        <v>44</v>
+      </c>
+      <c r="G15" s="21"/>
+    </row>
+    <row r="16" customHeight="1" spans="2:7">
+      <c r="B16" s="175" t="s">
+        <v>45</v>
+      </c>
+      <c r="C16" s="24" t="s">
+        <v>46</v>
+      </c>
+      <c r="D16" s="24" t="s">
+        <v>47</v>
+      </c>
+      <c r="E16" s="24" t="s">
+        <v>48</v>
+      </c>
+      <c r="F16" s="24" t="s">
+        <v>49</v>
+      </c>
+      <c r="G16" s="25"/>
+    </row>
+    <row r="17" customHeight="1" spans="2:7">
+      <c r="B17" s="174" t="s">
+        <v>50</v>
+      </c>
+      <c r="C17" s="15" t="s">
+        <v>51</v>
+      </c>
+      <c r="D17" s="15" t="s">
+        <v>52</v>
+      </c>
+      <c r="E17" s="16" t="s">
         <v>15</v>
       </c>
-      <c r="F13" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="G13" s="4" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="14" customHeight="1" spans="2:7">
-      <c r="B14" s="5"/>
-      <c r="C14" s="6"/>
-      <c r="D14" s="6"/>
-      <c r="E14" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="F14" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="G14" s="8"/>
-    </row>
-    <row r="15" customHeight="1" spans="2:7">
-      <c r="B15" s="5"/>
-      <c r="C15" s="6"/>
-      <c r="D15" s="6"/>
-      <c r="E15" s="9" t="s">
+      <c r="F17" s="16" t="s">
+        <v>53</v>
+      </c>
+      <c r="G17" s="100" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="18" customHeight="1" spans="2:7">
+      <c r="B18" s="18"/>
+      <c r="C18" s="19"/>
+      <c r="D18" s="19"/>
+      <c r="E18" s="20" t="s">
+        <v>43</v>
+      </c>
+      <c r="F18" s="101" t="s">
+        <v>55</v>
+      </c>
+      <c r="G18" s="102"/>
+    </row>
+    <row r="19" customHeight="1" spans="2:7">
+      <c r="B19" s="103"/>
+      <c r="C19" s="104"/>
+      <c r="D19" s="104"/>
+      <c r="E19" s="105" t="s">
+        <v>56</v>
+      </c>
+      <c r="F19" s="106" t="s">
+        <v>57</v>
+      </c>
+      <c r="G19" s="107"/>
+    </row>
+    <row r="20" customHeight="1" spans="2:7">
+      <c r="B20" s="176" t="s">
+        <v>58</v>
+      </c>
+      <c r="C20" s="109" t="s">
+        <v>59</v>
+      </c>
+      <c r="D20" s="15" t="s">
+        <v>60</v>
+      </c>
+      <c r="E20" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="F20" s="16" t="s">
+        <v>61</v>
+      </c>
+      <c r="G20" s="100" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="21" customHeight="1" spans="2:7">
+      <c r="B21" s="110"/>
+      <c r="C21" s="111"/>
+      <c r="D21" s="19"/>
+      <c r="E21" s="20" t="s">
         <v>39</v>
       </c>
-      <c r="F15" s="9" t="s">
-        <v>40</v>
-      </c>
-      <c r="G15" s="8"/>
-    </row>
-    <row r="16" customHeight="1" spans="2:7">
-      <c r="B16" s="125" t="s">
-        <v>41</v>
-      </c>
-      <c r="C16" s="11" t="s">
-        <v>42</v>
-      </c>
-      <c r="D16" s="11" t="s">
+      <c r="F21" s="101" t="s">
+        <v>63</v>
+      </c>
+      <c r="G21" s="102"/>
+    </row>
+    <row r="22" customHeight="1" spans="2:7">
+      <c r="B22" s="110"/>
+      <c r="C22" s="111"/>
+      <c r="D22" s="19"/>
+      <c r="E22" s="20" t="s">
+        <v>64</v>
+      </c>
+      <c r="F22" s="101" t="s">
+        <v>65</v>
+      </c>
+      <c r="G22" s="102"/>
+    </row>
+    <row r="23" customHeight="1" spans="2:7">
+      <c r="B23" s="110"/>
+      <c r="C23" s="111"/>
+      <c r="D23" s="19"/>
+      <c r="E23" s="20" t="s">
+        <v>66</v>
+      </c>
+      <c r="F23" s="101" t="s">
+        <v>67</v>
+      </c>
+      <c r="G23" s="102"/>
+    </row>
+    <row r="24" customHeight="1" spans="2:7">
+      <c r="B24" s="110"/>
+      <c r="C24" s="111"/>
+      <c r="D24" s="19"/>
+      <c r="E24" s="20" t="s">
+        <v>68</v>
+      </c>
+      <c r="F24" s="101" t="s">
+        <v>69</v>
+      </c>
+      <c r="G24" s="102"/>
+    </row>
+    <row r="25" customHeight="1" spans="2:7">
+      <c r="B25" s="110"/>
+      <c r="C25" s="111"/>
+      <c r="D25" s="19"/>
+      <c r="E25" s="20" t="s">
+        <v>70</v>
+      </c>
+      <c r="F25" s="101" t="s">
+        <v>71</v>
+      </c>
+      <c r="G25" s="102"/>
+    </row>
+    <row r="26" customHeight="1" spans="2:7">
+      <c r="B26" s="110"/>
+      <c r="C26" s="111"/>
+      <c r="D26" s="19"/>
+      <c r="E26" s="20" t="s">
+        <v>72</v>
+      </c>
+      <c r="F26" s="101" t="s">
+        <v>73</v>
+      </c>
+      <c r="G26" s="102"/>
+    </row>
+    <row r="27" customHeight="1" spans="2:7">
+      <c r="B27" s="110"/>
+      <c r="C27" s="111"/>
+      <c r="D27" s="19"/>
+      <c r="E27" s="20" t="s">
+        <v>74</v>
+      </c>
+      <c r="F27" s="101" t="s">
+        <v>75</v>
+      </c>
+      <c r="G27" s="102"/>
+    </row>
+    <row r="28" customHeight="1" spans="2:7">
+      <c r="B28" s="110"/>
+      <c r="C28" s="111"/>
+      <c r="D28" s="19"/>
+      <c r="E28" s="20" t="s">
+        <v>76</v>
+      </c>
+      <c r="F28" s="101" t="s">
+        <v>77</v>
+      </c>
+      <c r="G28" s="102"/>
+    </row>
+    <row r="29" customHeight="1" spans="2:7">
+      <c r="B29" s="112"/>
+      <c r="C29" s="113"/>
+      <c r="D29" s="114"/>
+      <c r="E29" s="115" t="s">
+        <v>78</v>
+      </c>
+      <c r="F29" s="116" t="s">
+        <v>79</v>
+      </c>
+      <c r="G29" s="102"/>
+    </row>
+    <row r="30" customHeight="1" spans="2:7">
+      <c r="B30" s="177" t="s">
+        <v>80</v>
+      </c>
+      <c r="C30" s="114" t="s">
+        <v>81</v>
+      </c>
+      <c r="D30" s="114" t="s">
+        <v>82</v>
+      </c>
+      <c r="E30" s="114" t="s">
+        <v>69</v>
+      </c>
+      <c r="F30" s="114" t="s">
+        <v>69</v>
+      </c>
+      <c r="G30" s="102"/>
+    </row>
+    <row r="31" customHeight="1" spans="2:7">
+      <c r="B31" s="175" t="s">
+        <v>83</v>
+      </c>
+      <c r="C31" s="24" t="s">
+        <v>84</v>
+      </c>
+      <c r="D31" s="24" t="s">
+        <v>85</v>
+      </c>
+      <c r="E31" s="24" t="s">
+        <v>86</v>
+      </c>
+      <c r="F31" s="106" t="s">
+        <v>87</v>
+      </c>
+      <c r="G31" s="107"/>
+    </row>
+    <row r="32" customHeight="1" spans="2:7">
+      <c r="B32" s="178" t="s">
+        <v>88</v>
+      </c>
+      <c r="C32" s="111" t="s">
+        <v>89</v>
+      </c>
+      <c r="D32" s="19" t="s">
+        <v>90</v>
+      </c>
+      <c r="E32" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="F32" s="16" t="s">
+        <v>91</v>
+      </c>
+      <c r="G32" s="100" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="33" customHeight="1" spans="2:7">
+      <c r="B33" s="18"/>
+      <c r="C33" s="19"/>
+      <c r="D33" s="19"/>
+      <c r="E33" s="20" t="s">
+        <v>39</v>
+      </c>
+      <c r="F33" s="101" t="s">
+        <v>69</v>
+      </c>
+      <c r="G33" s="102"/>
+    </row>
+    <row r="34" customHeight="1" spans="2:7">
+      <c r="B34" s="18"/>
+      <c r="C34" s="19"/>
+      <c r="D34" s="19"/>
+      <c r="E34" s="20" t="s">
+        <v>93</v>
+      </c>
+      <c r="F34" s="101" t="s">
+        <v>94</v>
+      </c>
+      <c r="G34" s="102"/>
+    </row>
+    <row r="35" customHeight="1" spans="2:7">
+      <c r="B35" s="18"/>
+      <c r="C35" s="19"/>
+      <c r="D35" s="19"/>
+      <c r="E35" s="20" t="s">
+        <v>95</v>
+      </c>
+      <c r="F35" s="101" t="s">
+        <v>96</v>
+      </c>
+      <c r="G35" s="102"/>
+    </row>
+    <row r="36" customHeight="1" spans="2:7">
+      <c r="B36" s="18"/>
+      <c r="C36" s="19"/>
+      <c r="D36" s="19"/>
+      <c r="E36" s="20" t="s">
+        <v>97</v>
+      </c>
+      <c r="F36" s="101" t="s">
+        <v>98</v>
+      </c>
+      <c r="G36" s="102"/>
+    </row>
+    <row r="37" customHeight="1" spans="2:7">
+      <c r="B37" s="18"/>
+      <c r="C37" s="19"/>
+      <c r="D37" s="19"/>
+      <c r="E37" s="20" t="s">
+        <v>99</v>
+      </c>
+      <c r="F37" s="101" t="s">
+        <v>100</v>
+      </c>
+      <c r="G37" s="102"/>
+    </row>
+    <row r="38" customHeight="1" spans="2:7">
+      <c r="B38" s="18"/>
+      <c r="C38" s="19"/>
+      <c r="D38" s="19"/>
+      <c r="E38" s="101" t="s">
+        <v>101</v>
+      </c>
+      <c r="F38" s="101" t="s">
+        <v>102</v>
+      </c>
+      <c r="G38" s="102"/>
+    </row>
+    <row r="39" customHeight="1" spans="2:7">
+      <c r="B39" s="18"/>
+      <c r="C39" s="19"/>
+      <c r="D39" s="19"/>
+      <c r="E39" s="101" t="s">
+        <v>103</v>
+      </c>
+      <c r="F39" s="101" t="s">
+        <v>104</v>
+      </c>
+      <c r="G39" s="102"/>
+    </row>
+    <row r="40" customHeight="1" spans="2:7">
+      <c r="B40" s="117"/>
+      <c r="C40" s="114"/>
+      <c r="D40" s="114"/>
+      <c r="E40" s="115" t="s">
+        <v>105</v>
+      </c>
+      <c r="F40" s="116" t="s">
+        <v>106</v>
+      </c>
+      <c r="G40" s="102"/>
+    </row>
+    <row r="41" customHeight="1" spans="2:7">
+      <c r="B41" s="177" t="s">
+        <v>107</v>
+      </c>
+      <c r="C41" s="114" t="s">
+        <v>108</v>
+      </c>
+      <c r="D41" s="114" t="s">
+        <v>109</v>
+      </c>
+      <c r="E41" s="114" t="s">
+        <v>69</v>
+      </c>
+      <c r="F41" s="114" t="s">
+        <v>69</v>
+      </c>
+      <c r="G41" s="102"/>
+    </row>
+    <row r="42" customHeight="1" spans="2:7">
+      <c r="B42" s="175" t="s">
+        <v>110</v>
+      </c>
+      <c r="C42" s="24" t="s">
+        <v>111</v>
+      </c>
+      <c r="D42" s="24" t="s">
+        <v>112</v>
+      </c>
+      <c r="E42" s="24" t="s">
+        <v>86</v>
+      </c>
+      <c r="F42" s="106" t="s">
+        <v>113</v>
+      </c>
+      <c r="G42" s="107"/>
+    </row>
+    <row r="43" customHeight="1" spans="2:7">
+      <c r="B43" s="179" t="s">
+        <v>114</v>
+      </c>
+      <c r="C43" s="119" t="s">
+        <v>115</v>
+      </c>
+      <c r="D43" s="119" t="s">
+        <v>116</v>
+      </c>
+      <c r="E43" s="120" t="s">
+        <v>15</v>
+      </c>
+      <c r="F43" s="120" t="s">
+        <v>117</v>
+      </c>
+      <c r="G43" s="121" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="44" customHeight="1" spans="2:7">
+      <c r="B44" s="122"/>
+      <c r="C44" s="123"/>
+      <c r="D44" s="123"/>
+      <c r="E44" s="124" t="s">
+        <v>39</v>
+      </c>
+      <c r="F44" s="125" t="s">
+        <v>69</v>
+      </c>
+      <c r="G44" s="126"/>
+    </row>
+    <row r="45" customHeight="1" spans="2:7">
+      <c r="B45" s="127"/>
+      <c r="C45" s="128"/>
+      <c r="D45" s="128"/>
+      <c r="E45" s="129" t="s">
         <v>43</v>
       </c>
-      <c r="E16" s="11" t="s">
-        <v>44</v>
-      </c>
-      <c r="F16" s="11" t="s">
-        <v>45</v>
-      </c>
-      <c r="G16" s="12"/>
-    </row>
-    <row r="17" customHeight="1" spans="2:7">
-      <c r="B17" s="124" t="s">
-        <v>46</v>
-      </c>
-      <c r="C17" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="D17" s="2" t="s">
+      <c r="F45" s="130" t="s">
+        <v>119</v>
+      </c>
+      <c r="G45" s="126"/>
+    </row>
+    <row r="46" customHeight="1" spans="2:7">
+      <c r="B46" s="180" t="s">
+        <v>120</v>
+      </c>
+      <c r="C46" s="132" t="s">
+        <v>121</v>
+      </c>
+      <c r="D46" s="132" t="s">
+        <v>122</v>
+      </c>
+      <c r="E46" s="132" t="s">
         <v>48</v>
       </c>
-      <c r="E17" s="3" t="s">
+      <c r="F46" s="133" t="s">
+        <v>123</v>
+      </c>
+      <c r="G46" s="134"/>
+    </row>
+    <row r="47" customHeight="1" spans="2:7">
+      <c r="B47" s="181" t="s">
+        <v>124</v>
+      </c>
+      <c r="C47" s="136" t="s">
+        <v>125</v>
+      </c>
+      <c r="D47" s="136" t="s">
+        <v>126</v>
+      </c>
+      <c r="E47" s="120" t="s">
         <v>15</v>
       </c>
-      <c r="F17" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="G17" s="50" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="18" customHeight="1" spans="2:7">
-      <c r="B18" s="5"/>
-      <c r="C18" s="6"/>
-      <c r="D18" s="6"/>
-      <c r="E18" s="7" t="s">
+      <c r="F47" s="120" t="s">
+        <v>127</v>
+      </c>
+      <c r="G47" s="121" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="48" customHeight="1" spans="2:7">
+      <c r="B48" s="122"/>
+      <c r="C48" s="123"/>
+      <c r="D48" s="123"/>
+      <c r="E48" s="124" t="s">
         <v>39</v>
       </c>
-      <c r="F18" s="51" t="s">
-        <v>51</v>
-      </c>
-      <c r="G18" s="52"/>
-    </row>
-    <row r="19" customHeight="1" spans="2:7">
-      <c r="B19" s="53"/>
-      <c r="C19" s="54"/>
-      <c r="D19" s="54"/>
-      <c r="E19" s="55" t="s">
-        <v>52</v>
-      </c>
-      <c r="F19" s="56" t="s">
-        <v>53</v>
-      </c>
-      <c r="G19" s="57"/>
-    </row>
-    <row r="20" customHeight="1" spans="2:7">
-      <c r="B20" s="126" t="s">
-        <v>54</v>
-      </c>
-      <c r="C20" s="59" t="s">
-        <v>55</v>
-      </c>
-      <c r="D20" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="E20" s="3" t="s">
+      <c r="F48" s="125" t="s">
+        <v>69</v>
+      </c>
+      <c r="G48" s="126"/>
+    </row>
+    <row r="49" customHeight="1" spans="2:7">
+      <c r="B49" s="127"/>
+      <c r="C49" s="128"/>
+      <c r="D49" s="128"/>
+      <c r="E49" s="129" t="s">
+        <v>43</v>
+      </c>
+      <c r="F49" s="130" t="s">
+        <v>129</v>
+      </c>
+      <c r="G49" s="126"/>
+    </row>
+    <row r="50" customHeight="1" spans="2:7">
+      <c r="B50" s="180" t="s">
+        <v>130</v>
+      </c>
+      <c r="C50" s="132" t="s">
+        <v>131</v>
+      </c>
+      <c r="D50" s="132" t="s">
+        <v>132</v>
+      </c>
+      <c r="E50" s="132" t="s">
+        <v>48</v>
+      </c>
+      <c r="F50" s="133" t="s">
+        <v>133</v>
+      </c>
+      <c r="G50" s="134"/>
+    </row>
+    <row r="51" customHeight="1" spans="2:7">
+      <c r="B51" s="172" t="s">
+        <v>134</v>
+      </c>
+      <c r="C51" s="73" t="s">
+        <v>135</v>
+      </c>
+      <c r="D51" s="73" t="s">
+        <v>136</v>
+      </c>
+      <c r="E51" s="74" t="s">
         <v>15</v>
       </c>
-      <c r="F20" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="G20" s="50" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="21" customHeight="1" spans="2:7">
-      <c r="B21" s="60"/>
-      <c r="C21" s="61"/>
-      <c r="D21" s="6"/>
-      <c r="E21" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="F21" s="51" t="s">
-        <v>60</v>
-      </c>
-      <c r="G21" s="52"/>
-    </row>
-    <row r="22" customHeight="1" spans="2:7">
-      <c r="B22" s="60"/>
-      <c r="C22" s="61"/>
-      <c r="D22" s="6"/>
-      <c r="E22" s="7" t="s">
-        <v>61</v>
-      </c>
-      <c r="F22" s="51" t="s">
-        <v>62</v>
-      </c>
-      <c r="G22" s="52"/>
-    </row>
-    <row r="23" customHeight="1" spans="2:7">
-      <c r="B23" s="60"/>
-      <c r="C23" s="61"/>
-      <c r="D23" s="6"/>
-      <c r="E23" s="7" t="s">
-        <v>63</v>
-      </c>
-      <c r="F23" s="51" t="s">
-        <v>64</v>
-      </c>
-      <c r="G23" s="52"/>
-    </row>
-    <row r="24" customHeight="1" spans="2:7">
-      <c r="B24" s="60"/>
-      <c r="C24" s="61"/>
-      <c r="D24" s="6"/>
-      <c r="E24" s="7" t="s">
-        <v>65</v>
-      </c>
-      <c r="F24" s="51" t="s">
-        <v>66</v>
-      </c>
-      <c r="G24" s="52"/>
-    </row>
-    <row r="25" customHeight="1" spans="2:7">
-      <c r="B25" s="60"/>
-      <c r="C25" s="61"/>
-      <c r="D25" s="6"/>
-      <c r="E25" s="7" t="s">
-        <v>67</v>
-      </c>
-      <c r="F25" s="51" t="s">
-        <v>68</v>
-      </c>
-      <c r="G25" s="52"/>
-    </row>
-    <row r="26" customHeight="1" spans="2:7">
-      <c r="B26" s="60"/>
-      <c r="C26" s="61"/>
-      <c r="D26" s="6"/>
-      <c r="E26" s="7" t="s">
+      <c r="F51" s="74" t="s">
+        <v>137</v>
+      </c>
+      <c r="G51" s="71" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="52" customHeight="1" spans="2:7">
+      <c r="B52" s="76"/>
+      <c r="C52" s="77"/>
+      <c r="D52" s="77"/>
+      <c r="E52" s="137" t="s">
+        <v>139</v>
+      </c>
+      <c r="F52" s="137" t="s">
+        <v>140</v>
+      </c>
+      <c r="G52" s="75"/>
+    </row>
+    <row r="53" customHeight="1" spans="2:7">
+      <c r="B53" s="76"/>
+      <c r="C53" s="77"/>
+      <c r="D53" s="77"/>
+      <c r="E53" s="138" t="s">
+        <v>39</v>
+      </c>
+      <c r="F53" s="137" t="s">
         <v>69</v>
       </c>
-      <c r="F26" s="51" t="s">
-        <v>70</v>
-      </c>
-      <c r="G26" s="52"/>
-    </row>
-    <row r="27" customHeight="1" spans="2:7">
-      <c r="B27" s="60"/>
-      <c r="C27" s="61"/>
-      <c r="D27" s="6"/>
-      <c r="E27" s="7" t="s">
-        <v>71</v>
-      </c>
-      <c r="F27" s="51" t="s">
-        <v>72</v>
-      </c>
-      <c r="G27" s="52"/>
-    </row>
-    <row r="28" customHeight="1" spans="2:7">
-      <c r="B28" s="60"/>
-      <c r="C28" s="61"/>
-      <c r="D28" s="6"/>
-      <c r="E28" s="7" t="s">
-        <v>73</v>
-      </c>
-      <c r="F28" s="51" t="s">
-        <v>74</v>
-      </c>
-      <c r="G28" s="52"/>
-    </row>
-    <row r="29" customHeight="1" spans="2:7">
-      <c r="B29" s="62"/>
-      <c r="C29" s="63"/>
-      <c r="D29" s="64"/>
-      <c r="E29" s="65" t="s">
-        <v>75</v>
-      </c>
-      <c r="F29" s="66" t="s">
-        <v>76</v>
-      </c>
-      <c r="G29" s="52"/>
-    </row>
-    <row r="30" customHeight="1" spans="2:7">
-      <c r="B30" s="127" t="s">
-        <v>77</v>
-      </c>
-      <c r="C30" s="64" t="s">
-        <v>78</v>
-      </c>
-      <c r="D30" s="64" t="s">
-        <v>79</v>
-      </c>
-      <c r="E30" s="64" t="s">
-        <v>66</v>
-      </c>
-      <c r="F30" s="64" t="s">
-        <v>66</v>
-      </c>
-      <c r="G30" s="52"/>
-    </row>
-    <row r="31" customHeight="1" spans="2:7">
-      <c r="B31" s="125" t="s">
-        <v>80</v>
-      </c>
-      <c r="C31" s="11" t="s">
-        <v>81</v>
-      </c>
-      <c r="D31" s="11" t="s">
-        <v>82</v>
-      </c>
-      <c r="E31" s="11" t="s">
-        <v>83</v>
-      </c>
-      <c r="F31" s="56" t="s">
-        <v>84</v>
-      </c>
-      <c r="G31" s="57"/>
-    </row>
-    <row r="32" customHeight="1" spans="2:7">
-      <c r="B32" s="128" t="s">
-        <v>85</v>
-      </c>
-      <c r="C32" s="61" t="s">
-        <v>86</v>
-      </c>
-      <c r="D32" s="6" t="s">
-        <v>87</v>
-      </c>
-      <c r="E32" s="3" t="s">
+      <c r="G53" s="75"/>
+    </row>
+    <row r="54" customHeight="1" spans="2:7">
+      <c r="B54" s="139"/>
+      <c r="C54" s="140"/>
+      <c r="D54" s="140"/>
+      <c r="E54" s="141" t="s">
+        <v>43</v>
+      </c>
+      <c r="F54" s="142" t="s">
+        <v>141</v>
+      </c>
+      <c r="G54" s="75"/>
+    </row>
+    <row r="55" customHeight="1" spans="2:7">
+      <c r="B55" s="182" t="s">
+        <v>142</v>
+      </c>
+      <c r="C55" s="144" t="s">
+        <v>143</v>
+      </c>
+      <c r="D55" s="145" t="s">
+        <v>144</v>
+      </c>
+      <c r="E55" s="145" t="s">
+        <v>48</v>
+      </c>
+      <c r="F55" s="145" t="s">
+        <v>145</v>
+      </c>
+      <c r="G55" s="75"/>
+    </row>
+    <row r="56" customHeight="1" spans="2:7">
+      <c r="B56" s="183" t="s">
+        <v>146</v>
+      </c>
+      <c r="C56" s="147" t="s">
+        <v>147</v>
+      </c>
+      <c r="D56" s="148" t="s">
+        <v>148</v>
+      </c>
+      <c r="E56" s="148" t="s">
+        <v>69</v>
+      </c>
+      <c r="F56" s="148" t="s">
+        <v>69</v>
+      </c>
+      <c r="G56" s="149"/>
+    </row>
+    <row r="57" customHeight="1" spans="2:7">
+      <c r="B57" s="184" t="s">
+        <v>149</v>
+      </c>
+      <c r="C57" s="151" t="s">
+        <v>150</v>
+      </c>
+      <c r="D57" s="119" t="s">
+        <v>151</v>
+      </c>
+      <c r="E57" s="120" t="s">
         <v>15</v>
       </c>
-      <c r="F32" s="3" t="s">
-        <v>88</v>
-      </c>
-      <c r="G32" s="50" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="33" customHeight="1" spans="2:7">
-      <c r="B33" s="5"/>
-      <c r="C33" s="6"/>
-      <c r="D33" s="6"/>
-      <c r="E33" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="F33" s="51" t="s">
-        <v>66</v>
-      </c>
-      <c r="G33" s="52"/>
-    </row>
-    <row r="34" customHeight="1" spans="2:7">
-      <c r="B34" s="5"/>
-      <c r="C34" s="6"/>
-      <c r="D34" s="6"/>
-      <c r="E34" s="7" t="s">
-        <v>90</v>
-      </c>
-      <c r="F34" s="51" t="s">
-        <v>91</v>
-      </c>
-      <c r="G34" s="52"/>
-    </row>
-    <row r="35" customHeight="1" spans="2:7">
-      <c r="B35" s="5"/>
-      <c r="C35" s="6"/>
-      <c r="D35" s="6"/>
-      <c r="E35" s="7" t="s">
-        <v>92</v>
-      </c>
-      <c r="F35" s="51" t="s">
-        <v>93</v>
-      </c>
-      <c r="G35" s="52"/>
-    </row>
-    <row r="36" customHeight="1" spans="2:7">
-      <c r="B36" s="5"/>
-      <c r="C36" s="6"/>
-      <c r="D36" s="6"/>
-      <c r="E36" s="7" t="s">
-        <v>94</v>
-      </c>
-      <c r="F36" s="51" t="s">
-        <v>95</v>
-      </c>
-      <c r="G36" s="52"/>
-    </row>
-    <row r="37" customHeight="1" spans="2:7">
-      <c r="B37" s="5"/>
-      <c r="C37" s="6"/>
-      <c r="D37" s="6"/>
-      <c r="E37" s="7" t="s">
-        <v>96</v>
-      </c>
-      <c r="F37" s="51" t="s">
-        <v>97</v>
-      </c>
-      <c r="G37" s="52"/>
-    </row>
-    <row r="38" customHeight="1" spans="2:7">
-      <c r="B38" s="5"/>
-      <c r="C38" s="6"/>
-      <c r="D38" s="6"/>
-      <c r="E38" s="51" t="s">
-        <v>98</v>
-      </c>
-      <c r="F38" s="51" t="s">
-        <v>99</v>
-      </c>
-      <c r="G38" s="52"/>
-    </row>
-    <row r="39" customHeight="1" spans="2:7">
-      <c r="B39" s="5"/>
-      <c r="C39" s="6"/>
-      <c r="D39" s="6"/>
-      <c r="E39" s="51" t="s">
-        <v>100</v>
-      </c>
-      <c r="F39" s="51" t="s">
-        <v>101</v>
-      </c>
-      <c r="G39" s="52"/>
-    </row>
-    <row r="40" customHeight="1" spans="2:7">
-      <c r="B40" s="67"/>
-      <c r="C40" s="64"/>
-      <c r="D40" s="64"/>
-      <c r="E40" s="65" t="s">
-        <v>102</v>
-      </c>
-      <c r="F40" s="66" t="s">
-        <v>103</v>
-      </c>
-      <c r="G40" s="52"/>
-    </row>
-    <row r="41" customHeight="1" spans="2:7">
-      <c r="B41" s="127" t="s">
-        <v>104</v>
-      </c>
-      <c r="C41" s="64" t="s">
-        <v>105</v>
-      </c>
-      <c r="D41" s="64" t="s">
-        <v>106</v>
-      </c>
-      <c r="E41" s="64" t="s">
-        <v>66</v>
-      </c>
-      <c r="F41" s="64" t="s">
-        <v>66</v>
-      </c>
-      <c r="G41" s="52"/>
-    </row>
-    <row r="42" customHeight="1" spans="2:7">
-      <c r="B42" s="125" t="s">
-        <v>107</v>
-      </c>
-      <c r="C42" s="11" t="s">
-        <v>108</v>
-      </c>
-      <c r="D42" s="11" t="s">
-        <v>109</v>
-      </c>
-      <c r="E42" s="11" t="s">
-        <v>83</v>
-      </c>
-      <c r="F42" s="56" t="s">
-        <v>110</v>
-      </c>
-      <c r="G42" s="57"/>
-    </row>
-    <row r="43" customHeight="1" spans="2:7">
-      <c r="B43" s="129" t="s">
-        <v>111</v>
-      </c>
-      <c r="C43" s="69" t="s">
-        <v>112</v>
-      </c>
-      <c r="D43" s="69" t="s">
-        <v>113</v>
-      </c>
-      <c r="E43" s="70" t="s">
+      <c r="F57" s="120" t="s">
+        <v>152</v>
+      </c>
+      <c r="G57" s="121" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="58" customHeight="1" spans="2:7">
+      <c r="B58" s="122"/>
+      <c r="C58" s="123"/>
+      <c r="D58" s="123"/>
+      <c r="E58" s="124" t="s">
+        <v>154</v>
+      </c>
+      <c r="F58" s="125" t="s">
+        <v>155</v>
+      </c>
+      <c r="G58" s="126"/>
+    </row>
+    <row r="59" customHeight="1" spans="2:7">
+      <c r="B59" s="127"/>
+      <c r="C59" s="128"/>
+      <c r="D59" s="128"/>
+      <c r="E59" s="129" t="s">
+        <v>156</v>
+      </c>
+      <c r="F59" s="130" t="s">
+        <v>157</v>
+      </c>
+      <c r="G59" s="126"/>
+    </row>
+    <row r="60" customHeight="1" spans="2:7">
+      <c r="B60" s="185" t="s">
+        <v>158</v>
+      </c>
+      <c r="C60" s="153" t="s">
+        <v>159</v>
+      </c>
+      <c r="D60" s="153" t="s">
+        <v>160</v>
+      </c>
+      <c r="E60" s="153" t="s">
+        <v>69</v>
+      </c>
+      <c r="F60" s="153" t="s">
+        <v>69</v>
+      </c>
+      <c r="G60" s="126"/>
+    </row>
+    <row r="61" customHeight="1" spans="2:7">
+      <c r="B61" s="180" t="s">
+        <v>161</v>
+      </c>
+      <c r="C61" s="132" t="s">
+        <v>162</v>
+      </c>
+      <c r="D61" s="132" t="s">
+        <v>163</v>
+      </c>
+      <c r="E61" s="132" t="s">
+        <v>69</v>
+      </c>
+      <c r="F61" s="132" t="s">
+        <v>69</v>
+      </c>
+      <c r="G61" s="134"/>
+    </row>
+    <row r="62" customHeight="1" spans="2:7">
+      <c r="B62" s="184" t="s">
+        <v>164</v>
+      </c>
+      <c r="C62" s="151" t="s">
+        <v>165</v>
+      </c>
+      <c r="D62" s="151" t="s">
+        <v>166</v>
+      </c>
+      <c r="E62" s="120" t="s">
         <v>15</v>
       </c>
-      <c r="F43" s="70" t="s">
-        <v>114</v>
-      </c>
-      <c r="G43" s="71" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="44" customHeight="1" spans="2:7">
-      <c r="B44" s="72"/>
-      <c r="C44" s="73"/>
-      <c r="D44" s="73"/>
-      <c r="E44" s="74" t="s">
-        <v>59</v>
-      </c>
-      <c r="F44" s="75" t="s">
-        <v>66</v>
-      </c>
-      <c r="G44" s="76"/>
-    </row>
-    <row r="45" customHeight="1" spans="2:7">
-      <c r="B45" s="77"/>
-      <c r="C45" s="78"/>
-      <c r="D45" s="78"/>
-      <c r="E45" s="79" t="s">
+      <c r="F62" s="120" t="s">
+        <v>167</v>
+      </c>
+      <c r="G62" s="121" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="63" customHeight="1" spans="2:7">
+      <c r="B63" s="122"/>
+      <c r="C63" s="123"/>
+      <c r="D63" s="123"/>
+      <c r="E63" s="124" t="s">
         <v>39</v>
       </c>
-      <c r="F45" s="80" t="s">
-        <v>116</v>
-      </c>
-      <c r="G45" s="76"/>
-    </row>
-    <row r="46" customHeight="1" spans="2:7">
-      <c r="B46" s="130" t="s">
-        <v>117</v>
-      </c>
-      <c r="C46" s="82" t="s">
-        <v>118</v>
-      </c>
-      <c r="D46" s="82" t="s">
-        <v>119</v>
-      </c>
-      <c r="E46" s="82" t="s">
-        <v>44</v>
-      </c>
-      <c r="F46" s="83" t="s">
-        <v>120</v>
-      </c>
-      <c r="G46" s="84"/>
-    </row>
-    <row r="47" customHeight="1" spans="2:7">
-      <c r="B47" s="131" t="s">
-        <v>121</v>
-      </c>
-      <c r="C47" s="86" t="s">
-        <v>122</v>
-      </c>
-      <c r="D47" s="86" t="s">
-        <v>123</v>
-      </c>
-      <c r="E47" s="70" t="s">
+      <c r="F63" s="125" t="s">
+        <v>69</v>
+      </c>
+      <c r="G63" s="126"/>
+    </row>
+    <row r="64" customHeight="1" spans="2:7">
+      <c r="B64" s="127"/>
+      <c r="C64" s="128"/>
+      <c r="D64" s="128"/>
+      <c r="E64" s="129" t="s">
+        <v>43</v>
+      </c>
+      <c r="F64" s="130" t="s">
+        <v>169</v>
+      </c>
+      <c r="G64" s="126"/>
+    </row>
+    <row r="65" customHeight="1" spans="2:7">
+      <c r="B65" s="186" t="s">
+        <v>170</v>
+      </c>
+      <c r="C65" s="155" t="s">
+        <v>171</v>
+      </c>
+      <c r="D65" s="156" t="s">
+        <v>172</v>
+      </c>
+      <c r="E65" s="157" t="s">
+        <v>173</v>
+      </c>
+      <c r="F65" s="158" t="s">
+        <v>174</v>
+      </c>
+      <c r="G65" s="126"/>
+    </row>
+    <row r="66" customHeight="1" spans="2:7">
+      <c r="B66" s="159"/>
+      <c r="C66" s="160"/>
+      <c r="D66" s="161"/>
+      <c r="E66" s="162" t="s">
+        <v>48</v>
+      </c>
+      <c r="F66" s="162" t="s">
+        <v>175</v>
+      </c>
+      <c r="G66" s="134"/>
+    </row>
+    <row r="67" customHeight="1" spans="2:7">
+      <c r="B67" s="179" t="s">
+        <v>176</v>
+      </c>
+      <c r="C67" s="119" t="s">
+        <v>177</v>
+      </c>
+      <c r="D67" s="151" t="s">
+        <v>178</v>
+      </c>
+      <c r="E67" s="120" t="s">
         <v>15</v>
       </c>
-      <c r="F47" s="70" t="s">
-        <v>124</v>
-      </c>
-      <c r="G47" s="71" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="48" customHeight="1" spans="2:7">
-      <c r="B48" s="72"/>
-      <c r="C48" s="73"/>
-      <c r="D48" s="73"/>
-      <c r="E48" s="74" t="s">
-        <v>59</v>
-      </c>
-      <c r="F48" s="75" t="s">
-        <v>66</v>
-      </c>
-      <c r="G48" s="76"/>
-    </row>
-    <row r="49" customHeight="1" spans="2:7">
-      <c r="B49" s="77"/>
-      <c r="C49" s="78"/>
-      <c r="D49" s="78"/>
-      <c r="E49" s="79" t="s">
+      <c r="F67" s="120" t="s">
+        <v>179</v>
+      </c>
+      <c r="G67" s="121" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="68" customHeight="1" spans="2:7">
+      <c r="B68" s="122"/>
+      <c r="C68" s="123"/>
+      <c r="D68" s="136"/>
+      <c r="E68" s="124" t="s">
         <v>39</v>
       </c>
-      <c r="F49" s="80" t="s">
-        <v>126</v>
-      </c>
-      <c r="G49" s="76"/>
-    </row>
-    <row r="50" customHeight="1" spans="2:7">
-      <c r="B50" s="130" t="s">
-        <v>127</v>
-      </c>
-      <c r="C50" s="82" t="s">
-        <v>128</v>
-      </c>
-      <c r="D50" s="82" t="s">
-        <v>129</v>
-      </c>
-      <c r="E50" s="82" t="s">
-        <v>44</v>
-      </c>
-      <c r="F50" s="83" t="s">
-        <v>130</v>
-      </c>
-      <c r="G50" s="84"/>
-    </row>
-    <row r="51" customHeight="1" spans="2:7">
-      <c r="B51" s="122" t="s">
-        <v>131</v>
-      </c>
-      <c r="C51" s="25" t="s">
-        <v>132</v>
-      </c>
-      <c r="D51" s="25" t="s">
-        <v>133</v>
-      </c>
-      <c r="E51" s="26" t="s">
-        <v>15</v>
-      </c>
-      <c r="F51" s="26" t="s">
-        <v>134</v>
-      </c>
-      <c r="G51" s="87" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="52" customHeight="1" spans="2:7">
-      <c r="B52" s="27"/>
-      <c r="C52" s="28"/>
-      <c r="D52" s="28"/>
-      <c r="E52" s="29" t="s">
-        <v>136</v>
-      </c>
-      <c r="F52" s="29" t="s">
-        <v>137</v>
-      </c>
-      <c r="G52" s="88"/>
-    </row>
-    <row r="53" customHeight="1" spans="2:7">
-      <c r="B53" s="27"/>
-      <c r="C53" s="28"/>
-      <c r="D53" s="28"/>
-      <c r="E53" s="30" t="s">
-        <v>59</v>
-      </c>
-      <c r="F53" s="29" t="s">
-        <v>66</v>
-      </c>
-      <c r="G53" s="88"/>
-    </row>
-    <row r="54" customHeight="1" spans="2:7">
-      <c r="B54" s="89"/>
-      <c r="C54" s="90"/>
-      <c r="D54" s="90"/>
-      <c r="E54" s="91" t="s">
-        <v>39</v>
-      </c>
-      <c r="F54" s="92" t="s">
-        <v>138</v>
-      </c>
-      <c r="G54" s="88"/>
-    </row>
-    <row r="55" customHeight="1" spans="2:7">
-      <c r="B55" s="132" t="s">
-        <v>139</v>
-      </c>
-      <c r="C55" s="94" t="s">
-        <v>140</v>
-      </c>
-      <c r="D55" s="95" t="s">
-        <v>141</v>
-      </c>
-      <c r="E55" s="95" t="s">
-        <v>44</v>
-      </c>
-      <c r="F55" s="95" t="s">
-        <v>142</v>
-      </c>
-      <c r="G55" s="88"/>
-    </row>
-    <row r="56" customHeight="1" spans="2:7">
-      <c r="B56" s="133" t="s">
-        <v>143</v>
-      </c>
-      <c r="C56" s="97" t="s">
-        <v>144</v>
-      </c>
-      <c r="D56" s="98" t="s">
-        <v>145</v>
-      </c>
-      <c r="E56" s="98" t="s">
-        <v>66</v>
-      </c>
-      <c r="F56" s="98" t="s">
-        <v>66</v>
-      </c>
-      <c r="G56" s="99"/>
-    </row>
-    <row r="57" customHeight="1" spans="2:7">
-      <c r="B57" s="134" t="s">
-        <v>146</v>
-      </c>
-      <c r="C57" s="101" t="s">
-        <v>147</v>
-      </c>
-      <c r="D57" s="69" t="s">
-        <v>148</v>
-      </c>
-      <c r="E57" s="70" t="s">
-        <v>15</v>
-      </c>
-      <c r="F57" s="70" t="s">
-        <v>149</v>
-      </c>
-      <c r="G57" s="71" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="58" customHeight="1" spans="2:7">
-      <c r="B58" s="72"/>
-      <c r="C58" s="73"/>
-      <c r="D58" s="73"/>
-      <c r="E58" s="74" t="s">
-        <v>151</v>
-      </c>
-      <c r="F58" s="75" t="s">
-        <v>152</v>
-      </c>
-      <c r="G58" s="76"/>
-    </row>
-    <row r="59" customHeight="1" spans="2:7">
-      <c r="B59" s="77"/>
-      <c r="C59" s="78"/>
-      <c r="D59" s="78"/>
-      <c r="E59" s="79" t="s">
-        <v>153</v>
-      </c>
-      <c r="F59" s="80" t="s">
-        <v>154</v>
-      </c>
-      <c r="G59" s="76"/>
-    </row>
-    <row r="60" customHeight="1" spans="2:7">
-      <c r="B60" s="135" t="s">
-        <v>155</v>
-      </c>
-      <c r="C60" s="103" t="s">
-        <v>156</v>
-      </c>
-      <c r="D60" s="103" t="s">
-        <v>157</v>
-      </c>
-      <c r="E60" s="103" t="s">
-        <v>66</v>
-      </c>
-      <c r="F60" s="103" t="s">
-        <v>66</v>
-      </c>
-      <c r="G60" s="76"/>
-    </row>
-    <row r="61" customHeight="1" spans="2:7">
-      <c r="B61" s="130" t="s">
-        <v>158</v>
-      </c>
-      <c r="C61" s="82" t="s">
-        <v>159</v>
-      </c>
-      <c r="D61" s="82" t="s">
-        <v>160</v>
-      </c>
-      <c r="E61" s="82" t="s">
-        <v>66</v>
-      </c>
-      <c r="F61" s="82" t="s">
-        <v>66</v>
-      </c>
-      <c r="G61" s="84"/>
-    </row>
-    <row r="62" customHeight="1" spans="2:7">
-      <c r="B62" s="134" t="s">
-        <v>161</v>
-      </c>
-      <c r="C62" s="101" t="s">
-        <v>162</v>
-      </c>
-      <c r="D62" s="101" t="s">
-        <v>163</v>
-      </c>
-      <c r="E62" s="70" t="s">
-        <v>15</v>
-      </c>
-      <c r="F62" s="70" t="s">
-        <v>164</v>
-      </c>
-      <c r="G62" s="71" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="63" customHeight="1" spans="2:7">
-      <c r="B63" s="72"/>
-      <c r="C63" s="73"/>
-      <c r="D63" s="73"/>
-      <c r="E63" s="74" t="s">
-        <v>59</v>
-      </c>
-      <c r="F63" s="75" t="s">
-        <v>66</v>
-      </c>
-      <c r="G63" s="76"/>
-    </row>
-    <row r="64" customHeight="1" spans="2:7">
-      <c r="B64" s="77"/>
-      <c r="C64" s="78"/>
-      <c r="D64" s="78"/>
-      <c r="E64" s="79" t="s">
-        <v>39</v>
-      </c>
-      <c r="F64" s="80" t="s">
-        <v>166</v>
-      </c>
-      <c r="G64" s="76"/>
-    </row>
-    <row r="65" customHeight="1" spans="2:7">
-      <c r="B65" s="136" t="s">
-        <v>167</v>
-      </c>
-      <c r="C65" s="105" t="s">
-        <v>168</v>
-      </c>
-      <c r="D65" s="106" t="s">
-        <v>169</v>
-      </c>
-      <c r="E65" s="107" t="s">
-        <v>170</v>
-      </c>
-      <c r="F65" s="108" t="s">
-        <v>171</v>
-      </c>
-      <c r="G65" s="76"/>
-    </row>
-    <row r="66" customHeight="1" spans="2:7">
-      <c r="B66" s="109"/>
-      <c r="C66" s="110"/>
-      <c r="D66" s="111"/>
-      <c r="E66" s="112" t="s">
-        <v>44</v>
-      </c>
-      <c r="F66" s="112" t="s">
-        <v>172</v>
-      </c>
-      <c r="G66" s="84"/>
-    </row>
-    <row r="67" customHeight="1" spans="2:7">
-      <c r="B67" s="129" t="s">
-        <v>173</v>
-      </c>
-      <c r="C67" s="69" t="s">
-        <v>174</v>
-      </c>
-      <c r="D67" s="101" t="s">
-        <v>175</v>
-      </c>
-      <c r="E67" s="70" t="s">
-        <v>15</v>
-      </c>
-      <c r="F67" s="70" t="s">
-        <v>176</v>
-      </c>
-      <c r="G67" s="71" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="68" customHeight="1" spans="2:7">
-      <c r="B68" s="72"/>
-      <c r="C68" s="73"/>
-      <c r="D68" s="86"/>
-      <c r="E68" s="74" t="s">
-        <v>59</v>
-      </c>
-      <c r="F68" s="75" t="s">
-        <v>66</v>
-      </c>
-      <c r="G68" s="76"/>
+      <c r="F68" s="125" t="s">
+        <v>69</v>
+      </c>
+      <c r="G68" s="126"/>
     </row>
     <row r="69" customHeight="1" spans="2:7">
-      <c r="B69" s="77"/>
-      <c r="C69" s="78"/>
-      <c r="D69" s="113"/>
-      <c r="E69" s="79" t="s">
-        <v>39</v>
-      </c>
-      <c r="F69" s="80" t="s">
-        <v>178</v>
-      </c>
-      <c r="G69" s="76"/>
+      <c r="B69" s="127"/>
+      <c r="C69" s="128"/>
+      <c r="D69" s="163"/>
+      <c r="E69" s="129" t="s">
+        <v>43</v>
+      </c>
+      <c r="F69" s="130" t="s">
+        <v>181</v>
+      </c>
+      <c r="G69" s="126"/>
     </row>
     <row r="70" customHeight="1" spans="2:7">
-      <c r="B70" s="130" t="s">
-        <v>179</v>
-      </c>
-      <c r="C70" s="82" t="s">
-        <v>180</v>
-      </c>
-      <c r="D70" s="82" t="s">
-        <v>181</v>
-      </c>
-      <c r="E70" s="83" t="s">
-        <v>44</v>
-      </c>
-      <c r="F70" s="83" t="s">
+      <c r="B70" s="180" t="s">
         <v>182</v>
       </c>
-      <c r="G70" s="84"/>
+      <c r="C70" s="132" t="s">
+        <v>183</v>
+      </c>
+      <c r="D70" s="132" t="s">
+        <v>184</v>
+      </c>
+      <c r="E70" s="133" t="s">
+        <v>48</v>
+      </c>
+      <c r="F70" s="133" t="s">
+        <v>185</v>
+      </c>
+      <c r="G70" s="134"/>
     </row>
     <row r="71" customHeight="1" spans="2:7">
-      <c r="B71" s="77"/>
-      <c r="C71" s="78" t="s">
-        <v>183</v>
-      </c>
-      <c r="D71" s="78"/>
-      <c r="E71" s="78"/>
-      <c r="F71" s="78"/>
-      <c r="G71" s="114"/>
+      <c r="B71" s="127"/>
+      <c r="C71" s="128" t="s">
+        <v>186</v>
+      </c>
+      <c r="D71" s="128"/>
+      <c r="E71" s="128"/>
+      <c r="F71" s="128"/>
+      <c r="G71" s="164"/>
     </row>
     <row r="72" customHeight="1" spans="2:7">
-      <c r="B72" s="104"/>
-      <c r="C72" s="105"/>
-      <c r="D72" s="105"/>
-      <c r="E72" s="105"/>
-      <c r="F72" s="105"/>
-      <c r="G72" s="115"/>
+      <c r="B72" s="154"/>
+      <c r="C72" s="155"/>
+      <c r="D72" s="155"/>
+      <c r="E72" s="155"/>
+      <c r="F72" s="155"/>
+      <c r="G72" s="165"/>
     </row>
     <row r="73" customHeight="1" spans="2:7">
-      <c r="B73" s="137" t="s">
-        <v>184</v>
-      </c>
-      <c r="C73" s="117" t="s">
-        <v>185</v>
-      </c>
-      <c r="D73" s="117" t="s">
-        <v>186</v>
-      </c>
-      <c r="E73" s="117"/>
-      <c r="F73" s="117"/>
-      <c r="G73" s="118"/>
+      <c r="B73" s="187" t="s">
+        <v>187</v>
+      </c>
+      <c r="C73" s="167" t="s">
+        <v>188</v>
+      </c>
+      <c r="D73" s="167" t="s">
+        <v>189</v>
+      </c>
+      <c r="E73" s="167"/>
+      <c r="F73" s="167"/>
+      <c r="G73" s="168"/>
     </row>
     <row r="74" customHeight="1" spans="2:7">
-      <c r="B74" s="102"/>
-      <c r="C74" s="103"/>
-      <c r="D74" s="103"/>
-      <c r="E74" s="103"/>
-      <c r="F74" s="103"/>
-      <c r="G74" s="119"/>
+      <c r="B74" s="152"/>
+      <c r="C74" s="153"/>
+      <c r="D74" s="153"/>
+      <c r="E74" s="153"/>
+      <c r="F74" s="153"/>
+      <c r="G74" s="169"/>
     </row>
     <row r="75" customHeight="1" spans="2:7">
-      <c r="B75" s="102"/>
-      <c r="C75" s="103"/>
-      <c r="D75" s="103"/>
-      <c r="E75" s="103"/>
-      <c r="F75" s="103"/>
-      <c r="G75" s="119"/>
+      <c r="B75" s="152"/>
+      <c r="C75" s="153"/>
+      <c r="D75" s="153"/>
+      <c r="E75" s="153"/>
+      <c r="F75" s="153"/>
+      <c r="G75" s="169"/>
     </row>
     <row r="76" customHeight="1" spans="2:7">
-      <c r="B76" s="102"/>
-      <c r="C76" s="103"/>
-      <c r="D76" s="103"/>
-      <c r="E76" s="103"/>
-      <c r="F76" s="103"/>
-      <c r="G76" s="119"/>
+      <c r="B76" s="152"/>
+      <c r="C76" s="153"/>
+      <c r="D76" s="153"/>
+      <c r="E76" s="153"/>
+      <c r="F76" s="153"/>
+      <c r="G76" s="169"/>
     </row>
     <row r="77" customHeight="1" spans="2:7">
-      <c r="B77" s="102"/>
-      <c r="C77" s="103"/>
-      <c r="D77" s="103"/>
-      <c r="E77" s="103"/>
-      <c r="F77" s="103"/>
-      <c r="G77" s="119"/>
+      <c r="B77" s="152"/>
+      <c r="C77" s="153"/>
+      <c r="D77" s="153"/>
+      <c r="E77" s="153"/>
+      <c r="F77" s="153"/>
+      <c r="G77" s="169"/>
     </row>
     <row r="78" customHeight="1" spans="2:7">
-      <c r="B78" s="102"/>
-      <c r="C78" s="103"/>
-      <c r="D78" s="103"/>
-      <c r="E78" s="103"/>
-      <c r="F78" s="103"/>
-      <c r="G78" s="119"/>
+      <c r="B78" s="152"/>
+      <c r="C78" s="153"/>
+      <c r="D78" s="153"/>
+      <c r="E78" s="153"/>
+      <c r="F78" s="153"/>
+      <c r="G78" s="169"/>
     </row>
     <row r="79" customHeight="1" spans="2:7">
-      <c r="B79" s="102"/>
-      <c r="C79" s="103"/>
-      <c r="D79" s="103"/>
-      <c r="E79" s="103"/>
-      <c r="F79" s="103"/>
-      <c r="G79" s="119"/>
+      <c r="B79" s="152"/>
+      <c r="C79" s="153"/>
+      <c r="D79" s="153"/>
+      <c r="E79" s="153"/>
+      <c r="F79" s="153"/>
+      <c r="G79" s="169"/>
     </row>
     <row r="80" customHeight="1" spans="2:7">
-      <c r="B80" s="102"/>
-      <c r="C80" s="103"/>
-      <c r="D80" s="103"/>
-      <c r="E80" s="103"/>
-      <c r="F80" s="103"/>
-      <c r="G80" s="119"/>
+      <c r="B80" s="152"/>
+      <c r="C80" s="153"/>
+      <c r="D80" s="153"/>
+      <c r="E80" s="153"/>
+      <c r="F80" s="153"/>
+      <c r="G80" s="169"/>
     </row>
     <row r="81" customHeight="1" spans="2:7">
-      <c r="B81" s="102"/>
-      <c r="C81" s="103"/>
-      <c r="D81" s="103"/>
-      <c r="E81" s="103"/>
-      <c r="F81" s="103"/>
-      <c r="G81" s="119"/>
+      <c r="B81" s="152"/>
+      <c r="C81" s="153"/>
+      <c r="D81" s="153"/>
+      <c r="E81" s="153"/>
+      <c r="F81" s="153"/>
+      <c r="G81" s="169"/>
     </row>
     <row r="82" customHeight="1" spans="2:7">
-      <c r="B82" s="81"/>
-      <c r="C82" s="82"/>
-      <c r="D82" s="82"/>
-      <c r="E82" s="82"/>
-      <c r="F82" s="82"/>
-      <c r="G82" s="120"/>
+      <c r="B82" s="131"/>
+      <c r="C82" s="132"/>
+      <c r="D82" s="132"/>
+      <c r="E82" s="132"/>
+      <c r="F82" s="132"/>
+      <c r="G82" s="170"/>
     </row>
   </sheetData>
   <mergeCells count="13">
-    <mergeCell ref="G3:G4"/>
-    <mergeCell ref="G5:G8"/>
-    <mergeCell ref="G9:G12"/>
-    <mergeCell ref="G13:G16"/>
+    <mergeCell ref="G3:G5"/>
+    <mergeCell ref="G6:G7"/>
+    <mergeCell ref="G8:G11"/>
+    <mergeCell ref="G12:G16"/>
     <mergeCell ref="G17:G19"/>
     <mergeCell ref="G20:G31"/>
     <mergeCell ref="G32:G42"/>
@@ -3743,6 +4359,7 @@
     <mergeCell ref="G67:G70"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="9" scale="41" orientation="portrait"/>
   <headerFooter/>
 </worksheet>
 </file>
@@ -3750,10 +4367,1022 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="B3:G49"/>
+  <dimension ref="C3:AM42"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="145" zoomScaleNormal="145" topLeftCell="A23" workbookViewId="0">
-      <selection activeCell="E39" sqref="E39"/>
+    <sheetView showGridLines="0" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="X12" sqref="X12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="3.125" defaultRowHeight="13.5"/>
+  <cols>
+    <col min="1" max="16379" width="3.125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="3:15">
+      <c r="C3" s="29" t="s">
+        <v>190</v>
+      </c>
+      <c r="I3" s="29" t="s">
+        <v>191</v>
+      </c>
+      <c r="O3" s="29" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="5" ht="14.25" spans="3:15">
+      <c r="C5" t="s">
+        <v>193</v>
+      </c>
+      <c r="I5" t="s">
+        <v>194</v>
+      </c>
+      <c r="O5" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="6" spans="9:39">
+      <c r="I6" t="s">
+        <v>196</v>
+      </c>
+      <c r="O6" t="s">
+        <v>197</v>
+      </c>
+      <c r="AB6" s="54" t="s">
+        <v>198</v>
+      </c>
+      <c r="AC6" s="55"/>
+      <c r="AD6" s="55"/>
+      <c r="AE6" s="55"/>
+      <c r="AF6" s="55"/>
+      <c r="AG6" s="55"/>
+      <c r="AH6" s="55"/>
+      <c r="AI6" s="55"/>
+      <c r="AJ6" s="55"/>
+      <c r="AK6" s="55"/>
+      <c r="AL6" s="55"/>
+      <c r="AM6" s="62"/>
+    </row>
+    <row r="7" spans="28:39">
+      <c r="AB7" s="56"/>
+      <c r="AM7" s="63"/>
+    </row>
+    <row r="8" spans="28:39">
+      <c r="AB8" s="56"/>
+      <c r="AC8" s="29" t="s">
+        <v>7</v>
+      </c>
+      <c r="AM8" s="63"/>
+    </row>
+    <row r="9" spans="28:39">
+      <c r="AB9" s="56"/>
+      <c r="AC9" t="s">
+        <v>190</v>
+      </c>
+      <c r="AI9" t="s">
+        <v>199</v>
+      </c>
+      <c r="AM9" s="63"/>
+    </row>
+    <row r="10" spans="28:39">
+      <c r="AB10" s="56"/>
+      <c r="AM10" s="63"/>
+    </row>
+    <row r="11" ht="14.25" spans="3:39">
+      <c r="C11" s="29" t="s">
+        <v>200</v>
+      </c>
+      <c r="AB11" s="56"/>
+      <c r="AM11" s="63"/>
+    </row>
+    <row r="12" spans="3:39">
+      <c r="C12" s="30" t="s">
+        <v>190</v>
+      </c>
+      <c r="D12" s="31"/>
+      <c r="E12" s="31"/>
+      <c r="F12" s="31"/>
+      <c r="G12" s="31" t="s">
+        <v>191</v>
+      </c>
+      <c r="H12" s="31"/>
+      <c r="I12" s="31"/>
+      <c r="J12" s="31"/>
+      <c r="K12" s="31"/>
+      <c r="L12" s="31" t="s">
+        <v>201</v>
+      </c>
+      <c r="M12" s="31"/>
+      <c r="N12" s="31"/>
+      <c r="O12" s="31"/>
+      <c r="P12" s="42"/>
+      <c r="AB12" s="56"/>
+      <c r="AC12" s="29" t="s">
+        <v>13</v>
+      </c>
+      <c r="AM12" s="63"/>
+    </row>
+    <row r="13" spans="3:39">
+      <c r="C13" s="32" t="s">
+        <v>193</v>
+      </c>
+      <c r="D13" s="33"/>
+      <c r="E13" s="33"/>
+      <c r="F13" s="33"/>
+      <c r="G13" s="33" t="s">
+        <v>202</v>
+      </c>
+      <c r="H13" s="33"/>
+      <c r="I13" s="33"/>
+      <c r="J13" s="33"/>
+      <c r="K13" s="33"/>
+      <c r="L13" s="33">
+        <v>12345678</v>
+      </c>
+      <c r="M13" s="33"/>
+      <c r="N13" s="33"/>
+      <c r="O13" s="33"/>
+      <c r="P13" s="43"/>
+      <c r="AB13" s="56"/>
+      <c r="AC13" t="s">
+        <v>190</v>
+      </c>
+      <c r="AI13" t="s">
+        <v>199</v>
+      </c>
+      <c r="AM13" s="63"/>
+    </row>
+    <row r="14" spans="3:39">
+      <c r="C14" s="34" t="s">
+        <v>193</v>
+      </c>
+      <c r="D14" s="35"/>
+      <c r="E14" s="35"/>
+      <c r="F14" s="35"/>
+      <c r="G14" s="33" t="s">
+        <v>203</v>
+      </c>
+      <c r="H14" s="33"/>
+      <c r="I14" s="33"/>
+      <c r="J14" s="33"/>
+      <c r="K14" s="33"/>
+      <c r="L14" s="33" t="s">
+        <v>204</v>
+      </c>
+      <c r="M14" s="33"/>
+      <c r="N14" s="33"/>
+      <c r="O14" s="33"/>
+      <c r="P14" s="43"/>
+      <c r="AB14" s="56"/>
+      <c r="AM14" s="63"/>
+    </row>
+    <row r="15" spans="3:39">
+      <c r="C15" s="36"/>
+      <c r="D15" s="37"/>
+      <c r="E15" s="37"/>
+      <c r="F15" s="37"/>
+      <c r="G15" s="37"/>
+      <c r="H15" s="37"/>
+      <c r="I15" s="37"/>
+      <c r="J15" s="37"/>
+      <c r="K15" s="37"/>
+      <c r="L15" s="37"/>
+      <c r="M15" s="37"/>
+      <c r="N15" s="37"/>
+      <c r="O15" s="37"/>
+      <c r="P15" s="44"/>
+      <c r="AB15" s="56"/>
+      <c r="AC15" t="s">
+        <v>191</v>
+      </c>
+      <c r="AI15" t="s">
+        <v>205</v>
+      </c>
+      <c r="AM15" s="63"/>
+    </row>
+    <row r="16" spans="3:39">
+      <c r="C16" s="36"/>
+      <c r="D16" s="37"/>
+      <c r="E16" s="37"/>
+      <c r="F16" s="37"/>
+      <c r="G16" s="37"/>
+      <c r="H16" s="37"/>
+      <c r="I16" s="37"/>
+      <c r="J16" s="37"/>
+      <c r="K16" s="37"/>
+      <c r="L16" s="37"/>
+      <c r="M16" s="37"/>
+      <c r="N16" s="37"/>
+      <c r="O16" s="37"/>
+      <c r="P16" s="44"/>
+      <c r="AB16" s="56"/>
+      <c r="AM16" s="63"/>
+    </row>
+    <row r="17" spans="3:39">
+      <c r="C17" s="36"/>
+      <c r="D17" s="37"/>
+      <c r="E17" s="37"/>
+      <c r="F17" s="37"/>
+      <c r="G17" s="37"/>
+      <c r="H17" s="37"/>
+      <c r="I17" s="37"/>
+      <c r="J17" s="37"/>
+      <c r="K17" s="37"/>
+      <c r="L17" s="37"/>
+      <c r="M17" s="37"/>
+      <c r="N17" s="37"/>
+      <c r="O17" s="37"/>
+      <c r="P17" s="44"/>
+      <c r="AB17" s="56"/>
+      <c r="AM17" s="63"/>
+    </row>
+    <row r="18" spans="3:39">
+      <c r="C18" s="36"/>
+      <c r="D18" s="37"/>
+      <c r="E18" s="37"/>
+      <c r="F18" s="37"/>
+      <c r="G18" s="37"/>
+      <c r="H18" s="37"/>
+      <c r="I18" s="37"/>
+      <c r="J18" s="37"/>
+      <c r="K18" s="37"/>
+      <c r="L18" s="37"/>
+      <c r="M18" s="37"/>
+      <c r="N18" s="37"/>
+      <c r="O18" s="37"/>
+      <c r="P18" s="44"/>
+      <c r="AB18" s="56"/>
+      <c r="AC18" s="29" t="s">
+        <v>206</v>
+      </c>
+      <c r="AM18" s="63"/>
+    </row>
+    <row r="19" spans="3:39">
+      <c r="C19" s="36"/>
+      <c r="D19" s="37"/>
+      <c r="E19" s="37"/>
+      <c r="F19" s="37"/>
+      <c r="G19" s="37"/>
+      <c r="H19" s="37"/>
+      <c r="I19" s="37"/>
+      <c r="J19" s="37"/>
+      <c r="K19" s="37"/>
+      <c r="L19" s="37"/>
+      <c r="M19" s="37"/>
+      <c r="N19" s="37"/>
+      <c r="O19" s="37"/>
+      <c r="P19" s="44"/>
+      <c r="AB19" s="56"/>
+      <c r="AC19" t="s">
+        <v>190</v>
+      </c>
+      <c r="AI19" t="s">
+        <v>199</v>
+      </c>
+      <c r="AM19" s="63"/>
+    </row>
+    <row r="20" ht="14.25" spans="3:39">
+      <c r="C20" s="38"/>
+      <c r="D20" s="39"/>
+      <c r="E20" s="39"/>
+      <c r="F20" s="39"/>
+      <c r="G20" s="39"/>
+      <c r="H20" s="39"/>
+      <c r="I20" s="39"/>
+      <c r="J20" s="39"/>
+      <c r="K20" s="39"/>
+      <c r="L20" s="39"/>
+      <c r="M20" s="39"/>
+      <c r="N20" s="39"/>
+      <c r="O20" s="39"/>
+      <c r="P20" s="45"/>
+      <c r="AB20" s="56"/>
+      <c r="AM20" s="63"/>
+    </row>
+    <row r="21" spans="28:39">
+      <c r="AB21" s="56"/>
+      <c r="AC21" t="s">
+        <v>191</v>
+      </c>
+      <c r="AI21" t="s">
+        <v>205</v>
+      </c>
+      <c r="AM21" s="63"/>
+    </row>
+    <row r="22" ht="14.25" spans="3:39">
+      <c r="C22" s="29" t="s">
+        <v>207</v>
+      </c>
+      <c r="AB22" s="56"/>
+      <c r="AM22" s="63"/>
+    </row>
+    <row r="23" spans="3:39">
+      <c r="C23" s="30" t="s">
+        <v>190</v>
+      </c>
+      <c r="D23" s="31"/>
+      <c r="E23" s="31"/>
+      <c r="F23" s="31"/>
+      <c r="G23" s="31" t="s">
+        <v>191</v>
+      </c>
+      <c r="H23" s="31"/>
+      <c r="I23" s="31"/>
+      <c r="J23" s="31"/>
+      <c r="K23" s="31"/>
+      <c r="L23" s="31" t="s">
+        <v>192</v>
+      </c>
+      <c r="M23" s="31"/>
+      <c r="N23" s="31"/>
+      <c r="O23" s="31"/>
+      <c r="P23" s="31"/>
+      <c r="Q23" s="31" t="s">
+        <v>208</v>
+      </c>
+      <c r="R23" s="31"/>
+      <c r="S23" s="31"/>
+      <c r="T23" s="31"/>
+      <c r="U23" s="42"/>
+      <c r="AB23" s="56"/>
+      <c r="AC23" t="s">
+        <v>192</v>
+      </c>
+      <c r="AI23" t="s">
+        <v>209</v>
+      </c>
+      <c r="AM23" s="63"/>
+    </row>
+    <row r="24" spans="3:39">
+      <c r="C24" s="34" t="s">
+        <v>193</v>
+      </c>
+      <c r="D24" s="35"/>
+      <c r="E24" s="35"/>
+      <c r="F24" s="35"/>
+      <c r="G24" s="35" t="s">
+        <v>202</v>
+      </c>
+      <c r="H24" s="35"/>
+      <c r="I24" s="35"/>
+      <c r="J24" s="35"/>
+      <c r="K24" s="35"/>
+      <c r="L24" s="33" t="s">
+        <v>195</v>
+      </c>
+      <c r="M24" s="33"/>
+      <c r="N24" s="33"/>
+      <c r="O24" s="33"/>
+      <c r="P24" s="33"/>
+      <c r="Q24" s="33" t="s">
+        <v>210</v>
+      </c>
+      <c r="R24" s="33"/>
+      <c r="S24" s="33"/>
+      <c r="T24" s="33"/>
+      <c r="U24" s="43"/>
+      <c r="AB24" s="56"/>
+      <c r="AM24" s="63"/>
+    </row>
+    <row r="25" spans="3:39">
+      <c r="C25" s="34" t="s">
+        <v>193</v>
+      </c>
+      <c r="D25" s="35"/>
+      <c r="E25" s="35"/>
+      <c r="F25" s="35"/>
+      <c r="G25" s="35" t="s">
+        <v>203</v>
+      </c>
+      <c r="H25" s="35"/>
+      <c r="I25" s="35"/>
+      <c r="J25" s="35"/>
+      <c r="K25" s="35"/>
+      <c r="L25" s="33" t="s">
+        <v>195</v>
+      </c>
+      <c r="M25" s="33"/>
+      <c r="N25" s="33"/>
+      <c r="O25" s="33"/>
+      <c r="P25" s="33"/>
+      <c r="Q25" s="33" t="s">
+        <v>211</v>
+      </c>
+      <c r="R25" s="33"/>
+      <c r="S25" s="33"/>
+      <c r="T25" s="33"/>
+      <c r="U25" s="43"/>
+      <c r="AB25" s="56"/>
+      <c r="AC25" t="s">
+        <v>208</v>
+      </c>
+      <c r="AI25" t="s">
+        <v>212</v>
+      </c>
+      <c r="AM25" s="63"/>
+    </row>
+    <row r="26" spans="3:39">
+      <c r="C26" s="32"/>
+      <c r="D26" s="33"/>
+      <c r="E26" s="33"/>
+      <c r="F26" s="33"/>
+      <c r="G26" s="33"/>
+      <c r="H26" s="33"/>
+      <c r="I26" s="33"/>
+      <c r="J26" s="33"/>
+      <c r="K26" s="33"/>
+      <c r="L26" s="33"/>
+      <c r="M26" s="33"/>
+      <c r="N26" s="33"/>
+      <c r="O26" s="33"/>
+      <c r="P26" s="33"/>
+      <c r="Q26" s="33"/>
+      <c r="R26" s="33"/>
+      <c r="S26" s="33"/>
+      <c r="T26" s="33"/>
+      <c r="U26" s="43"/>
+      <c r="AB26" s="56"/>
+      <c r="AM26" s="63"/>
+    </row>
+    <row r="27" spans="3:39">
+      <c r="C27" s="32"/>
+      <c r="D27" s="33"/>
+      <c r="E27" s="33"/>
+      <c r="F27" s="33"/>
+      <c r="G27" s="33"/>
+      <c r="H27" s="33"/>
+      <c r="I27" s="33"/>
+      <c r="J27" s="33"/>
+      <c r="K27" s="33"/>
+      <c r="L27" s="33"/>
+      <c r="M27" s="33"/>
+      <c r="N27" s="33"/>
+      <c r="O27" s="33"/>
+      <c r="P27" s="33"/>
+      <c r="Q27" s="33"/>
+      <c r="R27" s="33"/>
+      <c r="S27" s="33"/>
+      <c r="T27" s="33"/>
+      <c r="U27" s="43"/>
+      <c r="AB27" s="56"/>
+      <c r="AC27" t="s">
+        <v>213</v>
+      </c>
+      <c r="AI27" t="s">
+        <v>214</v>
+      </c>
+      <c r="AM27" s="63"/>
+    </row>
+    <row r="28" ht="14.25" spans="3:39">
+      <c r="C28" s="32"/>
+      <c r="D28" s="33"/>
+      <c r="E28" s="33"/>
+      <c r="F28" s="33"/>
+      <c r="G28" s="33"/>
+      <c r="H28" s="33"/>
+      <c r="I28" s="33"/>
+      <c r="J28" s="33"/>
+      <c r="K28" s="33"/>
+      <c r="L28" s="33"/>
+      <c r="M28" s="33"/>
+      <c r="N28" s="33"/>
+      <c r="O28" s="33"/>
+      <c r="P28" s="33"/>
+      <c r="Q28" s="33"/>
+      <c r="R28" s="33"/>
+      <c r="S28" s="33"/>
+      <c r="T28" s="33"/>
+      <c r="U28" s="43"/>
+      <c r="AB28" s="57"/>
+      <c r="AC28" s="58"/>
+      <c r="AD28" s="58"/>
+      <c r="AE28" s="58"/>
+      <c r="AF28" s="58"/>
+      <c r="AG28" s="58"/>
+      <c r="AH28" s="58"/>
+      <c r="AI28" s="58" t="s">
+        <v>215</v>
+      </c>
+      <c r="AJ28" s="58"/>
+      <c r="AK28" s="58"/>
+      <c r="AL28" s="58"/>
+      <c r="AM28" s="64"/>
+    </row>
+    <row r="29" spans="3:21">
+      <c r="C29" s="32"/>
+      <c r="D29" s="33"/>
+      <c r="E29" s="33"/>
+      <c r="F29" s="33"/>
+      <c r="G29" s="33"/>
+      <c r="H29" s="33"/>
+      <c r="I29" s="33"/>
+      <c r="J29" s="33"/>
+      <c r="K29" s="33"/>
+      <c r="L29" s="33"/>
+      <c r="M29" s="33"/>
+      <c r="N29" s="33"/>
+      <c r="O29" s="33"/>
+      <c r="P29" s="33"/>
+      <c r="Q29" s="33"/>
+      <c r="R29" s="33"/>
+      <c r="S29" s="33"/>
+      <c r="T29" s="33"/>
+      <c r="U29" s="43"/>
+    </row>
+    <row r="30" spans="3:21">
+      <c r="C30" s="40"/>
+      <c r="D30" s="41"/>
+      <c r="E30" s="41"/>
+      <c r="F30" s="41"/>
+      <c r="G30" s="41"/>
+      <c r="H30" s="41"/>
+      <c r="I30" s="41"/>
+      <c r="J30" s="41"/>
+      <c r="K30" s="41"/>
+      <c r="L30" s="41"/>
+      <c r="M30" s="41"/>
+      <c r="N30" s="41"/>
+      <c r="O30" s="41"/>
+      <c r="P30" s="41"/>
+      <c r="Q30" s="41"/>
+      <c r="R30" s="41"/>
+      <c r="S30" s="41"/>
+      <c r="T30" s="41"/>
+      <c r="U30" s="47"/>
+    </row>
+    <row r="31" ht="14.25" spans="3:21">
+      <c r="C31" s="38"/>
+      <c r="D31" s="39"/>
+      <c r="E31" s="39"/>
+      <c r="F31" s="39"/>
+      <c r="G31" s="39"/>
+      <c r="H31" s="39"/>
+      <c r="I31" s="39"/>
+      <c r="J31" s="39"/>
+      <c r="K31" s="39"/>
+      <c r="L31" s="39"/>
+      <c r="M31" s="39"/>
+      <c r="N31" s="39"/>
+      <c r="O31" s="39"/>
+      <c r="P31" s="39"/>
+      <c r="Q31" s="39"/>
+      <c r="R31" s="39"/>
+      <c r="S31" s="39"/>
+      <c r="T31" s="39"/>
+      <c r="U31" s="45"/>
+    </row>
+    <row r="33" ht="14.25" spans="3:3">
+      <c r="C33" s="29" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="34" spans="3:31">
+      <c r="C34" s="30" t="s">
+        <v>192</v>
+      </c>
+      <c r="D34" s="31"/>
+      <c r="E34" s="31"/>
+      <c r="F34" s="31"/>
+      <c r="G34" s="31" t="s">
+        <v>208</v>
+      </c>
+      <c r="H34" s="31"/>
+      <c r="I34" s="31"/>
+      <c r="J34" s="31"/>
+      <c r="K34" s="31"/>
+      <c r="L34" s="31" t="s">
+        <v>217</v>
+      </c>
+      <c r="M34" s="31"/>
+      <c r="N34" s="31"/>
+      <c r="O34" s="31"/>
+      <c r="P34" s="31"/>
+      <c r="Q34" s="48" t="s">
+        <v>218</v>
+      </c>
+      <c r="R34" s="49"/>
+      <c r="S34" s="49"/>
+      <c r="T34" s="49"/>
+      <c r="U34" s="49"/>
+      <c r="V34" s="49"/>
+      <c r="W34" s="49"/>
+      <c r="X34" s="49"/>
+      <c r="Y34" s="49"/>
+      <c r="Z34" s="59"/>
+      <c r="AA34" s="31" t="s">
+        <v>219</v>
+      </c>
+      <c r="AB34" s="31"/>
+      <c r="AC34" s="31"/>
+      <c r="AD34" s="31"/>
+      <c r="AE34" s="42"/>
+    </row>
+    <row r="35" spans="3:31">
+      <c r="C35" s="32" t="s">
+        <v>195</v>
+      </c>
+      <c r="D35" s="33"/>
+      <c r="E35" s="33"/>
+      <c r="F35" s="33"/>
+      <c r="G35" s="33" t="s">
+        <v>211</v>
+      </c>
+      <c r="H35" s="33"/>
+      <c r="I35" s="33"/>
+      <c r="J35" s="33"/>
+      <c r="K35" s="33"/>
+      <c r="L35" s="46" t="s">
+        <v>220</v>
+      </c>
+      <c r="M35" s="46"/>
+      <c r="N35" s="46"/>
+      <c r="O35" s="46"/>
+      <c r="P35" s="46"/>
+      <c r="Q35" s="50" t="s">
+        <v>221</v>
+      </c>
+      <c r="R35" s="51"/>
+      <c r="S35" s="51"/>
+      <c r="T35" s="51"/>
+      <c r="U35" s="51"/>
+      <c r="V35" s="51"/>
+      <c r="W35" s="51"/>
+      <c r="X35" s="51"/>
+      <c r="Y35" s="51"/>
+      <c r="Z35" s="60"/>
+      <c r="AA35" s="33" t="s">
+        <v>222</v>
+      </c>
+      <c r="AB35" s="33"/>
+      <c r="AC35" s="33"/>
+      <c r="AD35" s="33"/>
+      <c r="AE35" s="43"/>
+    </row>
+    <row r="36" spans="3:31">
+      <c r="C36" s="32" t="s">
+        <v>195</v>
+      </c>
+      <c r="D36" s="33"/>
+      <c r="E36" s="33"/>
+      <c r="F36" s="33"/>
+      <c r="G36" s="33" t="s">
+        <v>211</v>
+      </c>
+      <c r="H36" s="33"/>
+      <c r="I36" s="33"/>
+      <c r="J36" s="33"/>
+      <c r="K36" s="33"/>
+      <c r="L36" s="46" t="s">
+        <v>223</v>
+      </c>
+      <c r="M36" s="46"/>
+      <c r="N36" s="46"/>
+      <c r="O36" s="46"/>
+      <c r="P36" s="46"/>
+      <c r="Q36" s="50" t="s">
+        <v>224</v>
+      </c>
+      <c r="R36" s="51"/>
+      <c r="S36" s="51"/>
+      <c r="T36" s="51"/>
+      <c r="U36" s="51"/>
+      <c r="V36" s="51"/>
+      <c r="W36" s="51"/>
+      <c r="X36" s="51"/>
+      <c r="Y36" s="51"/>
+      <c r="Z36" s="60"/>
+      <c r="AA36" s="33" t="s">
+        <v>222</v>
+      </c>
+      <c r="AB36" s="33"/>
+      <c r="AC36" s="33"/>
+      <c r="AD36" s="33"/>
+      <c r="AE36" s="43"/>
+    </row>
+    <row r="37" spans="3:31">
+      <c r="C37" s="32"/>
+      <c r="D37" s="33"/>
+      <c r="E37" s="33"/>
+      <c r="F37" s="33"/>
+      <c r="G37" s="33"/>
+      <c r="H37" s="33"/>
+      <c r="I37" s="33"/>
+      <c r="J37" s="33"/>
+      <c r="K37" s="35"/>
+      <c r="L37" s="46"/>
+      <c r="M37" s="46"/>
+      <c r="N37" s="46"/>
+      <c r="O37" s="46"/>
+      <c r="P37" s="46"/>
+      <c r="Q37" s="50"/>
+      <c r="R37" s="51"/>
+      <c r="S37" s="51"/>
+      <c r="T37" s="51"/>
+      <c r="U37" s="51"/>
+      <c r="V37" s="51"/>
+      <c r="W37" s="51"/>
+      <c r="X37" s="51"/>
+      <c r="Y37" s="51"/>
+      <c r="Z37" s="60"/>
+      <c r="AA37" s="33"/>
+      <c r="AB37" s="33"/>
+      <c r="AC37" s="33"/>
+      <c r="AD37" s="33"/>
+      <c r="AE37" s="43"/>
+    </row>
+    <row r="38" spans="3:31">
+      <c r="C38" s="32"/>
+      <c r="D38" s="33"/>
+      <c r="E38" s="33"/>
+      <c r="F38" s="33"/>
+      <c r="G38" s="33"/>
+      <c r="H38" s="33"/>
+      <c r="I38" s="33"/>
+      <c r="J38" s="33"/>
+      <c r="K38" s="35"/>
+      <c r="L38" s="46"/>
+      <c r="M38" s="46"/>
+      <c r="N38" s="46"/>
+      <c r="O38" s="46"/>
+      <c r="P38" s="46"/>
+      <c r="Q38" s="50"/>
+      <c r="R38" s="51"/>
+      <c r="S38" s="51"/>
+      <c r="T38" s="51"/>
+      <c r="U38" s="51"/>
+      <c r="V38" s="51"/>
+      <c r="W38" s="51"/>
+      <c r="X38" s="51"/>
+      <c r="Y38" s="51"/>
+      <c r="Z38" s="60"/>
+      <c r="AA38" s="33"/>
+      <c r="AB38" s="33"/>
+      <c r="AC38" s="33"/>
+      <c r="AD38" s="33"/>
+      <c r="AE38" s="43"/>
+    </row>
+    <row r="39" spans="3:31">
+      <c r="C39" s="32"/>
+      <c r="D39" s="33"/>
+      <c r="E39" s="33"/>
+      <c r="F39" s="33"/>
+      <c r="G39" s="33"/>
+      <c r="H39" s="33"/>
+      <c r="I39" s="33"/>
+      <c r="J39" s="33"/>
+      <c r="K39" s="33"/>
+      <c r="L39" s="33"/>
+      <c r="M39" s="33"/>
+      <c r="N39" s="33"/>
+      <c r="O39" s="33"/>
+      <c r="P39" s="33"/>
+      <c r="Q39" s="50"/>
+      <c r="R39" s="51"/>
+      <c r="S39" s="51"/>
+      <c r="T39" s="51"/>
+      <c r="U39" s="51"/>
+      <c r="V39" s="51"/>
+      <c r="W39" s="51"/>
+      <c r="X39" s="51"/>
+      <c r="Y39" s="51"/>
+      <c r="Z39" s="60"/>
+      <c r="AA39" s="33"/>
+      <c r="AB39" s="33"/>
+      <c r="AC39" s="33"/>
+      <c r="AD39" s="33"/>
+      <c r="AE39" s="43"/>
+    </row>
+    <row r="40" spans="3:31">
+      <c r="C40" s="32"/>
+      <c r="D40" s="33"/>
+      <c r="E40" s="33"/>
+      <c r="F40" s="33"/>
+      <c r="G40" s="33"/>
+      <c r="H40" s="33"/>
+      <c r="I40" s="33"/>
+      <c r="J40" s="33"/>
+      <c r="K40" s="33"/>
+      <c r="L40" s="33"/>
+      <c r="M40" s="33"/>
+      <c r="N40" s="33"/>
+      <c r="O40" s="33"/>
+      <c r="P40" s="33"/>
+      <c r="Q40" s="50"/>
+      <c r="R40" s="51"/>
+      <c r="S40" s="51"/>
+      <c r="T40" s="51"/>
+      <c r="U40" s="51"/>
+      <c r="V40" s="51"/>
+      <c r="W40" s="51"/>
+      <c r="X40" s="51"/>
+      <c r="Y40" s="51"/>
+      <c r="Z40" s="60"/>
+      <c r="AA40" s="33"/>
+      <c r="AB40" s="33"/>
+      <c r="AC40" s="33"/>
+      <c r="AD40" s="33"/>
+      <c r="AE40" s="43"/>
+    </row>
+    <row r="41" spans="3:31">
+      <c r="C41" s="32"/>
+      <c r="D41" s="33"/>
+      <c r="E41" s="33"/>
+      <c r="F41" s="33"/>
+      <c r="G41" s="33"/>
+      <c r="H41" s="33"/>
+      <c r="I41" s="33"/>
+      <c r="J41" s="33"/>
+      <c r="K41" s="33"/>
+      <c r="L41" s="33"/>
+      <c r="M41" s="33"/>
+      <c r="N41" s="33"/>
+      <c r="O41" s="33"/>
+      <c r="P41" s="33"/>
+      <c r="Q41" s="50"/>
+      <c r="R41" s="51"/>
+      <c r="S41" s="51"/>
+      <c r="T41" s="51"/>
+      <c r="U41" s="51"/>
+      <c r="V41" s="51"/>
+      <c r="W41" s="51"/>
+      <c r="X41" s="51"/>
+      <c r="Y41" s="51"/>
+      <c r="Z41" s="60"/>
+      <c r="AA41" s="33"/>
+      <c r="AB41" s="33"/>
+      <c r="AC41" s="33"/>
+      <c r="AD41" s="33"/>
+      <c r="AE41" s="43"/>
+    </row>
+    <row r="42" ht="14.25" spans="3:31">
+      <c r="C42" s="38"/>
+      <c r="D42" s="39"/>
+      <c r="E42" s="39"/>
+      <c r="F42" s="39"/>
+      <c r="G42" s="39"/>
+      <c r="H42" s="39"/>
+      <c r="I42" s="39"/>
+      <c r="J42" s="39"/>
+      <c r="K42" s="39"/>
+      <c r="L42" s="39"/>
+      <c r="M42" s="39"/>
+      <c r="N42" s="39"/>
+      <c r="O42" s="39"/>
+      <c r="P42" s="39"/>
+      <c r="Q42" s="52"/>
+      <c r="R42" s="53"/>
+      <c r="S42" s="53"/>
+      <c r="T42" s="53"/>
+      <c r="U42" s="53"/>
+      <c r="V42" s="53"/>
+      <c r="W42" s="53"/>
+      <c r="X42" s="53"/>
+      <c r="Y42" s="53"/>
+      <c r="Z42" s="61"/>
+      <c r="AA42" s="39"/>
+      <c r="AB42" s="39"/>
+      <c r="AC42" s="39"/>
+      <c r="AD42" s="39"/>
+      <c r="AE42" s="45"/>
+    </row>
+  </sheetData>
+  <mergeCells count="108">
+    <mergeCell ref="C12:F12"/>
+    <mergeCell ref="G12:K12"/>
+    <mergeCell ref="L12:P12"/>
+    <mergeCell ref="C13:F13"/>
+    <mergeCell ref="G13:K13"/>
+    <mergeCell ref="L13:P13"/>
+    <mergeCell ref="C14:F14"/>
+    <mergeCell ref="G14:K14"/>
+    <mergeCell ref="L14:P14"/>
+    <mergeCell ref="C15:F15"/>
+    <mergeCell ref="G15:K15"/>
+    <mergeCell ref="L15:P15"/>
+    <mergeCell ref="C16:F16"/>
+    <mergeCell ref="G16:K16"/>
+    <mergeCell ref="L16:P16"/>
+    <mergeCell ref="C17:F17"/>
+    <mergeCell ref="G17:K17"/>
+    <mergeCell ref="L17:P17"/>
+    <mergeCell ref="C18:F18"/>
+    <mergeCell ref="G18:K18"/>
+    <mergeCell ref="L18:P18"/>
+    <mergeCell ref="C19:F19"/>
+    <mergeCell ref="G19:K19"/>
+    <mergeCell ref="L19:P19"/>
+    <mergeCell ref="C20:F20"/>
+    <mergeCell ref="G20:K20"/>
+    <mergeCell ref="L20:P20"/>
+    <mergeCell ref="C23:F23"/>
+    <mergeCell ref="G23:K23"/>
+    <mergeCell ref="L23:P23"/>
+    <mergeCell ref="Q23:U23"/>
+    <mergeCell ref="C24:F24"/>
+    <mergeCell ref="G24:K24"/>
+    <mergeCell ref="L24:P24"/>
+    <mergeCell ref="Q24:U24"/>
+    <mergeCell ref="C25:F25"/>
+    <mergeCell ref="G25:K25"/>
+    <mergeCell ref="L25:P25"/>
+    <mergeCell ref="Q25:U25"/>
+    <mergeCell ref="C26:F26"/>
+    <mergeCell ref="G26:K26"/>
+    <mergeCell ref="L26:P26"/>
+    <mergeCell ref="Q26:U26"/>
+    <mergeCell ref="C27:F27"/>
+    <mergeCell ref="G27:K27"/>
+    <mergeCell ref="L27:P27"/>
+    <mergeCell ref="Q27:U27"/>
+    <mergeCell ref="C28:F28"/>
+    <mergeCell ref="G28:K28"/>
+    <mergeCell ref="L28:P28"/>
+    <mergeCell ref="Q28:U28"/>
+    <mergeCell ref="C29:F29"/>
+    <mergeCell ref="G29:K29"/>
+    <mergeCell ref="L29:P29"/>
+    <mergeCell ref="Q29:U29"/>
+    <mergeCell ref="C30:F30"/>
+    <mergeCell ref="G30:K30"/>
+    <mergeCell ref="L30:P30"/>
+    <mergeCell ref="Q30:U30"/>
+    <mergeCell ref="C31:F31"/>
+    <mergeCell ref="G31:K31"/>
+    <mergeCell ref="L31:P31"/>
+    <mergeCell ref="Q31:U31"/>
+    <mergeCell ref="C34:F34"/>
+    <mergeCell ref="G34:K34"/>
+    <mergeCell ref="L34:P34"/>
+    <mergeCell ref="Q34:Z34"/>
+    <mergeCell ref="AA34:AE34"/>
+    <mergeCell ref="C35:F35"/>
+    <mergeCell ref="G35:K35"/>
+    <mergeCell ref="L35:P35"/>
+    <mergeCell ref="Q35:Z35"/>
+    <mergeCell ref="AA35:AE35"/>
+    <mergeCell ref="C36:F36"/>
+    <mergeCell ref="G36:K36"/>
+    <mergeCell ref="L36:P36"/>
+    <mergeCell ref="Q36:Z36"/>
+    <mergeCell ref="AA36:AE36"/>
+    <mergeCell ref="C37:F37"/>
+    <mergeCell ref="G37:K37"/>
+    <mergeCell ref="L37:P37"/>
+    <mergeCell ref="Q37:Z37"/>
+    <mergeCell ref="AA37:AE37"/>
+    <mergeCell ref="C38:F38"/>
+    <mergeCell ref="G38:K38"/>
+    <mergeCell ref="L38:P38"/>
+    <mergeCell ref="Q38:Z38"/>
+    <mergeCell ref="AA38:AE38"/>
+    <mergeCell ref="C39:F39"/>
+    <mergeCell ref="G39:K39"/>
+    <mergeCell ref="L39:P39"/>
+    <mergeCell ref="Q39:Z39"/>
+    <mergeCell ref="AA39:AE39"/>
+    <mergeCell ref="C40:F40"/>
+    <mergeCell ref="G40:K40"/>
+    <mergeCell ref="L40:P40"/>
+    <mergeCell ref="Q40:Z40"/>
+    <mergeCell ref="AA40:AE40"/>
+    <mergeCell ref="C41:F41"/>
+    <mergeCell ref="G41:K41"/>
+    <mergeCell ref="L41:P41"/>
+    <mergeCell ref="Q41:Z41"/>
+    <mergeCell ref="AA41:AE41"/>
+    <mergeCell ref="C42:F42"/>
+    <mergeCell ref="G42:K42"/>
+    <mergeCell ref="L42:P42"/>
+    <mergeCell ref="Q42:Z42"/>
+    <mergeCell ref="AA42:AE42"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F36" sqref="F36"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetData/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="B2:G49"/>
+  <sheetViews>
+    <sheetView showGridLines="0" zoomScale="145" zoomScaleNormal="145" topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="D23" sqref="D23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="6"/>
@@ -3768,302 +5397,303 @@
     <col min="8" max="8" width="11.5" customWidth="1"/>
   </cols>
   <sheetData>
+    <row r="2" ht="14.25"/>
     <row r="3" spans="2:7">
-      <c r="B3" s="124" t="s">
-        <v>32</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="D3" s="2" t="s">
+      <c r="B3" s="174" t="s">
         <v>34</v>
       </c>
-      <c r="E3" s="3" t="s">
+      <c r="C3" s="15" t="s">
+        <v>35</v>
+      </c>
+      <c r="D3" s="15" t="s">
+        <v>36</v>
+      </c>
+      <c r="E3" s="16" t="s">
         <v>15</v>
       </c>
-      <c r="F3" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="G3" s="4" t="s">
-        <v>36</v>
+      <c r="F3" s="16" t="s">
+        <v>37</v>
+      </c>
+      <c r="G3" s="17" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="4" spans="2:7">
-      <c r="B4" s="5"/>
-      <c r="C4" s="6"/>
-      <c r="D4" s="6"/>
-      <c r="E4" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="F4" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="G4" s="8"/>
+      <c r="B4" s="18"/>
+      <c r="C4" s="19"/>
+      <c r="D4" s="19"/>
+      <c r="E4" s="20" t="s">
+        <v>41</v>
+      </c>
+      <c r="F4" s="20" t="s">
+        <v>42</v>
+      </c>
+      <c r="G4" s="21"/>
     </row>
     <row r="5" spans="2:7">
-      <c r="B5" s="5"/>
-      <c r="C5" s="6"/>
-      <c r="D5" s="6"/>
-      <c r="E5" s="9" t="s">
-        <v>39</v>
-      </c>
-      <c r="F5" s="9" t="s">
-        <v>40</v>
-      </c>
-      <c r="G5" s="8"/>
+      <c r="B5" s="18"/>
+      <c r="C5" s="19"/>
+      <c r="D5" s="19"/>
+      <c r="E5" s="22" t="s">
+        <v>43</v>
+      </c>
+      <c r="F5" s="22" t="s">
+        <v>44</v>
+      </c>
+      <c r="G5" s="21"/>
     </row>
     <row r="6" ht="14.25" spans="2:7">
-      <c r="B6" s="125" t="s">
-        <v>41</v>
-      </c>
-      <c r="C6" s="11" t="s">
-        <v>42</v>
-      </c>
-      <c r="D6" s="11" t="s">
-        <v>43</v>
-      </c>
-      <c r="E6" s="11" t="s">
-        <v>44</v>
-      </c>
-      <c r="F6" s="11" t="s">
+      <c r="B6" s="175" t="s">
         <v>45</v>
       </c>
-      <c r="G6" s="12"/>
+      <c r="C6" s="24" t="s">
+        <v>46</v>
+      </c>
+      <c r="D6" s="24" t="s">
+        <v>47</v>
+      </c>
+      <c r="E6" s="24" t="s">
+        <v>48</v>
+      </c>
+      <c r="F6" s="24" t="s">
+        <v>49</v>
+      </c>
+      <c r="G6" s="25"/>
     </row>
     <row r="10" spans="3:5">
-      <c r="C10" s="13" t="s">
-        <v>187</v>
-      </c>
-      <c r="D10" s="14" t="s">
-        <v>188</v>
-      </c>
-      <c r="E10" s="13" t="s">
-        <v>188</v>
+      <c r="C10" s="26" t="s">
+        <v>225</v>
+      </c>
+      <c r="D10" s="27" t="s">
+        <v>226</v>
+      </c>
+      <c r="E10" s="26" t="s">
+        <v>226</v>
       </c>
     </row>
     <row r="11" spans="4:4">
-      <c r="D11" s="15"/>
+      <c r="D11" s="28"/>
     </row>
     <row r="12" spans="3:5">
       <c r="C12" t="s">
-        <v>34</v>
-      </c>
-      <c r="D12" s="15" t="s">
-        <v>189</v>
+        <v>36</v>
+      </c>
+      <c r="D12" s="28" t="s">
+        <v>227</v>
       </c>
       <c r="E12" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
     </row>
     <row r="13" spans="4:4">
-      <c r="D13" s="15" t="s">
-        <v>190</v>
+      <c r="D13" s="28" t="s">
+        <v>228</v>
       </c>
     </row>
     <row r="14" spans="4:4">
-      <c r="D14" s="15" t="s">
-        <v>191</v>
+      <c r="D14" s="28" t="s">
+        <v>229</v>
       </c>
     </row>
     <row r="15" spans="4:4">
-      <c r="D15" s="15" t="s">
-        <v>192</v>
+      <c r="D15" s="28" t="s">
+        <v>230</v>
       </c>
     </row>
     <row r="16" spans="3:4">
       <c r="C16" t="s">
-        <v>193</v>
-      </c>
-      <c r="D16" s="15"/>
+        <v>231</v>
+      </c>
+      <c r="D16" s="28"/>
     </row>
     <row r="17" spans="4:4">
-      <c r="D17" s="15"/>
+      <c r="D17" s="28"/>
     </row>
     <row r="18" spans="4:4">
-      <c r="D18" s="15" t="s">
-        <v>194</v>
+      <c r="D18" s="28" t="s">
+        <v>232</v>
       </c>
     </row>
     <row r="19" spans="4:5">
-      <c r="D19" s="15" t="s">
-        <v>195</v>
+      <c r="D19" s="28" t="s">
+        <v>233</v>
       </c>
       <c r="E19" t="s">
-        <v>196</v>
+        <v>234</v>
       </c>
     </row>
     <row r="20" spans="4:5">
-      <c r="D20" s="15" t="s">
-        <v>197</v>
+      <c r="D20" s="28" t="s">
+        <v>235</v>
       </c>
       <c r="E20" t="s">
-        <v>198</v>
+        <v>236</v>
       </c>
     </row>
     <row r="21" spans="4:5">
-      <c r="D21" s="15" t="s">
-        <v>199</v>
+      <c r="D21" s="28" t="s">
+        <v>237</v>
       </c>
       <c r="E21" t="s">
-        <v>200</v>
+        <v>238</v>
       </c>
     </row>
     <row r="22" spans="4:4">
-      <c r="D22" s="15"/>
+      <c r="D22" s="28"/>
     </row>
     <row r="23" spans="4:5">
-      <c r="D23" s="15" t="s">
-        <v>201</v>
+      <c r="D23" s="28" t="s">
+        <v>239</v>
       </c>
       <c r="E23" t="s">
-        <v>202</v>
+        <v>240</v>
       </c>
     </row>
     <row r="24" spans="4:4">
-      <c r="D24" s="15"/>
+      <c r="D24" s="28"/>
     </row>
     <row r="25" spans="4:4">
-      <c r="D25" s="15" t="s">
-        <v>203</v>
+      <c r="D25" s="28" t="s">
+        <v>241</v>
       </c>
     </row>
     <row r="26" spans="4:4">
-      <c r="D26" s="15"/>
+      <c r="D26" s="28"/>
     </row>
     <row r="27" spans="4:5">
-      <c r="D27" s="15" t="s">
-        <v>204</v>
+      <c r="D27" s="28" t="s">
+        <v>242</v>
       </c>
       <c r="E27" t="s">
-        <v>205</v>
+        <v>243</v>
       </c>
     </row>
     <row r="28" spans="4:5">
-      <c r="D28" s="15" t="s">
-        <v>206</v>
+      <c r="D28" s="28" t="s">
+        <v>244</v>
       </c>
       <c r="E28" t="s">
-        <v>207</v>
+        <v>245</v>
       </c>
     </row>
     <row r="29" spans="4:4">
-      <c r="D29" s="15"/>
+      <c r="D29" s="28"/>
     </row>
     <row r="30" spans="4:4">
-      <c r="D30" s="15"/>
+      <c r="D30" s="28"/>
     </row>
     <row r="31" spans="4:4">
-      <c r="D31" s="15" t="s">
-        <v>208</v>
+      <c r="D31" s="28" t="s">
+        <v>246</v>
       </c>
     </row>
     <row r="32" spans="4:4">
-      <c r="D32" s="15"/>
+      <c r="D32" s="28"/>
     </row>
     <row r="33" spans="4:5">
-      <c r="D33" s="15" t="s">
-        <v>209</v>
+      <c r="D33" s="28" t="s">
+        <v>247</v>
       </c>
       <c r="E33" t="s">
-        <v>210</v>
+        <v>248</v>
       </c>
     </row>
     <row r="34" spans="4:5">
-      <c r="D34" s="15" t="s">
-        <v>211</v>
+      <c r="D34" s="28" t="s">
+        <v>249</v>
       </c>
       <c r="E34" t="s">
-        <v>212</v>
+        <v>250</v>
       </c>
     </row>
     <row r="37" spans="4:4">
       <c r="D37" t="s">
-        <v>213</v>
+        <v>251</v>
       </c>
     </row>
     <row r="38" spans="4:5">
       <c r="D38" t="s">
-        <v>214</v>
+        <v>252</v>
       </c>
       <c r="E38" t="s">
-        <v>215</v>
+        <v>253</v>
       </c>
     </row>
     <row r="39" spans="4:5">
-      <c r="D39" s="15" t="s">
-        <v>195</v>
+      <c r="D39" s="28" t="s">
+        <v>233</v>
       </c>
       <c r="E39" t="s">
-        <v>216</v>
+        <v>254</v>
       </c>
     </row>
     <row r="40" spans="4:5">
-      <c r="D40" s="15" t="s">
-        <v>197</v>
+      <c r="D40" s="28" t="s">
+        <v>235</v>
       </c>
       <c r="E40" t="s">
-        <v>217</v>
+        <v>255</v>
       </c>
     </row>
     <row r="41" spans="4:5">
       <c r="D41" t="s">
-        <v>218</v>
+        <v>256</v>
       </c>
       <c r="E41" t="s">
-        <v>219</v>
+        <v>257</v>
       </c>
     </row>
     <row r="42" spans="4:5">
       <c r="D42" t="s">
-        <v>220</v>
+        <v>258</v>
       </c>
       <c r="E42" t="s">
-        <v>221</v>
+        <v>259</v>
       </c>
     </row>
     <row r="43" spans="4:5">
       <c r="D43" t="s">
-        <v>222</v>
+        <v>260</v>
       </c>
       <c r="E43" t="s">
-        <v>223</v>
+        <v>261</v>
       </c>
     </row>
     <row r="44" spans="4:5">
       <c r="D44" t="s">
-        <v>224</v>
+        <v>262</v>
       </c>
       <c r="E44" t="s">
-        <v>225</v>
+        <v>263</v>
       </c>
     </row>
     <row r="45" spans="4:5">
       <c r="D45" t="s">
-        <v>226</v>
+        <v>264</v>
       </c>
       <c r="E45" t="s">
-        <v>227</v>
+        <v>265</v>
       </c>
     </row>
     <row r="47" spans="4:4">
       <c r="D47" t="s">
-        <v>228</v>
+        <v>266</v>
       </c>
     </row>
     <row r="48" spans="4:5">
       <c r="D48" t="s">
-        <v>229</v>
+        <v>267</v>
       </c>
       <c r="E48" t="s">
-        <v>230</v>
+        <v>268</v>
       </c>
     </row>
     <row r="49" spans="4:5">
       <c r="D49" t="s">
-        <v>231</v>
+        <v>269</v>
       </c>
       <c r="E49" t="s">
-        <v>232</v>
+        <v>270</v>
       </c>
     </row>
   </sheetData>
@@ -4071,6 +5701,3293 @@
     <mergeCell ref="G3:G6"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="B2:X122"/>
+  <sheetViews>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="3.625" defaultRowHeight="13.5"/>
+  <cols>
+    <col min="1" max="16383" width="3.625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:24">
+      <c r="B2" s="1" t="s">
+        <v>271</v>
+      </c>
+      <c r="C2" s="2"/>
+      <c r="D2" s="2"/>
+      <c r="E2" s="2"/>
+      <c r="F2" s="2"/>
+      <c r="G2" s="2"/>
+      <c r="H2" s="2"/>
+      <c r="I2" s="2"/>
+      <c r="J2" s="2"/>
+      <c r="K2" s="2"/>
+      <c r="L2" s="2"/>
+      <c r="M2" s="2"/>
+      <c r="N2" s="2"/>
+      <c r="O2" s="2"/>
+      <c r="P2" s="2"/>
+      <c r="Q2" s="2"/>
+      <c r="R2" s="2"/>
+      <c r="S2" s="2"/>
+      <c r="T2" s="2"/>
+      <c r="U2" s="2"/>
+      <c r="V2" s="2"/>
+      <c r="W2" s="2"/>
+      <c r="X2" s="9"/>
+    </row>
+    <row r="3" spans="2:24">
+      <c r="B3" s="3"/>
+      <c r="C3" s="1" t="s">
+        <v>272</v>
+      </c>
+      <c r="D3" s="2"/>
+      <c r="E3" s="2"/>
+      <c r="F3" s="2"/>
+      <c r="G3" s="2"/>
+      <c r="H3" s="2"/>
+      <c r="I3" s="2"/>
+      <c r="J3" s="2"/>
+      <c r="K3" s="2"/>
+      <c r="L3" s="2"/>
+      <c r="M3" s="2"/>
+      <c r="N3" s="2"/>
+      <c r="O3" s="2"/>
+      <c r="P3" s="2"/>
+      <c r="Q3" s="2"/>
+      <c r="R3" s="2"/>
+      <c r="S3" s="2"/>
+      <c r="T3" s="2"/>
+      <c r="U3" s="2"/>
+      <c r="V3" s="2"/>
+      <c r="W3" s="2"/>
+      <c r="X3" s="9"/>
+    </row>
+    <row r="4" spans="2:24">
+      <c r="B4" s="3"/>
+      <c r="C4" s="3"/>
+      <c r="D4" s="1" t="s">
+        <v>273</v>
+      </c>
+      <c r="E4" s="2"/>
+      <c r="F4" s="2"/>
+      <c r="G4" s="2"/>
+      <c r="H4" s="2"/>
+      <c r="I4" s="2"/>
+      <c r="J4" s="2"/>
+      <c r="K4" s="2"/>
+      <c r="L4" s="2"/>
+      <c r="M4" s="2"/>
+      <c r="N4" s="2"/>
+      <c r="O4" s="2"/>
+      <c r="P4" s="2"/>
+      <c r="Q4" s="2"/>
+      <c r="R4" s="2"/>
+      <c r="S4" s="2"/>
+      <c r="T4" s="2"/>
+      <c r="U4" s="2"/>
+      <c r="V4" s="2"/>
+      <c r="W4" s="2"/>
+      <c r="X4" s="9"/>
+    </row>
+    <row r="5" spans="2:24">
+      <c r="B5" s="3"/>
+      <c r="C5" s="3"/>
+      <c r="D5" s="3"/>
+      <c r="E5" s="4" t="s">
+        <v>274</v>
+      </c>
+      <c r="F5" s="2"/>
+      <c r="G5" s="2"/>
+      <c r="H5" s="2"/>
+      <c r="I5" s="2"/>
+      <c r="J5" s="2"/>
+      <c r="K5" s="2"/>
+      <c r="L5" s="2"/>
+      <c r="M5" s="2"/>
+      <c r="N5" s="2"/>
+      <c r="O5" s="2"/>
+      <c r="P5" s="2"/>
+      <c r="Q5" s="2"/>
+      <c r="R5" s="2"/>
+      <c r="S5" s="2"/>
+      <c r="T5" s="2"/>
+      <c r="U5" s="2"/>
+      <c r="V5" s="2"/>
+      <c r="W5" s="2"/>
+      <c r="X5" s="9"/>
+    </row>
+    <row r="6" spans="2:24">
+      <c r="B6" s="3"/>
+      <c r="C6" s="3"/>
+      <c r="D6" s="3"/>
+      <c r="E6" s="4" t="s">
+        <v>275</v>
+      </c>
+      <c r="F6" s="2"/>
+      <c r="G6" s="2"/>
+      <c r="H6" s="2"/>
+      <c r="I6" s="2"/>
+      <c r="J6" s="2"/>
+      <c r="K6" s="2"/>
+      <c r="L6" s="2"/>
+      <c r="M6" s="2"/>
+      <c r="N6" s="2"/>
+      <c r="O6" s="2"/>
+      <c r="P6" s="2"/>
+      <c r="Q6" s="2"/>
+      <c r="R6" s="2"/>
+      <c r="S6" s="2"/>
+      <c r="T6" s="2"/>
+      <c r="U6" s="2"/>
+      <c r="V6" s="2"/>
+      <c r="W6" s="2"/>
+      <c r="X6" s="9"/>
+    </row>
+    <row r="7" spans="2:24">
+      <c r="B7" s="3"/>
+      <c r="C7" s="3"/>
+      <c r="D7" s="3"/>
+      <c r="E7" s="4" t="s">
+        <v>276</v>
+      </c>
+      <c r="F7" s="2"/>
+      <c r="G7" s="2"/>
+      <c r="H7" s="2"/>
+      <c r="I7" s="2"/>
+      <c r="J7" s="2"/>
+      <c r="K7" s="2"/>
+      <c r="L7" s="2"/>
+      <c r="M7" s="2"/>
+      <c r="N7" s="2"/>
+      <c r="O7" s="2"/>
+      <c r="P7" s="2"/>
+      <c r="Q7" s="2"/>
+      <c r="R7" s="2"/>
+      <c r="S7" s="2"/>
+      <c r="T7" s="2"/>
+      <c r="U7" s="2"/>
+      <c r="V7" s="2"/>
+      <c r="W7" s="2"/>
+      <c r="X7" s="9"/>
+    </row>
+    <row r="8" spans="2:24">
+      <c r="B8" s="3"/>
+      <c r="C8" s="3"/>
+      <c r="D8" s="3"/>
+      <c r="E8" s="4" t="s">
+        <v>277</v>
+      </c>
+      <c r="F8" s="2"/>
+      <c r="G8" s="2"/>
+      <c r="H8" s="2"/>
+      <c r="I8" s="2"/>
+      <c r="J8" s="2"/>
+      <c r="K8" s="2"/>
+      <c r="L8" s="2"/>
+      <c r="M8" s="2"/>
+      <c r="N8" s="2"/>
+      <c r="O8" s="2"/>
+      <c r="P8" s="2"/>
+      <c r="Q8" s="2"/>
+      <c r="R8" s="2"/>
+      <c r="S8" s="2"/>
+      <c r="T8" s="2"/>
+      <c r="U8" s="2"/>
+      <c r="V8" s="2"/>
+      <c r="W8" s="2"/>
+      <c r="X8" s="9"/>
+    </row>
+    <row r="9" spans="2:24">
+      <c r="B9" s="3"/>
+      <c r="C9" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="D9" s="5"/>
+      <c r="E9" s="4"/>
+      <c r="F9" s="2"/>
+      <c r="G9" s="2"/>
+      <c r="H9" s="2"/>
+      <c r="I9" s="2"/>
+      <c r="J9" s="2"/>
+      <c r="K9" s="2"/>
+      <c r="L9" s="2"/>
+      <c r="M9" s="2"/>
+      <c r="N9" s="2"/>
+      <c r="O9" s="2"/>
+      <c r="P9" s="2"/>
+      <c r="Q9" s="2"/>
+      <c r="R9" s="2"/>
+      <c r="S9" s="2"/>
+      <c r="T9" s="2"/>
+      <c r="U9" s="2"/>
+      <c r="V9" s="2"/>
+      <c r="W9" s="2"/>
+      <c r="X9" s="9"/>
+    </row>
+    <row r="10" spans="2:24">
+      <c r="B10" s="3"/>
+      <c r="C10" s="3"/>
+      <c r="D10" s="1" t="s">
+        <v>273</v>
+      </c>
+      <c r="E10" s="2"/>
+      <c r="F10" s="2"/>
+      <c r="G10" s="2"/>
+      <c r="H10" s="2"/>
+      <c r="I10" s="2"/>
+      <c r="J10" s="2"/>
+      <c r="K10" s="2"/>
+      <c r="L10" s="2"/>
+      <c r="M10" s="2"/>
+      <c r="N10" s="2"/>
+      <c r="O10" s="2"/>
+      <c r="P10" s="2"/>
+      <c r="Q10" s="2"/>
+      <c r="R10" s="2"/>
+      <c r="S10" s="2"/>
+      <c r="T10" s="2"/>
+      <c r="U10" s="2"/>
+      <c r="V10" s="2"/>
+      <c r="W10" s="2"/>
+      <c r="X10" s="9"/>
+    </row>
+    <row r="11" spans="2:24">
+      <c r="B11" s="3"/>
+      <c r="C11" s="3"/>
+      <c r="D11" s="3"/>
+      <c r="E11" s="4" t="s">
+        <v>274</v>
+      </c>
+      <c r="F11" s="2"/>
+      <c r="G11" s="2"/>
+      <c r="H11" s="2"/>
+      <c r="I11" s="2"/>
+      <c r="J11" s="2"/>
+      <c r="K11" s="2"/>
+      <c r="L11" s="2"/>
+      <c r="M11" s="2"/>
+      <c r="N11" s="2"/>
+      <c r="O11" s="2"/>
+      <c r="P11" s="2"/>
+      <c r="Q11" s="2"/>
+      <c r="R11" s="2"/>
+      <c r="S11" s="2"/>
+      <c r="T11" s="2"/>
+      <c r="U11" s="2"/>
+      <c r="V11" s="2"/>
+      <c r="W11" s="2"/>
+      <c r="X11" s="9"/>
+    </row>
+    <row r="12" spans="2:24">
+      <c r="B12" s="3"/>
+      <c r="C12" s="3"/>
+      <c r="D12" s="3"/>
+      <c r="E12" s="4" t="s">
+        <v>275</v>
+      </c>
+      <c r="F12" s="2"/>
+      <c r="G12" s="2"/>
+      <c r="H12" s="2"/>
+      <c r="I12" s="2"/>
+      <c r="J12" s="2"/>
+      <c r="K12" s="2"/>
+      <c r="L12" s="2"/>
+      <c r="M12" s="2"/>
+      <c r="N12" s="2"/>
+      <c r="O12" s="2"/>
+      <c r="P12" s="2"/>
+      <c r="Q12" s="2"/>
+      <c r="R12" s="2"/>
+      <c r="S12" s="2"/>
+      <c r="T12" s="2"/>
+      <c r="U12" s="2"/>
+      <c r="V12" s="2"/>
+      <c r="W12" s="2"/>
+      <c r="X12" s="9"/>
+    </row>
+    <row r="13" spans="2:24">
+      <c r="B13" s="3"/>
+      <c r="C13" s="3"/>
+      <c r="D13" s="3"/>
+      <c r="E13" s="4" t="s">
+        <v>276</v>
+      </c>
+      <c r="F13" s="2"/>
+      <c r="G13" s="2"/>
+      <c r="H13" s="2"/>
+      <c r="I13" s="2"/>
+      <c r="J13" s="2"/>
+      <c r="K13" s="2"/>
+      <c r="L13" s="2"/>
+      <c r="M13" s="2"/>
+      <c r="N13" s="2"/>
+      <c r="O13" s="2"/>
+      <c r="P13" s="2"/>
+      <c r="Q13" s="2"/>
+      <c r="R13" s="2"/>
+      <c r="S13" s="2"/>
+      <c r="T13" s="2"/>
+      <c r="U13" s="2"/>
+      <c r="V13" s="2"/>
+      <c r="W13" s="2"/>
+      <c r="X13" s="9"/>
+    </row>
+    <row r="14" spans="2:24">
+      <c r="B14" s="3"/>
+      <c r="C14" s="3"/>
+      <c r="D14" s="3"/>
+      <c r="E14" s="4" t="s">
+        <v>277</v>
+      </c>
+      <c r="F14" s="2"/>
+      <c r="G14" s="2"/>
+      <c r="H14" s="2"/>
+      <c r="I14" s="2"/>
+      <c r="J14" s="2"/>
+      <c r="K14" s="2"/>
+      <c r="L14" s="2"/>
+      <c r="M14" s="2"/>
+      <c r="N14" s="2"/>
+      <c r="O14" s="2"/>
+      <c r="P14" s="2"/>
+      <c r="Q14" s="2"/>
+      <c r="R14" s="2"/>
+      <c r="S14" s="2"/>
+      <c r="T14" s="2"/>
+      <c r="U14" s="2"/>
+      <c r="V14" s="2"/>
+      <c r="W14" s="2"/>
+      <c r="X14" s="9"/>
+    </row>
+    <row r="15" spans="2:24">
+      <c r="B15" s="3"/>
+      <c r="C15" s="3"/>
+      <c r="D15" s="6" t="s">
+        <v>278</v>
+      </c>
+      <c r="E15" s="4"/>
+      <c r="F15" s="2"/>
+      <c r="G15" s="2"/>
+      <c r="H15" s="2"/>
+      <c r="I15" s="2"/>
+      <c r="J15" s="2"/>
+      <c r="K15" s="2"/>
+      <c r="L15" s="2"/>
+      <c r="M15" s="2"/>
+      <c r="N15" s="2"/>
+      <c r="O15" s="2"/>
+      <c r="P15" s="2"/>
+      <c r="Q15" s="2"/>
+      <c r="R15" s="2"/>
+      <c r="S15" s="2"/>
+      <c r="T15" s="2"/>
+      <c r="U15" s="2"/>
+      <c r="V15" s="2"/>
+      <c r="W15" s="2"/>
+      <c r="X15" s="9"/>
+    </row>
+    <row r="16" spans="2:24">
+      <c r="B16" s="3"/>
+      <c r="C16" s="3"/>
+      <c r="D16" s="3"/>
+      <c r="E16" s="4" t="s">
+        <v>274</v>
+      </c>
+      <c r="F16" s="2"/>
+      <c r="G16" s="2"/>
+      <c r="H16" s="2"/>
+      <c r="I16" s="2"/>
+      <c r="J16" s="2"/>
+      <c r="K16" s="2"/>
+      <c r="L16" s="2"/>
+      <c r="M16" s="2"/>
+      <c r="N16" s="2"/>
+      <c r="O16" s="2"/>
+      <c r="P16" s="2"/>
+      <c r="Q16" s="2"/>
+      <c r="R16" s="2"/>
+      <c r="S16" s="2"/>
+      <c r="T16" s="2"/>
+      <c r="U16" s="2"/>
+      <c r="V16" s="2"/>
+      <c r="W16" s="2"/>
+      <c r="X16" s="9"/>
+    </row>
+    <row r="17" spans="2:24">
+      <c r="B17" s="3"/>
+      <c r="C17" s="3"/>
+      <c r="D17" s="3"/>
+      <c r="E17" s="4" t="s">
+        <v>275</v>
+      </c>
+      <c r="F17" s="2"/>
+      <c r="G17" s="2"/>
+      <c r="H17" s="2"/>
+      <c r="I17" s="2"/>
+      <c r="J17" s="2"/>
+      <c r="K17" s="2"/>
+      <c r="L17" s="2"/>
+      <c r="M17" s="2"/>
+      <c r="N17" s="2"/>
+      <c r="O17" s="2"/>
+      <c r="P17" s="2"/>
+      <c r="Q17" s="2"/>
+      <c r="R17" s="2"/>
+      <c r="S17" s="2"/>
+      <c r="T17" s="2"/>
+      <c r="U17" s="2"/>
+      <c r="V17" s="2"/>
+      <c r="W17" s="2"/>
+      <c r="X17" s="9"/>
+    </row>
+    <row r="18" spans="2:24">
+      <c r="B18" s="3"/>
+      <c r="C18" s="3"/>
+      <c r="D18" s="3"/>
+      <c r="E18" s="4" t="s">
+        <v>276</v>
+      </c>
+      <c r="F18" s="2"/>
+      <c r="G18" s="2"/>
+      <c r="H18" s="2"/>
+      <c r="I18" s="2"/>
+      <c r="J18" s="2"/>
+      <c r="K18" s="2"/>
+      <c r="L18" s="2"/>
+      <c r="M18" s="2"/>
+      <c r="N18" s="2"/>
+      <c r="O18" s="2"/>
+      <c r="P18" s="2"/>
+      <c r="Q18" s="2"/>
+      <c r="R18" s="2"/>
+      <c r="S18" s="2"/>
+      <c r="T18" s="2"/>
+      <c r="U18" s="2"/>
+      <c r="V18" s="2"/>
+      <c r="W18" s="2"/>
+      <c r="X18" s="9"/>
+    </row>
+    <row r="19" spans="2:24">
+      <c r="B19" s="3"/>
+      <c r="C19" s="3"/>
+      <c r="D19" s="3"/>
+      <c r="E19" s="4" t="s">
+        <v>277</v>
+      </c>
+      <c r="F19" s="2"/>
+      <c r="G19" s="2"/>
+      <c r="H19" s="2"/>
+      <c r="I19" s="2"/>
+      <c r="J19" s="2"/>
+      <c r="K19" s="2"/>
+      <c r="L19" s="2"/>
+      <c r="M19" s="2"/>
+      <c r="N19" s="2"/>
+      <c r="O19" s="2"/>
+      <c r="P19" s="2"/>
+      <c r="Q19" s="2"/>
+      <c r="R19" s="2"/>
+      <c r="S19" s="2"/>
+      <c r="T19" s="2"/>
+      <c r="U19" s="2"/>
+      <c r="V19" s="2"/>
+      <c r="W19" s="2"/>
+      <c r="X19" s="9"/>
+    </row>
+    <row r="20" spans="2:24">
+      <c r="B20" s="3"/>
+      <c r="C20" s="3"/>
+      <c r="D20" s="1" t="s">
+        <v>279</v>
+      </c>
+      <c r="E20" s="2"/>
+      <c r="F20" s="2"/>
+      <c r="G20" s="2"/>
+      <c r="H20" s="2"/>
+      <c r="I20" s="2"/>
+      <c r="J20" s="2"/>
+      <c r="K20" s="2"/>
+      <c r="L20" s="2"/>
+      <c r="M20" s="2"/>
+      <c r="N20" s="2"/>
+      <c r="O20" s="2"/>
+      <c r="P20" s="2"/>
+      <c r="Q20" s="2"/>
+      <c r="R20" s="2"/>
+      <c r="S20" s="2"/>
+      <c r="T20" s="2"/>
+      <c r="U20" s="2"/>
+      <c r="V20" s="2"/>
+      <c r="W20" s="2"/>
+      <c r="X20" s="9"/>
+    </row>
+    <row r="21" spans="2:24">
+      <c r="B21" s="3"/>
+      <c r="C21" s="3"/>
+      <c r="D21" s="3"/>
+      <c r="E21" s="1" t="s">
+        <v>278</v>
+      </c>
+      <c r="F21" s="2"/>
+      <c r="G21" s="2"/>
+      <c r="H21" s="2"/>
+      <c r="I21" s="2"/>
+      <c r="J21" s="2"/>
+      <c r="K21" s="2"/>
+      <c r="L21" s="2"/>
+      <c r="M21" s="2"/>
+      <c r="N21" s="2"/>
+      <c r="O21" s="2"/>
+      <c r="P21" s="2"/>
+      <c r="Q21" s="2"/>
+      <c r="R21" s="2"/>
+      <c r="S21" s="2"/>
+      <c r="T21" s="2"/>
+      <c r="U21" s="2"/>
+      <c r="V21" s="2"/>
+      <c r="W21" s="2"/>
+      <c r="X21" s="9"/>
+    </row>
+    <row r="22" spans="2:24">
+      <c r="B22" s="3"/>
+      <c r="C22" s="3"/>
+      <c r="D22" s="3"/>
+      <c r="E22" s="3"/>
+      <c r="F22" s="7">
+        <v>1</v>
+      </c>
+      <c r="G22" s="2"/>
+      <c r="H22" s="2"/>
+      <c r="I22" s="2"/>
+      <c r="J22" s="2"/>
+      <c r="K22" s="2"/>
+      <c r="L22" s="2"/>
+      <c r="M22" s="2"/>
+      <c r="N22" s="2"/>
+      <c r="O22" s="2"/>
+      <c r="P22" s="2"/>
+      <c r="Q22" s="2"/>
+      <c r="R22" s="2"/>
+      <c r="S22" s="2"/>
+      <c r="T22" s="2"/>
+      <c r="U22" s="2"/>
+      <c r="V22" s="2"/>
+      <c r="W22" s="2"/>
+      <c r="X22" s="9"/>
+    </row>
+    <row r="23" spans="2:24">
+      <c r="B23" s="3"/>
+      <c r="C23" s="3"/>
+      <c r="D23" s="3"/>
+      <c r="E23" s="3"/>
+      <c r="F23" s="7">
+        <v>2</v>
+      </c>
+      <c r="G23" s="2"/>
+      <c r="H23" s="2"/>
+      <c r="I23" s="2"/>
+      <c r="J23" s="2"/>
+      <c r="K23" s="2"/>
+      <c r="L23" s="2"/>
+      <c r="M23" s="2"/>
+      <c r="N23" s="2"/>
+      <c r="O23" s="2"/>
+      <c r="P23" s="2"/>
+      <c r="Q23" s="2"/>
+      <c r="R23" s="2"/>
+      <c r="S23" s="2"/>
+      <c r="T23" s="2"/>
+      <c r="U23" s="2"/>
+      <c r="V23" s="2"/>
+      <c r="W23" s="2"/>
+      <c r="X23" s="9"/>
+    </row>
+    <row r="24" hidden="1" outlineLevel="1" spans="2:24">
+      <c r="B24" s="3"/>
+      <c r="C24" s="3"/>
+      <c r="D24" s="3"/>
+      <c r="E24" s="3"/>
+      <c r="F24" s="7">
+        <v>3</v>
+      </c>
+      <c r="G24" s="2"/>
+      <c r="H24" s="2"/>
+      <c r="I24" s="2"/>
+      <c r="J24" s="2"/>
+      <c r="K24" s="2"/>
+      <c r="L24" s="2"/>
+      <c r="M24" s="2"/>
+      <c r="N24" s="2"/>
+      <c r="O24" s="2"/>
+      <c r="P24" s="2"/>
+      <c r="Q24" s="2"/>
+      <c r="R24" s="2"/>
+      <c r="S24" s="2"/>
+      <c r="T24" s="2"/>
+      <c r="U24" s="2"/>
+      <c r="V24" s="2"/>
+      <c r="W24" s="2"/>
+      <c r="X24" s="9"/>
+    </row>
+    <row r="25" hidden="1" outlineLevel="1" spans="2:24">
+      <c r="B25" s="3"/>
+      <c r="C25" s="3"/>
+      <c r="D25" s="3"/>
+      <c r="E25" s="3"/>
+      <c r="F25" s="7">
+        <v>4</v>
+      </c>
+      <c r="G25" s="2"/>
+      <c r="H25" s="2"/>
+      <c r="I25" s="2"/>
+      <c r="J25" s="2"/>
+      <c r="K25" s="2"/>
+      <c r="L25" s="2"/>
+      <c r="M25" s="2"/>
+      <c r="N25" s="2"/>
+      <c r="O25" s="2"/>
+      <c r="P25" s="2"/>
+      <c r="Q25" s="2"/>
+      <c r="R25" s="2"/>
+      <c r="S25" s="2"/>
+      <c r="T25" s="2"/>
+      <c r="U25" s="2"/>
+      <c r="V25" s="2"/>
+      <c r="W25" s="2"/>
+      <c r="X25" s="9"/>
+    </row>
+    <row r="26" hidden="1" outlineLevel="1" spans="2:24">
+      <c r="B26" s="3"/>
+      <c r="C26" s="3"/>
+      <c r="D26" s="3"/>
+      <c r="E26" s="3"/>
+      <c r="F26" s="7">
+        <v>5</v>
+      </c>
+      <c r="G26" s="2"/>
+      <c r="H26" s="2"/>
+      <c r="I26" s="2"/>
+      <c r="J26" s="2"/>
+      <c r="K26" s="2"/>
+      <c r="L26" s="2"/>
+      <c r="M26" s="2"/>
+      <c r="N26" s="2"/>
+      <c r="O26" s="2"/>
+      <c r="P26" s="2"/>
+      <c r="Q26" s="2"/>
+      <c r="R26" s="2"/>
+      <c r="S26" s="2"/>
+      <c r="T26" s="2"/>
+      <c r="U26" s="2"/>
+      <c r="V26" s="2"/>
+      <c r="W26" s="2"/>
+      <c r="X26" s="9"/>
+    </row>
+    <row r="27" hidden="1" outlineLevel="1" spans="2:24">
+      <c r="B27" s="3"/>
+      <c r="C27" s="3"/>
+      <c r="D27" s="3"/>
+      <c r="E27" s="3"/>
+      <c r="F27" s="7">
+        <v>6</v>
+      </c>
+      <c r="G27" s="2"/>
+      <c r="H27" s="2"/>
+      <c r="I27" s="2"/>
+      <c r="J27" s="2"/>
+      <c r="K27" s="2"/>
+      <c r="L27" s="2"/>
+      <c r="M27" s="2"/>
+      <c r="N27" s="2"/>
+      <c r="O27" s="2"/>
+      <c r="P27" s="2"/>
+      <c r="Q27" s="2"/>
+      <c r="R27" s="2"/>
+      <c r="S27" s="2"/>
+      <c r="T27" s="2"/>
+      <c r="U27" s="2"/>
+      <c r="V27" s="2"/>
+      <c r="W27" s="2"/>
+      <c r="X27" s="9"/>
+    </row>
+    <row r="28" hidden="1" outlineLevel="1" spans="2:24">
+      <c r="B28" s="3"/>
+      <c r="C28" s="3"/>
+      <c r="D28" s="3"/>
+      <c r="E28" s="3"/>
+      <c r="F28" s="7">
+        <v>7</v>
+      </c>
+      <c r="G28" s="2"/>
+      <c r="H28" s="2"/>
+      <c r="I28" s="2"/>
+      <c r="J28" s="2"/>
+      <c r="K28" s="2"/>
+      <c r="L28" s="2"/>
+      <c r="M28" s="2"/>
+      <c r="N28" s="2"/>
+      <c r="O28" s="2"/>
+      <c r="P28" s="2"/>
+      <c r="Q28" s="2"/>
+      <c r="R28" s="2"/>
+      <c r="S28" s="2"/>
+      <c r="T28" s="2"/>
+      <c r="U28" s="2"/>
+      <c r="V28" s="2"/>
+      <c r="W28" s="2"/>
+      <c r="X28" s="9"/>
+    </row>
+    <row r="29" hidden="1" outlineLevel="1" spans="2:24">
+      <c r="B29" s="3"/>
+      <c r="C29" s="3"/>
+      <c r="D29" s="3"/>
+      <c r="E29" s="3"/>
+      <c r="F29" s="7">
+        <v>8</v>
+      </c>
+      <c r="G29" s="2"/>
+      <c r="H29" s="2"/>
+      <c r="I29" s="2"/>
+      <c r="J29" s="2"/>
+      <c r="K29" s="2"/>
+      <c r="L29" s="2"/>
+      <c r="M29" s="2"/>
+      <c r="N29" s="2"/>
+      <c r="O29" s="2"/>
+      <c r="P29" s="2"/>
+      <c r="Q29" s="2"/>
+      <c r="R29" s="2"/>
+      <c r="S29" s="2"/>
+      <c r="T29" s="2"/>
+      <c r="U29" s="2"/>
+      <c r="V29" s="2"/>
+      <c r="W29" s="2"/>
+      <c r="X29" s="9"/>
+    </row>
+    <row r="30" hidden="1" outlineLevel="1" spans="2:24">
+      <c r="B30" s="3"/>
+      <c r="C30" s="3"/>
+      <c r="D30" s="3"/>
+      <c r="E30" s="3"/>
+      <c r="F30" s="7">
+        <v>9</v>
+      </c>
+      <c r="G30" s="2"/>
+      <c r="H30" s="2"/>
+      <c r="I30" s="2"/>
+      <c r="J30" s="2"/>
+      <c r="K30" s="2"/>
+      <c r="L30" s="2"/>
+      <c r="M30" s="2"/>
+      <c r="N30" s="2"/>
+      <c r="O30" s="2"/>
+      <c r="P30" s="2"/>
+      <c r="Q30" s="2"/>
+      <c r="R30" s="2"/>
+      <c r="S30" s="2"/>
+      <c r="T30" s="2"/>
+      <c r="U30" s="2"/>
+      <c r="V30" s="2"/>
+      <c r="W30" s="2"/>
+      <c r="X30" s="9"/>
+    </row>
+    <row r="31" hidden="1" outlineLevel="1" spans="2:24">
+      <c r="B31" s="3"/>
+      <c r="C31" s="3"/>
+      <c r="D31" s="3"/>
+      <c r="E31" s="3"/>
+      <c r="F31" s="7">
+        <v>10</v>
+      </c>
+      <c r="G31" s="2"/>
+      <c r="H31" s="2"/>
+      <c r="I31" s="2"/>
+      <c r="J31" s="2"/>
+      <c r="K31" s="2"/>
+      <c r="L31" s="2"/>
+      <c r="M31" s="2"/>
+      <c r="N31" s="2"/>
+      <c r="O31" s="2"/>
+      <c r="P31" s="2"/>
+      <c r="Q31" s="2"/>
+      <c r="R31" s="2"/>
+      <c r="S31" s="2"/>
+      <c r="T31" s="2"/>
+      <c r="U31" s="2"/>
+      <c r="V31" s="2"/>
+      <c r="W31" s="2"/>
+      <c r="X31" s="9"/>
+    </row>
+    <row r="32" hidden="1" outlineLevel="1" spans="2:24">
+      <c r="B32" s="3"/>
+      <c r="C32" s="3"/>
+      <c r="D32" s="3"/>
+      <c r="E32" s="3"/>
+      <c r="F32" s="7">
+        <v>11</v>
+      </c>
+      <c r="G32" s="2"/>
+      <c r="H32" s="2"/>
+      <c r="I32" s="2"/>
+      <c r="J32" s="2"/>
+      <c r="K32" s="2"/>
+      <c r="L32" s="2"/>
+      <c r="M32" s="2"/>
+      <c r="N32" s="2"/>
+      <c r="O32" s="2"/>
+      <c r="P32" s="2"/>
+      <c r="Q32" s="2"/>
+      <c r="R32" s="2"/>
+      <c r="S32" s="2"/>
+      <c r="T32" s="2"/>
+      <c r="U32" s="2"/>
+      <c r="V32" s="2"/>
+      <c r="W32" s="2"/>
+      <c r="X32" s="9"/>
+    </row>
+    <row r="33" hidden="1" outlineLevel="1" spans="2:24">
+      <c r="B33" s="3"/>
+      <c r="C33" s="3"/>
+      <c r="D33" s="3"/>
+      <c r="E33" s="3"/>
+      <c r="F33" s="7">
+        <v>12</v>
+      </c>
+      <c r="G33" s="2"/>
+      <c r="H33" s="2"/>
+      <c r="I33" s="2"/>
+      <c r="J33" s="2"/>
+      <c r="K33" s="2"/>
+      <c r="L33" s="2"/>
+      <c r="M33" s="2"/>
+      <c r="N33" s="2"/>
+      <c r="O33" s="2"/>
+      <c r="P33" s="2"/>
+      <c r="Q33" s="2"/>
+      <c r="R33" s="2"/>
+      <c r="S33" s="2"/>
+      <c r="T33" s="2"/>
+      <c r="U33" s="2"/>
+      <c r="V33" s="2"/>
+      <c r="W33" s="2"/>
+      <c r="X33" s="9"/>
+    </row>
+    <row r="34" hidden="1" outlineLevel="1" spans="2:24">
+      <c r="B34" s="3"/>
+      <c r="C34" s="3"/>
+      <c r="D34" s="3"/>
+      <c r="E34" s="3"/>
+      <c r="F34" s="7">
+        <v>13</v>
+      </c>
+      <c r="G34" s="2"/>
+      <c r="H34" s="2"/>
+      <c r="I34" s="2"/>
+      <c r="J34" s="2"/>
+      <c r="K34" s="2"/>
+      <c r="L34" s="2"/>
+      <c r="M34" s="2"/>
+      <c r="N34" s="2"/>
+      <c r="O34" s="2"/>
+      <c r="P34" s="2"/>
+      <c r="Q34" s="2"/>
+      <c r="R34" s="2"/>
+      <c r="S34" s="2"/>
+      <c r="T34" s="2"/>
+      <c r="U34" s="2"/>
+      <c r="V34" s="2"/>
+      <c r="W34" s="2"/>
+      <c r="X34" s="9"/>
+    </row>
+    <row r="35" hidden="1" outlineLevel="1" spans="2:24">
+      <c r="B35" s="3"/>
+      <c r="C35" s="3"/>
+      <c r="D35" s="3"/>
+      <c r="E35" s="3"/>
+      <c r="F35" s="7">
+        <v>14</v>
+      </c>
+      <c r="G35" s="2"/>
+      <c r="H35" s="2"/>
+      <c r="I35" s="2"/>
+      <c r="J35" s="2"/>
+      <c r="K35" s="2"/>
+      <c r="L35" s="2"/>
+      <c r="M35" s="2"/>
+      <c r="N35" s="2"/>
+      <c r="O35" s="2"/>
+      <c r="P35" s="2"/>
+      <c r="Q35" s="2"/>
+      <c r="R35" s="2"/>
+      <c r="S35" s="2"/>
+      <c r="T35" s="2"/>
+      <c r="U35" s="2"/>
+      <c r="V35" s="2"/>
+      <c r="W35" s="2"/>
+      <c r="X35" s="9"/>
+    </row>
+    <row r="36" hidden="1" outlineLevel="1" spans="2:24">
+      <c r="B36" s="3"/>
+      <c r="C36" s="3"/>
+      <c r="D36" s="3"/>
+      <c r="E36" s="3"/>
+      <c r="F36" s="7">
+        <v>15</v>
+      </c>
+      <c r="G36" s="2"/>
+      <c r="H36" s="2"/>
+      <c r="I36" s="2"/>
+      <c r="J36" s="2"/>
+      <c r="K36" s="2"/>
+      <c r="L36" s="2"/>
+      <c r="M36" s="2"/>
+      <c r="N36" s="2"/>
+      <c r="O36" s="2"/>
+      <c r="P36" s="2"/>
+      <c r="Q36" s="2"/>
+      <c r="R36" s="2"/>
+      <c r="S36" s="2"/>
+      <c r="T36" s="2"/>
+      <c r="U36" s="2"/>
+      <c r="V36" s="2"/>
+      <c r="W36" s="2"/>
+      <c r="X36" s="9"/>
+    </row>
+    <row r="37" hidden="1" outlineLevel="1" spans="2:24">
+      <c r="B37" s="3"/>
+      <c r="C37" s="3"/>
+      <c r="D37" s="3"/>
+      <c r="E37" s="3"/>
+      <c r="F37" s="7">
+        <v>16</v>
+      </c>
+      <c r="G37" s="2"/>
+      <c r="H37" s="2"/>
+      <c r="I37" s="2"/>
+      <c r="J37" s="2"/>
+      <c r="K37" s="2"/>
+      <c r="L37" s="2"/>
+      <c r="M37" s="2"/>
+      <c r="N37" s="2"/>
+      <c r="O37" s="2"/>
+      <c r="P37" s="2"/>
+      <c r="Q37" s="2"/>
+      <c r="R37" s="2"/>
+      <c r="S37" s="2"/>
+      <c r="T37" s="2"/>
+      <c r="U37" s="2"/>
+      <c r="V37" s="2"/>
+      <c r="W37" s="2"/>
+      <c r="X37" s="9"/>
+    </row>
+    <row r="38" hidden="1" outlineLevel="1" spans="2:24">
+      <c r="B38" s="3"/>
+      <c r="C38" s="3"/>
+      <c r="D38" s="3"/>
+      <c r="E38" s="3"/>
+      <c r="F38" s="7">
+        <v>17</v>
+      </c>
+      <c r="G38" s="2"/>
+      <c r="H38" s="2"/>
+      <c r="I38" s="2"/>
+      <c r="J38" s="2"/>
+      <c r="K38" s="2"/>
+      <c r="L38" s="2"/>
+      <c r="M38" s="2"/>
+      <c r="N38" s="2"/>
+      <c r="O38" s="2"/>
+      <c r="P38" s="2"/>
+      <c r="Q38" s="2"/>
+      <c r="R38" s="2"/>
+      <c r="S38" s="2"/>
+      <c r="T38" s="2"/>
+      <c r="U38" s="2"/>
+      <c r="V38" s="2"/>
+      <c r="W38" s="2"/>
+      <c r="X38" s="9"/>
+    </row>
+    <row r="39" hidden="1" outlineLevel="1" spans="2:24">
+      <c r="B39" s="3"/>
+      <c r="C39" s="3"/>
+      <c r="D39" s="3"/>
+      <c r="E39" s="8"/>
+      <c r="F39" s="7">
+        <v>18</v>
+      </c>
+      <c r="G39" s="2"/>
+      <c r="H39" s="2"/>
+      <c r="I39" s="2"/>
+      <c r="J39" s="2"/>
+      <c r="K39" s="2"/>
+      <c r="L39" s="2"/>
+      <c r="M39" s="2"/>
+      <c r="N39" s="2"/>
+      <c r="O39" s="2"/>
+      <c r="P39" s="2"/>
+      <c r="Q39" s="2"/>
+      <c r="R39" s="2"/>
+      <c r="S39" s="2"/>
+      <c r="T39" s="2"/>
+      <c r="U39" s="2"/>
+      <c r="V39" s="2"/>
+      <c r="W39" s="2"/>
+      <c r="X39" s="9"/>
+    </row>
+    <row r="40" hidden="1" outlineLevel="1" spans="2:24">
+      <c r="B40" s="3"/>
+      <c r="C40" s="3"/>
+      <c r="D40" s="3"/>
+      <c r="E40" s="8"/>
+      <c r="F40" s="2">
+        <v>19</v>
+      </c>
+      <c r="G40" s="2"/>
+      <c r="H40" s="2"/>
+      <c r="I40" s="2"/>
+      <c r="J40" s="2"/>
+      <c r="K40" s="2"/>
+      <c r="L40" s="2"/>
+      <c r="M40" s="2"/>
+      <c r="N40" s="2"/>
+      <c r="O40" s="2"/>
+      <c r="P40" s="2"/>
+      <c r="Q40" s="2"/>
+      <c r="R40" s="2"/>
+      <c r="S40" s="2"/>
+      <c r="T40" s="2"/>
+      <c r="U40" s="2"/>
+      <c r="V40" s="2"/>
+      <c r="W40" s="2"/>
+      <c r="X40" s="9"/>
+    </row>
+    <row r="41" hidden="1" outlineLevel="1" spans="2:24">
+      <c r="B41" s="3"/>
+      <c r="C41" s="3"/>
+      <c r="D41" s="3"/>
+      <c r="E41" s="8"/>
+      <c r="F41" s="2">
+        <v>20</v>
+      </c>
+      <c r="G41" s="2"/>
+      <c r="H41" s="2"/>
+      <c r="I41" s="2"/>
+      <c r="J41" s="2"/>
+      <c r="K41" s="2"/>
+      <c r="L41" s="2"/>
+      <c r="M41" s="2"/>
+      <c r="N41" s="2"/>
+      <c r="O41" s="2"/>
+      <c r="P41" s="2"/>
+      <c r="Q41" s="2"/>
+      <c r="R41" s="2"/>
+      <c r="S41" s="2"/>
+      <c r="T41" s="2"/>
+      <c r="U41" s="2"/>
+      <c r="V41" s="2"/>
+      <c r="W41" s="2"/>
+      <c r="X41" s="9"/>
+    </row>
+    <row r="42" hidden="1" outlineLevel="1" spans="2:24">
+      <c r="B42" s="3"/>
+      <c r="C42" s="3"/>
+      <c r="D42" s="3"/>
+      <c r="E42" s="8"/>
+      <c r="F42" s="2">
+        <v>21</v>
+      </c>
+      <c r="G42" s="2"/>
+      <c r="H42" s="2"/>
+      <c r="I42" s="2"/>
+      <c r="J42" s="2"/>
+      <c r="K42" s="2"/>
+      <c r="L42" s="2"/>
+      <c r="M42" s="2"/>
+      <c r="N42" s="2"/>
+      <c r="O42" s="2"/>
+      <c r="P42" s="2"/>
+      <c r="Q42" s="2"/>
+      <c r="R42" s="2"/>
+      <c r="S42" s="2"/>
+      <c r="T42" s="2"/>
+      <c r="U42" s="2"/>
+      <c r="V42" s="2"/>
+      <c r="W42" s="2"/>
+      <c r="X42" s="9"/>
+    </row>
+    <row r="43" hidden="1" outlineLevel="1" spans="2:24">
+      <c r="B43" s="3"/>
+      <c r="C43" s="3"/>
+      <c r="D43" s="3"/>
+      <c r="E43" s="8"/>
+      <c r="F43" s="2">
+        <v>22</v>
+      </c>
+      <c r="G43" s="2"/>
+      <c r="H43" s="2"/>
+      <c r="I43" s="2"/>
+      <c r="J43" s="2"/>
+      <c r="K43" s="2"/>
+      <c r="L43" s="2"/>
+      <c r="M43" s="2"/>
+      <c r="N43" s="2"/>
+      <c r="O43" s="2"/>
+      <c r="P43" s="2"/>
+      <c r="Q43" s="2"/>
+      <c r="R43" s="2"/>
+      <c r="S43" s="2"/>
+      <c r="T43" s="2"/>
+      <c r="U43" s="2"/>
+      <c r="V43" s="2"/>
+      <c r="W43" s="2"/>
+      <c r="X43" s="9"/>
+    </row>
+    <row r="44" collapsed="1" spans="2:24">
+      <c r="B44" s="3"/>
+      <c r="C44" s="3"/>
+      <c r="D44" s="3"/>
+      <c r="E44" s="4" t="s">
+        <v>280</v>
+      </c>
+      <c r="F44" s="2"/>
+      <c r="G44" s="2"/>
+      <c r="H44" s="2"/>
+      <c r="I44" s="2"/>
+      <c r="J44" s="2"/>
+      <c r="K44" s="2"/>
+      <c r="L44" s="2"/>
+      <c r="M44" s="2"/>
+      <c r="N44" s="2"/>
+      <c r="O44" s="2"/>
+      <c r="P44" s="2"/>
+      <c r="Q44" s="2"/>
+      <c r="R44" s="2"/>
+      <c r="S44" s="2"/>
+      <c r="T44" s="2"/>
+      <c r="U44" s="2"/>
+      <c r="V44" s="2"/>
+      <c r="W44" s="2"/>
+      <c r="X44" s="9"/>
+    </row>
+    <row r="45" customFormat="1" spans="2:24">
+      <c r="B45" s="3"/>
+      <c r="C45" s="3"/>
+      <c r="D45" s="3"/>
+      <c r="E45" s="3"/>
+      <c r="F45" s="7">
+        <v>1</v>
+      </c>
+      <c r="G45" s="2"/>
+      <c r="H45" s="2"/>
+      <c r="I45" s="2"/>
+      <c r="J45" s="2"/>
+      <c r="K45" s="2"/>
+      <c r="L45" s="2"/>
+      <c r="M45" s="2"/>
+      <c r="N45" s="2"/>
+      <c r="O45" s="2"/>
+      <c r="P45" s="2"/>
+      <c r="Q45" s="2"/>
+      <c r="R45" s="2"/>
+      <c r="S45" s="2"/>
+      <c r="T45" s="2"/>
+      <c r="U45" s="2"/>
+      <c r="V45" s="2"/>
+      <c r="W45" s="2"/>
+      <c r="X45" s="9"/>
+    </row>
+    <row r="46" customFormat="1" spans="2:24">
+      <c r="B46" s="3"/>
+      <c r="C46" s="3"/>
+      <c r="D46" s="3"/>
+      <c r="E46" s="3"/>
+      <c r="F46" s="7">
+        <v>2</v>
+      </c>
+      <c r="G46" s="2"/>
+      <c r="H46" s="2"/>
+      <c r="I46" s="2"/>
+      <c r="J46" s="2"/>
+      <c r="K46" s="2"/>
+      <c r="L46" s="2"/>
+      <c r="M46" s="2"/>
+      <c r="N46" s="2"/>
+      <c r="O46" s="2"/>
+      <c r="P46" s="2"/>
+      <c r="Q46" s="2"/>
+      <c r="R46" s="2"/>
+      <c r="S46" s="2"/>
+      <c r="T46" s="2"/>
+      <c r="U46" s="2"/>
+      <c r="V46" s="2"/>
+      <c r="W46" s="2"/>
+      <c r="X46" s="9"/>
+    </row>
+    <row r="47" customFormat="1" hidden="1" outlineLevel="1" spans="2:24">
+      <c r="B47" s="3"/>
+      <c r="C47" s="3"/>
+      <c r="D47" s="3"/>
+      <c r="E47" s="3"/>
+      <c r="F47" s="7">
+        <v>3</v>
+      </c>
+      <c r="G47" s="2"/>
+      <c r="H47" s="2"/>
+      <c r="I47" s="2"/>
+      <c r="J47" s="2"/>
+      <c r="K47" s="2"/>
+      <c r="L47" s="2"/>
+      <c r="M47" s="2"/>
+      <c r="N47" s="2"/>
+      <c r="O47" s="2"/>
+      <c r="P47" s="2"/>
+      <c r="Q47" s="2"/>
+      <c r="R47" s="2"/>
+      <c r="S47" s="2"/>
+      <c r="T47" s="2"/>
+      <c r="U47" s="2"/>
+      <c r="V47" s="2"/>
+      <c r="W47" s="2"/>
+      <c r="X47" s="9"/>
+    </row>
+    <row r="48" customFormat="1" hidden="1" outlineLevel="1" spans="2:24">
+      <c r="B48" s="3"/>
+      <c r="C48" s="3"/>
+      <c r="D48" s="3"/>
+      <c r="E48" s="3"/>
+      <c r="F48" s="7">
+        <v>4</v>
+      </c>
+      <c r="G48" s="2"/>
+      <c r="H48" s="2"/>
+      <c r="I48" s="2"/>
+      <c r="J48" s="2"/>
+      <c r="K48" s="2"/>
+      <c r="L48" s="2"/>
+      <c r="M48" s="2"/>
+      <c r="N48" s="2"/>
+      <c r="O48" s="2"/>
+      <c r="P48" s="2"/>
+      <c r="Q48" s="2"/>
+      <c r="R48" s="2"/>
+      <c r="S48" s="2"/>
+      <c r="T48" s="2"/>
+      <c r="U48" s="2"/>
+      <c r="V48" s="2"/>
+      <c r="W48" s="2"/>
+      <c r="X48" s="9"/>
+    </row>
+    <row r="49" customFormat="1" hidden="1" outlineLevel="1" spans="2:24">
+      <c r="B49" s="3"/>
+      <c r="C49" s="3"/>
+      <c r="D49" s="3"/>
+      <c r="E49" s="3"/>
+      <c r="F49" s="7">
+        <v>5</v>
+      </c>
+      <c r="G49" s="2"/>
+      <c r="H49" s="2"/>
+      <c r="I49" s="2"/>
+      <c r="J49" s="2"/>
+      <c r="K49" s="2"/>
+      <c r="L49" s="2"/>
+      <c r="M49" s="2"/>
+      <c r="N49" s="2"/>
+      <c r="O49" s="2"/>
+      <c r="P49" s="2"/>
+      <c r="Q49" s="2"/>
+      <c r="R49" s="2"/>
+      <c r="S49" s="2"/>
+      <c r="T49" s="2"/>
+      <c r="U49" s="2"/>
+      <c r="V49" s="2"/>
+      <c r="W49" s="2"/>
+      <c r="X49" s="9"/>
+    </row>
+    <row r="50" customFormat="1" hidden="1" outlineLevel="1" spans="2:24">
+      <c r="B50" s="3"/>
+      <c r="C50" s="3"/>
+      <c r="D50" s="3"/>
+      <c r="E50" s="3"/>
+      <c r="F50" s="7">
+        <v>6</v>
+      </c>
+      <c r="G50" s="2"/>
+      <c r="H50" s="2"/>
+      <c r="I50" s="2"/>
+      <c r="J50" s="2"/>
+      <c r="K50" s="2"/>
+      <c r="L50" s="2"/>
+      <c r="M50" s="2"/>
+      <c r="N50" s="2"/>
+      <c r="O50" s="2"/>
+      <c r="P50" s="2"/>
+      <c r="Q50" s="2"/>
+      <c r="R50" s="2"/>
+      <c r="S50" s="2"/>
+      <c r="T50" s="2"/>
+      <c r="U50" s="2"/>
+      <c r="V50" s="2"/>
+      <c r="W50" s="2"/>
+      <c r="X50" s="9"/>
+    </row>
+    <row r="51" customFormat="1" hidden="1" outlineLevel="1" spans="2:24">
+      <c r="B51" s="3"/>
+      <c r="C51" s="3"/>
+      <c r="D51" s="3"/>
+      <c r="E51" s="3"/>
+      <c r="F51" s="7">
+        <v>7</v>
+      </c>
+      <c r="G51" s="2"/>
+      <c r="H51" s="2"/>
+      <c r="I51" s="2"/>
+      <c r="J51" s="2"/>
+      <c r="K51" s="2"/>
+      <c r="L51" s="2"/>
+      <c r="M51" s="2"/>
+      <c r="N51" s="2"/>
+      <c r="O51" s="2"/>
+      <c r="P51" s="2"/>
+      <c r="Q51" s="2"/>
+      <c r="R51" s="2"/>
+      <c r="S51" s="2"/>
+      <c r="T51" s="2"/>
+      <c r="U51" s="2"/>
+      <c r="V51" s="2"/>
+      <c r="W51" s="2"/>
+      <c r="X51" s="9"/>
+    </row>
+    <row r="52" customFormat="1" hidden="1" outlineLevel="1" spans="2:24">
+      <c r="B52" s="3"/>
+      <c r="C52" s="3"/>
+      <c r="D52" s="3"/>
+      <c r="E52" s="3"/>
+      <c r="F52" s="7">
+        <v>8</v>
+      </c>
+      <c r="G52" s="2"/>
+      <c r="H52" s="2"/>
+      <c r="I52" s="2"/>
+      <c r="J52" s="2"/>
+      <c r="K52" s="2"/>
+      <c r="L52" s="2"/>
+      <c r="M52" s="2"/>
+      <c r="N52" s="2"/>
+      <c r="O52" s="2"/>
+      <c r="P52" s="2"/>
+      <c r="Q52" s="2"/>
+      <c r="R52" s="2"/>
+      <c r="S52" s="2"/>
+      <c r="T52" s="2"/>
+      <c r="U52" s="2"/>
+      <c r="V52" s="2"/>
+      <c r="W52" s="2"/>
+      <c r="X52" s="9"/>
+    </row>
+    <row r="53" customFormat="1" hidden="1" outlineLevel="1" spans="2:24">
+      <c r="B53" s="3"/>
+      <c r="C53" s="3"/>
+      <c r="D53" s="3"/>
+      <c r="E53" s="3"/>
+      <c r="F53" s="7">
+        <v>9</v>
+      </c>
+      <c r="G53" s="2"/>
+      <c r="H53" s="2"/>
+      <c r="I53" s="2"/>
+      <c r="J53" s="2"/>
+      <c r="K53" s="2"/>
+      <c r="L53" s="2"/>
+      <c r="M53" s="2"/>
+      <c r="N53" s="2"/>
+      <c r="O53" s="2"/>
+      <c r="P53" s="2"/>
+      <c r="Q53" s="2"/>
+      <c r="R53" s="2"/>
+      <c r="S53" s="2"/>
+      <c r="T53" s="2"/>
+      <c r="U53" s="2"/>
+      <c r="V53" s="2"/>
+      <c r="W53" s="2"/>
+      <c r="X53" s="9"/>
+    </row>
+    <row r="54" customFormat="1" hidden="1" outlineLevel="1" spans="2:24">
+      <c r="B54" s="3"/>
+      <c r="C54" s="3"/>
+      <c r="D54" s="3"/>
+      <c r="E54" s="3"/>
+      <c r="F54" s="7">
+        <v>10</v>
+      </c>
+      <c r="G54" s="2"/>
+      <c r="H54" s="2"/>
+      <c r="I54" s="2"/>
+      <c r="J54" s="2"/>
+      <c r="K54" s="2"/>
+      <c r="L54" s="2"/>
+      <c r="M54" s="2"/>
+      <c r="N54" s="2"/>
+      <c r="O54" s="2"/>
+      <c r="P54" s="2"/>
+      <c r="Q54" s="2"/>
+      <c r="R54" s="2"/>
+      <c r="S54" s="2"/>
+      <c r="T54" s="2"/>
+      <c r="U54" s="2"/>
+      <c r="V54" s="2"/>
+      <c r="W54" s="2"/>
+      <c r="X54" s="9"/>
+    </row>
+    <row r="55" customFormat="1" hidden="1" outlineLevel="1" spans="2:24">
+      <c r="B55" s="3"/>
+      <c r="C55" s="3"/>
+      <c r="D55" s="3"/>
+      <c r="E55" s="3"/>
+      <c r="F55" s="7">
+        <v>11</v>
+      </c>
+      <c r="G55" s="2"/>
+      <c r="H55" s="2"/>
+      <c r="I55" s="2"/>
+      <c r="J55" s="2"/>
+      <c r="K55" s="2"/>
+      <c r="L55" s="2"/>
+      <c r="M55" s="2"/>
+      <c r="N55" s="2"/>
+      <c r="O55" s="2"/>
+      <c r="P55" s="2"/>
+      <c r="Q55" s="2"/>
+      <c r="R55" s="2"/>
+      <c r="S55" s="2"/>
+      <c r="T55" s="2"/>
+      <c r="U55" s="2"/>
+      <c r="V55" s="2"/>
+      <c r="W55" s="2"/>
+      <c r="X55" s="9"/>
+    </row>
+    <row r="56" customFormat="1" hidden="1" outlineLevel="1" spans="2:24">
+      <c r="B56" s="3"/>
+      <c r="C56" s="3"/>
+      <c r="D56" s="3"/>
+      <c r="E56" s="3"/>
+      <c r="F56" s="7">
+        <v>12</v>
+      </c>
+      <c r="G56" s="2"/>
+      <c r="H56" s="2"/>
+      <c r="I56" s="2"/>
+      <c r="J56" s="2"/>
+      <c r="K56" s="2"/>
+      <c r="L56" s="2"/>
+      <c r="M56" s="2"/>
+      <c r="N56" s="2"/>
+      <c r="O56" s="2"/>
+      <c r="P56" s="2"/>
+      <c r="Q56" s="2"/>
+      <c r="R56" s="2"/>
+      <c r="S56" s="2"/>
+      <c r="T56" s="2"/>
+      <c r="U56" s="2"/>
+      <c r="V56" s="2"/>
+      <c r="W56" s="2"/>
+      <c r="X56" s="9"/>
+    </row>
+    <row r="57" customFormat="1" hidden="1" outlineLevel="1" spans="2:24">
+      <c r="B57" s="3"/>
+      <c r="C57" s="3"/>
+      <c r="D57" s="3"/>
+      <c r="E57" s="3"/>
+      <c r="F57" s="7">
+        <v>13</v>
+      </c>
+      <c r="G57" s="2"/>
+      <c r="H57" s="2"/>
+      <c r="I57" s="2"/>
+      <c r="J57" s="2"/>
+      <c r="K57" s="2"/>
+      <c r="L57" s="2"/>
+      <c r="M57" s="2"/>
+      <c r="N57" s="2"/>
+      <c r="O57" s="2"/>
+      <c r="P57" s="2"/>
+      <c r="Q57" s="2"/>
+      <c r="R57" s="2"/>
+      <c r="S57" s="2"/>
+      <c r="T57" s="2"/>
+      <c r="U57" s="2"/>
+      <c r="V57" s="2"/>
+      <c r="W57" s="2"/>
+      <c r="X57" s="9"/>
+    </row>
+    <row r="58" customFormat="1" hidden="1" outlineLevel="1" spans="2:24">
+      <c r="B58" s="3"/>
+      <c r="C58" s="3"/>
+      <c r="D58" s="3"/>
+      <c r="E58" s="3"/>
+      <c r="F58" s="7">
+        <v>14</v>
+      </c>
+      <c r="G58" s="2"/>
+      <c r="H58" s="2"/>
+      <c r="I58" s="2"/>
+      <c r="J58" s="2"/>
+      <c r="K58" s="2"/>
+      <c r="L58" s="2"/>
+      <c r="M58" s="2"/>
+      <c r="N58" s="2"/>
+      <c r="O58" s="2"/>
+      <c r="P58" s="2"/>
+      <c r="Q58" s="2"/>
+      <c r="R58" s="2"/>
+      <c r="S58" s="2"/>
+      <c r="T58" s="2"/>
+      <c r="U58" s="2"/>
+      <c r="V58" s="2"/>
+      <c r="W58" s="2"/>
+      <c r="X58" s="9"/>
+    </row>
+    <row r="59" customFormat="1" hidden="1" outlineLevel="1" spans="2:24">
+      <c r="B59" s="3"/>
+      <c r="C59" s="3"/>
+      <c r="D59" s="3"/>
+      <c r="E59" s="3"/>
+      <c r="F59" s="7">
+        <v>15</v>
+      </c>
+      <c r="G59" s="2"/>
+      <c r="H59" s="2"/>
+      <c r="I59" s="2"/>
+      <c r="J59" s="2"/>
+      <c r="K59" s="2"/>
+      <c r="L59" s="2"/>
+      <c r="M59" s="2"/>
+      <c r="N59" s="2"/>
+      <c r="O59" s="2"/>
+      <c r="P59" s="2"/>
+      <c r="Q59" s="2"/>
+      <c r="R59" s="2"/>
+      <c r="S59" s="2"/>
+      <c r="T59" s="2"/>
+      <c r="U59" s="2"/>
+      <c r="V59" s="2"/>
+      <c r="W59" s="2"/>
+      <c r="X59" s="9"/>
+    </row>
+    <row r="60" customFormat="1" hidden="1" outlineLevel="1" spans="2:24">
+      <c r="B60" s="3"/>
+      <c r="C60" s="3"/>
+      <c r="D60" s="3"/>
+      <c r="E60" s="3"/>
+      <c r="F60" s="7">
+        <v>16</v>
+      </c>
+      <c r="G60" s="2"/>
+      <c r="H60" s="2"/>
+      <c r="I60" s="2"/>
+      <c r="J60" s="2"/>
+      <c r="K60" s="2"/>
+      <c r="L60" s="2"/>
+      <c r="M60" s="2"/>
+      <c r="N60" s="2"/>
+      <c r="O60" s="2"/>
+      <c r="P60" s="2"/>
+      <c r="Q60" s="2"/>
+      <c r="R60" s="2"/>
+      <c r="S60" s="2"/>
+      <c r="T60" s="2"/>
+      <c r="U60" s="2"/>
+      <c r="V60" s="2"/>
+      <c r="W60" s="2"/>
+      <c r="X60" s="9"/>
+    </row>
+    <row r="61" customFormat="1" hidden="1" outlineLevel="1" spans="2:24">
+      <c r="B61" s="3"/>
+      <c r="C61" s="3"/>
+      <c r="D61" s="3"/>
+      <c r="E61" s="3"/>
+      <c r="F61" s="7">
+        <v>17</v>
+      </c>
+      <c r="G61" s="2"/>
+      <c r="H61" s="2"/>
+      <c r="I61" s="2"/>
+      <c r="J61" s="2"/>
+      <c r="K61" s="2"/>
+      <c r="L61" s="2"/>
+      <c r="M61" s="2"/>
+      <c r="N61" s="2"/>
+      <c r="O61" s="2"/>
+      <c r="P61" s="2"/>
+      <c r="Q61" s="2"/>
+      <c r="R61" s="2"/>
+      <c r="S61" s="2"/>
+      <c r="T61" s="2"/>
+      <c r="U61" s="2"/>
+      <c r="V61" s="2"/>
+      <c r="W61" s="2"/>
+      <c r="X61" s="9"/>
+    </row>
+    <row r="62" customFormat="1" hidden="1" outlineLevel="1" spans="2:24">
+      <c r="B62" s="3"/>
+      <c r="C62" s="3"/>
+      <c r="D62" s="3"/>
+      <c r="E62" s="8"/>
+      <c r="F62" s="7">
+        <v>18</v>
+      </c>
+      <c r="G62" s="2"/>
+      <c r="H62" s="2"/>
+      <c r="I62" s="2"/>
+      <c r="J62" s="2"/>
+      <c r="K62" s="2"/>
+      <c r="L62" s="2"/>
+      <c r="M62" s="2"/>
+      <c r="N62" s="2"/>
+      <c r="O62" s="2"/>
+      <c r="P62" s="2"/>
+      <c r="Q62" s="2"/>
+      <c r="R62" s="2"/>
+      <c r="S62" s="2"/>
+      <c r="T62" s="2"/>
+      <c r="U62" s="2"/>
+      <c r="V62" s="2"/>
+      <c r="W62" s="2"/>
+      <c r="X62" s="9"/>
+    </row>
+    <row r="63" customFormat="1" hidden="1" outlineLevel="1" spans="2:24">
+      <c r="B63" s="3"/>
+      <c r="C63" s="3"/>
+      <c r="D63" s="3"/>
+      <c r="E63" s="8"/>
+      <c r="F63" s="2">
+        <v>19</v>
+      </c>
+      <c r="G63" s="2"/>
+      <c r="H63" s="2"/>
+      <c r="I63" s="2"/>
+      <c r="J63" s="2"/>
+      <c r="K63" s="2"/>
+      <c r="L63" s="2"/>
+      <c r="M63" s="2"/>
+      <c r="N63" s="2"/>
+      <c r="O63" s="2"/>
+      <c r="P63" s="2"/>
+      <c r="Q63" s="2"/>
+      <c r="R63" s="2"/>
+      <c r="S63" s="2"/>
+      <c r="T63" s="2"/>
+      <c r="U63" s="2"/>
+      <c r="V63" s="2"/>
+      <c r="W63" s="2"/>
+      <c r="X63" s="9"/>
+    </row>
+    <row r="64" customFormat="1" hidden="1" outlineLevel="1" spans="2:24">
+      <c r="B64" s="3"/>
+      <c r="C64" s="3"/>
+      <c r="D64" s="3"/>
+      <c r="E64" s="8"/>
+      <c r="F64" s="2">
+        <v>20</v>
+      </c>
+      <c r="G64" s="2"/>
+      <c r="H64" s="2"/>
+      <c r="I64" s="2"/>
+      <c r="J64" s="2"/>
+      <c r="K64" s="2"/>
+      <c r="L64" s="2"/>
+      <c r="M64" s="2"/>
+      <c r="N64" s="2"/>
+      <c r="O64" s="2"/>
+      <c r="P64" s="2"/>
+      <c r="Q64" s="2"/>
+      <c r="R64" s="2"/>
+      <c r="S64" s="2"/>
+      <c r="T64" s="2"/>
+      <c r="U64" s="2"/>
+      <c r="V64" s="2"/>
+      <c r="W64" s="2"/>
+      <c r="X64" s="9"/>
+    </row>
+    <row r="65" customFormat="1" hidden="1" outlineLevel="1" spans="2:24">
+      <c r="B65" s="3"/>
+      <c r="C65" s="3"/>
+      <c r="D65" s="3"/>
+      <c r="E65" s="8"/>
+      <c r="F65" s="2">
+        <v>21</v>
+      </c>
+      <c r="G65" s="2"/>
+      <c r="H65" s="2"/>
+      <c r="I65" s="2"/>
+      <c r="J65" s="2"/>
+      <c r="K65" s="2"/>
+      <c r="L65" s="2"/>
+      <c r="M65" s="2"/>
+      <c r="N65" s="2"/>
+      <c r="O65" s="2"/>
+      <c r="P65" s="2"/>
+      <c r="Q65" s="2"/>
+      <c r="R65" s="2"/>
+      <c r="S65" s="2"/>
+      <c r="T65" s="2"/>
+      <c r="U65" s="2"/>
+      <c r="V65" s="2"/>
+      <c r="W65" s="2"/>
+      <c r="X65" s="9"/>
+    </row>
+    <row r="66" customFormat="1" hidden="1" outlineLevel="1" spans="2:24">
+      <c r="B66" s="3"/>
+      <c r="C66" s="3"/>
+      <c r="D66" s="3"/>
+      <c r="E66" s="8"/>
+      <c r="F66" s="2">
+        <v>22</v>
+      </c>
+      <c r="G66" s="2"/>
+      <c r="H66" s="2"/>
+      <c r="I66" s="2"/>
+      <c r="J66" s="2"/>
+      <c r="K66" s="2"/>
+      <c r="L66" s="2"/>
+      <c r="M66" s="2"/>
+      <c r="N66" s="2"/>
+      <c r="O66" s="2"/>
+      <c r="P66" s="2"/>
+      <c r="Q66" s="2"/>
+      <c r="R66" s="2"/>
+      <c r="S66" s="2"/>
+      <c r="T66" s="2"/>
+      <c r="U66" s="2"/>
+      <c r="V66" s="2"/>
+      <c r="W66" s="2"/>
+      <c r="X66" s="9"/>
+    </row>
+    <row r="67" collapsed="1" spans="2:24">
+      <c r="B67" s="3"/>
+      <c r="C67" s="3"/>
+      <c r="D67" s="3"/>
+      <c r="E67" s="4" t="s">
+        <v>281</v>
+      </c>
+      <c r="F67" s="2"/>
+      <c r="G67" s="2"/>
+      <c r="H67" s="2"/>
+      <c r="I67" s="2"/>
+      <c r="J67" s="2"/>
+      <c r="K67" s="2"/>
+      <c r="L67" s="2"/>
+      <c r="M67" s="2"/>
+      <c r="N67" s="2"/>
+      <c r="O67" s="2"/>
+      <c r="P67" s="2"/>
+      <c r="Q67" s="2"/>
+      <c r="R67" s="2"/>
+      <c r="S67" s="2"/>
+      <c r="T67" s="2"/>
+      <c r="U67" s="2"/>
+      <c r="V67" s="2"/>
+      <c r="W67" s="2"/>
+      <c r="X67" s="9"/>
+    </row>
+    <row r="68" customFormat="1" spans="2:24">
+      <c r="B68" s="3"/>
+      <c r="C68" s="3"/>
+      <c r="D68" s="3"/>
+      <c r="E68" s="3"/>
+      <c r="F68" s="7">
+        <v>1</v>
+      </c>
+      <c r="G68" s="2"/>
+      <c r="H68" s="2"/>
+      <c r="I68" s="2"/>
+      <c r="J68" s="2"/>
+      <c r="K68" s="2"/>
+      <c r="L68" s="2"/>
+      <c r="M68" s="2"/>
+      <c r="N68" s="2"/>
+      <c r="O68" s="2"/>
+      <c r="P68" s="2"/>
+      <c r="Q68" s="2"/>
+      <c r="R68" s="2"/>
+      <c r="S68" s="2"/>
+      <c r="T68" s="2"/>
+      <c r="U68" s="2"/>
+      <c r="V68" s="2"/>
+      <c r="W68" s="2"/>
+      <c r="X68" s="9"/>
+    </row>
+    <row r="69" customFormat="1" spans="2:24">
+      <c r="B69" s="3"/>
+      <c r="C69" s="3"/>
+      <c r="D69" s="3"/>
+      <c r="E69" s="3"/>
+      <c r="F69" s="7">
+        <v>2</v>
+      </c>
+      <c r="G69" s="2"/>
+      <c r="H69" s="2"/>
+      <c r="I69" s="2"/>
+      <c r="J69" s="2"/>
+      <c r="K69" s="2"/>
+      <c r="L69" s="2"/>
+      <c r="M69" s="2"/>
+      <c r="N69" s="2"/>
+      <c r="O69" s="2"/>
+      <c r="P69" s="2"/>
+      <c r="Q69" s="2"/>
+      <c r="R69" s="2"/>
+      <c r="S69" s="2"/>
+      <c r="T69" s="2"/>
+      <c r="U69" s="2"/>
+      <c r="V69" s="2"/>
+      <c r="W69" s="2"/>
+      <c r="X69" s="9"/>
+    </row>
+    <row r="70" customFormat="1" hidden="1" outlineLevel="1" spans="2:24">
+      <c r="B70" s="3"/>
+      <c r="C70" s="3"/>
+      <c r="D70" s="3"/>
+      <c r="E70" s="3"/>
+      <c r="F70" s="7">
+        <v>3</v>
+      </c>
+      <c r="G70" s="2"/>
+      <c r="H70" s="2"/>
+      <c r="I70" s="2"/>
+      <c r="J70" s="2"/>
+      <c r="K70" s="2"/>
+      <c r="L70" s="2"/>
+      <c r="M70" s="2"/>
+      <c r="N70" s="2"/>
+      <c r="O70" s="2"/>
+      <c r="P70" s="2"/>
+      <c r="Q70" s="2"/>
+      <c r="R70" s="2"/>
+      <c r="S70" s="2"/>
+      <c r="T70" s="2"/>
+      <c r="U70" s="2"/>
+      <c r="V70" s="2"/>
+      <c r="W70" s="2"/>
+      <c r="X70" s="9"/>
+    </row>
+    <row r="71" customFormat="1" hidden="1" outlineLevel="1" spans="2:24">
+      <c r="B71" s="3"/>
+      <c r="C71" s="3"/>
+      <c r="D71" s="3"/>
+      <c r="E71" s="3"/>
+      <c r="F71" s="7">
+        <v>4</v>
+      </c>
+      <c r="G71" s="2"/>
+      <c r="H71" s="2"/>
+      <c r="I71" s="2"/>
+      <c r="J71" s="2"/>
+      <c r="K71" s="2"/>
+      <c r="L71" s="2"/>
+      <c r="M71" s="2"/>
+      <c r="N71" s="2"/>
+      <c r="O71" s="2"/>
+      <c r="P71" s="2"/>
+      <c r="Q71" s="2"/>
+      <c r="R71" s="2"/>
+      <c r="S71" s="2"/>
+      <c r="T71" s="2"/>
+      <c r="U71" s="2"/>
+      <c r="V71" s="2"/>
+      <c r="W71" s="2"/>
+      <c r="X71" s="9"/>
+    </row>
+    <row r="72" customFormat="1" hidden="1" outlineLevel="1" spans="2:24">
+      <c r="B72" s="3"/>
+      <c r="C72" s="3"/>
+      <c r="D72" s="3"/>
+      <c r="E72" s="3"/>
+      <c r="F72" s="7">
+        <v>5</v>
+      </c>
+      <c r="G72" s="2"/>
+      <c r="H72" s="2"/>
+      <c r="I72" s="2"/>
+      <c r="J72" s="2"/>
+      <c r="K72" s="2"/>
+      <c r="L72" s="2"/>
+      <c r="M72" s="2"/>
+      <c r="N72" s="2"/>
+      <c r="O72" s="2"/>
+      <c r="P72" s="2"/>
+      <c r="Q72" s="2"/>
+      <c r="R72" s="2"/>
+      <c r="S72" s="2"/>
+      <c r="T72" s="2"/>
+      <c r="U72" s="2"/>
+      <c r="V72" s="2"/>
+      <c r="W72" s="2"/>
+      <c r="X72" s="9"/>
+    </row>
+    <row r="73" customFormat="1" hidden="1" outlineLevel="1" spans="2:24">
+      <c r="B73" s="3"/>
+      <c r="C73" s="3"/>
+      <c r="D73" s="3"/>
+      <c r="E73" s="3"/>
+      <c r="F73" s="7">
+        <v>6</v>
+      </c>
+      <c r="G73" s="2"/>
+      <c r="H73" s="2"/>
+      <c r="I73" s="2"/>
+      <c r="J73" s="2"/>
+      <c r="K73" s="2"/>
+      <c r="L73" s="2"/>
+      <c r="M73" s="2"/>
+      <c r="N73" s="2"/>
+      <c r="O73" s="2"/>
+      <c r="P73" s="2"/>
+      <c r="Q73" s="2"/>
+      <c r="R73" s="2"/>
+      <c r="S73" s="2"/>
+      <c r="T73" s="2"/>
+      <c r="U73" s="2"/>
+      <c r="V73" s="2"/>
+      <c r="W73" s="2"/>
+      <c r="X73" s="9"/>
+    </row>
+    <row r="74" customFormat="1" hidden="1" outlineLevel="1" spans="2:24">
+      <c r="B74" s="3"/>
+      <c r="C74" s="3"/>
+      <c r="D74" s="3"/>
+      <c r="E74" s="3"/>
+      <c r="F74" s="7">
+        <v>7</v>
+      </c>
+      <c r="G74" s="2"/>
+      <c r="H74" s="2"/>
+      <c r="I74" s="2"/>
+      <c r="J74" s="2"/>
+      <c r="K74" s="2"/>
+      <c r="L74" s="2"/>
+      <c r="M74" s="2"/>
+      <c r="N74" s="2"/>
+      <c r="O74" s="2"/>
+      <c r="P74" s="2"/>
+      <c r="Q74" s="2"/>
+      <c r="R74" s="2"/>
+      <c r="S74" s="2"/>
+      <c r="T74" s="2"/>
+      <c r="U74" s="2"/>
+      <c r="V74" s="2"/>
+      <c r="W74" s="2"/>
+      <c r="X74" s="9"/>
+    </row>
+    <row r="75" customFormat="1" hidden="1" outlineLevel="1" spans="2:24">
+      <c r="B75" s="3"/>
+      <c r="C75" s="3"/>
+      <c r="D75" s="3"/>
+      <c r="E75" s="3"/>
+      <c r="F75" s="7">
+        <v>8</v>
+      </c>
+      <c r="G75" s="2"/>
+      <c r="H75" s="2"/>
+      <c r="I75" s="2"/>
+      <c r="J75" s="2"/>
+      <c r="K75" s="2"/>
+      <c r="L75" s="2"/>
+      <c r="M75" s="2"/>
+      <c r="N75" s="2"/>
+      <c r="O75" s="2"/>
+      <c r="P75" s="2"/>
+      <c r="Q75" s="2"/>
+      <c r="R75" s="2"/>
+      <c r="S75" s="2"/>
+      <c r="T75" s="2"/>
+      <c r="U75" s="2"/>
+      <c r="V75" s="2"/>
+      <c r="W75" s="2"/>
+      <c r="X75" s="9"/>
+    </row>
+    <row r="76" customFormat="1" hidden="1" outlineLevel="1" spans="2:24">
+      <c r="B76" s="3"/>
+      <c r="C76" s="3"/>
+      <c r="D76" s="3"/>
+      <c r="E76" s="3"/>
+      <c r="F76" s="7">
+        <v>9</v>
+      </c>
+      <c r="G76" s="2"/>
+      <c r="H76" s="2"/>
+      <c r="I76" s="2"/>
+      <c r="J76" s="2"/>
+      <c r="K76" s="2"/>
+      <c r="L76" s="2"/>
+      <c r="M76" s="2"/>
+      <c r="N76" s="2"/>
+      <c r="O76" s="2"/>
+      <c r="P76" s="2"/>
+      <c r="Q76" s="2"/>
+      <c r="R76" s="2"/>
+      <c r="S76" s="2"/>
+      <c r="T76" s="2"/>
+      <c r="U76" s="2"/>
+      <c r="V76" s="2"/>
+      <c r="W76" s="2"/>
+      <c r="X76" s="9"/>
+    </row>
+    <row r="77" customFormat="1" hidden="1" outlineLevel="1" spans="2:24">
+      <c r="B77" s="3"/>
+      <c r="C77" s="3"/>
+      <c r="D77" s="3"/>
+      <c r="E77" s="3"/>
+      <c r="F77" s="7">
+        <v>10</v>
+      </c>
+      <c r="G77" s="2"/>
+      <c r="H77" s="2"/>
+      <c r="I77" s="2"/>
+      <c r="J77" s="2"/>
+      <c r="K77" s="2"/>
+      <c r="L77" s="2"/>
+      <c r="M77" s="2"/>
+      <c r="N77" s="2"/>
+      <c r="O77" s="2"/>
+      <c r="P77" s="2"/>
+      <c r="Q77" s="2"/>
+      <c r="R77" s="2"/>
+      <c r="S77" s="2"/>
+      <c r="T77" s="2"/>
+      <c r="U77" s="2"/>
+      <c r="V77" s="2"/>
+      <c r="W77" s="2"/>
+      <c r="X77" s="9"/>
+    </row>
+    <row r="78" customFormat="1" hidden="1" outlineLevel="1" spans="2:24">
+      <c r="B78" s="3"/>
+      <c r="C78" s="3"/>
+      <c r="D78" s="3"/>
+      <c r="E78" s="3"/>
+      <c r="F78" s="7">
+        <v>11</v>
+      </c>
+      <c r="G78" s="2"/>
+      <c r="H78" s="2"/>
+      <c r="I78" s="2"/>
+      <c r="J78" s="2"/>
+      <c r="K78" s="2"/>
+      <c r="L78" s="2"/>
+      <c r="M78" s="2"/>
+      <c r="N78" s="2"/>
+      <c r="O78" s="2"/>
+      <c r="P78" s="2"/>
+      <c r="Q78" s="2"/>
+      <c r="R78" s="2"/>
+      <c r="S78" s="2"/>
+      <c r="T78" s="2"/>
+      <c r="U78" s="2"/>
+      <c r="V78" s="2"/>
+      <c r="W78" s="2"/>
+      <c r="X78" s="9"/>
+    </row>
+    <row r="79" customFormat="1" hidden="1" outlineLevel="1" spans="2:24">
+      <c r="B79" s="3"/>
+      <c r="C79" s="3"/>
+      <c r="D79" s="3"/>
+      <c r="E79" s="3"/>
+      <c r="F79" s="7">
+        <v>12</v>
+      </c>
+      <c r="G79" s="2"/>
+      <c r="H79" s="2"/>
+      <c r="I79" s="2"/>
+      <c r="J79" s="2"/>
+      <c r="K79" s="2"/>
+      <c r="L79" s="2"/>
+      <c r="M79" s="2"/>
+      <c r="N79" s="2"/>
+      <c r="O79" s="2"/>
+      <c r="P79" s="2"/>
+      <c r="Q79" s="2"/>
+      <c r="R79" s="2"/>
+      <c r="S79" s="2"/>
+      <c r="T79" s="2"/>
+      <c r="U79" s="2"/>
+      <c r="V79" s="2"/>
+      <c r="W79" s="2"/>
+      <c r="X79" s="9"/>
+    </row>
+    <row r="80" customFormat="1" hidden="1" outlineLevel="1" spans="2:24">
+      <c r="B80" s="3"/>
+      <c r="C80" s="3"/>
+      <c r="D80" s="3"/>
+      <c r="E80" s="3"/>
+      <c r="F80" s="7">
+        <v>13</v>
+      </c>
+      <c r="G80" s="2"/>
+      <c r="H80" s="2"/>
+      <c r="I80" s="2"/>
+      <c r="J80" s="2"/>
+      <c r="K80" s="2"/>
+      <c r="L80" s="2"/>
+      <c r="M80" s="2"/>
+      <c r="N80" s="2"/>
+      <c r="O80" s="2"/>
+      <c r="P80" s="2"/>
+      <c r="Q80" s="2"/>
+      <c r="R80" s="2"/>
+      <c r="S80" s="2"/>
+      <c r="T80" s="2"/>
+      <c r="U80" s="2"/>
+      <c r="V80" s="2"/>
+      <c r="W80" s="2"/>
+      <c r="X80" s="9"/>
+    </row>
+    <row r="81" customFormat="1" hidden="1" outlineLevel="1" spans="2:24">
+      <c r="B81" s="3"/>
+      <c r="C81" s="3"/>
+      <c r="D81" s="3"/>
+      <c r="E81" s="3"/>
+      <c r="F81" s="7">
+        <v>14</v>
+      </c>
+      <c r="G81" s="2"/>
+      <c r="H81" s="2"/>
+      <c r="I81" s="2"/>
+      <c r="J81" s="2"/>
+      <c r="K81" s="2"/>
+      <c r="L81" s="2"/>
+      <c r="M81" s="2"/>
+      <c r="N81" s="2"/>
+      <c r="O81" s="2"/>
+      <c r="P81" s="2"/>
+      <c r="Q81" s="2"/>
+      <c r="R81" s="2"/>
+      <c r="S81" s="2"/>
+      <c r="T81" s="2"/>
+      <c r="U81" s="2"/>
+      <c r="V81" s="2"/>
+      <c r="W81" s="2"/>
+      <c r="X81" s="9"/>
+    </row>
+    <row r="82" customFormat="1" hidden="1" outlineLevel="1" spans="2:24">
+      <c r="B82" s="3"/>
+      <c r="C82" s="3"/>
+      <c r="D82" s="3"/>
+      <c r="E82" s="3"/>
+      <c r="F82" s="7">
+        <v>15</v>
+      </c>
+      <c r="G82" s="2"/>
+      <c r="H82" s="2"/>
+      <c r="I82" s="2"/>
+      <c r="J82" s="2"/>
+      <c r="K82" s="2"/>
+      <c r="L82" s="2"/>
+      <c r="M82" s="2"/>
+      <c r="N82" s="2"/>
+      <c r="O82" s="2"/>
+      <c r="P82" s="2"/>
+      <c r="Q82" s="2"/>
+      <c r="R82" s="2"/>
+      <c r="S82" s="2"/>
+      <c r="T82" s="2"/>
+      <c r="U82" s="2"/>
+      <c r="V82" s="2"/>
+      <c r="W82" s="2"/>
+      <c r="X82" s="9"/>
+    </row>
+    <row r="83" customFormat="1" hidden="1" outlineLevel="1" spans="2:24">
+      <c r="B83" s="3"/>
+      <c r="C83" s="3"/>
+      <c r="D83" s="3"/>
+      <c r="E83" s="3"/>
+      <c r="F83" s="7">
+        <v>16</v>
+      </c>
+      <c r="G83" s="2"/>
+      <c r="H83" s="2"/>
+      <c r="I83" s="2"/>
+      <c r="J83" s="2"/>
+      <c r="K83" s="2"/>
+      <c r="L83" s="2"/>
+      <c r="M83" s="2"/>
+      <c r="N83" s="2"/>
+      <c r="O83" s="2"/>
+      <c r="P83" s="2"/>
+      <c r="Q83" s="2"/>
+      <c r="R83" s="2"/>
+      <c r="S83" s="2"/>
+      <c r="T83" s="2"/>
+      <c r="U83" s="2"/>
+      <c r="V83" s="2"/>
+      <c r="W83" s="2"/>
+      <c r="X83" s="9"/>
+    </row>
+    <row r="84" customFormat="1" hidden="1" outlineLevel="1" spans="2:24">
+      <c r="B84" s="3"/>
+      <c r="C84" s="3"/>
+      <c r="D84" s="3"/>
+      <c r="E84" s="3"/>
+      <c r="F84" s="7">
+        <v>17</v>
+      </c>
+      <c r="G84" s="2"/>
+      <c r="H84" s="2"/>
+      <c r="I84" s="2"/>
+      <c r="J84" s="2"/>
+      <c r="K84" s="2"/>
+      <c r="L84" s="2"/>
+      <c r="M84" s="2"/>
+      <c r="N84" s="2"/>
+      <c r="O84" s="2"/>
+      <c r="P84" s="2"/>
+      <c r="Q84" s="2"/>
+      <c r="R84" s="2"/>
+      <c r="S84" s="2"/>
+      <c r="T84" s="2"/>
+      <c r="U84" s="2"/>
+      <c r="V84" s="2"/>
+      <c r="W84" s="2"/>
+      <c r="X84" s="9"/>
+    </row>
+    <row r="85" customFormat="1" hidden="1" outlineLevel="1" spans="2:24">
+      <c r="B85" s="3"/>
+      <c r="C85" s="3"/>
+      <c r="D85" s="3"/>
+      <c r="E85" s="8"/>
+      <c r="F85" s="7">
+        <v>18</v>
+      </c>
+      <c r="G85" s="2"/>
+      <c r="H85" s="2"/>
+      <c r="I85" s="2"/>
+      <c r="J85" s="2"/>
+      <c r="K85" s="2"/>
+      <c r="L85" s="2"/>
+      <c r="M85" s="2"/>
+      <c r="N85" s="2"/>
+      <c r="O85" s="2"/>
+      <c r="P85" s="2"/>
+      <c r="Q85" s="2"/>
+      <c r="R85" s="2"/>
+      <c r="S85" s="2"/>
+      <c r="T85" s="2"/>
+      <c r="U85" s="2"/>
+      <c r="V85" s="2"/>
+      <c r="W85" s="2"/>
+      <c r="X85" s="9"/>
+    </row>
+    <row r="86" customFormat="1" hidden="1" outlineLevel="1" spans="2:24">
+      <c r="B86" s="3"/>
+      <c r="C86" s="3"/>
+      <c r="D86" s="3"/>
+      <c r="E86" s="8"/>
+      <c r="F86" s="2">
+        <v>19</v>
+      </c>
+      <c r="G86" s="2"/>
+      <c r="H86" s="2"/>
+      <c r="I86" s="2"/>
+      <c r="J86" s="2"/>
+      <c r="K86" s="2"/>
+      <c r="L86" s="2"/>
+      <c r="M86" s="2"/>
+      <c r="N86" s="2"/>
+      <c r="O86" s="2"/>
+      <c r="P86" s="2"/>
+      <c r="Q86" s="2"/>
+      <c r="R86" s="2"/>
+      <c r="S86" s="2"/>
+      <c r="T86" s="2"/>
+      <c r="U86" s="2"/>
+      <c r="V86" s="2"/>
+      <c r="W86" s="2"/>
+      <c r="X86" s="9"/>
+    </row>
+    <row r="87" customFormat="1" hidden="1" outlineLevel="1" spans="2:24">
+      <c r="B87" s="3"/>
+      <c r="C87" s="3"/>
+      <c r="D87" s="3"/>
+      <c r="E87" s="8"/>
+      <c r="F87" s="2">
+        <v>20</v>
+      </c>
+      <c r="G87" s="2"/>
+      <c r="H87" s="2"/>
+      <c r="I87" s="2"/>
+      <c r="J87" s="2"/>
+      <c r="K87" s="2"/>
+      <c r="L87" s="2"/>
+      <c r="M87" s="2"/>
+      <c r="N87" s="2"/>
+      <c r="O87" s="2"/>
+      <c r="P87" s="2"/>
+      <c r="Q87" s="2"/>
+      <c r="R87" s="2"/>
+      <c r="S87" s="2"/>
+      <c r="T87" s="2"/>
+      <c r="U87" s="2"/>
+      <c r="V87" s="2"/>
+      <c r="W87" s="2"/>
+      <c r="X87" s="9"/>
+    </row>
+    <row r="88" customFormat="1" hidden="1" outlineLevel="1" spans="2:24">
+      <c r="B88" s="3"/>
+      <c r="C88" s="3"/>
+      <c r="D88" s="3"/>
+      <c r="E88" s="8"/>
+      <c r="F88" s="2">
+        <v>21</v>
+      </c>
+      <c r="G88" s="2"/>
+      <c r="H88" s="2"/>
+      <c r="I88" s="2"/>
+      <c r="J88" s="2"/>
+      <c r="K88" s="2"/>
+      <c r="L88" s="2"/>
+      <c r="M88" s="2"/>
+      <c r="N88" s="2"/>
+      <c r="O88" s="2"/>
+      <c r="P88" s="2"/>
+      <c r="Q88" s="2"/>
+      <c r="R88" s="2"/>
+      <c r="S88" s="2"/>
+      <c r="T88" s="2"/>
+      <c r="U88" s="2"/>
+      <c r="V88" s="2"/>
+      <c r="W88" s="2"/>
+      <c r="X88" s="9"/>
+    </row>
+    <row r="89" customFormat="1" hidden="1" outlineLevel="1" spans="2:24">
+      <c r="B89" s="3"/>
+      <c r="C89" s="3"/>
+      <c r="D89" s="3"/>
+      <c r="E89" s="8"/>
+      <c r="F89" s="2">
+        <v>22</v>
+      </c>
+      <c r="G89" s="2"/>
+      <c r="H89" s="2"/>
+      <c r="I89" s="2"/>
+      <c r="J89" s="2"/>
+      <c r="K89" s="2"/>
+      <c r="L89" s="2"/>
+      <c r="M89" s="2"/>
+      <c r="N89" s="2"/>
+      <c r="O89" s="2"/>
+      <c r="P89" s="2"/>
+      <c r="Q89" s="2"/>
+      <c r="R89" s="2"/>
+      <c r="S89" s="2"/>
+      <c r="T89" s="2"/>
+      <c r="U89" s="2"/>
+      <c r="V89" s="2"/>
+      <c r="W89" s="2"/>
+      <c r="X89" s="9"/>
+    </row>
+    <row r="90" collapsed="1" spans="2:24">
+      <c r="B90" s="3"/>
+      <c r="C90" s="3"/>
+      <c r="D90" s="3"/>
+      <c r="E90" s="4" t="s">
+        <v>282</v>
+      </c>
+      <c r="F90" s="2"/>
+      <c r="G90" s="2"/>
+      <c r="H90" s="2"/>
+      <c r="I90" s="2"/>
+      <c r="J90" s="2"/>
+      <c r="K90" s="2"/>
+      <c r="L90" s="2"/>
+      <c r="M90" s="2"/>
+      <c r="N90" s="2"/>
+      <c r="O90" s="2"/>
+      <c r="P90" s="2"/>
+      <c r="Q90" s="2"/>
+      <c r="R90" s="2"/>
+      <c r="S90" s="2"/>
+      <c r="T90" s="2"/>
+      <c r="U90" s="2"/>
+      <c r="V90" s="2"/>
+      <c r="W90" s="2"/>
+      <c r="X90" s="9"/>
+    </row>
+    <row r="91" customFormat="1" spans="2:24">
+      <c r="B91" s="3"/>
+      <c r="C91" s="3"/>
+      <c r="D91" s="3"/>
+      <c r="E91" s="3"/>
+      <c r="F91" s="7">
+        <v>1</v>
+      </c>
+      <c r="G91" s="2"/>
+      <c r="H91" s="2"/>
+      <c r="I91" s="2"/>
+      <c r="J91" s="2"/>
+      <c r="K91" s="2"/>
+      <c r="L91" s="2"/>
+      <c r="M91" s="2"/>
+      <c r="N91" s="2"/>
+      <c r="O91" s="2"/>
+      <c r="P91" s="2"/>
+      <c r="Q91" s="2"/>
+      <c r="R91" s="2"/>
+      <c r="S91" s="2"/>
+      <c r="T91" s="2"/>
+      <c r="U91" s="2"/>
+      <c r="V91" s="2"/>
+      <c r="W91" s="2"/>
+      <c r="X91" s="9"/>
+    </row>
+    <row r="92" customFormat="1" spans="2:24">
+      <c r="B92" s="3"/>
+      <c r="C92" s="3"/>
+      <c r="D92" s="3"/>
+      <c r="E92" s="3"/>
+      <c r="F92" s="7">
+        <v>2</v>
+      </c>
+      <c r="G92" s="2"/>
+      <c r="H92" s="2"/>
+      <c r="I92" s="2"/>
+      <c r="J92" s="2"/>
+      <c r="K92" s="2"/>
+      <c r="L92" s="2"/>
+      <c r="M92" s="2"/>
+      <c r="N92" s="2"/>
+      <c r="O92" s="2"/>
+      <c r="P92" s="2"/>
+      <c r="Q92" s="2"/>
+      <c r="R92" s="2"/>
+      <c r="S92" s="2"/>
+      <c r="T92" s="2"/>
+      <c r="U92" s="2"/>
+      <c r="V92" s="2"/>
+      <c r="W92" s="2"/>
+      <c r="X92" s="9"/>
+    </row>
+    <row r="93" customFormat="1" hidden="1" outlineLevel="1" spans="2:24">
+      <c r="B93" s="3"/>
+      <c r="C93" s="3"/>
+      <c r="D93" s="3"/>
+      <c r="E93" s="3"/>
+      <c r="F93" s="7">
+        <v>3</v>
+      </c>
+      <c r="G93" s="2"/>
+      <c r="H93" s="2"/>
+      <c r="I93" s="2"/>
+      <c r="J93" s="2"/>
+      <c r="K93" s="2"/>
+      <c r="L93" s="2"/>
+      <c r="M93" s="2"/>
+      <c r="N93" s="2"/>
+      <c r="O93" s="2"/>
+      <c r="P93" s="2"/>
+      <c r="Q93" s="2"/>
+      <c r="R93" s="2"/>
+      <c r="S93" s="2"/>
+      <c r="T93" s="2"/>
+      <c r="U93" s="2"/>
+      <c r="V93" s="2"/>
+      <c r="W93" s="2"/>
+      <c r="X93" s="9"/>
+    </row>
+    <row r="94" customFormat="1" hidden="1" outlineLevel="1" spans="2:24">
+      <c r="B94" s="3"/>
+      <c r="C94" s="3"/>
+      <c r="D94" s="3"/>
+      <c r="E94" s="3"/>
+      <c r="F94" s="7">
+        <v>4</v>
+      </c>
+      <c r="G94" s="2"/>
+      <c r="H94" s="2"/>
+      <c r="I94" s="2"/>
+      <c r="J94" s="2"/>
+      <c r="K94" s="2"/>
+      <c r="L94" s="2"/>
+      <c r="M94" s="2"/>
+      <c r="N94" s="2"/>
+      <c r="O94" s="2"/>
+      <c r="P94" s="2"/>
+      <c r="Q94" s="2"/>
+      <c r="R94" s="2"/>
+      <c r="S94" s="2"/>
+      <c r="T94" s="2"/>
+      <c r="U94" s="2"/>
+      <c r="V94" s="2"/>
+      <c r="W94" s="2"/>
+      <c r="X94" s="9"/>
+    </row>
+    <row r="95" customFormat="1" hidden="1" outlineLevel="1" spans="2:24">
+      <c r="B95" s="3"/>
+      <c r="C95" s="3"/>
+      <c r="D95" s="3"/>
+      <c r="E95" s="3"/>
+      <c r="F95" s="7">
+        <v>5</v>
+      </c>
+      <c r="G95" s="2"/>
+      <c r="H95" s="2"/>
+      <c r="I95" s="2"/>
+      <c r="J95" s="2"/>
+      <c r="K95" s="2"/>
+      <c r="L95" s="2"/>
+      <c r="M95" s="2"/>
+      <c r="N95" s="2"/>
+      <c r="O95" s="2"/>
+      <c r="P95" s="2"/>
+      <c r="Q95" s="2"/>
+      <c r="R95" s="2"/>
+      <c r="S95" s="2"/>
+      <c r="T95" s="2"/>
+      <c r="U95" s="2"/>
+      <c r="V95" s="2"/>
+      <c r="W95" s="2"/>
+      <c r="X95" s="9"/>
+    </row>
+    <row r="96" customFormat="1" hidden="1" outlineLevel="1" spans="2:24">
+      <c r="B96" s="3"/>
+      <c r="C96" s="3"/>
+      <c r="D96" s="3"/>
+      <c r="E96" s="3"/>
+      <c r="F96" s="7">
+        <v>6</v>
+      </c>
+      <c r="G96" s="2"/>
+      <c r="H96" s="2"/>
+      <c r="I96" s="2"/>
+      <c r="J96" s="2"/>
+      <c r="K96" s="2"/>
+      <c r="L96" s="2"/>
+      <c r="M96" s="2"/>
+      <c r="N96" s="2"/>
+      <c r="O96" s="2"/>
+      <c r="P96" s="2"/>
+      <c r="Q96" s="2"/>
+      <c r="R96" s="2"/>
+      <c r="S96" s="2"/>
+      <c r="T96" s="2"/>
+      <c r="U96" s="2"/>
+      <c r="V96" s="2"/>
+      <c r="W96" s="2"/>
+      <c r="X96" s="9"/>
+    </row>
+    <row r="97" customFormat="1" hidden="1" outlineLevel="1" spans="2:24">
+      <c r="B97" s="3"/>
+      <c r="C97" s="3"/>
+      <c r="D97" s="3"/>
+      <c r="E97" s="3"/>
+      <c r="F97" s="7">
+        <v>7</v>
+      </c>
+      <c r="G97" s="2"/>
+      <c r="H97" s="2"/>
+      <c r="I97" s="2"/>
+      <c r="J97" s="2"/>
+      <c r="K97" s="2"/>
+      <c r="L97" s="2"/>
+      <c r="M97" s="2"/>
+      <c r="N97" s="2"/>
+      <c r="O97" s="2"/>
+      <c r="P97" s="2"/>
+      <c r="Q97" s="2"/>
+      <c r="R97" s="2"/>
+      <c r="S97" s="2"/>
+      <c r="T97" s="2"/>
+      <c r="U97" s="2"/>
+      <c r="V97" s="2"/>
+      <c r="W97" s="2"/>
+      <c r="X97" s="9"/>
+    </row>
+    <row r="98" customFormat="1" hidden="1" outlineLevel="1" spans="2:24">
+      <c r="B98" s="3"/>
+      <c r="C98" s="3"/>
+      <c r="D98" s="3"/>
+      <c r="E98" s="3"/>
+      <c r="F98" s="7">
+        <v>8</v>
+      </c>
+      <c r="G98" s="2"/>
+      <c r="H98" s="2"/>
+      <c r="I98" s="2"/>
+      <c r="J98" s="2"/>
+      <c r="K98" s="2"/>
+      <c r="L98" s="2"/>
+      <c r="M98" s="2"/>
+      <c r="N98" s="2"/>
+      <c r="O98" s="2"/>
+      <c r="P98" s="2"/>
+      <c r="Q98" s="2"/>
+      <c r="R98" s="2"/>
+      <c r="S98" s="2"/>
+      <c r="T98" s="2"/>
+      <c r="U98" s="2"/>
+      <c r="V98" s="2"/>
+      <c r="W98" s="2"/>
+      <c r="X98" s="9"/>
+    </row>
+    <row r="99" customFormat="1" hidden="1" outlineLevel="1" spans="2:24">
+      <c r="B99" s="3"/>
+      <c r="C99" s="3"/>
+      <c r="D99" s="3"/>
+      <c r="E99" s="3"/>
+      <c r="F99" s="7">
+        <v>9</v>
+      </c>
+      <c r="G99" s="2"/>
+      <c r="H99" s="2"/>
+      <c r="I99" s="2"/>
+      <c r="J99" s="2"/>
+      <c r="K99" s="2"/>
+      <c r="L99" s="2"/>
+      <c r="M99" s="2"/>
+      <c r="N99" s="2"/>
+      <c r="O99" s="2"/>
+      <c r="P99" s="2"/>
+      <c r="Q99" s="2"/>
+      <c r="R99" s="2"/>
+      <c r="S99" s="2"/>
+      <c r="T99" s="2"/>
+      <c r="U99" s="2"/>
+      <c r="V99" s="2"/>
+      <c r="W99" s="2"/>
+      <c r="X99" s="9"/>
+    </row>
+    <row r="100" customFormat="1" hidden="1" outlineLevel="1" spans="2:24">
+      <c r="B100" s="3"/>
+      <c r="C100" s="3"/>
+      <c r="D100" s="3"/>
+      <c r="E100" s="3"/>
+      <c r="F100" s="7">
+        <v>10</v>
+      </c>
+      <c r="G100" s="2"/>
+      <c r="H100" s="2"/>
+      <c r="I100" s="2"/>
+      <c r="J100" s="2"/>
+      <c r="K100" s="2"/>
+      <c r="L100" s="2"/>
+      <c r="M100" s="2"/>
+      <c r="N100" s="2"/>
+      <c r="O100" s="2"/>
+      <c r="P100" s="2"/>
+      <c r="Q100" s="2"/>
+      <c r="R100" s="2"/>
+      <c r="S100" s="2"/>
+      <c r="T100" s="2"/>
+      <c r="U100" s="2"/>
+      <c r="V100" s="2"/>
+      <c r="W100" s="2"/>
+      <c r="X100" s="9"/>
+    </row>
+    <row r="101" customFormat="1" hidden="1" outlineLevel="1" spans="2:24">
+      <c r="B101" s="3"/>
+      <c r="C101" s="3"/>
+      <c r="D101" s="3"/>
+      <c r="E101" s="3"/>
+      <c r="F101" s="7">
+        <v>11</v>
+      </c>
+      <c r="G101" s="2"/>
+      <c r="H101" s="2"/>
+      <c r="I101" s="2"/>
+      <c r="J101" s="2"/>
+      <c r="K101" s="2"/>
+      <c r="L101" s="2"/>
+      <c r="M101" s="2"/>
+      <c r="N101" s="2"/>
+      <c r="O101" s="2"/>
+      <c r="P101" s="2"/>
+      <c r="Q101" s="2"/>
+      <c r="R101" s="2"/>
+      <c r="S101" s="2"/>
+      <c r="T101" s="2"/>
+      <c r="U101" s="2"/>
+      <c r="V101" s="2"/>
+      <c r="W101" s="2"/>
+      <c r="X101" s="9"/>
+    </row>
+    <row r="102" customFormat="1" hidden="1" outlineLevel="1" spans="2:24">
+      <c r="B102" s="3"/>
+      <c r="C102" s="3"/>
+      <c r="D102" s="3"/>
+      <c r="E102" s="3"/>
+      <c r="F102" s="7">
+        <v>12</v>
+      </c>
+      <c r="G102" s="2"/>
+      <c r="H102" s="2"/>
+      <c r="I102" s="2"/>
+      <c r="J102" s="2"/>
+      <c r="K102" s="2"/>
+      <c r="L102" s="2"/>
+      <c r="M102" s="2"/>
+      <c r="N102" s="2"/>
+      <c r="O102" s="2"/>
+      <c r="P102" s="2"/>
+      <c r="Q102" s="2"/>
+      <c r="R102" s="2"/>
+      <c r="S102" s="2"/>
+      <c r="T102" s="2"/>
+      <c r="U102" s="2"/>
+      <c r="V102" s="2"/>
+      <c r="W102" s="2"/>
+      <c r="X102" s="9"/>
+    </row>
+    <row r="103" customFormat="1" hidden="1" outlineLevel="1" spans="2:24">
+      <c r="B103" s="3"/>
+      <c r="C103" s="3"/>
+      <c r="D103" s="3"/>
+      <c r="E103" s="3"/>
+      <c r="F103" s="7">
+        <v>13</v>
+      </c>
+      <c r="G103" s="2"/>
+      <c r="H103" s="2"/>
+      <c r="I103" s="2"/>
+      <c r="J103" s="2"/>
+      <c r="K103" s="2"/>
+      <c r="L103" s="2"/>
+      <c r="M103" s="2"/>
+      <c r="N103" s="2"/>
+      <c r="O103" s="2"/>
+      <c r="P103" s="2"/>
+      <c r="Q103" s="2"/>
+      <c r="R103" s="2"/>
+      <c r="S103" s="2"/>
+      <c r="T103" s="2"/>
+      <c r="U103" s="2"/>
+      <c r="V103" s="2"/>
+      <c r="W103" s="2"/>
+      <c r="X103" s="9"/>
+    </row>
+    <row r="104" customFormat="1" hidden="1" outlineLevel="1" spans="2:24">
+      <c r="B104" s="3"/>
+      <c r="C104" s="3"/>
+      <c r="D104" s="3"/>
+      <c r="E104" s="3"/>
+      <c r="F104" s="7">
+        <v>14</v>
+      </c>
+      <c r="G104" s="2"/>
+      <c r="H104" s="2"/>
+      <c r="I104" s="2"/>
+      <c r="J104" s="2"/>
+      <c r="K104" s="2"/>
+      <c r="L104" s="2"/>
+      <c r="M104" s="2"/>
+      <c r="N104" s="2"/>
+      <c r="O104" s="2"/>
+      <c r="P104" s="2"/>
+      <c r="Q104" s="2"/>
+      <c r="R104" s="2"/>
+      <c r="S104" s="2"/>
+      <c r="T104" s="2"/>
+      <c r="U104" s="2"/>
+      <c r="V104" s="2"/>
+      <c r="W104" s="2"/>
+      <c r="X104" s="9"/>
+    </row>
+    <row r="105" customFormat="1" hidden="1" outlineLevel="1" spans="2:24">
+      <c r="B105" s="3"/>
+      <c r="C105" s="3"/>
+      <c r="D105" s="3"/>
+      <c r="E105" s="3"/>
+      <c r="F105" s="7">
+        <v>15</v>
+      </c>
+      <c r="G105" s="2"/>
+      <c r="H105" s="2"/>
+      <c r="I105" s="2"/>
+      <c r="J105" s="2"/>
+      <c r="K105" s="2"/>
+      <c r="L105" s="2"/>
+      <c r="M105" s="2"/>
+      <c r="N105" s="2"/>
+      <c r="O105" s="2"/>
+      <c r="P105" s="2"/>
+      <c r="Q105" s="2"/>
+      <c r="R105" s="2"/>
+      <c r="S105" s="2"/>
+      <c r="T105" s="2"/>
+      <c r="U105" s="2"/>
+      <c r="V105" s="2"/>
+      <c r="W105" s="2"/>
+      <c r="X105" s="9"/>
+    </row>
+    <row r="106" customFormat="1" hidden="1" outlineLevel="1" spans="2:24">
+      <c r="B106" s="3"/>
+      <c r="C106" s="3"/>
+      <c r="D106" s="3"/>
+      <c r="E106" s="3"/>
+      <c r="F106" s="7">
+        <v>16</v>
+      </c>
+      <c r="G106" s="2"/>
+      <c r="H106" s="2"/>
+      <c r="I106" s="2"/>
+      <c r="J106" s="2"/>
+      <c r="K106" s="2"/>
+      <c r="L106" s="2"/>
+      <c r="M106" s="2"/>
+      <c r="N106" s="2"/>
+      <c r="O106" s="2"/>
+      <c r="P106" s="2"/>
+      <c r="Q106" s="2"/>
+      <c r="R106" s="2"/>
+      <c r="S106" s="2"/>
+      <c r="T106" s="2"/>
+      <c r="U106" s="2"/>
+      <c r="V106" s="2"/>
+      <c r="W106" s="2"/>
+      <c r="X106" s="9"/>
+    </row>
+    <row r="107" customFormat="1" hidden="1" outlineLevel="1" spans="2:24">
+      <c r="B107" s="3"/>
+      <c r="C107" s="3"/>
+      <c r="D107" s="3"/>
+      <c r="E107" s="3"/>
+      <c r="F107" s="7">
+        <v>17</v>
+      </c>
+      <c r="G107" s="2"/>
+      <c r="H107" s="2"/>
+      <c r="I107" s="2"/>
+      <c r="J107" s="2"/>
+      <c r="K107" s="2"/>
+      <c r="L107" s="2"/>
+      <c r="M107" s="2"/>
+      <c r="N107" s="2"/>
+      <c r="O107" s="2"/>
+      <c r="P107" s="2"/>
+      <c r="Q107" s="2"/>
+      <c r="R107" s="2"/>
+      <c r="S107" s="2"/>
+      <c r="T107" s="2"/>
+      <c r="U107" s="2"/>
+      <c r="V107" s="2"/>
+      <c r="W107" s="2"/>
+      <c r="X107" s="9"/>
+    </row>
+    <row r="108" customFormat="1" hidden="1" outlineLevel="1" spans="2:24">
+      <c r="B108" s="3"/>
+      <c r="C108" s="3"/>
+      <c r="D108" s="3"/>
+      <c r="E108" s="8"/>
+      <c r="F108" s="7">
+        <v>18</v>
+      </c>
+      <c r="G108" s="2"/>
+      <c r="H108" s="2"/>
+      <c r="I108" s="2"/>
+      <c r="J108" s="2"/>
+      <c r="K108" s="2"/>
+      <c r="L108" s="2"/>
+      <c r="M108" s="2"/>
+      <c r="N108" s="2"/>
+      <c r="O108" s="2"/>
+      <c r="P108" s="2"/>
+      <c r="Q108" s="2"/>
+      <c r="R108" s="2"/>
+      <c r="S108" s="2"/>
+      <c r="T108" s="2"/>
+      <c r="U108" s="2"/>
+      <c r="V108" s="2"/>
+      <c r="W108" s="2"/>
+      <c r="X108" s="9"/>
+    </row>
+    <row r="109" customFormat="1" hidden="1" outlineLevel="1" spans="2:24">
+      <c r="B109" s="3"/>
+      <c r="C109" s="3"/>
+      <c r="D109" s="3"/>
+      <c r="E109" s="8"/>
+      <c r="F109" s="2">
+        <v>19</v>
+      </c>
+      <c r="G109" s="2"/>
+      <c r="H109" s="2"/>
+      <c r="I109" s="2"/>
+      <c r="J109" s="2"/>
+      <c r="K109" s="2"/>
+      <c r="L109" s="2"/>
+      <c r="M109" s="2"/>
+      <c r="N109" s="2"/>
+      <c r="O109" s="2"/>
+      <c r="P109" s="2"/>
+      <c r="Q109" s="2"/>
+      <c r="R109" s="2"/>
+      <c r="S109" s="2"/>
+      <c r="T109" s="2"/>
+      <c r="U109" s="2"/>
+      <c r="V109" s="2"/>
+      <c r="W109" s="2"/>
+      <c r="X109" s="9"/>
+    </row>
+    <row r="110" customFormat="1" hidden="1" outlineLevel="1" spans="2:24">
+      <c r="B110" s="3"/>
+      <c r="C110" s="3"/>
+      <c r="D110" s="3"/>
+      <c r="E110" s="8"/>
+      <c r="F110" s="2">
+        <v>20</v>
+      </c>
+      <c r="G110" s="2"/>
+      <c r="H110" s="2"/>
+      <c r="I110" s="2"/>
+      <c r="J110" s="2"/>
+      <c r="K110" s="2"/>
+      <c r="L110" s="2"/>
+      <c r="M110" s="2"/>
+      <c r="N110" s="2"/>
+      <c r="O110" s="2"/>
+      <c r="P110" s="2"/>
+      <c r="Q110" s="2"/>
+      <c r="R110" s="2"/>
+      <c r="S110" s="2"/>
+      <c r="T110" s="2"/>
+      <c r="U110" s="2"/>
+      <c r="V110" s="2"/>
+      <c r="W110" s="2"/>
+      <c r="X110" s="9"/>
+    </row>
+    <row r="111" customFormat="1" hidden="1" outlineLevel="1" spans="2:24">
+      <c r="B111" s="3"/>
+      <c r="C111" s="3"/>
+      <c r="D111" s="3"/>
+      <c r="E111" s="8"/>
+      <c r="F111" s="2">
+        <v>21</v>
+      </c>
+      <c r="G111" s="2"/>
+      <c r="H111" s="2"/>
+      <c r="I111" s="2"/>
+      <c r="J111" s="2"/>
+      <c r="K111" s="2"/>
+      <c r="L111" s="2"/>
+      <c r="M111" s="2"/>
+      <c r="N111" s="2"/>
+      <c r="O111" s="2"/>
+      <c r="P111" s="2"/>
+      <c r="Q111" s="2"/>
+      <c r="R111" s="2"/>
+      <c r="S111" s="2"/>
+      <c r="T111" s="2"/>
+      <c r="U111" s="2"/>
+      <c r="V111" s="2"/>
+      <c r="W111" s="2"/>
+      <c r="X111" s="9"/>
+    </row>
+    <row r="112" customFormat="1" hidden="1" outlineLevel="1" spans="2:24">
+      <c r="B112" s="3"/>
+      <c r="C112" s="3"/>
+      <c r="D112" s="3"/>
+      <c r="E112" s="8"/>
+      <c r="F112" s="2">
+        <v>22</v>
+      </c>
+      <c r="G112" s="2"/>
+      <c r="H112" s="2"/>
+      <c r="I112" s="2"/>
+      <c r="J112" s="2"/>
+      <c r="K112" s="2"/>
+      <c r="L112" s="2"/>
+      <c r="M112" s="2"/>
+      <c r="N112" s="2"/>
+      <c r="O112" s="2"/>
+      <c r="P112" s="2"/>
+      <c r="Q112" s="2"/>
+      <c r="R112" s="2"/>
+      <c r="S112" s="2"/>
+      <c r="T112" s="2"/>
+      <c r="U112" s="2"/>
+      <c r="V112" s="2"/>
+      <c r="W112" s="2"/>
+      <c r="X112" s="9"/>
+    </row>
+    <row r="113" collapsed="1" spans="2:24">
+      <c r="B113" s="3"/>
+      <c r="C113" s="3"/>
+      <c r="D113" s="1" t="s">
+        <v>283</v>
+      </c>
+      <c r="E113" s="2"/>
+      <c r="F113" s="2"/>
+      <c r="G113" s="2"/>
+      <c r="H113" s="2"/>
+      <c r="I113" s="2"/>
+      <c r="J113" s="2"/>
+      <c r="K113" s="2"/>
+      <c r="L113" s="2"/>
+      <c r="M113" s="2"/>
+      <c r="N113" s="2"/>
+      <c r="O113" s="2"/>
+      <c r="P113" s="2"/>
+      <c r="Q113" s="2"/>
+      <c r="R113" s="2"/>
+      <c r="S113" s="2"/>
+      <c r="T113" s="2"/>
+      <c r="U113" s="2"/>
+      <c r="V113" s="2"/>
+      <c r="W113" s="2"/>
+      <c r="X113" s="9"/>
+    </row>
+    <row r="114" spans="2:24">
+      <c r="B114" s="8"/>
+      <c r="C114" s="8"/>
+      <c r="D114" s="10"/>
+      <c r="E114" s="1" t="s">
+        <v>284</v>
+      </c>
+      <c r="F114" s="2"/>
+      <c r="G114" s="2"/>
+      <c r="H114" s="2"/>
+      <c r="I114" s="2"/>
+      <c r="J114" s="2"/>
+      <c r="K114" s="2"/>
+      <c r="L114" s="2"/>
+      <c r="M114" s="2"/>
+      <c r="N114" s="2"/>
+      <c r="O114" s="2"/>
+      <c r="P114" s="2"/>
+      <c r="Q114" s="2"/>
+      <c r="R114" s="2"/>
+      <c r="S114" s="2"/>
+      <c r="T114" s="2"/>
+      <c r="U114" s="2"/>
+      <c r="V114" s="2"/>
+      <c r="W114" s="2"/>
+      <c r="X114" s="9"/>
+    </row>
+    <row r="115" spans="2:24">
+      <c r="B115" s="8"/>
+      <c r="C115" s="8"/>
+      <c r="D115" s="10"/>
+      <c r="E115" s="11"/>
+      <c r="F115" s="4" t="s">
+        <v>274</v>
+      </c>
+      <c r="G115" s="2"/>
+      <c r="H115" s="2"/>
+      <c r="I115" s="2"/>
+      <c r="J115" s="2"/>
+      <c r="K115" s="2"/>
+      <c r="L115" s="2"/>
+      <c r="M115" s="2"/>
+      <c r="N115" s="2"/>
+      <c r="O115" s="2"/>
+      <c r="P115" s="2"/>
+      <c r="Q115" s="2"/>
+      <c r="R115" s="2"/>
+      <c r="S115" s="2"/>
+      <c r="T115" s="2"/>
+      <c r="U115" s="2"/>
+      <c r="V115" s="2"/>
+      <c r="W115" s="2"/>
+      <c r="X115" s="9"/>
+    </row>
+    <row r="116" spans="2:24">
+      <c r="B116" s="8"/>
+      <c r="C116" s="8"/>
+      <c r="D116" s="10"/>
+      <c r="E116" s="11"/>
+      <c r="F116" s="4" t="s">
+        <v>274</v>
+      </c>
+      <c r="G116" s="2"/>
+      <c r="H116" s="2"/>
+      <c r="I116" s="2"/>
+      <c r="J116" s="2"/>
+      <c r="K116" s="2"/>
+      <c r="L116" s="2"/>
+      <c r="M116" s="2"/>
+      <c r="N116" s="2"/>
+      <c r="O116" s="2"/>
+      <c r="P116" s="2"/>
+      <c r="Q116" s="2"/>
+      <c r="R116" s="2"/>
+      <c r="S116" s="2"/>
+      <c r="T116" s="2"/>
+      <c r="U116" s="2"/>
+      <c r="V116" s="2"/>
+      <c r="W116" s="2"/>
+      <c r="X116" s="9"/>
+    </row>
+    <row r="117" spans="2:24">
+      <c r="B117" s="8"/>
+      <c r="C117" s="8"/>
+      <c r="D117" s="10"/>
+      <c r="E117" s="12"/>
+      <c r="F117" s="4" t="s">
+        <v>274</v>
+      </c>
+      <c r="G117" s="2"/>
+      <c r="H117" s="2"/>
+      <c r="I117" s="2"/>
+      <c r="J117" s="2"/>
+      <c r="K117" s="2"/>
+      <c r="L117" s="2"/>
+      <c r="M117" s="2"/>
+      <c r="N117" s="2"/>
+      <c r="O117" s="2"/>
+      <c r="P117" s="2"/>
+      <c r="Q117" s="2"/>
+      <c r="R117" s="2"/>
+      <c r="S117" s="2"/>
+      <c r="T117" s="2"/>
+      <c r="U117" s="2"/>
+      <c r="V117" s="2"/>
+      <c r="W117" s="2"/>
+      <c r="X117" s="9"/>
+    </row>
+    <row r="118" spans="2:24">
+      <c r="B118" s="8"/>
+      <c r="C118" s="8"/>
+      <c r="D118" s="10"/>
+      <c r="E118" s="1" t="s">
+        <v>285</v>
+      </c>
+      <c r="F118" s="2"/>
+      <c r="G118" s="2"/>
+      <c r="H118" s="2"/>
+      <c r="I118" s="2"/>
+      <c r="J118" s="2"/>
+      <c r="K118" s="2"/>
+      <c r="L118" s="2"/>
+      <c r="M118" s="2"/>
+      <c r="N118" s="2"/>
+      <c r="O118" s="2"/>
+      <c r="P118" s="2"/>
+      <c r="Q118" s="2"/>
+      <c r="R118" s="2"/>
+      <c r="S118" s="2"/>
+      <c r="T118" s="2"/>
+      <c r="U118" s="2"/>
+      <c r="V118" s="2"/>
+      <c r="W118" s="2"/>
+      <c r="X118" s="9"/>
+    </row>
+    <row r="119" spans="2:24">
+      <c r="B119" s="8"/>
+      <c r="C119" s="8"/>
+      <c r="D119" s="10"/>
+      <c r="E119" s="11"/>
+      <c r="F119" s="4" t="s">
+        <v>274</v>
+      </c>
+      <c r="G119" s="2"/>
+      <c r="H119" s="2"/>
+      <c r="I119" s="2"/>
+      <c r="J119" s="2"/>
+      <c r="K119" s="2"/>
+      <c r="L119" s="2"/>
+      <c r="M119" s="2"/>
+      <c r="N119" s="2"/>
+      <c r="O119" s="2"/>
+      <c r="P119" s="2"/>
+      <c r="Q119" s="2"/>
+      <c r="R119" s="2"/>
+      <c r="S119" s="2"/>
+      <c r="T119" s="2"/>
+      <c r="U119" s="2"/>
+      <c r="V119" s="2"/>
+      <c r="W119" s="2"/>
+      <c r="X119" s="9"/>
+    </row>
+    <row r="120" spans="2:24">
+      <c r="B120" s="8"/>
+      <c r="C120" s="8"/>
+      <c r="D120" s="10"/>
+      <c r="E120" s="11"/>
+      <c r="F120" s="4" t="s">
+        <v>274</v>
+      </c>
+      <c r="G120" s="2"/>
+      <c r="H120" s="2"/>
+      <c r="I120" s="2"/>
+      <c r="J120" s="2"/>
+      <c r="K120" s="2"/>
+      <c r="L120" s="2"/>
+      <c r="M120" s="2"/>
+      <c r="N120" s="2"/>
+      <c r="O120" s="2"/>
+      <c r="P120" s="2"/>
+      <c r="Q120" s="2"/>
+      <c r="R120" s="2"/>
+      <c r="S120" s="2"/>
+      <c r="T120" s="2"/>
+      <c r="U120" s="2"/>
+      <c r="V120" s="2"/>
+      <c r="W120" s="2"/>
+      <c r="X120" s="9"/>
+    </row>
+    <row r="121" spans="2:24">
+      <c r="B121" s="8"/>
+      <c r="C121" s="8"/>
+      <c r="D121" s="10"/>
+      <c r="E121" s="12"/>
+      <c r="F121" s="4" t="s">
+        <v>274</v>
+      </c>
+      <c r="G121" s="2"/>
+      <c r="H121" s="2"/>
+      <c r="I121" s="2"/>
+      <c r="J121" s="2"/>
+      <c r="K121" s="2"/>
+      <c r="L121" s="2"/>
+      <c r="M121" s="2"/>
+      <c r="N121" s="2"/>
+      <c r="O121" s="2"/>
+      <c r="P121" s="2"/>
+      <c r="Q121" s="2"/>
+      <c r="R121" s="2"/>
+      <c r="S121" s="2"/>
+      <c r="T121" s="2"/>
+      <c r="U121" s="2"/>
+      <c r="V121" s="2"/>
+      <c r="W121" s="2"/>
+      <c r="X121" s="9"/>
+    </row>
+    <row r="122" spans="2:24">
+      <c r="B122" s="13"/>
+      <c r="C122" s="13"/>
+      <c r="D122" s="13"/>
+      <c r="E122" s="4"/>
+      <c r="F122" s="2"/>
+      <c r="G122" s="2"/>
+      <c r="H122" s="2"/>
+      <c r="I122" s="2"/>
+      <c r="J122" s="2"/>
+      <c r="K122" s="2"/>
+      <c r="L122" s="2"/>
+      <c r="M122" s="2"/>
+      <c r="N122" s="2"/>
+      <c r="O122" s="2"/>
+      <c r="P122" s="2"/>
+      <c r="Q122" s="2"/>
+      <c r="R122" s="2"/>
+      <c r="S122" s="2"/>
+      <c r="T122" s="2"/>
+      <c r="U122" s="2"/>
+      <c r="V122" s="2"/>
+      <c r="W122" s="2"/>
+      <c r="X122" s="9"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter/>
 </worksheet>
 </file>
--- a/OTHERS/DOC/物理設計書.xlsx
+++ b/OTHERS/DOC/物理設計書.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28125" windowHeight="12420" activeTab="4"/>
+    <workbookView windowWidth="28125" windowHeight="12420" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="資材一覧" sheetId="5" r:id="rId1"/>
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="403" uniqueCount="286">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="398" uniqueCount="287">
   <si>
     <t>番号</t>
   </si>
@@ -614,48 +614,72 @@
     <t>xxxxxx</t>
   </si>
   <si>
+    <t>ユーザー情報管理</t>
+  </si>
+  <si>
+    <t>Password</t>
+  </si>
+  <si>
+    <t>ロール</t>
+  </si>
+  <si>
+    <t>jly99641</t>
+  </si>
+  <si>
+    <t>user</t>
+  </si>
+  <si>
+    <t>bruss_liu</t>
+  </si>
+  <si>
+    <t>abcdefg</t>
+  </si>
+  <si>
+    <t>admin</t>
+  </si>
+  <si>
+    <t>権限情報管理</t>
+  </si>
+  <si>
+    <t>権限ID</t>
+  </si>
+  <si>
+    <t>権限内容</t>
+  </si>
+  <si>
+    <t>権限区分</t>
+  </si>
+  <si>
     <t>【セッション内容】</t>
   </si>
   <si>
+    <t>0301-01</t>
+  </si>
+  <si>
+    <t>XXXXXX</t>
+  </si>
+  <si>
+    <t>ON</t>
+  </si>
+  <si>
+    <t>0301-02</t>
+  </si>
+  <si>
+    <t>YYYYYY</t>
+  </si>
+  <si>
     <t>SMART_ID</t>
   </si>
   <si>
-    <t>ユーザー情報管理</t>
-  </si>
-  <si>
-    <t>Password</t>
-  </si>
-  <si>
-    <t>jly99641</t>
-  </si>
-  <si>
-    <t>bruss_liu</t>
-  </si>
-  <si>
-    <t>abcdefg</t>
-  </si>
-  <si>
     <t>USER_ID</t>
   </si>
   <si>
     <t>メニュー画面から</t>
   </si>
   <si>
-    <t>ロール情報管理</t>
-  </si>
-  <si>
-    <t>ロール</t>
-  </si>
-  <si>
     <t>SHOP_ID</t>
   </si>
   <si>
-    <t>user</t>
-  </si>
-  <si>
-    <t>admin</t>
-  </si>
-  <si>
     <t>ROLE</t>
   </si>
   <si>
@@ -668,33 +692,6 @@
     <t>PMSN-A02-01</t>
   </si>
   <si>
-    <t>権限情報管理</t>
-  </si>
-  <si>
-    <t>権限ID</t>
-  </si>
-  <si>
-    <t>権限内容</t>
-  </si>
-  <si>
-    <t>権限区分</t>
-  </si>
-  <si>
-    <t>0301-01</t>
-  </si>
-  <si>
-    <t>XXXXXX</t>
-  </si>
-  <si>
-    <t>ON</t>
-  </si>
-  <si>
-    <t>0301-02</t>
-  </si>
-  <si>
-    <t>YYYYYY</t>
-  </si>
-  <si>
     <t>jsp</t>
   </si>
   <si>
@@ -876,6 +873,12 @@
   </si>
   <si>
     <t>20230118-151419</t>
+  </si>
+  <si>
+    <t>uploadpic</t>
+  </si>
+  <si>
+    <t>XXXXXXXX</t>
   </si>
 </sst>
 </file>
@@ -884,11 +887,11 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="176" formatCode="_-&quot;\&quot;* #,##0.00_-\ ;\-&quot;\&quot;* #,##0.00_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
-    <numFmt numFmtId="177" formatCode="_-&quot;\&quot;* #,##0_-\ ;\-&quot;\&quot;* #,##0_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
+    <numFmt numFmtId="176" formatCode="_-&quot;\&quot;* #,##0_-\ ;\-&quot;\&quot;* #,##0_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
+    <numFmt numFmtId="177" formatCode="_-&quot;\&quot;* #,##0.00_-\ ;\-&quot;\&quot;* #,##0.00_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
     <numFmt numFmtId="178" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="25">
+  <fonts count="24">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -905,14 +908,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF1552D1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color rgb="FF1552D1"/>
       <name val="宋体"/>
@@ -1086,6 +1081,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -1099,12 +1100,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7" tint="0.8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1307,7 +1302,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="65">
+  <borders count="68">
     <border>
       <left/>
       <right/>
@@ -1419,6 +1414,15 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color auto="1"/>
       </left>
@@ -1579,7 +1583,7 @@
       <diagonal/>
     </border>
     <border>
-      <left style="medium">
+      <left style="thin">
         <color auto="1"/>
       </left>
       <right style="thin">
@@ -1600,7 +1604,7 @@
       <right style="thin">
         <color auto="1"/>
       </right>
-      <top style="medium">
+      <top style="thin">
         <color auto="1"/>
       </top>
       <bottom style="thin">
@@ -1615,6 +1619,21 @@
       <right style="thin">
         <color auto="1"/>
       </right>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
       <top style="thin">
         <color auto="1"/>
       </top>
@@ -1627,57 +1646,28 @@
       <left style="thin">
         <color auto="1"/>
       </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
+      <right/>
+      <top/>
+      <bottom style="medium">
         <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="medium">
-        <color auto="1"/>
-      </right>
-      <top style="medium">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
         <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="medium">
+      <left/>
+      <right style="thin">
         <color auto="1"/>
       </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="medium">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
+      <top/>
       <bottom style="medium">
         <color auto="1"/>
       </bottom>
@@ -1723,6 +1713,101 @@
     <border>
       <left/>
       <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
       <top style="thin">
         <color auto="1"/>
       </top>
@@ -1773,54 +1858,6 @@
     </border>
     <border>
       <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color auto="1"/>
-      </right>
-      <top style="medium">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="medium">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
       <right style="medium">
         <color auto="1"/>
       </right>
@@ -1837,17 +1874,6 @@
       </right>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color auto="1"/>
-      </right>
-      <top/>
-      <bottom style="medium">
-        <color auto="1"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -2134,48 +2160,51 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="60" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="57" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="61" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="58" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
@@ -2185,101 +2214,98 @@
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="59" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="59" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="60" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="17" borderId="61" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="17" borderId="57" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="18" borderId="62" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="63" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="64" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="62" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="62" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="63" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="17" borderId="64" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="17" borderId="60" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="18" borderId="65" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="66" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="67" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="171">
+  <cellXfs count="170">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2292,76 +2318,91 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="12" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="13" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="15" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="16" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="18" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="19" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="20" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="12" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="13" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="14" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="16" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="17" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="19" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="20" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="21" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
@@ -2370,64 +2411,43 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2436,37 +2456,34 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="37" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="41" xfId="0" applyBorder="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="42" xfId="0" applyBorder="1">
@@ -2475,373 +2492,379 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="43" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="44" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="45" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="44" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="45" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="46" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="47" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="48" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="50" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="51" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="52" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="52" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="12" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="13" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="14" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="16" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="3" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="17" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="17" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="50" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="51" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="52" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="52" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="53" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="17" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="50" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="51" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="52" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="52" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="12" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="13" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="16" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="54" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="11" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="11" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="55" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="55" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="54" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="54" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="55" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="55" xfId="0" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="54" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="55" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="55" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="47" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="48" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="49" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="49" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="11" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="12" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="13" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="15" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="3" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="16" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="16" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="47" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="48" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="49" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="49" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="50" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="16" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="47" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="48" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="49" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="49" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="12" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="15" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="51" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="52" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="52" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="51" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="56" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="57" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="57" xfId="0" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="50" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="51" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="52" xfId="0" applyBorder="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="51" xfId="0" applyNumberFormat="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="52" xfId="0" applyNumberFormat="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="51" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="52" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="52" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="58" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="59" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="53" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="54" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="54" xfId="0" applyNumberFormat="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="47" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="48" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="48" xfId="0" applyNumberFormat="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="49" xfId="0" applyNumberFormat="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="55" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="56" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="44" xfId="0" applyFill="1" applyBorder="1" quotePrefix="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFill="1" applyBorder="1" quotePrefix="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="11" xfId="0" applyFill="1" applyBorder="1" quotePrefix="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="0" applyFill="1" applyBorder="1" quotePrefix="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="19" xfId="0" applyFill="1" applyBorder="1" quotePrefix="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" quotePrefix="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="51" xfId="0" applyFill="1" applyBorder="1" quotePrefix="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="15" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" quotePrefix="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" quotePrefix="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" quotePrefix="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyBorder="1" quotePrefix="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyFill="1" applyBorder="1" quotePrefix="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyFill="1" applyBorder="1" quotePrefix="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1" quotePrefix="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" quotePrefix="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="53" xfId="0" applyBorder="1" quotePrefix="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" quotePrefix="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="40" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="47" xfId="0" applyFill="1" applyBorder="1" quotePrefix="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFill="1" applyBorder="1" quotePrefix="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="12" xfId="0" applyFill="1" applyBorder="1" quotePrefix="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="12" xfId="0" applyFill="1" applyBorder="1" quotePrefix="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="20" xfId="0" applyFill="1" applyBorder="1" quotePrefix="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="12" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" quotePrefix="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="54" xfId="0" applyFill="1" applyBorder="1" quotePrefix="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="16" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" quotePrefix="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" quotePrefix="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" quotePrefix="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyBorder="1" quotePrefix="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyFill="1" applyBorder="1" quotePrefix="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyFill="1" applyBorder="1" quotePrefix="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1" quotePrefix="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" quotePrefix="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="56" xfId="0" applyBorder="1" quotePrefix="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" quotePrefix="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -3218,640 +3241,640 @@
     <col min="6" max="7" width="30.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" s="65" customFormat="1" ht="30" customHeight="1" spans="2:7">
-      <c r="B2" s="66" t="s">
+    <row r="2" s="67" customFormat="1" ht="30" customHeight="1" spans="2:7">
+      <c r="B2" s="68" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="67" t="s">
+      <c r="C2" s="69" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="67" t="s">
+      <c r="D2" s="69" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="67" t="s">
+      <c r="E2" s="69" t="s">
         <v>3</v>
       </c>
-      <c r="F2" s="67" t="s">
+      <c r="F2" s="69" t="s">
         <v>4</v>
       </c>
-      <c r="G2" s="68" t="s">
+      <c r="G2" s="70" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="3" customHeight="1" spans="2:7">
-      <c r="B3" s="171" t="s">
+      <c r="B3" s="170" t="s">
         <v>6</v>
       </c>
-      <c r="C3" s="70" t="s">
+      <c r="C3" s="72" t="s">
         <v>7</v>
       </c>
-      <c r="D3" s="70" t="s">
+      <c r="D3" s="72" t="s">
         <v>8</v>
       </c>
-      <c r="E3" s="70" t="s">
+      <c r="E3" s="72" t="s">
         <v>9</v>
       </c>
-      <c r="F3" s="70" t="s">
+      <c r="F3" s="72" t="s">
         <v>10</v>
       </c>
-      <c r="G3" s="71" t="s">
+      <c r="G3" s="73" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="4" customHeight="1" spans="2:7">
-      <c r="B4" s="172" t="s">
+      <c r="B4" s="171" t="s">
         <v>12</v>
       </c>
-      <c r="C4" s="73" t="s">
+      <c r="C4" s="75" t="s">
         <v>13</v>
       </c>
-      <c r="D4" s="73" t="s">
+      <c r="D4" s="75" t="s">
         <v>14</v>
       </c>
-      <c r="E4" s="74" t="s">
+      <c r="E4" s="76" t="s">
         <v>15</v>
       </c>
-      <c r="F4" s="74" t="s">
+      <c r="F4" s="76" t="s">
         <v>16</v>
       </c>
-      <c r="G4" s="75"/>
+      <c r="G4" s="77"/>
     </row>
     <row r="5" customHeight="1" spans="2:7">
-      <c r="B5" s="76"/>
-      <c r="C5" s="77"/>
-      <c r="D5" s="77"/>
-      <c r="E5" s="78" t="s">
+      <c r="B5" s="78"/>
+      <c r="C5" s="79"/>
+      <c r="D5" s="79"/>
+      <c r="E5" s="80" t="s">
         <v>17</v>
       </c>
-      <c r="F5" s="78" t="s">
+      <c r="F5" s="80" t="s">
         <v>18</v>
       </c>
-      <c r="G5" s="75"/>
+      <c r="G5" s="77"/>
     </row>
     <row r="6" customHeight="1" spans="2:7">
-      <c r="B6" s="172" t="s">
+      <c r="B6" s="171" t="s">
         <v>19</v>
       </c>
-      <c r="C6" s="73" t="s">
+      <c r="C6" s="75" t="s">
         <v>20</v>
       </c>
-      <c r="D6" s="73" t="s">
+      <c r="D6" s="75" t="s">
         <v>21</v>
       </c>
-      <c r="E6" s="74" t="s">
+      <c r="E6" s="76" t="s">
         <v>15</v>
       </c>
-      <c r="F6" s="74" t="s">
+      <c r="F6" s="76" t="s">
         <v>22</v>
       </c>
-      <c r="G6" s="79" t="s">
+      <c r="G6" s="81" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="7" customHeight="1" spans="2:7">
-      <c r="B7" s="80"/>
-      <c r="C7" s="81"/>
-      <c r="D7" s="81"/>
-      <c r="E7" s="82"/>
-      <c r="F7" s="83"/>
-      <c r="G7" s="84"/>
+      <c r="B7" s="82"/>
+      <c r="C7" s="83"/>
+      <c r="D7" s="83"/>
+      <c r="E7" s="84"/>
+      <c r="F7" s="85"/>
+      <c r="G7" s="86"/>
     </row>
     <row r="8" customHeight="1" spans="2:7">
-      <c r="B8" s="173" t="s">
+      <c r="B8" s="172" t="s">
         <v>23</v>
       </c>
-      <c r="C8" s="86" t="s">
+      <c r="C8" s="88" t="s">
         <v>24</v>
       </c>
-      <c r="D8" s="86" t="s">
+      <c r="D8" s="88" t="s">
         <v>25</v>
       </c>
-      <c r="E8" s="87" t="s">
+      <c r="E8" s="89" t="s">
         <v>15</v>
       </c>
-      <c r="F8" s="87" t="s">
+      <c r="F8" s="89" t="s">
         <v>26</v>
       </c>
-      <c r="G8" s="88" t="s">
+      <c r="G8" s="90" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="9" customHeight="1" spans="2:7">
-      <c r="B9" s="89"/>
-      <c r="C9" s="90"/>
-      <c r="D9" s="90"/>
-      <c r="E9" s="91" t="s">
+      <c r="B9" s="91"/>
+      <c r="C9" s="92"/>
+      <c r="D9" s="92"/>
+      <c r="E9" s="93" t="s">
         <v>28</v>
       </c>
-      <c r="F9" s="92" t="s">
+      <c r="F9" s="94" t="s">
         <v>29</v>
       </c>
-      <c r="G9" s="93"/>
+      <c r="G9" s="95"/>
     </row>
     <row r="10" customHeight="1" spans="2:7">
-      <c r="B10" s="89"/>
-      <c r="C10" s="90"/>
-      <c r="D10" s="90"/>
-      <c r="E10" s="91" t="s">
+      <c r="B10" s="91"/>
+      <c r="C10" s="92"/>
+      <c r="D10" s="92"/>
+      <c r="E10" s="93" t="s">
         <v>30</v>
       </c>
-      <c r="F10" s="92" t="s">
+      <c r="F10" s="94" t="s">
         <v>31</v>
       </c>
-      <c r="G10" s="93"/>
+      <c r="G10" s="95"/>
     </row>
     <row r="11" customHeight="1" spans="2:7">
-      <c r="B11" s="94"/>
-      <c r="C11" s="95"/>
-      <c r="D11" s="95"/>
-      <c r="E11" s="96" t="s">
+      <c r="B11" s="96"/>
+      <c r="C11" s="97"/>
+      <c r="D11" s="97"/>
+      <c r="E11" s="98" t="s">
         <v>32</v>
       </c>
-      <c r="F11" s="97" t="s">
+      <c r="F11" s="99" t="s">
         <v>33</v>
       </c>
-      <c r="G11" s="98"/>
+      <c r="G11" s="100"/>
     </row>
     <row r="12" customHeight="1" spans="2:7">
-      <c r="B12" s="174" t="s">
+      <c r="B12" s="173" t="s">
         <v>34</v>
       </c>
-      <c r="C12" s="15" t="s">
+      <c r="C12" s="20" t="s">
         <v>35</v>
       </c>
-      <c r="D12" s="15" t="s">
+      <c r="D12" s="20" t="s">
         <v>36</v>
       </c>
-      <c r="E12" s="16" t="s">
+      <c r="E12" s="21" t="s">
         <v>15</v>
       </c>
-      <c r="F12" s="16" t="s">
+      <c r="F12" s="21" t="s">
         <v>37</v>
       </c>
-      <c r="G12" s="17" t="s">
+      <c r="G12" s="22" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="13" customHeight="1" spans="2:7">
-      <c r="B13" s="18"/>
-      <c r="C13" s="19"/>
-      <c r="D13" s="19"/>
-      <c r="E13" s="99" t="s">
+      <c r="B13" s="23"/>
+      <c r="C13" s="24"/>
+      <c r="D13" s="24"/>
+      <c r="E13" s="101" t="s">
         <v>39</v>
       </c>
-      <c r="F13" s="99" t="s">
+      <c r="F13" s="101" t="s">
         <v>40</v>
       </c>
-      <c r="G13" s="21"/>
+      <c r="G13" s="26"/>
     </row>
     <row r="14" customHeight="1" spans="2:7">
-      <c r="B14" s="18"/>
-      <c r="C14" s="19"/>
-      <c r="D14" s="19"/>
-      <c r="E14" s="20" t="s">
+      <c r="B14" s="23"/>
+      <c r="C14" s="24"/>
+      <c r="D14" s="24"/>
+      <c r="E14" s="25" t="s">
         <v>41</v>
       </c>
-      <c r="F14" s="20" t="s">
+      <c r="F14" s="25" t="s">
         <v>42</v>
       </c>
-      <c r="G14" s="21"/>
+      <c r="G14" s="26"/>
     </row>
     <row r="15" customHeight="1" spans="2:7">
-      <c r="B15" s="18"/>
-      <c r="C15" s="19"/>
-      <c r="D15" s="19"/>
-      <c r="E15" s="22" t="s">
+      <c r="B15" s="23"/>
+      <c r="C15" s="24"/>
+      <c r="D15" s="24"/>
+      <c r="E15" s="27" t="s">
         <v>43</v>
       </c>
-      <c r="F15" s="22" t="s">
+      <c r="F15" s="27" t="s">
         <v>44</v>
       </c>
-      <c r="G15" s="21"/>
+      <c r="G15" s="26"/>
     </row>
     <row r="16" customHeight="1" spans="2:7">
-      <c r="B16" s="175" t="s">
+      <c r="B16" s="174" t="s">
         <v>45</v>
       </c>
-      <c r="C16" s="24" t="s">
+      <c r="C16" s="29" t="s">
         <v>46</v>
       </c>
-      <c r="D16" s="24" t="s">
+      <c r="D16" s="29" t="s">
         <v>47</v>
       </c>
-      <c r="E16" s="24" t="s">
+      <c r="E16" s="29" t="s">
         <v>48</v>
       </c>
-      <c r="F16" s="24" t="s">
+      <c r="F16" s="29" t="s">
         <v>49</v>
       </c>
-      <c r="G16" s="25"/>
+      <c r="G16" s="30"/>
     </row>
     <row r="17" customHeight="1" spans="2:7">
-      <c r="B17" s="174" t="s">
+      <c r="B17" s="173" t="s">
         <v>50</v>
       </c>
-      <c r="C17" s="15" t="s">
+      <c r="C17" s="20" t="s">
         <v>51</v>
       </c>
-      <c r="D17" s="15" t="s">
+      <c r="D17" s="20" t="s">
         <v>52</v>
       </c>
-      <c r="E17" s="16" t="s">
+      <c r="E17" s="21" t="s">
         <v>15</v>
       </c>
-      <c r="F17" s="16" t="s">
+      <c r="F17" s="21" t="s">
         <v>53</v>
       </c>
-      <c r="G17" s="100" t="s">
+      <c r="G17" s="102" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="18" customHeight="1" spans="2:7">
-      <c r="B18" s="18"/>
-      <c r="C18" s="19"/>
-      <c r="D18" s="19"/>
-      <c r="E18" s="20" t="s">
+      <c r="B18" s="23"/>
+      <c r="C18" s="24"/>
+      <c r="D18" s="24"/>
+      <c r="E18" s="25" t="s">
         <v>43</v>
       </c>
-      <c r="F18" s="101" t="s">
+      <c r="F18" s="103" t="s">
         <v>55</v>
       </c>
-      <c r="G18" s="102"/>
+      <c r="G18" s="104"/>
     </row>
     <row r="19" customHeight="1" spans="2:7">
-      <c r="B19" s="103"/>
-      <c r="C19" s="104"/>
-      <c r="D19" s="104"/>
-      <c r="E19" s="105" t="s">
+      <c r="B19" s="105"/>
+      <c r="C19" s="106"/>
+      <c r="D19" s="106"/>
+      <c r="E19" s="107" t="s">
         <v>56</v>
       </c>
-      <c r="F19" s="106" t="s">
+      <c r="F19" s="108" t="s">
         <v>57</v>
       </c>
-      <c r="G19" s="107"/>
+      <c r="G19" s="109"/>
     </row>
     <row r="20" customHeight="1" spans="2:7">
-      <c r="B20" s="176" t="s">
+      <c r="B20" s="175" t="s">
         <v>58</v>
       </c>
-      <c r="C20" s="109" t="s">
+      <c r="C20" s="111" t="s">
         <v>59</v>
       </c>
-      <c r="D20" s="15" t="s">
+      <c r="D20" s="20" t="s">
         <v>60</v>
       </c>
-      <c r="E20" s="16" t="s">
+      <c r="E20" s="21" t="s">
         <v>15</v>
       </c>
-      <c r="F20" s="16" t="s">
+      <c r="F20" s="21" t="s">
         <v>61</v>
       </c>
-      <c r="G20" s="100" t="s">
+      <c r="G20" s="102" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="21" customHeight="1" spans="2:7">
-      <c r="B21" s="110"/>
-      <c r="C21" s="111"/>
-      <c r="D21" s="19"/>
-      <c r="E21" s="20" t="s">
+      <c r="B21" s="112"/>
+      <c r="C21" s="113"/>
+      <c r="D21" s="24"/>
+      <c r="E21" s="25" t="s">
         <v>39</v>
       </c>
-      <c r="F21" s="101" t="s">
+      <c r="F21" s="103" t="s">
         <v>63</v>
       </c>
-      <c r="G21" s="102"/>
+      <c r="G21" s="104"/>
     </row>
     <row r="22" customHeight="1" spans="2:7">
-      <c r="B22" s="110"/>
-      <c r="C22" s="111"/>
-      <c r="D22" s="19"/>
-      <c r="E22" s="20" t="s">
+      <c r="B22" s="112"/>
+      <c r="C22" s="113"/>
+      <c r="D22" s="24"/>
+      <c r="E22" s="25" t="s">
         <v>64</v>
       </c>
-      <c r="F22" s="101" t="s">
+      <c r="F22" s="103" t="s">
         <v>65</v>
       </c>
-      <c r="G22" s="102"/>
+      <c r="G22" s="104"/>
     </row>
     <row r="23" customHeight="1" spans="2:7">
-      <c r="B23" s="110"/>
-      <c r="C23" s="111"/>
-      <c r="D23" s="19"/>
-      <c r="E23" s="20" t="s">
+      <c r="B23" s="112"/>
+      <c r="C23" s="113"/>
+      <c r="D23" s="24"/>
+      <c r="E23" s="25" t="s">
         <v>66</v>
       </c>
-      <c r="F23" s="101" t="s">
+      <c r="F23" s="103" t="s">
         <v>67</v>
       </c>
-      <c r="G23" s="102"/>
+      <c r="G23" s="104"/>
     </row>
     <row r="24" customHeight="1" spans="2:7">
-      <c r="B24" s="110"/>
-      <c r="C24" s="111"/>
-      <c r="D24" s="19"/>
-      <c r="E24" s="20" t="s">
+      <c r="B24" s="112"/>
+      <c r="C24" s="113"/>
+      <c r="D24" s="24"/>
+      <c r="E24" s="25" t="s">
         <v>68</v>
       </c>
-      <c r="F24" s="101" t="s">
+      <c r="F24" s="103" t="s">
         <v>69</v>
       </c>
-      <c r="G24" s="102"/>
+      <c r="G24" s="104"/>
     </row>
     <row r="25" customHeight="1" spans="2:7">
-      <c r="B25" s="110"/>
-      <c r="C25" s="111"/>
-      <c r="D25" s="19"/>
-      <c r="E25" s="20" t="s">
+      <c r="B25" s="112"/>
+      <c r="C25" s="113"/>
+      <c r="D25" s="24"/>
+      <c r="E25" s="25" t="s">
         <v>70</v>
       </c>
-      <c r="F25" s="101" t="s">
+      <c r="F25" s="103" t="s">
         <v>71</v>
       </c>
-      <c r="G25" s="102"/>
+      <c r="G25" s="104"/>
     </row>
     <row r="26" customHeight="1" spans="2:7">
-      <c r="B26" s="110"/>
-      <c r="C26" s="111"/>
-      <c r="D26" s="19"/>
-      <c r="E26" s="20" t="s">
+      <c r="B26" s="112"/>
+      <c r="C26" s="113"/>
+      <c r="D26" s="24"/>
+      <c r="E26" s="25" t="s">
         <v>72</v>
       </c>
-      <c r="F26" s="101" t="s">
+      <c r="F26" s="103" t="s">
         <v>73</v>
       </c>
-      <c r="G26" s="102"/>
+      <c r="G26" s="104"/>
     </row>
     <row r="27" customHeight="1" spans="2:7">
-      <c r="B27" s="110"/>
-      <c r="C27" s="111"/>
-      <c r="D27" s="19"/>
-      <c r="E27" s="20" t="s">
+      <c r="B27" s="112"/>
+      <c r="C27" s="113"/>
+      <c r="D27" s="24"/>
+      <c r="E27" s="25" t="s">
         <v>74</v>
       </c>
-      <c r="F27" s="101" t="s">
+      <c r="F27" s="103" t="s">
         <v>75</v>
       </c>
-      <c r="G27" s="102"/>
+      <c r="G27" s="104"/>
     </row>
     <row r="28" customHeight="1" spans="2:7">
-      <c r="B28" s="110"/>
-      <c r="C28" s="111"/>
-      <c r="D28" s="19"/>
-      <c r="E28" s="20" t="s">
+      <c r="B28" s="112"/>
+      <c r="C28" s="113"/>
+      <c r="D28" s="24"/>
+      <c r="E28" s="25" t="s">
         <v>76</v>
       </c>
-      <c r="F28" s="101" t="s">
+      <c r="F28" s="103" t="s">
         <v>77</v>
       </c>
-      <c r="G28" s="102"/>
+      <c r="G28" s="104"/>
     </row>
     <row r="29" customHeight="1" spans="2:7">
-      <c r="B29" s="112"/>
-      <c r="C29" s="113"/>
-      <c r="D29" s="114"/>
-      <c r="E29" s="115" t="s">
+      <c r="B29" s="114"/>
+      <c r="C29" s="115"/>
+      <c r="D29" s="116"/>
+      <c r="E29" s="117" t="s">
         <v>78</v>
       </c>
-      <c r="F29" s="116" t="s">
+      <c r="F29" s="118" t="s">
         <v>79</v>
       </c>
-      <c r="G29" s="102"/>
+      <c r="G29" s="104"/>
     </row>
     <row r="30" customHeight="1" spans="2:7">
-      <c r="B30" s="177" t="s">
+      <c r="B30" s="176" t="s">
         <v>80</v>
       </c>
-      <c r="C30" s="114" t="s">
+      <c r="C30" s="116" t="s">
         <v>81</v>
       </c>
-      <c r="D30" s="114" t="s">
+      <c r="D30" s="116" t="s">
         <v>82</v>
       </c>
-      <c r="E30" s="114" t="s">
+      <c r="E30" s="116" t="s">
         <v>69</v>
       </c>
-      <c r="F30" s="114" t="s">
+      <c r="F30" s="116" t="s">
         <v>69</v>
       </c>
-      <c r="G30" s="102"/>
+      <c r="G30" s="104"/>
     </row>
     <row r="31" customHeight="1" spans="2:7">
-      <c r="B31" s="175" t="s">
+      <c r="B31" s="174" t="s">
         <v>83</v>
       </c>
-      <c r="C31" s="24" t="s">
+      <c r="C31" s="29" t="s">
         <v>84</v>
       </c>
-      <c r="D31" s="24" t="s">
+      <c r="D31" s="29" t="s">
         <v>85</v>
       </c>
-      <c r="E31" s="24" t="s">
+      <c r="E31" s="29" t="s">
         <v>86</v>
       </c>
-      <c r="F31" s="106" t="s">
+      <c r="F31" s="108" t="s">
         <v>87</v>
       </c>
-      <c r="G31" s="107"/>
+      <c r="G31" s="109"/>
     </row>
     <row r="32" customHeight="1" spans="2:7">
-      <c r="B32" s="178" t="s">
+      <c r="B32" s="177" t="s">
         <v>88</v>
       </c>
-      <c r="C32" s="111" t="s">
+      <c r="C32" s="113" t="s">
         <v>89</v>
       </c>
-      <c r="D32" s="19" t="s">
+      <c r="D32" s="24" t="s">
         <v>90</v>
       </c>
-      <c r="E32" s="16" t="s">
+      <c r="E32" s="21" t="s">
         <v>15</v>
       </c>
-      <c r="F32" s="16" t="s">
+      <c r="F32" s="21" t="s">
         <v>91</v>
       </c>
-      <c r="G32" s="100" t="s">
+      <c r="G32" s="102" t="s">
         <v>92</v>
       </c>
     </row>
     <row r="33" customHeight="1" spans="2:7">
-      <c r="B33" s="18"/>
-      <c r="C33" s="19"/>
-      <c r="D33" s="19"/>
-      <c r="E33" s="20" t="s">
+      <c r="B33" s="23"/>
+      <c r="C33" s="24"/>
+      <c r="D33" s="24"/>
+      <c r="E33" s="25" t="s">
         <v>39</v>
       </c>
-      <c r="F33" s="101" t="s">
+      <c r="F33" s="103" t="s">
         <v>69</v>
       </c>
-      <c r="G33" s="102"/>
+      <c r="G33" s="104"/>
     </row>
     <row r="34" customHeight="1" spans="2:7">
-      <c r="B34" s="18"/>
-      <c r="C34" s="19"/>
-      <c r="D34" s="19"/>
-      <c r="E34" s="20" t="s">
+      <c r="B34" s="23"/>
+      <c r="C34" s="24"/>
+      <c r="D34" s="24"/>
+      <c r="E34" s="25" t="s">
         <v>93</v>
       </c>
-      <c r="F34" s="101" t="s">
+      <c r="F34" s="103" t="s">
         <v>94</v>
       </c>
-      <c r="G34" s="102"/>
+      <c r="G34" s="104"/>
     </row>
     <row r="35" customHeight="1" spans="2:7">
-      <c r="B35" s="18"/>
-      <c r="C35" s="19"/>
-      <c r="D35" s="19"/>
-      <c r="E35" s="20" t="s">
+      <c r="B35" s="23"/>
+      <c r="C35" s="24"/>
+      <c r="D35" s="24"/>
+      <c r="E35" s="25" t="s">
         <v>95</v>
       </c>
-      <c r="F35" s="101" t="s">
+      <c r="F35" s="103" t="s">
         <v>96</v>
       </c>
-      <c r="G35" s="102"/>
+      <c r="G35" s="104"/>
     </row>
     <row r="36" customHeight="1" spans="2:7">
-      <c r="B36" s="18"/>
-      <c r="C36" s="19"/>
-      <c r="D36" s="19"/>
-      <c r="E36" s="20" t="s">
+      <c r="B36" s="23"/>
+      <c r="C36" s="24"/>
+      <c r="D36" s="24"/>
+      <c r="E36" s="25" t="s">
         <v>97</v>
       </c>
-      <c r="F36" s="101" t="s">
+      <c r="F36" s="103" t="s">
         <v>98</v>
       </c>
-      <c r="G36" s="102"/>
+      <c r="G36" s="104"/>
     </row>
     <row r="37" customHeight="1" spans="2:7">
-      <c r="B37" s="18"/>
-      <c r="C37" s="19"/>
-      <c r="D37" s="19"/>
-      <c r="E37" s="20" t="s">
+      <c r="B37" s="23"/>
+      <c r="C37" s="24"/>
+      <c r="D37" s="24"/>
+      <c r="E37" s="25" t="s">
         <v>99</v>
       </c>
-      <c r="F37" s="101" t="s">
+      <c r="F37" s="103" t="s">
         <v>100</v>
       </c>
-      <c r="G37" s="102"/>
+      <c r="G37" s="104"/>
     </row>
     <row r="38" customHeight="1" spans="2:7">
-      <c r="B38" s="18"/>
-      <c r="C38" s="19"/>
-      <c r="D38" s="19"/>
-      <c r="E38" s="101" t="s">
+      <c r="B38" s="23"/>
+      <c r="C38" s="24"/>
+      <c r="D38" s="24"/>
+      <c r="E38" s="103" t="s">
         <v>101</v>
       </c>
-      <c r="F38" s="101" t="s">
+      <c r="F38" s="103" t="s">
         <v>102</v>
       </c>
-      <c r="G38" s="102"/>
+      <c r="G38" s="104"/>
     </row>
     <row r="39" customHeight="1" spans="2:7">
-      <c r="B39" s="18"/>
-      <c r="C39" s="19"/>
-      <c r="D39" s="19"/>
-      <c r="E39" s="101" t="s">
+      <c r="B39" s="23"/>
+      <c r="C39" s="24"/>
+      <c r="D39" s="24"/>
+      <c r="E39" s="103" t="s">
         <v>103</v>
       </c>
-      <c r="F39" s="101" t="s">
+      <c r="F39" s="103" t="s">
         <v>104</v>
       </c>
-      <c r="G39" s="102"/>
+      <c r="G39" s="104"/>
     </row>
     <row r="40" customHeight="1" spans="2:7">
-      <c r="B40" s="117"/>
-      <c r="C40" s="114"/>
-      <c r="D40" s="114"/>
-      <c r="E40" s="115" t="s">
+      <c r="B40" s="119"/>
+      <c r="C40" s="116"/>
+      <c r="D40" s="116"/>
+      <c r="E40" s="117" t="s">
         <v>105</v>
       </c>
-      <c r="F40" s="116" t="s">
+      <c r="F40" s="118" t="s">
         <v>106</v>
       </c>
-      <c r="G40" s="102"/>
+      <c r="G40" s="104"/>
     </row>
     <row r="41" customHeight="1" spans="2:7">
-      <c r="B41" s="177" t="s">
+      <c r="B41" s="176" t="s">
         <v>107</v>
       </c>
-      <c r="C41" s="114" t="s">
+      <c r="C41" s="116" t="s">
         <v>108</v>
       </c>
-      <c r="D41" s="114" t="s">
+      <c r="D41" s="116" t="s">
         <v>109</v>
       </c>
-      <c r="E41" s="114" t="s">
+      <c r="E41" s="116" t="s">
         <v>69</v>
       </c>
-      <c r="F41" s="114" t="s">
+      <c r="F41" s="116" t="s">
         <v>69</v>
       </c>
-      <c r="G41" s="102"/>
+      <c r="G41" s="104"/>
     </row>
     <row r="42" customHeight="1" spans="2:7">
-      <c r="B42" s="175" t="s">
+      <c r="B42" s="174" t="s">
         <v>110</v>
       </c>
-      <c r="C42" s="24" t="s">
+      <c r="C42" s="29" t="s">
         <v>111</v>
       </c>
-      <c r="D42" s="24" t="s">
+      <c r="D42" s="29" t="s">
         <v>112</v>
       </c>
-      <c r="E42" s="24" t="s">
+      <c r="E42" s="29" t="s">
         <v>86</v>
       </c>
-      <c r="F42" s="106" t="s">
+      <c r="F42" s="108" t="s">
         <v>113</v>
       </c>
-      <c r="G42" s="107"/>
+      <c r="G42" s="109"/>
     </row>
     <row r="43" customHeight="1" spans="2:7">
-      <c r="B43" s="179" t="s">
+      <c r="B43" s="178" t="s">
         <v>114</v>
       </c>
-      <c r="C43" s="119" t="s">
+      <c r="C43" s="121" t="s">
         <v>115</v>
       </c>
-      <c r="D43" s="119" t="s">
+      <c r="D43" s="121" t="s">
         <v>116</v>
       </c>
-      <c r="E43" s="120" t="s">
+      <c r="E43" s="122" t="s">
         <v>15</v>
       </c>
-      <c r="F43" s="120" t="s">
+      <c r="F43" s="122" t="s">
         <v>117</v>
       </c>
-      <c r="G43" s="121" t="s">
+      <c r="G43" s="123" t="s">
         <v>118</v>
       </c>
     </row>
     <row r="44" customHeight="1" spans="2:7">
-      <c r="B44" s="122"/>
-      <c r="C44" s="123"/>
-      <c r="D44" s="123"/>
-      <c r="E44" s="124" t="s">
+      <c r="B44" s="124"/>
+      <c r="C44" s="3"/>
+      <c r="D44" s="3"/>
+      <c r="E44" s="125" t="s">
         <v>39</v>
       </c>
-      <c r="F44" s="125" t="s">
+      <c r="F44" s="126" t="s">
         <v>69</v>
       </c>
-      <c r="G44" s="126"/>
+      <c r="G44" s="127"/>
     </row>
     <row r="45" customHeight="1" spans="2:7">
-      <c r="B45" s="127"/>
-      <c r="C45" s="128"/>
-      <c r="D45" s="128"/>
+      <c r="B45" s="128"/>
+      <c r="C45" s="17"/>
+      <c r="D45" s="17"/>
       <c r="E45" s="129" t="s">
         <v>43</v>
       </c>
       <c r="F45" s="130" t="s">
         <v>119</v>
       </c>
-      <c r="G45" s="126"/>
+      <c r="G45" s="127"/>
     </row>
     <row r="46" customHeight="1" spans="2:7">
-      <c r="B46" s="180" t="s">
+      <c r="B46" s="179" t="s">
         <v>120</v>
       </c>
       <c r="C46" s="132" t="s">
@@ -3869,7 +3892,7 @@
       <c r="G46" s="134"/>
     </row>
     <row r="47" customHeight="1" spans="2:7">
-      <c r="B47" s="181" t="s">
+      <c r="B47" s="180" t="s">
         <v>124</v>
       </c>
       <c r="C47" s="136" t="s">
@@ -3878,42 +3901,42 @@
       <c r="D47" s="136" t="s">
         <v>126</v>
       </c>
-      <c r="E47" s="120" t="s">
+      <c r="E47" s="122" t="s">
         <v>15</v>
       </c>
-      <c r="F47" s="120" t="s">
+      <c r="F47" s="122" t="s">
         <v>127</v>
       </c>
-      <c r="G47" s="121" t="s">
+      <c r="G47" s="123" t="s">
         <v>128</v>
       </c>
     </row>
     <row r="48" customHeight="1" spans="2:7">
-      <c r="B48" s="122"/>
-      <c r="C48" s="123"/>
-      <c r="D48" s="123"/>
-      <c r="E48" s="124" t="s">
+      <c r="B48" s="124"/>
+      <c r="C48" s="3"/>
+      <c r="D48" s="3"/>
+      <c r="E48" s="125" t="s">
         <v>39</v>
       </c>
-      <c r="F48" s="125" t="s">
+      <c r="F48" s="126" t="s">
         <v>69</v>
       </c>
-      <c r="G48" s="126"/>
+      <c r="G48" s="127"/>
     </row>
     <row r="49" customHeight="1" spans="2:7">
-      <c r="B49" s="127"/>
-      <c r="C49" s="128"/>
-      <c r="D49" s="128"/>
+      <c r="B49" s="128"/>
+      <c r="C49" s="17"/>
+      <c r="D49" s="17"/>
       <c r="E49" s="129" t="s">
         <v>43</v>
       </c>
       <c r="F49" s="130" t="s">
         <v>129</v>
       </c>
-      <c r="G49" s="126"/>
+      <c r="G49" s="127"/>
     </row>
     <row r="50" customHeight="1" spans="2:7">
-      <c r="B50" s="180" t="s">
+      <c r="B50" s="179" t="s">
         <v>130</v>
       </c>
       <c r="C50" s="132" t="s">
@@ -3931,48 +3954,48 @@
       <c r="G50" s="134"/>
     </row>
     <row r="51" customHeight="1" spans="2:7">
-      <c r="B51" s="172" t="s">
+      <c r="B51" s="171" t="s">
         <v>134</v>
       </c>
-      <c r="C51" s="73" t="s">
+      <c r="C51" s="75" t="s">
         <v>135</v>
       </c>
-      <c r="D51" s="73" t="s">
+      <c r="D51" s="75" t="s">
         <v>136</v>
       </c>
-      <c r="E51" s="74" t="s">
+      <c r="E51" s="76" t="s">
         <v>15</v>
       </c>
-      <c r="F51" s="74" t="s">
+      <c r="F51" s="76" t="s">
         <v>137</v>
       </c>
-      <c r="G51" s="71" t="s">
+      <c r="G51" s="73" t="s">
         <v>138</v>
       </c>
     </row>
     <row r="52" customHeight="1" spans="2:7">
-      <c r="B52" s="76"/>
-      <c r="C52" s="77"/>
-      <c r="D52" s="77"/>
+      <c r="B52" s="78"/>
+      <c r="C52" s="79"/>
+      <c r="D52" s="79"/>
       <c r="E52" s="137" t="s">
         <v>139</v>
       </c>
       <c r="F52" s="137" t="s">
         <v>140</v>
       </c>
-      <c r="G52" s="75"/>
+      <c r="G52" s="77"/>
     </row>
     <row r="53" customHeight="1" spans="2:7">
-      <c r="B53" s="76"/>
-      <c r="C53" s="77"/>
-      <c r="D53" s="77"/>
+      <c r="B53" s="78"/>
+      <c r="C53" s="79"/>
+      <c r="D53" s="79"/>
       <c r="E53" s="138" t="s">
         <v>39</v>
       </c>
       <c r="F53" s="137" t="s">
         <v>69</v>
       </c>
-      <c r="G53" s="75"/>
+      <c r="G53" s="77"/>
     </row>
     <row r="54" customHeight="1" spans="2:7">
       <c r="B54" s="139"/>
@@ -3984,10 +4007,10 @@
       <c r="F54" s="142" t="s">
         <v>141</v>
       </c>
-      <c r="G54" s="75"/>
+      <c r="G54" s="77"/>
     </row>
     <row r="55" customHeight="1" spans="2:7">
-      <c r="B55" s="182" t="s">
+      <c r="B55" s="181" t="s">
         <v>142</v>
       </c>
       <c r="C55" s="144" t="s">
@@ -4002,10 +4025,10 @@
       <c r="F55" s="145" t="s">
         <v>145</v>
       </c>
-      <c r="G55" s="75"/>
+      <c r="G55" s="77"/>
     </row>
     <row r="56" customHeight="1" spans="2:7">
-      <c r="B56" s="183" t="s">
+      <c r="B56" s="182" t="s">
         <v>146</v>
       </c>
       <c r="C56" s="147" t="s">
@@ -4023,51 +4046,51 @@
       <c r="G56" s="149"/>
     </row>
     <row r="57" customHeight="1" spans="2:7">
-      <c r="B57" s="184" t="s">
+      <c r="B57" s="183" t="s">
         <v>149</v>
       </c>
       <c r="C57" s="151" t="s">
         <v>150</v>
       </c>
-      <c r="D57" s="119" t="s">
+      <c r="D57" s="121" t="s">
         <v>151</v>
       </c>
-      <c r="E57" s="120" t="s">
+      <c r="E57" s="122" t="s">
         <v>15</v>
       </c>
-      <c r="F57" s="120" t="s">
+      <c r="F57" s="122" t="s">
         <v>152</v>
       </c>
-      <c r="G57" s="121" t="s">
+      <c r="G57" s="123" t="s">
         <v>153</v>
       </c>
     </row>
     <row r="58" customHeight="1" spans="2:7">
-      <c r="B58" s="122"/>
-      <c r="C58" s="123"/>
-      <c r="D58" s="123"/>
-      <c r="E58" s="124" t="s">
+      <c r="B58" s="124"/>
+      <c r="C58" s="3"/>
+      <c r="D58" s="3"/>
+      <c r="E58" s="125" t="s">
         <v>154</v>
       </c>
-      <c r="F58" s="125" t="s">
+      <c r="F58" s="126" t="s">
         <v>155</v>
       </c>
-      <c r="G58" s="126"/>
+      <c r="G58" s="127"/>
     </row>
     <row r="59" customHeight="1" spans="2:7">
-      <c r="B59" s="127"/>
-      <c r="C59" s="128"/>
-      <c r="D59" s="128"/>
+      <c r="B59" s="128"/>
+      <c r="C59" s="17"/>
+      <c r="D59" s="17"/>
       <c r="E59" s="129" t="s">
         <v>156</v>
       </c>
       <c r="F59" s="130" t="s">
         <v>157</v>
       </c>
-      <c r="G59" s="126"/>
+      <c r="G59" s="127"/>
     </row>
     <row r="60" customHeight="1" spans="2:7">
-      <c r="B60" s="185" t="s">
+      <c r="B60" s="184" t="s">
         <v>158</v>
       </c>
       <c r="C60" s="153" t="s">
@@ -4082,10 +4105,10 @@
       <c r="F60" s="153" t="s">
         <v>69</v>
       </c>
-      <c r="G60" s="126"/>
+      <c r="G60" s="127"/>
     </row>
     <row r="61" customHeight="1" spans="2:7">
-      <c r="B61" s="180" t="s">
+      <c r="B61" s="179" t="s">
         <v>161</v>
       </c>
       <c r="C61" s="132" t="s">
@@ -4103,7 +4126,7 @@
       <c r="G61" s="134"/>
     </row>
     <row r="62" customHeight="1" spans="2:7">
-      <c r="B62" s="184" t="s">
+      <c r="B62" s="183" t="s">
         <v>164</v>
       </c>
       <c r="C62" s="151" t="s">
@@ -4112,116 +4135,116 @@
       <c r="D62" s="151" t="s">
         <v>166</v>
       </c>
-      <c r="E62" s="120" t="s">
+      <c r="E62" s="122" t="s">
         <v>15</v>
       </c>
-      <c r="F62" s="120" t="s">
+      <c r="F62" s="122" t="s">
         <v>167</v>
       </c>
-      <c r="G62" s="121" t="s">
+      <c r="G62" s="123" t="s">
         <v>168</v>
       </c>
     </row>
     <row r="63" customHeight="1" spans="2:7">
-      <c r="B63" s="122"/>
-      <c r="C63" s="123"/>
-      <c r="D63" s="123"/>
-      <c r="E63" s="124" t="s">
+      <c r="B63" s="124"/>
+      <c r="C63" s="3"/>
+      <c r="D63" s="3"/>
+      <c r="E63" s="125" t="s">
         <v>39</v>
       </c>
-      <c r="F63" s="125" t="s">
+      <c r="F63" s="126" t="s">
         <v>69</v>
       </c>
-      <c r="G63" s="126"/>
+      <c r="G63" s="127"/>
     </row>
     <row r="64" customHeight="1" spans="2:7">
-      <c r="B64" s="127"/>
-      <c r="C64" s="128"/>
-      <c r="D64" s="128"/>
+      <c r="B64" s="128"/>
+      <c r="C64" s="17"/>
+      <c r="D64" s="17"/>
       <c r="E64" s="129" t="s">
         <v>43</v>
       </c>
       <c r="F64" s="130" t="s">
         <v>169</v>
       </c>
-      <c r="G64" s="126"/>
+      <c r="G64" s="127"/>
     </row>
     <row r="65" customHeight="1" spans="2:7">
-      <c r="B65" s="186" t="s">
+      <c r="B65" s="185" t="s">
         <v>170</v>
       </c>
-      <c r="C65" s="155" t="s">
+      <c r="C65" s="10" t="s">
         <v>171</v>
       </c>
-      <c r="D65" s="156" t="s">
+      <c r="D65" s="155" t="s">
         <v>172</v>
       </c>
-      <c r="E65" s="157" t="s">
+      <c r="E65" s="156" t="s">
         <v>173</v>
       </c>
-      <c r="F65" s="158" t="s">
+      <c r="F65" s="157" t="s">
         <v>174</v>
       </c>
-      <c r="G65" s="126"/>
+      <c r="G65" s="127"/>
     </row>
     <row r="66" customHeight="1" spans="2:7">
-      <c r="B66" s="159"/>
-      <c r="C66" s="160"/>
-      <c r="D66" s="161"/>
-      <c r="E66" s="162" t="s">
+      <c r="B66" s="158"/>
+      <c r="C66" s="159"/>
+      <c r="D66" s="160"/>
+      <c r="E66" s="161" t="s">
         <v>48</v>
       </c>
-      <c r="F66" s="162" t="s">
+      <c r="F66" s="161" t="s">
         <v>175</v>
       </c>
       <c r="G66" s="134"/>
     </row>
     <row r="67" customHeight="1" spans="2:7">
-      <c r="B67" s="179" t="s">
+      <c r="B67" s="178" t="s">
         <v>176</v>
       </c>
-      <c r="C67" s="119" t="s">
+      <c r="C67" s="121" t="s">
         <v>177</v>
       </c>
       <c r="D67" s="151" t="s">
         <v>178</v>
       </c>
-      <c r="E67" s="120" t="s">
+      <c r="E67" s="122" t="s">
         <v>15</v>
       </c>
-      <c r="F67" s="120" t="s">
+      <c r="F67" s="122" t="s">
         <v>179</v>
       </c>
-      <c r="G67" s="121" t="s">
+      <c r="G67" s="123" t="s">
         <v>180</v>
       </c>
     </row>
     <row r="68" customHeight="1" spans="2:7">
-      <c r="B68" s="122"/>
-      <c r="C68" s="123"/>
+      <c r="B68" s="124"/>
+      <c r="C68" s="3"/>
       <c r="D68" s="136"/>
-      <c r="E68" s="124" t="s">
+      <c r="E68" s="125" t="s">
         <v>39</v>
       </c>
-      <c r="F68" s="125" t="s">
+      <c r="F68" s="126" t="s">
         <v>69</v>
       </c>
-      <c r="G68" s="126"/>
+      <c r="G68" s="127"/>
     </row>
     <row r="69" customHeight="1" spans="2:7">
-      <c r="B69" s="127"/>
-      <c r="C69" s="128"/>
-      <c r="D69" s="163"/>
+      <c r="B69" s="128"/>
+      <c r="C69" s="17"/>
+      <c r="D69" s="162"/>
       <c r="E69" s="129" t="s">
         <v>43</v>
       </c>
       <c r="F69" s="130" t="s">
         <v>181</v>
       </c>
-      <c r="G69" s="126"/>
+      <c r="G69" s="127"/>
     </row>
     <row r="70" customHeight="1" spans="2:7">
-      <c r="B70" s="180" t="s">
+      <c r="B70" s="179" t="s">
         <v>182</v>
       </c>
       <c r="C70" s="132" t="s">
@@ -4239,36 +4262,36 @@
       <c r="G70" s="134"/>
     </row>
     <row r="71" customHeight="1" spans="2:7">
-      <c r="B71" s="127"/>
-      <c r="C71" s="128" t="s">
+      <c r="B71" s="128"/>
+      <c r="C71" s="17" t="s">
         <v>186</v>
       </c>
-      <c r="D71" s="128"/>
-      <c r="E71" s="128"/>
-      <c r="F71" s="128"/>
-      <c r="G71" s="164"/>
+      <c r="D71" s="17"/>
+      <c r="E71" s="17"/>
+      <c r="F71" s="17"/>
+      <c r="G71" s="163"/>
     </row>
     <row r="72" customHeight="1" spans="2:7">
       <c r="B72" s="154"/>
-      <c r="C72" s="155"/>
-      <c r="D72" s="155"/>
-      <c r="E72" s="155"/>
-      <c r="F72" s="155"/>
-      <c r="G72" s="165"/>
+      <c r="C72" s="10"/>
+      <c r="D72" s="10"/>
+      <c r="E72" s="10"/>
+      <c r="F72" s="10"/>
+      <c r="G72" s="164"/>
     </row>
     <row r="73" customHeight="1" spans="2:7">
-      <c r="B73" s="187" t="s">
+      <c r="B73" s="186" t="s">
         <v>187</v>
       </c>
-      <c r="C73" s="167" t="s">
+      <c r="C73" s="166" t="s">
         <v>188</v>
       </c>
-      <c r="D73" s="167" t="s">
+      <c r="D73" s="166" t="s">
         <v>189</v>
       </c>
-      <c r="E73" s="167"/>
-      <c r="F73" s="167"/>
-      <c r="G73" s="168"/>
+      <c r="E73" s="166"/>
+      <c r="F73" s="166"/>
+      <c r="G73" s="167"/>
     </row>
     <row r="74" customHeight="1" spans="2:7">
       <c r="B74" s="152"/>
@@ -4276,7 +4299,7 @@
       <c r="D74" s="153"/>
       <c r="E74" s="153"/>
       <c r="F74" s="153"/>
-      <c r="G74" s="169"/>
+      <c r="G74" s="168"/>
     </row>
     <row r="75" customHeight="1" spans="2:7">
       <c r="B75" s="152"/>
@@ -4284,7 +4307,7 @@
       <c r="D75" s="153"/>
       <c r="E75" s="153"/>
       <c r="F75" s="153"/>
-      <c r="G75" s="169"/>
+      <c r="G75" s="168"/>
     </row>
     <row r="76" customHeight="1" spans="2:7">
       <c r="B76" s="152"/>
@@ -4292,7 +4315,7 @@
       <c r="D76" s="153"/>
       <c r="E76" s="153"/>
       <c r="F76" s="153"/>
-      <c r="G76" s="169"/>
+      <c r="G76" s="168"/>
     </row>
     <row r="77" customHeight="1" spans="2:7">
       <c r="B77" s="152"/>
@@ -4300,7 +4323,7 @@
       <c r="D77" s="153"/>
       <c r="E77" s="153"/>
       <c r="F77" s="153"/>
-      <c r="G77" s="169"/>
+      <c r="G77" s="168"/>
     </row>
     <row r="78" customHeight="1" spans="2:7">
       <c r="B78" s="152"/>
@@ -4308,7 +4331,7 @@
       <c r="D78" s="153"/>
       <c r="E78" s="153"/>
       <c r="F78" s="153"/>
-      <c r="G78" s="169"/>
+      <c r="G78" s="168"/>
     </row>
     <row r="79" customHeight="1" spans="2:7">
       <c r="B79" s="152"/>
@@ -4316,7 +4339,7 @@
       <c r="D79" s="153"/>
       <c r="E79" s="153"/>
       <c r="F79" s="153"/>
-      <c r="G79" s="169"/>
+      <c r="G79" s="168"/>
     </row>
     <row r="80" customHeight="1" spans="2:7">
       <c r="B80" s="152"/>
@@ -4324,7 +4347,7 @@
       <c r="D80" s="153"/>
       <c r="E80" s="153"/>
       <c r="F80" s="153"/>
-      <c r="G80" s="169"/>
+      <c r="G80" s="168"/>
     </row>
     <row r="81" customHeight="1" spans="2:7">
       <c r="B81" s="152"/>
@@ -4332,7 +4355,7 @@
       <c r="D81" s="153"/>
       <c r="E81" s="153"/>
       <c r="F81" s="153"/>
-      <c r="G81" s="169"/>
+      <c r="G81" s="168"/>
     </row>
     <row r="82" customHeight="1" spans="2:7">
       <c r="B82" s="131"/>
@@ -4340,7 +4363,7 @@
       <c r="D82" s="132"/>
       <c r="E82" s="132"/>
       <c r="F82" s="132"/>
-      <c r="G82" s="170"/>
+      <c r="G82" s="169"/>
     </row>
   </sheetData>
   <mergeCells count="13">
@@ -4367,10 +4390,10 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="C3:AM42"/>
+  <dimension ref="C3:AX40"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="X12" sqref="X12"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="X7" sqref="X7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.125" defaultRowHeight="13.5"/>
@@ -4379,17 +4402,17 @@
   </cols>
   <sheetData>
     <row r="3" spans="3:15">
-      <c r="C3" s="29" t="s">
+      <c r="C3" s="34" t="s">
         <v>190</v>
       </c>
-      <c r="I3" s="29" t="s">
+      <c r="I3" s="34" t="s">
         <v>191</v>
       </c>
-      <c r="O3" s="29" t="s">
+      <c r="O3" s="34" t="s">
         <v>192</v>
       </c>
     </row>
-    <row r="5" ht="14.25" spans="3:15">
+    <row r="5" spans="3:15">
       <c r="C5" t="s">
         <v>193</v>
       </c>
@@ -4400,143 +4423,129 @@
         <v>195</v>
       </c>
     </row>
-    <row r="6" spans="9:39">
+    <row r="6" spans="9:15">
       <c r="I6" t="s">
         <v>196</v>
       </c>
       <c r="O6" t="s">
         <v>197</v>
       </c>
-      <c r="AB6" s="54" t="s">
+    </row>
+    <row r="11" ht="14.25" spans="3:3">
+      <c r="C11" s="34" t="s">
         <v>198</v>
       </c>
-      <c r="AC6" s="55"/>
-      <c r="AD6" s="55"/>
-      <c r="AE6" s="55"/>
-      <c r="AF6" s="55"/>
-      <c r="AG6" s="55"/>
-      <c r="AH6" s="55"/>
-      <c r="AI6" s="55"/>
-      <c r="AJ6" s="55"/>
-      <c r="AK6" s="55"/>
-      <c r="AL6" s="55"/>
-      <c r="AM6" s="62"/>
-    </row>
-    <row r="7" spans="28:39">
-      <c r="AB7" s="56"/>
-      <c r="AM7" s="63"/>
-    </row>
-    <row r="8" spans="28:39">
-      <c r="AB8" s="56"/>
-      <c r="AC8" s="29" t="s">
-        <v>7</v>
-      </c>
-      <c r="AM8" s="63"/>
-    </row>
-    <row r="9" spans="28:39">
-      <c r="AB9" s="56"/>
-      <c r="AC9" t="s">
+    </row>
+    <row r="12" spans="3:26">
+      <c r="C12" s="35" t="s">
+        <v>191</v>
+      </c>
+      <c r="D12" s="35"/>
+      <c r="E12" s="35"/>
+      <c r="F12" s="35"/>
+      <c r="G12" s="35"/>
+      <c r="H12" s="35" t="s">
+        <v>199</v>
+      </c>
+      <c r="I12" s="35"/>
+      <c r="J12" s="35"/>
+      <c r="K12" s="35"/>
+      <c r="L12" s="35"/>
+      <c r="M12" s="35" t="s">
         <v>190</v>
       </c>
-      <c r="AI9" t="s">
-        <v>199</v>
-      </c>
-      <c r="AM9" s="63"/>
-    </row>
-    <row r="10" spans="28:39">
-      <c r="AB10" s="56"/>
-      <c r="AM10" s="63"/>
-    </row>
-    <row r="11" ht="14.25" spans="3:39">
-      <c r="C11" s="29" t="s">
+      <c r="N12" s="35"/>
+      <c r="O12" s="35"/>
+      <c r="P12" s="35"/>
+      <c r="Q12" s="35" t="s">
+        <v>192</v>
+      </c>
+      <c r="R12" s="35"/>
+      <c r="S12" s="35"/>
+      <c r="T12" s="35"/>
+      <c r="U12" s="35"/>
+      <c r="V12" s="35" t="s">
         <v>200</v>
       </c>
-      <c r="AB11" s="56"/>
-      <c r="AM11" s="63"/>
-    </row>
-    <row r="12" spans="3:39">
-      <c r="C12" s="30" t="s">
-        <v>190</v>
-      </c>
-      <c r="D12" s="31"/>
-      <c r="E12" s="31"/>
-      <c r="F12" s="31"/>
-      <c r="G12" s="31" t="s">
-        <v>191</v>
-      </c>
-      <c r="H12" s="31"/>
-      <c r="I12" s="31"/>
-      <c r="J12" s="31"/>
-      <c r="K12" s="31"/>
-      <c r="L12" s="31" t="s">
+      <c r="W12" s="35"/>
+      <c r="X12" s="35"/>
+      <c r="Y12" s="35"/>
+      <c r="Z12" s="52"/>
+    </row>
+    <row r="13" spans="3:26">
+      <c r="C13" s="36" t="s">
         <v>201</v>
       </c>
-      <c r="M12" s="31"/>
-      <c r="N12" s="31"/>
-      <c r="O12" s="31"/>
-      <c r="P12" s="42"/>
-      <c r="AB12" s="56"/>
-      <c r="AC12" s="29" t="s">
-        <v>13</v>
-      </c>
-      <c r="AM12" s="63"/>
-    </row>
-    <row r="13" spans="3:39">
-      <c r="C13" s="32" t="s">
+      <c r="D13" s="36"/>
+      <c r="E13" s="36"/>
+      <c r="F13" s="36"/>
+      <c r="G13" s="36"/>
+      <c r="H13" s="36">
+        <v>12345678</v>
+      </c>
+      <c r="I13" s="36"/>
+      <c r="J13" s="36"/>
+      <c r="K13" s="36"/>
+      <c r="L13" s="36"/>
+      <c r="M13" s="41" t="s">
         <v>193</v>
       </c>
-      <c r="D13" s="33"/>
-      <c r="E13" s="33"/>
-      <c r="F13" s="33"/>
-      <c r="G13" s="33" t="s">
+      <c r="N13" s="41"/>
+      <c r="O13" s="41"/>
+      <c r="P13" s="41"/>
+      <c r="Q13" s="36" t="s">
+        <v>195</v>
+      </c>
+      <c r="R13" s="36"/>
+      <c r="S13" s="36"/>
+      <c r="T13" s="36"/>
+      <c r="U13" s="36"/>
+      <c r="V13" s="36" t="s">
         <v>202</v>
       </c>
-      <c r="H13" s="33"/>
-      <c r="I13" s="33"/>
-      <c r="J13" s="33"/>
-      <c r="K13" s="33"/>
-      <c r="L13" s="33">
-        <v>12345678</v>
-      </c>
-      <c r="M13" s="33"/>
-      <c r="N13" s="33"/>
-      <c r="O13" s="33"/>
-      <c r="P13" s="43"/>
-      <c r="AB13" s="56"/>
-      <c r="AC13" t="s">
-        <v>190</v>
-      </c>
-      <c r="AI13" t="s">
-        <v>199</v>
-      </c>
-      <c r="AM13" s="63"/>
-    </row>
-    <row r="14" spans="3:39">
-      <c r="C14" s="34" t="s">
+      <c r="W13" s="36"/>
+      <c r="X13" s="36"/>
+      <c r="Y13" s="36"/>
+      <c r="Z13" s="53"/>
+    </row>
+    <row r="14" spans="3:26">
+      <c r="C14" s="36" t="s">
+        <v>203</v>
+      </c>
+      <c r="D14" s="36"/>
+      <c r="E14" s="36"/>
+      <c r="F14" s="36"/>
+      <c r="G14" s="36"/>
+      <c r="H14" s="36" t="s">
+        <v>204</v>
+      </c>
+      <c r="I14" s="36"/>
+      <c r="J14" s="36"/>
+      <c r="K14" s="36"/>
+      <c r="L14" s="36"/>
+      <c r="M14" s="41" t="s">
         <v>193</v>
       </c>
-      <c r="D14" s="35"/>
-      <c r="E14" s="35"/>
-      <c r="F14" s="35"/>
-      <c r="G14" s="33" t="s">
-        <v>203</v>
-      </c>
-      <c r="H14" s="33"/>
-      <c r="I14" s="33"/>
-      <c r="J14" s="33"/>
-      <c r="K14" s="33"/>
-      <c r="L14" s="33" t="s">
-        <v>204</v>
-      </c>
-      <c r="M14" s="33"/>
-      <c r="N14" s="33"/>
-      <c r="O14" s="33"/>
-      <c r="P14" s="43"/>
-      <c r="AB14" s="56"/>
-      <c r="AM14" s="63"/>
-    </row>
-    <row r="15" spans="3:39">
-      <c r="C15" s="36"/>
+      <c r="N14" s="41"/>
+      <c r="O14" s="41"/>
+      <c r="P14" s="41"/>
+      <c r="Q14" s="36" t="s">
+        <v>195</v>
+      </c>
+      <c r="R14" s="36"/>
+      <c r="S14" s="36"/>
+      <c r="T14" s="36"/>
+      <c r="U14" s="36"/>
+      <c r="V14" s="36" t="s">
+        <v>205</v>
+      </c>
+      <c r="W14" s="36"/>
+      <c r="X14" s="36"/>
+      <c r="Y14" s="36"/>
+      <c r="Z14" s="53"/>
+    </row>
+    <row r="15" ht="14.25" spans="3:26">
+      <c r="C15" s="37"/>
       <c r="D15" s="37"/>
       <c r="E15" s="37"/>
       <c r="F15" s="37"/>
@@ -4546,814 +4555,557 @@
       <c r="J15" s="37"/>
       <c r="K15" s="37"/>
       <c r="L15" s="37"/>
-      <c r="M15" s="37"/>
-      <c r="N15" s="37"/>
-      <c r="O15" s="37"/>
+      <c r="M15" s="42"/>
+      <c r="N15" s="43"/>
+      <c r="O15" s="43"/>
       <c r="P15" s="44"/>
-      <c r="AB15" s="56"/>
-      <c r="AC15" t="s">
+      <c r="Q15" s="42"/>
+      <c r="R15" s="43"/>
+      <c r="S15" s="43"/>
+      <c r="T15" s="43"/>
+      <c r="U15" s="44"/>
+      <c r="V15" s="42"/>
+      <c r="W15" s="43"/>
+      <c r="X15" s="43"/>
+      <c r="Y15" s="43"/>
+      <c r="Z15" s="54"/>
+    </row>
+    <row r="17" ht="14.25" spans="3:3">
+      <c r="C17" s="34" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="18" spans="3:50">
+      <c r="C18" s="38" t="s">
+        <v>192</v>
+      </c>
+      <c r="D18" s="35"/>
+      <c r="E18" s="35"/>
+      <c r="F18" s="35"/>
+      <c r="G18" s="35" t="s">
+        <v>200</v>
+      </c>
+      <c r="H18" s="35"/>
+      <c r="I18" s="35"/>
+      <c r="J18" s="35"/>
+      <c r="K18" s="35"/>
+      <c r="L18" s="35" t="s">
+        <v>207</v>
+      </c>
+      <c r="M18" s="35"/>
+      <c r="N18" s="35"/>
+      <c r="O18" s="35"/>
+      <c r="P18" s="35"/>
+      <c r="Q18" s="46" t="s">
+        <v>208</v>
+      </c>
+      <c r="R18" s="47"/>
+      <c r="S18" s="47"/>
+      <c r="T18" s="47"/>
+      <c r="U18" s="47"/>
+      <c r="V18" s="47"/>
+      <c r="W18" s="47"/>
+      <c r="X18" s="47"/>
+      <c r="Y18" s="47"/>
+      <c r="Z18" s="55"/>
+      <c r="AA18" s="35" t="s">
+        <v>209</v>
+      </c>
+      <c r="AB18" s="35"/>
+      <c r="AC18" s="35"/>
+      <c r="AD18" s="35"/>
+      <c r="AE18" s="52"/>
+      <c r="AM18" s="59" t="s">
+        <v>210</v>
+      </c>
+      <c r="AN18" s="60"/>
+      <c r="AO18" s="60"/>
+      <c r="AP18" s="60"/>
+      <c r="AQ18" s="60"/>
+      <c r="AR18" s="60"/>
+      <c r="AS18" s="60"/>
+      <c r="AT18" s="60"/>
+      <c r="AU18" s="60"/>
+      <c r="AV18" s="60"/>
+      <c r="AW18" s="60"/>
+      <c r="AX18" s="64"/>
+    </row>
+    <row r="19" spans="3:50">
+      <c r="C19" s="39" t="s">
+        <v>195</v>
+      </c>
+      <c r="D19" s="36"/>
+      <c r="E19" s="36"/>
+      <c r="F19" s="36"/>
+      <c r="G19" s="36" t="s">
+        <v>205</v>
+      </c>
+      <c r="H19" s="36"/>
+      <c r="I19" s="36"/>
+      <c r="J19" s="36"/>
+      <c r="K19" s="36"/>
+      <c r="L19" s="45" t="s">
+        <v>211</v>
+      </c>
+      <c r="M19" s="45"/>
+      <c r="N19" s="45"/>
+      <c r="O19" s="45"/>
+      <c r="P19" s="45"/>
+      <c r="Q19" s="48" t="s">
+        <v>212</v>
+      </c>
+      <c r="R19" s="49"/>
+      <c r="S19" s="49"/>
+      <c r="T19" s="49"/>
+      <c r="U19" s="49"/>
+      <c r="V19" s="49"/>
+      <c r="W19" s="49"/>
+      <c r="X19" s="49"/>
+      <c r="Y19" s="49"/>
+      <c r="Z19" s="56"/>
+      <c r="AA19" s="36" t="s">
+        <v>213</v>
+      </c>
+      <c r="AB19" s="36"/>
+      <c r="AC19" s="36"/>
+      <c r="AD19" s="36"/>
+      <c r="AE19" s="53"/>
+      <c r="AM19" s="61"/>
+      <c r="AX19" s="65"/>
+    </row>
+    <row r="20" spans="3:50">
+      <c r="C20" s="39" t="s">
+        <v>195</v>
+      </c>
+      <c r="D20" s="36"/>
+      <c r="E20" s="36"/>
+      <c r="F20" s="36"/>
+      <c r="G20" s="36" t="s">
+        <v>205</v>
+      </c>
+      <c r="H20" s="36"/>
+      <c r="I20" s="36"/>
+      <c r="J20" s="36"/>
+      <c r="K20" s="36"/>
+      <c r="L20" s="45" t="s">
+        <v>214</v>
+      </c>
+      <c r="M20" s="45"/>
+      <c r="N20" s="45"/>
+      <c r="O20" s="45"/>
+      <c r="P20" s="45"/>
+      <c r="Q20" s="48" t="s">
+        <v>215</v>
+      </c>
+      <c r="R20" s="49"/>
+      <c r="S20" s="49"/>
+      <c r="T20" s="49"/>
+      <c r="U20" s="49"/>
+      <c r="V20" s="49"/>
+      <c r="W20" s="49"/>
+      <c r="X20" s="49"/>
+      <c r="Y20" s="49"/>
+      <c r="Z20" s="56"/>
+      <c r="AA20" s="36" t="s">
+        <v>213</v>
+      </c>
+      <c r="AB20" s="36"/>
+      <c r="AC20" s="36"/>
+      <c r="AD20" s="36"/>
+      <c r="AE20" s="53"/>
+      <c r="AM20" s="61"/>
+      <c r="AN20" s="34" t="s">
+        <v>7</v>
+      </c>
+      <c r="AX20" s="65"/>
+    </row>
+    <row r="21" spans="3:50">
+      <c r="C21" s="39"/>
+      <c r="D21" s="36"/>
+      <c r="E21" s="36"/>
+      <c r="F21" s="36"/>
+      <c r="G21" s="36"/>
+      <c r="H21" s="36"/>
+      <c r="I21" s="36"/>
+      <c r="J21" s="36"/>
+      <c r="K21" s="41"/>
+      <c r="L21" s="45"/>
+      <c r="M21" s="45"/>
+      <c r="N21" s="45"/>
+      <c r="O21" s="45"/>
+      <c r="P21" s="45"/>
+      <c r="Q21" s="48"/>
+      <c r="R21" s="49"/>
+      <c r="S21" s="49"/>
+      <c r="T21" s="49"/>
+      <c r="U21" s="49"/>
+      <c r="V21" s="49"/>
+      <c r="W21" s="49"/>
+      <c r="X21" s="49"/>
+      <c r="Y21" s="49"/>
+      <c r="Z21" s="56"/>
+      <c r="AA21" s="36"/>
+      <c r="AB21" s="36"/>
+      <c r="AC21" s="36"/>
+      <c r="AD21" s="36"/>
+      <c r="AE21" s="53"/>
+      <c r="AM21" s="61"/>
+      <c r="AN21" t="s">
+        <v>190</v>
+      </c>
+      <c r="AT21" t="s">
+        <v>216</v>
+      </c>
+      <c r="AX21" s="65"/>
+    </row>
+    <row r="22" spans="3:50">
+      <c r="C22" s="39"/>
+      <c r="D22" s="36"/>
+      <c r="E22" s="36"/>
+      <c r="F22" s="36"/>
+      <c r="G22" s="36"/>
+      <c r="H22" s="36"/>
+      <c r="I22" s="36"/>
+      <c r="J22" s="36"/>
+      <c r="K22" s="41"/>
+      <c r="L22" s="45"/>
+      <c r="M22" s="45"/>
+      <c r="N22" s="45"/>
+      <c r="O22" s="45"/>
+      <c r="P22" s="45"/>
+      <c r="Q22" s="48"/>
+      <c r="R22" s="49"/>
+      <c r="S22" s="49"/>
+      <c r="T22" s="49"/>
+      <c r="U22" s="49"/>
+      <c r="V22" s="49"/>
+      <c r="W22" s="49"/>
+      <c r="X22" s="49"/>
+      <c r="Y22" s="49"/>
+      <c r="Z22" s="56"/>
+      <c r="AA22" s="36"/>
+      <c r="AB22" s="36"/>
+      <c r="AC22" s="36"/>
+      <c r="AD22" s="36"/>
+      <c r="AE22" s="53"/>
+      <c r="AM22" s="61"/>
+      <c r="AX22" s="65"/>
+    </row>
+    <row r="23" spans="3:50">
+      <c r="C23" s="39"/>
+      <c r="D23" s="36"/>
+      <c r="E23" s="36"/>
+      <c r="F23" s="36"/>
+      <c r="G23" s="36"/>
+      <c r="H23" s="36"/>
+      <c r="I23" s="36"/>
+      <c r="J23" s="36"/>
+      <c r="K23" s="36"/>
+      <c r="L23" s="36"/>
+      <c r="M23" s="36"/>
+      <c r="N23" s="36"/>
+      <c r="O23" s="36"/>
+      <c r="P23" s="36"/>
+      <c r="Q23" s="48"/>
+      <c r="R23" s="49"/>
+      <c r="S23" s="49"/>
+      <c r="T23" s="49"/>
+      <c r="U23" s="49"/>
+      <c r="V23" s="49"/>
+      <c r="W23" s="49"/>
+      <c r="X23" s="49"/>
+      <c r="Y23" s="49"/>
+      <c r="Z23" s="56"/>
+      <c r="AA23" s="36"/>
+      <c r="AB23" s="36"/>
+      <c r="AC23" s="36"/>
+      <c r="AD23" s="36"/>
+      <c r="AE23" s="53"/>
+      <c r="AM23" s="61"/>
+      <c r="AX23" s="65"/>
+    </row>
+    <row r="24" spans="3:50">
+      <c r="C24" s="39"/>
+      <c r="D24" s="36"/>
+      <c r="E24" s="36"/>
+      <c r="F24" s="36"/>
+      <c r="G24" s="36"/>
+      <c r="H24" s="36"/>
+      <c r="I24" s="36"/>
+      <c r="J24" s="36"/>
+      <c r="K24" s="36"/>
+      <c r="L24" s="36"/>
+      <c r="M24" s="36"/>
+      <c r="N24" s="36"/>
+      <c r="O24" s="36"/>
+      <c r="P24" s="36"/>
+      <c r="Q24" s="48"/>
+      <c r="R24" s="49"/>
+      <c r="S24" s="49"/>
+      <c r="T24" s="49"/>
+      <c r="U24" s="49"/>
+      <c r="V24" s="49"/>
+      <c r="W24" s="49"/>
+      <c r="X24" s="49"/>
+      <c r="Y24" s="49"/>
+      <c r="Z24" s="56"/>
+      <c r="AA24" s="36"/>
+      <c r="AB24" s="36"/>
+      <c r="AC24" s="36"/>
+      <c r="AD24" s="36"/>
+      <c r="AE24" s="53"/>
+      <c r="AM24" s="61"/>
+      <c r="AN24" s="34" t="s">
+        <v>13</v>
+      </c>
+      <c r="AX24" s="65"/>
+    </row>
+    <row r="25" spans="3:50">
+      <c r="C25" s="39"/>
+      <c r="D25" s="36"/>
+      <c r="E25" s="36"/>
+      <c r="F25" s="36"/>
+      <c r="G25" s="36"/>
+      <c r="H25" s="36"/>
+      <c r="I25" s="36"/>
+      <c r="J25" s="36"/>
+      <c r="K25" s="36"/>
+      <c r="L25" s="36"/>
+      <c r="M25" s="36"/>
+      <c r="N25" s="36"/>
+      <c r="O25" s="36"/>
+      <c r="P25" s="36"/>
+      <c r="Q25" s="48"/>
+      <c r="R25" s="49"/>
+      <c r="S25" s="49"/>
+      <c r="T25" s="49"/>
+      <c r="U25" s="49"/>
+      <c r="V25" s="49"/>
+      <c r="W25" s="49"/>
+      <c r="X25" s="49"/>
+      <c r="Y25" s="49"/>
+      <c r="Z25" s="56"/>
+      <c r="AA25" s="36"/>
+      <c r="AB25" s="36"/>
+      <c r="AC25" s="36"/>
+      <c r="AD25" s="36"/>
+      <c r="AE25" s="53"/>
+      <c r="AM25" s="61"/>
+      <c r="AN25" t="s">
+        <v>190</v>
+      </c>
+      <c r="AT25" t="s">
+        <v>216</v>
+      </c>
+      <c r="AX25" s="65"/>
+    </row>
+    <row r="26" ht="14.25" spans="3:50">
+      <c r="C26" s="40"/>
+      <c r="D26" s="37"/>
+      <c r="E26" s="37"/>
+      <c r="F26" s="37"/>
+      <c r="G26" s="37"/>
+      <c r="H26" s="37"/>
+      <c r="I26" s="37"/>
+      <c r="J26" s="37"/>
+      <c r="K26" s="37"/>
+      <c r="L26" s="37"/>
+      <c r="M26" s="37"/>
+      <c r="N26" s="37"/>
+      <c r="O26" s="37"/>
+      <c r="P26" s="37"/>
+      <c r="Q26" s="50"/>
+      <c r="R26" s="51"/>
+      <c r="S26" s="51"/>
+      <c r="T26" s="51"/>
+      <c r="U26" s="51"/>
+      <c r="V26" s="51"/>
+      <c r="W26" s="51"/>
+      <c r="X26" s="51"/>
+      <c r="Y26" s="51"/>
+      <c r="Z26" s="57"/>
+      <c r="AA26" s="37"/>
+      <c r="AB26" s="37"/>
+      <c r="AC26" s="37"/>
+      <c r="AD26" s="37"/>
+      <c r="AE26" s="58"/>
+      <c r="AM26" s="61"/>
+      <c r="AX26" s="65"/>
+    </row>
+    <row r="27" spans="39:50">
+      <c r="AM27" s="61"/>
+      <c r="AN27" t="s">
         <v>191</v>
       </c>
-      <c r="AI15" t="s">
-        <v>205</v>
-      </c>
-      <c r="AM15" s="63"/>
-    </row>
-    <row r="16" spans="3:39">
-      <c r="C16" s="36"/>
-      <c r="D16" s="37"/>
-      <c r="E16" s="37"/>
-      <c r="F16" s="37"/>
-      <c r="G16" s="37"/>
-      <c r="H16" s="37"/>
-      <c r="I16" s="37"/>
-      <c r="J16" s="37"/>
-      <c r="K16" s="37"/>
-      <c r="L16" s="37"/>
-      <c r="M16" s="37"/>
-      <c r="N16" s="37"/>
-      <c r="O16" s="37"/>
-      <c r="P16" s="44"/>
-      <c r="AB16" s="56"/>
-      <c r="AM16" s="63"/>
-    </row>
-    <row r="17" spans="3:39">
-      <c r="C17" s="36"/>
-      <c r="D17" s="37"/>
-      <c r="E17" s="37"/>
-      <c r="F17" s="37"/>
-      <c r="G17" s="37"/>
-      <c r="H17" s="37"/>
-      <c r="I17" s="37"/>
-      <c r="J17" s="37"/>
-      <c r="K17" s="37"/>
-      <c r="L17" s="37"/>
-      <c r="M17" s="37"/>
-      <c r="N17" s="37"/>
-      <c r="O17" s="37"/>
-      <c r="P17" s="44"/>
-      <c r="AB17" s="56"/>
-      <c r="AM17" s="63"/>
-    </row>
-    <row r="18" spans="3:39">
-      <c r="C18" s="36"/>
-      <c r="D18" s="37"/>
-      <c r="E18" s="37"/>
-      <c r="F18" s="37"/>
-      <c r="G18" s="37"/>
-      <c r="H18" s="37"/>
-      <c r="I18" s="37"/>
-      <c r="J18" s="37"/>
-      <c r="K18" s="37"/>
-      <c r="L18" s="37"/>
-      <c r="M18" s="37"/>
-      <c r="N18" s="37"/>
-      <c r="O18" s="37"/>
-      <c r="P18" s="44"/>
-      <c r="AB18" s="56"/>
-      <c r="AC18" s="29" t="s">
-        <v>206</v>
-      </c>
-      <c r="AM18" s="63"/>
-    </row>
-    <row r="19" spans="3:39">
-      <c r="C19" s="36"/>
-      <c r="D19" s="37"/>
-      <c r="E19" s="37"/>
-      <c r="F19" s="37"/>
-      <c r="G19" s="37"/>
-      <c r="H19" s="37"/>
-      <c r="I19" s="37"/>
-      <c r="J19" s="37"/>
-      <c r="K19" s="37"/>
-      <c r="L19" s="37"/>
-      <c r="M19" s="37"/>
-      <c r="N19" s="37"/>
-      <c r="O19" s="37"/>
-      <c r="P19" s="44"/>
-      <c r="AB19" s="56"/>
-      <c r="AC19" t="s">
+      <c r="AT27" t="s">
+        <v>217</v>
+      </c>
+      <c r="AX27" s="65"/>
+    </row>
+    <row r="28" spans="39:50">
+      <c r="AM28" s="61"/>
+      <c r="AX28" s="65"/>
+    </row>
+    <row r="29" spans="39:50">
+      <c r="AM29" s="61"/>
+      <c r="AX29" s="65"/>
+    </row>
+    <row r="30" spans="39:50">
+      <c r="AM30" s="61"/>
+      <c r="AN30" s="34" t="s">
+        <v>218</v>
+      </c>
+      <c r="AX30" s="65"/>
+    </row>
+    <row r="31" spans="39:50">
+      <c r="AM31" s="61"/>
+      <c r="AN31" t="s">
         <v>190</v>
       </c>
-      <c r="AI19" t="s">
-        <v>199</v>
-      </c>
-      <c r="AM19" s="63"/>
-    </row>
-    <row r="20" ht="14.25" spans="3:39">
-      <c r="C20" s="38"/>
-      <c r="D20" s="39"/>
-      <c r="E20" s="39"/>
-      <c r="F20" s="39"/>
-      <c r="G20" s="39"/>
-      <c r="H20" s="39"/>
-      <c r="I20" s="39"/>
-      <c r="J20" s="39"/>
-      <c r="K20" s="39"/>
-      <c r="L20" s="39"/>
-      <c r="M20" s="39"/>
-      <c r="N20" s="39"/>
-      <c r="O20" s="39"/>
-      <c r="P20" s="45"/>
-      <c r="AB20" s="56"/>
-      <c r="AM20" s="63"/>
-    </row>
-    <row r="21" spans="28:39">
-      <c r="AB21" s="56"/>
-      <c r="AC21" t="s">
+      <c r="AT31" t="s">
+        <v>216</v>
+      </c>
+      <c r="AX31" s="65"/>
+    </row>
+    <row r="32" spans="39:50">
+      <c r="AM32" s="61"/>
+      <c r="AX32" s="65"/>
+    </row>
+    <row r="33" spans="39:50">
+      <c r="AM33" s="61"/>
+      <c r="AN33" t="s">
         <v>191</v>
       </c>
-      <c r="AI21" t="s">
-        <v>205</v>
-      </c>
-      <c r="AM21" s="63"/>
-    </row>
-    <row r="22" ht="14.25" spans="3:39">
-      <c r="C22" s="29" t="s">
-        <v>207</v>
-      </c>
-      <c r="AB22" s="56"/>
-      <c r="AM22" s="63"/>
-    </row>
-    <row r="23" spans="3:39">
-      <c r="C23" s="30" t="s">
-        <v>190</v>
-      </c>
-      <c r="D23" s="31"/>
-      <c r="E23" s="31"/>
-      <c r="F23" s="31"/>
-      <c r="G23" s="31" t="s">
-        <v>191</v>
-      </c>
-      <c r="H23" s="31"/>
-      <c r="I23" s="31"/>
-      <c r="J23" s="31"/>
-      <c r="K23" s="31"/>
-      <c r="L23" s="31" t="s">
+      <c r="AT33" t="s">
+        <v>217</v>
+      </c>
+      <c r="AX33" s="65"/>
+    </row>
+    <row r="34" spans="39:50">
+      <c r="AM34" s="61"/>
+      <c r="AX34" s="65"/>
+    </row>
+    <row r="35" spans="39:50">
+      <c r="AM35" s="61"/>
+      <c r="AN35" t="s">
         <v>192</v>
       </c>
-      <c r="M23" s="31"/>
-      <c r="N23" s="31"/>
-      <c r="O23" s="31"/>
-      <c r="P23" s="31"/>
-      <c r="Q23" s="31" t="s">
-        <v>208</v>
-      </c>
-      <c r="R23" s="31"/>
-      <c r="S23" s="31"/>
-      <c r="T23" s="31"/>
-      <c r="U23" s="42"/>
-      <c r="AB23" s="56"/>
-      <c r="AC23" t="s">
-        <v>192</v>
-      </c>
-      <c r="AI23" t="s">
-        <v>209</v>
-      </c>
-      <c r="AM23" s="63"/>
-    </row>
-    <row r="24" spans="3:39">
-      <c r="C24" s="34" t="s">
-        <v>193</v>
-      </c>
-      <c r="D24" s="35"/>
-      <c r="E24" s="35"/>
-      <c r="F24" s="35"/>
-      <c r="G24" s="35" t="s">
-        <v>202</v>
-      </c>
-      <c r="H24" s="35"/>
-      <c r="I24" s="35"/>
-      <c r="J24" s="35"/>
-      <c r="K24" s="35"/>
-      <c r="L24" s="33" t="s">
-        <v>195</v>
-      </c>
-      <c r="M24" s="33"/>
-      <c r="N24" s="33"/>
-      <c r="O24" s="33"/>
-      <c r="P24" s="33"/>
-      <c r="Q24" s="33" t="s">
-        <v>210</v>
-      </c>
-      <c r="R24" s="33"/>
-      <c r="S24" s="33"/>
-      <c r="T24" s="33"/>
-      <c r="U24" s="43"/>
-      <c r="AB24" s="56"/>
-      <c r="AM24" s="63"/>
-    </row>
-    <row r="25" spans="3:39">
-      <c r="C25" s="34" t="s">
-        <v>193</v>
-      </c>
-      <c r="D25" s="35"/>
-      <c r="E25" s="35"/>
-      <c r="F25" s="35"/>
-      <c r="G25" s="35" t="s">
-        <v>203</v>
-      </c>
-      <c r="H25" s="35"/>
-      <c r="I25" s="35"/>
-      <c r="J25" s="35"/>
-      <c r="K25" s="35"/>
-      <c r="L25" s="33" t="s">
-        <v>195</v>
-      </c>
-      <c r="M25" s="33"/>
-      <c r="N25" s="33"/>
-      <c r="O25" s="33"/>
-      <c r="P25" s="33"/>
-      <c r="Q25" s="33" t="s">
-        <v>211</v>
-      </c>
-      <c r="R25" s="33"/>
-      <c r="S25" s="33"/>
-      <c r="T25" s="33"/>
-      <c r="U25" s="43"/>
-      <c r="AB25" s="56"/>
-      <c r="AC25" t="s">
-        <v>208</v>
-      </c>
-      <c r="AI25" t="s">
-        <v>212</v>
-      </c>
-      <c r="AM25" s="63"/>
-    </row>
-    <row r="26" spans="3:39">
-      <c r="C26" s="32"/>
-      <c r="D26" s="33"/>
-      <c r="E26" s="33"/>
-      <c r="F26" s="33"/>
-      <c r="G26" s="33"/>
-      <c r="H26" s="33"/>
-      <c r="I26" s="33"/>
-      <c r="J26" s="33"/>
-      <c r="K26" s="33"/>
-      <c r="L26" s="33"/>
-      <c r="M26" s="33"/>
-      <c r="N26" s="33"/>
-      <c r="O26" s="33"/>
-      <c r="P26" s="33"/>
-      <c r="Q26" s="33"/>
-      <c r="R26" s="33"/>
-      <c r="S26" s="33"/>
-      <c r="T26" s="33"/>
-      <c r="U26" s="43"/>
-      <c r="AB26" s="56"/>
-      <c r="AM26" s="63"/>
-    </row>
-    <row r="27" spans="3:39">
-      <c r="C27" s="32"/>
-      <c r="D27" s="33"/>
-      <c r="E27" s="33"/>
-      <c r="F27" s="33"/>
-      <c r="G27" s="33"/>
-      <c r="H27" s="33"/>
-      <c r="I27" s="33"/>
-      <c r="J27" s="33"/>
-      <c r="K27" s="33"/>
-      <c r="L27" s="33"/>
-      <c r="M27" s="33"/>
-      <c r="N27" s="33"/>
-      <c r="O27" s="33"/>
-      <c r="P27" s="33"/>
-      <c r="Q27" s="33"/>
-      <c r="R27" s="33"/>
-      <c r="S27" s="33"/>
-      <c r="T27" s="33"/>
-      <c r="U27" s="43"/>
-      <c r="AB27" s="56"/>
-      <c r="AC27" t="s">
-        <v>213</v>
-      </c>
-      <c r="AI27" t="s">
-        <v>214</v>
-      </c>
-      <c r="AM27" s="63"/>
-    </row>
-    <row r="28" ht="14.25" spans="3:39">
-      <c r="C28" s="32"/>
-      <c r="D28" s="33"/>
-      <c r="E28" s="33"/>
-      <c r="F28" s="33"/>
-      <c r="G28" s="33"/>
-      <c r="H28" s="33"/>
-      <c r="I28" s="33"/>
-      <c r="J28" s="33"/>
-      <c r="K28" s="33"/>
-      <c r="L28" s="33"/>
-      <c r="M28" s="33"/>
-      <c r="N28" s="33"/>
-      <c r="O28" s="33"/>
-      <c r="P28" s="33"/>
-      <c r="Q28" s="33"/>
-      <c r="R28" s="33"/>
-      <c r="S28" s="33"/>
-      <c r="T28" s="33"/>
-      <c r="U28" s="43"/>
-      <c r="AB28" s="57"/>
-      <c r="AC28" s="58"/>
-      <c r="AD28" s="58"/>
-      <c r="AE28" s="58"/>
-      <c r="AF28" s="58"/>
-      <c r="AG28" s="58"/>
-      <c r="AH28" s="58"/>
-      <c r="AI28" s="58" t="s">
-        <v>215</v>
-      </c>
-      <c r="AJ28" s="58"/>
-      <c r="AK28" s="58"/>
-      <c r="AL28" s="58"/>
-      <c r="AM28" s="64"/>
-    </row>
-    <row r="29" spans="3:21">
-      <c r="C29" s="32"/>
-      <c r="D29" s="33"/>
-      <c r="E29" s="33"/>
-      <c r="F29" s="33"/>
-      <c r="G29" s="33"/>
-      <c r="H29" s="33"/>
-      <c r="I29" s="33"/>
-      <c r="J29" s="33"/>
-      <c r="K29" s="33"/>
-      <c r="L29" s="33"/>
-      <c r="M29" s="33"/>
-      <c r="N29" s="33"/>
-      <c r="O29" s="33"/>
-      <c r="P29" s="33"/>
-      <c r="Q29" s="33"/>
-      <c r="R29" s="33"/>
-      <c r="S29" s="33"/>
-      <c r="T29" s="33"/>
-      <c r="U29" s="43"/>
-    </row>
-    <row r="30" spans="3:21">
-      <c r="C30" s="40"/>
-      <c r="D30" s="41"/>
-      <c r="E30" s="41"/>
-      <c r="F30" s="41"/>
-      <c r="G30" s="41"/>
-      <c r="H30" s="41"/>
-      <c r="I30" s="41"/>
-      <c r="J30" s="41"/>
-      <c r="K30" s="41"/>
-      <c r="L30" s="41"/>
-      <c r="M30" s="41"/>
-      <c r="N30" s="41"/>
-      <c r="O30" s="41"/>
-      <c r="P30" s="41"/>
-      <c r="Q30" s="41"/>
-      <c r="R30" s="41"/>
-      <c r="S30" s="41"/>
-      <c r="T30" s="41"/>
-      <c r="U30" s="47"/>
-    </row>
-    <row r="31" ht="14.25" spans="3:21">
-      <c r="C31" s="38"/>
-      <c r="D31" s="39"/>
-      <c r="E31" s="39"/>
-      <c r="F31" s="39"/>
-      <c r="G31" s="39"/>
-      <c r="H31" s="39"/>
-      <c r="I31" s="39"/>
-      <c r="J31" s="39"/>
-      <c r="K31" s="39"/>
-      <c r="L31" s="39"/>
-      <c r="M31" s="39"/>
-      <c r="N31" s="39"/>
-      <c r="O31" s="39"/>
-      <c r="P31" s="39"/>
-      <c r="Q31" s="39"/>
-      <c r="R31" s="39"/>
-      <c r="S31" s="39"/>
-      <c r="T31" s="39"/>
-      <c r="U31" s="45"/>
-    </row>
-    <row r="33" ht="14.25" spans="3:3">
-      <c r="C33" s="29" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="34" spans="3:31">
-      <c r="C34" s="30" t="s">
-        <v>192</v>
-      </c>
-      <c r="D34" s="31"/>
-      <c r="E34" s="31"/>
-      <c r="F34" s="31"/>
-      <c r="G34" s="31" t="s">
-        <v>208</v>
-      </c>
-      <c r="H34" s="31"/>
-      <c r="I34" s="31"/>
-      <c r="J34" s="31"/>
-      <c r="K34" s="31"/>
-      <c r="L34" s="31" t="s">
-        <v>217</v>
-      </c>
-      <c r="M34" s="31"/>
-      <c r="N34" s="31"/>
-      <c r="O34" s="31"/>
-      <c r="P34" s="31"/>
-      <c r="Q34" s="48" t="s">
-        <v>218</v>
-      </c>
-      <c r="R34" s="49"/>
-      <c r="S34" s="49"/>
-      <c r="T34" s="49"/>
-      <c r="U34" s="49"/>
-      <c r="V34" s="49"/>
-      <c r="W34" s="49"/>
-      <c r="X34" s="49"/>
-      <c r="Y34" s="49"/>
-      <c r="Z34" s="59"/>
-      <c r="AA34" s="31" t="s">
+      <c r="AT35" t="s">
         <v>219</v>
       </c>
-      <c r="AB34" s="31"/>
-      <c r="AC34" s="31"/>
-      <c r="AD34" s="31"/>
-      <c r="AE34" s="42"/>
-    </row>
-    <row r="35" spans="3:31">
-      <c r="C35" s="32" t="s">
-        <v>195</v>
-      </c>
-      <c r="D35" s="33"/>
-      <c r="E35" s="33"/>
-      <c r="F35" s="33"/>
-      <c r="G35" s="33" t="s">
-        <v>211</v>
-      </c>
-      <c r="H35" s="33"/>
-      <c r="I35" s="33"/>
-      <c r="J35" s="33"/>
-      <c r="K35" s="33"/>
-      <c r="L35" s="46" t="s">
+      <c r="AX35" s="65"/>
+    </row>
+    <row r="36" spans="39:50">
+      <c r="AM36" s="61"/>
+      <c r="AX36" s="65"/>
+    </row>
+    <row r="37" spans="39:50">
+      <c r="AM37" s="61"/>
+      <c r="AN37" t="s">
+        <v>200</v>
+      </c>
+      <c r="AT37" t="s">
         <v>220</v>
       </c>
-      <c r="M35" s="46"/>
-      <c r="N35" s="46"/>
-      <c r="O35" s="46"/>
-      <c r="P35" s="46"/>
-      <c r="Q35" s="50" t="s">
+      <c r="AX37" s="65"/>
+    </row>
+    <row r="38" spans="39:50">
+      <c r="AM38" s="61"/>
+      <c r="AX38" s="65"/>
+    </row>
+    <row r="39" spans="39:50">
+      <c r="AM39" s="61"/>
+      <c r="AN39" t="s">
         <v>221</v>
       </c>
-      <c r="R35" s="51"/>
-      <c r="S35" s="51"/>
-      <c r="T35" s="51"/>
-      <c r="U35" s="51"/>
-      <c r="V35" s="51"/>
-      <c r="W35" s="51"/>
-      <c r="X35" s="51"/>
-      <c r="Y35" s="51"/>
-      <c r="Z35" s="60"/>
-      <c r="AA35" s="33" t="s">
+      <c r="AT39" t="s">
         <v>222</v>
       </c>
-      <c r="AB35" s="33"/>
-      <c r="AC35" s="33"/>
-      <c r="AD35" s="33"/>
-      <c r="AE35" s="43"/>
-    </row>
-    <row r="36" spans="3:31">
-      <c r="C36" s="32" t="s">
-        <v>195</v>
-      </c>
-      <c r="D36" s="33"/>
-      <c r="E36" s="33"/>
-      <c r="F36" s="33"/>
-      <c r="G36" s="33" t="s">
-        <v>211</v>
-      </c>
-      <c r="H36" s="33"/>
-      <c r="I36" s="33"/>
-      <c r="J36" s="33"/>
-      <c r="K36" s="33"/>
-      <c r="L36" s="46" t="s">
+      <c r="AX39" s="65"/>
+    </row>
+    <row r="40" ht="14.25" spans="39:50">
+      <c r="AM40" s="62"/>
+      <c r="AN40" s="63"/>
+      <c r="AO40" s="63"/>
+      <c r="AP40" s="63"/>
+      <c r="AQ40" s="63"/>
+      <c r="AR40" s="63"/>
+      <c r="AS40" s="63"/>
+      <c r="AT40" s="63" t="s">
         <v>223</v>
       </c>
-      <c r="M36" s="46"/>
-      <c r="N36" s="46"/>
-      <c r="O36" s="46"/>
-      <c r="P36" s="46"/>
-      <c r="Q36" s="50" t="s">
-        <v>224</v>
-      </c>
-      <c r="R36" s="51"/>
-      <c r="S36" s="51"/>
-      <c r="T36" s="51"/>
-      <c r="U36" s="51"/>
-      <c r="V36" s="51"/>
-      <c r="W36" s="51"/>
-      <c r="X36" s="51"/>
-      <c r="Y36" s="51"/>
-      <c r="Z36" s="60"/>
-      <c r="AA36" s="33" t="s">
-        <v>222</v>
-      </c>
-      <c r="AB36" s="33"/>
-      <c r="AC36" s="33"/>
-      <c r="AD36" s="33"/>
-      <c r="AE36" s="43"/>
-    </row>
-    <row r="37" spans="3:31">
-      <c r="C37" s="32"/>
-      <c r="D37" s="33"/>
-      <c r="E37" s="33"/>
-      <c r="F37" s="33"/>
-      <c r="G37" s="33"/>
-      <c r="H37" s="33"/>
-      <c r="I37" s="33"/>
-      <c r="J37" s="33"/>
-      <c r="K37" s="35"/>
-      <c r="L37" s="46"/>
-      <c r="M37" s="46"/>
-      <c r="N37" s="46"/>
-      <c r="O37" s="46"/>
-      <c r="P37" s="46"/>
-      <c r="Q37" s="50"/>
-      <c r="R37" s="51"/>
-      <c r="S37" s="51"/>
-      <c r="T37" s="51"/>
-      <c r="U37" s="51"/>
-      <c r="V37" s="51"/>
-      <c r="W37" s="51"/>
-      <c r="X37" s="51"/>
-      <c r="Y37" s="51"/>
-      <c r="Z37" s="60"/>
-      <c r="AA37" s="33"/>
-      <c r="AB37" s="33"/>
-      <c r="AC37" s="33"/>
-      <c r="AD37" s="33"/>
-      <c r="AE37" s="43"/>
-    </row>
-    <row r="38" spans="3:31">
-      <c r="C38" s="32"/>
-      <c r="D38" s="33"/>
-      <c r="E38" s="33"/>
-      <c r="F38" s="33"/>
-      <c r="G38" s="33"/>
-      <c r="H38" s="33"/>
-      <c r="I38" s="33"/>
-      <c r="J38" s="33"/>
-      <c r="K38" s="35"/>
-      <c r="L38" s="46"/>
-      <c r="M38" s="46"/>
-      <c r="N38" s="46"/>
-      <c r="O38" s="46"/>
-      <c r="P38" s="46"/>
-      <c r="Q38" s="50"/>
-      <c r="R38" s="51"/>
-      <c r="S38" s="51"/>
-      <c r="T38" s="51"/>
-      <c r="U38" s="51"/>
-      <c r="V38" s="51"/>
-      <c r="W38" s="51"/>
-      <c r="X38" s="51"/>
-      <c r="Y38" s="51"/>
-      <c r="Z38" s="60"/>
-      <c r="AA38" s="33"/>
-      <c r="AB38" s="33"/>
-      <c r="AC38" s="33"/>
-      <c r="AD38" s="33"/>
-      <c r="AE38" s="43"/>
-    </row>
-    <row r="39" spans="3:31">
-      <c r="C39" s="32"/>
-      <c r="D39" s="33"/>
-      <c r="E39" s="33"/>
-      <c r="F39" s="33"/>
-      <c r="G39" s="33"/>
-      <c r="H39" s="33"/>
-      <c r="I39" s="33"/>
-      <c r="J39" s="33"/>
-      <c r="K39" s="33"/>
-      <c r="L39" s="33"/>
-      <c r="M39" s="33"/>
-      <c r="N39" s="33"/>
-      <c r="O39" s="33"/>
-      <c r="P39" s="33"/>
-      <c r="Q39" s="50"/>
-      <c r="R39" s="51"/>
-      <c r="S39" s="51"/>
-      <c r="T39" s="51"/>
-      <c r="U39" s="51"/>
-      <c r="V39" s="51"/>
-      <c r="W39" s="51"/>
-      <c r="X39" s="51"/>
-      <c r="Y39" s="51"/>
-      <c r="Z39" s="60"/>
-      <c r="AA39" s="33"/>
-      <c r="AB39" s="33"/>
-      <c r="AC39" s="33"/>
-      <c r="AD39" s="33"/>
-      <c r="AE39" s="43"/>
-    </row>
-    <row r="40" spans="3:31">
-      <c r="C40" s="32"/>
-      <c r="D40" s="33"/>
-      <c r="E40" s="33"/>
-      <c r="F40" s="33"/>
-      <c r="G40" s="33"/>
-      <c r="H40" s="33"/>
-      <c r="I40" s="33"/>
-      <c r="J40" s="33"/>
-      <c r="K40" s="33"/>
-      <c r="L40" s="33"/>
-      <c r="M40" s="33"/>
-      <c r="N40" s="33"/>
-      <c r="O40" s="33"/>
-      <c r="P40" s="33"/>
-      <c r="Q40" s="50"/>
-      <c r="R40" s="51"/>
-      <c r="S40" s="51"/>
-      <c r="T40" s="51"/>
-      <c r="U40" s="51"/>
-      <c r="V40" s="51"/>
-      <c r="W40" s="51"/>
-      <c r="X40" s="51"/>
-      <c r="Y40" s="51"/>
-      <c r="Z40" s="60"/>
-      <c r="AA40" s="33"/>
-      <c r="AB40" s="33"/>
-      <c r="AC40" s="33"/>
-      <c r="AD40" s="33"/>
-      <c r="AE40" s="43"/>
-    </row>
-    <row r="41" spans="3:31">
-      <c r="C41" s="32"/>
-      <c r="D41" s="33"/>
-      <c r="E41" s="33"/>
-      <c r="F41" s="33"/>
-      <c r="G41" s="33"/>
-      <c r="H41" s="33"/>
-      <c r="I41" s="33"/>
-      <c r="J41" s="33"/>
-      <c r="K41" s="33"/>
-      <c r="L41" s="33"/>
-      <c r="M41" s="33"/>
-      <c r="N41" s="33"/>
-      <c r="O41" s="33"/>
-      <c r="P41" s="33"/>
-      <c r="Q41" s="50"/>
-      <c r="R41" s="51"/>
-      <c r="S41" s="51"/>
-      <c r="T41" s="51"/>
-      <c r="U41" s="51"/>
-      <c r="V41" s="51"/>
-      <c r="W41" s="51"/>
-      <c r="X41" s="51"/>
-      <c r="Y41" s="51"/>
-      <c r="Z41" s="60"/>
-      <c r="AA41" s="33"/>
-      <c r="AB41" s="33"/>
-      <c r="AC41" s="33"/>
-      <c r="AD41" s="33"/>
-      <c r="AE41" s="43"/>
-    </row>
-    <row r="42" ht="14.25" spans="3:31">
-      <c r="C42" s="38"/>
-      <c r="D42" s="39"/>
-      <c r="E42" s="39"/>
-      <c r="F42" s="39"/>
-      <c r="G42" s="39"/>
-      <c r="H42" s="39"/>
-      <c r="I42" s="39"/>
-      <c r="J42" s="39"/>
-      <c r="K42" s="39"/>
-      <c r="L42" s="39"/>
-      <c r="M42" s="39"/>
-      <c r="N42" s="39"/>
-      <c r="O42" s="39"/>
-      <c r="P42" s="39"/>
-      <c r="Q42" s="52"/>
-      <c r="R42" s="53"/>
-      <c r="S42" s="53"/>
-      <c r="T42" s="53"/>
-      <c r="U42" s="53"/>
-      <c r="V42" s="53"/>
-      <c r="W42" s="53"/>
-      <c r="X42" s="53"/>
-      <c r="Y42" s="53"/>
-      <c r="Z42" s="61"/>
-      <c r="AA42" s="39"/>
-      <c r="AB42" s="39"/>
-      <c r="AC42" s="39"/>
-      <c r="AD42" s="39"/>
-      <c r="AE42" s="45"/>
+      <c r="AU40" s="63"/>
+      <c r="AV40" s="63"/>
+      <c r="AW40" s="63"/>
+      <c r="AX40" s="66"/>
     </row>
   </sheetData>
-  <mergeCells count="108">
-    <mergeCell ref="C12:F12"/>
-    <mergeCell ref="G12:K12"/>
-    <mergeCell ref="L12:P12"/>
-    <mergeCell ref="C13:F13"/>
-    <mergeCell ref="G13:K13"/>
-    <mergeCell ref="L13:P13"/>
-    <mergeCell ref="C14:F14"/>
-    <mergeCell ref="G14:K14"/>
-    <mergeCell ref="L14:P14"/>
-    <mergeCell ref="C15:F15"/>
-    <mergeCell ref="G15:K15"/>
-    <mergeCell ref="L15:P15"/>
-    <mergeCell ref="C16:F16"/>
-    <mergeCell ref="G16:K16"/>
-    <mergeCell ref="L16:P16"/>
-    <mergeCell ref="C17:F17"/>
-    <mergeCell ref="G17:K17"/>
-    <mergeCell ref="L17:P17"/>
+  <mergeCells count="65">
+    <mergeCell ref="C12:G12"/>
+    <mergeCell ref="H12:L12"/>
+    <mergeCell ref="M12:P12"/>
+    <mergeCell ref="Q12:U12"/>
+    <mergeCell ref="V12:Z12"/>
+    <mergeCell ref="C13:G13"/>
+    <mergeCell ref="H13:L13"/>
+    <mergeCell ref="M13:P13"/>
+    <mergeCell ref="Q13:U13"/>
+    <mergeCell ref="V13:Z13"/>
+    <mergeCell ref="C14:G14"/>
+    <mergeCell ref="H14:L14"/>
+    <mergeCell ref="M14:P14"/>
+    <mergeCell ref="Q14:U14"/>
+    <mergeCell ref="V14:Z14"/>
+    <mergeCell ref="C15:G15"/>
+    <mergeCell ref="H15:L15"/>
+    <mergeCell ref="M15:P15"/>
+    <mergeCell ref="Q15:U15"/>
+    <mergeCell ref="V15:Z15"/>
     <mergeCell ref="C18:F18"/>
     <mergeCell ref="G18:K18"/>
     <mergeCell ref="L18:P18"/>
+    <mergeCell ref="Q18:Z18"/>
+    <mergeCell ref="AA18:AE18"/>
     <mergeCell ref="C19:F19"/>
     <mergeCell ref="G19:K19"/>
     <mergeCell ref="L19:P19"/>
+    <mergeCell ref="Q19:Z19"/>
+    <mergeCell ref="AA19:AE19"/>
     <mergeCell ref="C20:F20"/>
     <mergeCell ref="G20:K20"/>
     <mergeCell ref="L20:P20"/>
+    <mergeCell ref="Q20:Z20"/>
+    <mergeCell ref="AA20:AE20"/>
+    <mergeCell ref="C21:F21"/>
+    <mergeCell ref="G21:K21"/>
+    <mergeCell ref="L21:P21"/>
+    <mergeCell ref="Q21:Z21"/>
+    <mergeCell ref="AA21:AE21"/>
+    <mergeCell ref="C22:F22"/>
+    <mergeCell ref="G22:K22"/>
+    <mergeCell ref="L22:P22"/>
+    <mergeCell ref="Q22:Z22"/>
+    <mergeCell ref="AA22:AE22"/>
     <mergeCell ref="C23:F23"/>
     <mergeCell ref="G23:K23"/>
     <mergeCell ref="L23:P23"/>
-    <mergeCell ref="Q23:U23"/>
+    <mergeCell ref="Q23:Z23"/>
+    <mergeCell ref="AA23:AE23"/>
     <mergeCell ref="C24:F24"/>
     <mergeCell ref="G24:K24"/>
     <mergeCell ref="L24:P24"/>
-    <mergeCell ref="Q24:U24"/>
+    <mergeCell ref="Q24:Z24"/>
+    <mergeCell ref="AA24:AE24"/>
     <mergeCell ref="C25:F25"/>
     <mergeCell ref="G25:K25"/>
     <mergeCell ref="L25:P25"/>
-    <mergeCell ref="Q25:U25"/>
+    <mergeCell ref="Q25:Z25"/>
+    <mergeCell ref="AA25:AE25"/>
     <mergeCell ref="C26:F26"/>
     <mergeCell ref="G26:K26"/>
     <mergeCell ref="L26:P26"/>
-    <mergeCell ref="Q26:U26"/>
-    <mergeCell ref="C27:F27"/>
-    <mergeCell ref="G27:K27"/>
-    <mergeCell ref="L27:P27"/>
-    <mergeCell ref="Q27:U27"/>
-    <mergeCell ref="C28:F28"/>
-    <mergeCell ref="G28:K28"/>
-    <mergeCell ref="L28:P28"/>
-    <mergeCell ref="Q28:U28"/>
-    <mergeCell ref="C29:F29"/>
-    <mergeCell ref="G29:K29"/>
-    <mergeCell ref="L29:P29"/>
-    <mergeCell ref="Q29:U29"/>
-    <mergeCell ref="C30:F30"/>
-    <mergeCell ref="G30:K30"/>
-    <mergeCell ref="L30:P30"/>
-    <mergeCell ref="Q30:U30"/>
-    <mergeCell ref="C31:F31"/>
-    <mergeCell ref="G31:K31"/>
-    <mergeCell ref="L31:P31"/>
-    <mergeCell ref="Q31:U31"/>
-    <mergeCell ref="C34:F34"/>
-    <mergeCell ref="G34:K34"/>
-    <mergeCell ref="L34:P34"/>
-    <mergeCell ref="Q34:Z34"/>
-    <mergeCell ref="AA34:AE34"/>
-    <mergeCell ref="C35:F35"/>
-    <mergeCell ref="G35:K35"/>
-    <mergeCell ref="L35:P35"/>
-    <mergeCell ref="Q35:Z35"/>
-    <mergeCell ref="AA35:AE35"/>
-    <mergeCell ref="C36:F36"/>
-    <mergeCell ref="G36:K36"/>
-    <mergeCell ref="L36:P36"/>
-    <mergeCell ref="Q36:Z36"/>
-    <mergeCell ref="AA36:AE36"/>
-    <mergeCell ref="C37:F37"/>
-    <mergeCell ref="G37:K37"/>
-    <mergeCell ref="L37:P37"/>
-    <mergeCell ref="Q37:Z37"/>
-    <mergeCell ref="AA37:AE37"/>
-    <mergeCell ref="C38:F38"/>
-    <mergeCell ref="G38:K38"/>
-    <mergeCell ref="L38:P38"/>
-    <mergeCell ref="Q38:Z38"/>
-    <mergeCell ref="AA38:AE38"/>
-    <mergeCell ref="C39:F39"/>
-    <mergeCell ref="G39:K39"/>
-    <mergeCell ref="L39:P39"/>
-    <mergeCell ref="Q39:Z39"/>
-    <mergeCell ref="AA39:AE39"/>
-    <mergeCell ref="C40:F40"/>
-    <mergeCell ref="G40:K40"/>
-    <mergeCell ref="L40:P40"/>
-    <mergeCell ref="Q40:Z40"/>
-    <mergeCell ref="AA40:AE40"/>
-    <mergeCell ref="C41:F41"/>
-    <mergeCell ref="G41:K41"/>
-    <mergeCell ref="L41:P41"/>
-    <mergeCell ref="Q41:Z41"/>
-    <mergeCell ref="AA41:AE41"/>
-    <mergeCell ref="C42:F42"/>
-    <mergeCell ref="G42:K42"/>
-    <mergeCell ref="L42:P42"/>
-    <mergeCell ref="Q42:Z42"/>
-    <mergeCell ref="AA42:AE42"/>
+    <mergeCell ref="Q26:Z26"/>
+    <mergeCell ref="AA26:AE26"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
@@ -5399,301 +5151,301 @@
   <sheetData>
     <row r="2" ht="14.25"/>
     <row r="3" spans="2:7">
-      <c r="B3" s="174" t="s">
+      <c r="B3" s="173" t="s">
         <v>34</v>
       </c>
-      <c r="C3" s="15" t="s">
+      <c r="C3" s="20" t="s">
         <v>35</v>
       </c>
-      <c r="D3" s="15" t="s">
+      <c r="D3" s="20" t="s">
         <v>36</v>
       </c>
-      <c r="E3" s="16" t="s">
+      <c r="E3" s="21" t="s">
         <v>15</v>
       </c>
-      <c r="F3" s="16" t="s">
+      <c r="F3" s="21" t="s">
         <v>37</v>
       </c>
-      <c r="G3" s="17" t="s">
+      <c r="G3" s="22" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="4" spans="2:7">
-      <c r="B4" s="18"/>
-      <c r="C4" s="19"/>
-      <c r="D4" s="19"/>
-      <c r="E4" s="20" t="s">
+      <c r="B4" s="23"/>
+      <c r="C4" s="24"/>
+      <c r="D4" s="24"/>
+      <c r="E4" s="25" t="s">
         <v>41</v>
       </c>
-      <c r="F4" s="20" t="s">
+      <c r="F4" s="25" t="s">
         <v>42</v>
       </c>
-      <c r="G4" s="21"/>
+      <c r="G4" s="26"/>
     </row>
     <row r="5" spans="2:7">
-      <c r="B5" s="18"/>
-      <c r="C5" s="19"/>
-      <c r="D5" s="19"/>
-      <c r="E5" s="22" t="s">
+      <c r="B5" s="23"/>
+      <c r="C5" s="24"/>
+      <c r="D5" s="24"/>
+      <c r="E5" s="27" t="s">
         <v>43</v>
       </c>
-      <c r="F5" s="22" t="s">
+      <c r="F5" s="27" t="s">
         <v>44</v>
       </c>
-      <c r="G5" s="21"/>
+      <c r="G5" s="26"/>
     </row>
     <row r="6" ht="14.25" spans="2:7">
-      <c r="B6" s="175" t="s">
+      <c r="B6" s="174" t="s">
         <v>45</v>
       </c>
-      <c r="C6" s="24" t="s">
+      <c r="C6" s="29" t="s">
         <v>46</v>
       </c>
-      <c r="D6" s="24" t="s">
+      <c r="D6" s="29" t="s">
         <v>47</v>
       </c>
-      <c r="E6" s="24" t="s">
+      <c r="E6" s="29" t="s">
         <v>48</v>
       </c>
-      <c r="F6" s="24" t="s">
+      <c r="F6" s="29" t="s">
         <v>49</v>
       </c>
-      <c r="G6" s="25"/>
+      <c r="G6" s="30"/>
     </row>
     <row r="10" spans="3:5">
-      <c r="C10" s="26" t="s">
+      <c r="C10" s="31" t="s">
+        <v>224</v>
+      </c>
+      <c r="D10" s="32" t="s">
         <v>225</v>
       </c>
-      <c r="D10" s="27" t="s">
-        <v>226</v>
-      </c>
-      <c r="E10" s="26" t="s">
-        <v>226</v>
+      <c r="E10" s="31" t="s">
+        <v>225</v>
       </c>
     </row>
     <row r="11" spans="4:4">
-      <c r="D11" s="28"/>
+      <c r="D11" s="33"/>
     </row>
     <row r="12" spans="3:5">
       <c r="C12" t="s">
         <v>36</v>
       </c>
-      <c r="D12" s="28" t="s">
-        <v>227</v>
+      <c r="D12" s="33" t="s">
+        <v>226</v>
       </c>
       <c r="E12" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="13" spans="4:4">
-      <c r="D13" s="28" t="s">
+      <c r="D13" s="33" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="14" spans="4:4">
+      <c r="D14" s="33" t="s">
         <v>228</v>
       </c>
     </row>
-    <row r="14" spans="4:4">
-      <c r="D14" s="28" t="s">
+    <row r="15" spans="4:4">
+      <c r="D15" s="33" t="s">
         <v>229</v>
-      </c>
-    </row>
-    <row r="15" spans="4:4">
-      <c r="D15" s="28" t="s">
-        <v>230</v>
       </c>
     </row>
     <row r="16" spans="3:4">
       <c r="C16" t="s">
+        <v>230</v>
+      </c>
+      <c r="D16" s="33"/>
+    </row>
+    <row r="17" spans="4:4">
+      <c r="D17" s="33"/>
+    </row>
+    <row r="18" spans="4:4">
+      <c r="D18" s="33" t="s">
         <v>231</v>
       </c>
-      <c r="D16" s="28"/>
-    </row>
-    <row r="17" spans="4:4">
-      <c r="D17" s="28"/>
-    </row>
-    <row r="18" spans="4:4">
-      <c r="D18" s="28" t="s">
+    </row>
+    <row r="19" spans="4:5">
+      <c r="D19" s="33" t="s">
         <v>232</v>
       </c>
-    </row>
-    <row r="19" spans="4:5">
-      <c r="D19" s="28" t="s">
+      <c r="E19" t="s">
         <v>233</v>
       </c>
-      <c r="E19" t="s">
+    </row>
+    <row r="20" spans="4:5">
+      <c r="D20" s="33" t="s">
         <v>234</v>
       </c>
-    </row>
-    <row r="20" spans="4:5">
-      <c r="D20" s="28" t="s">
+      <c r="E20" t="s">
         <v>235</v>
       </c>
-      <c r="E20" t="s">
+    </row>
+    <row r="21" spans="4:5">
+      <c r="D21" s="33" t="s">
         <v>236</v>
       </c>
-    </row>
-    <row r="21" spans="4:5">
-      <c r="D21" s="28" t="s">
+      <c r="E21" t="s">
         <v>237</v>
       </c>
-      <c r="E21" t="s">
+    </row>
+    <row r="22" spans="4:4">
+      <c r="D22" s="33"/>
+    </row>
+    <row r="23" spans="4:5">
+      <c r="D23" s="33" t="s">
         <v>238</v>
       </c>
-    </row>
-    <row r="22" spans="4:4">
-      <c r="D22" s="28"/>
-    </row>
-    <row r="23" spans="4:5">
-      <c r="D23" s="28" t="s">
+      <c r="E23" t="s">
         <v>239</v>
       </c>
-      <c r="E23" t="s">
+    </row>
+    <row r="24" spans="4:4">
+      <c r="D24" s="33"/>
+    </row>
+    <row r="25" spans="4:4">
+      <c r="D25" s="33" t="s">
         <v>240</v>
       </c>
     </row>
-    <row r="24" spans="4:4">
-      <c r="D24" s="28"/>
-    </row>
-    <row r="25" spans="4:4">
-      <c r="D25" s="28" t="s">
+    <row r="26" spans="4:4">
+      <c r="D26" s="33"/>
+    </row>
+    <row r="27" spans="4:5">
+      <c r="D27" s="33" t="s">
         <v>241</v>
       </c>
-    </row>
-    <row r="26" spans="4:4">
-      <c r="D26" s="28"/>
-    </row>
-    <row r="27" spans="4:5">
-      <c r="D27" s="28" t="s">
+      <c r="E27" t="s">
         <v>242</v>
       </c>
-      <c r="E27" t="s">
+    </row>
+    <row r="28" spans="4:5">
+      <c r="D28" s="33" t="s">
         <v>243</v>
       </c>
-    </row>
-    <row r="28" spans="4:5">
-      <c r="D28" s="28" t="s">
+      <c r="E28" t="s">
         <v>244</v>
       </c>
-      <c r="E28" t="s">
+    </row>
+    <row r="29" spans="4:4">
+      <c r="D29" s="33"/>
+    </row>
+    <row r="30" spans="4:4">
+      <c r="D30" s="33"/>
+    </row>
+    <row r="31" spans="4:4">
+      <c r="D31" s="33" t="s">
         <v>245</v>
       </c>
     </row>
-    <row r="29" spans="4:4">
-      <c r="D29" s="28"/>
-    </row>
-    <row r="30" spans="4:4">
-      <c r="D30" s="28"/>
-    </row>
-    <row r="31" spans="4:4">
-      <c r="D31" s="28" t="s">
+    <row r="32" spans="4:4">
+      <c r="D32" s="33"/>
+    </row>
+    <row r="33" spans="4:5">
+      <c r="D33" s="33" t="s">
         <v>246</v>
       </c>
-    </row>
-    <row r="32" spans="4:4">
-      <c r="D32" s="28"/>
-    </row>
-    <row r="33" spans="4:5">
-      <c r="D33" s="28" t="s">
+      <c r="E33" t="s">
         <v>247</v>
       </c>
-      <c r="E33" t="s">
+    </row>
+    <row r="34" spans="4:5">
+      <c r="D34" s="33" t="s">
         <v>248</v>
       </c>
-    </row>
-    <row r="34" spans="4:5">
-      <c r="D34" s="28" t="s">
+      <c r="E34" t="s">
         <v>249</v>
-      </c>
-      <c r="E34" t="s">
-        <v>250</v>
       </c>
     </row>
     <row r="37" spans="4:4">
       <c r="D37" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
     </row>
     <row r="38" spans="4:5">
       <c r="D38" t="s">
+        <v>251</v>
+      </c>
+      <c r="E38" t="s">
         <v>252</v>
       </c>
-      <c r="E38" t="s">
+    </row>
+    <row r="39" spans="4:5">
+      <c r="D39" s="33" t="s">
+        <v>232</v>
+      </c>
+      <c r="E39" t="s">
         <v>253</v>
       </c>
     </row>
-    <row r="39" spans="4:5">
-      <c r="D39" s="28" t="s">
-        <v>233</v>
-      </c>
-      <c r="E39" t="s">
+    <row r="40" spans="4:5">
+      <c r="D40" s="33" t="s">
+        <v>234</v>
+      </c>
+      <c r="E40" t="s">
         <v>254</v>
-      </c>
-    </row>
-    <row r="40" spans="4:5">
-      <c r="D40" s="28" t="s">
-        <v>235</v>
-      </c>
-      <c r="E40" t="s">
-        <v>255</v>
       </c>
     </row>
     <row r="41" spans="4:5">
       <c r="D41" t="s">
+        <v>255</v>
+      </c>
+      <c r="E41" t="s">
         <v>256</v>
-      </c>
-      <c r="E41" t="s">
-        <v>257</v>
       </c>
     </row>
     <row r="42" spans="4:5">
       <c r="D42" t="s">
+        <v>257</v>
+      </c>
+      <c r="E42" t="s">
         <v>258</v>
-      </c>
-      <c r="E42" t="s">
-        <v>259</v>
       </c>
     </row>
     <row r="43" spans="4:5">
       <c r="D43" t="s">
+        <v>259</v>
+      </c>
+      <c r="E43" t="s">
         <v>260</v>
-      </c>
-      <c r="E43" t="s">
-        <v>261</v>
       </c>
     </row>
     <row r="44" spans="4:5">
       <c r="D44" t="s">
+        <v>261</v>
+      </c>
+      <c r="E44" t="s">
         <v>262</v>
-      </c>
-      <c r="E44" t="s">
-        <v>263</v>
       </c>
     </row>
     <row r="45" spans="4:5">
       <c r="D45" t="s">
+        <v>263</v>
+      </c>
+      <c r="E45" t="s">
         <v>264</v>
-      </c>
-      <c r="E45" t="s">
-        <v>265</v>
       </c>
     </row>
     <row r="47" spans="4:4">
       <c r="D47" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
     </row>
     <row r="48" spans="4:5">
       <c r="D48" t="s">
+        <v>266</v>
+      </c>
+      <c r="E48" t="s">
         <v>267</v>
-      </c>
-      <c r="E48" t="s">
-        <v>268</v>
       </c>
     </row>
     <row r="49" spans="4:5">
       <c r="D49" t="s">
+        <v>268</v>
+      </c>
+      <c r="E49" t="s">
         <v>269</v>
-      </c>
-      <c r="E49" t="s">
-        <v>270</v>
       </c>
     </row>
   </sheetData>
@@ -5709,20 +5461,20 @@
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="B2:X122"/>
+  <dimension ref="B2:X130"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="AD20" sqref="AD20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="3.625" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="2.625" defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="16383" width="3.625" customWidth="1"/>
+    <col min="1" max="16384" width="2.625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:24">
       <c r="B2" s="1" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="C2" s="2"/>
       <c r="D2" s="2"/>
@@ -5745,40 +5497,40 @@
       <c r="U2" s="2"/>
       <c r="V2" s="2"/>
       <c r="W2" s="2"/>
-      <c r="X2" s="9"/>
+      <c r="X2" s="12"/>
     </row>
     <row r="3" spans="2:24">
       <c r="B3" s="3"/>
-      <c r="C3" s="1" t="s">
-        <v>272</v>
-      </c>
-      <c r="D3" s="2"/>
-      <c r="E3" s="2"/>
-      <c r="F3" s="2"/>
-      <c r="G3" s="2"/>
-      <c r="H3" s="2"/>
-      <c r="I3" s="2"/>
-      <c r="J3" s="2"/>
-      <c r="K3" s="2"/>
-      <c r="L3" s="2"/>
-      <c r="M3" s="2"/>
-      <c r="N3" s="2"/>
-      <c r="O3" s="2"/>
-      <c r="P3" s="2"/>
-      <c r="Q3" s="2"/>
-      <c r="R3" s="2"/>
-      <c r="S3" s="2"/>
-      <c r="T3" s="2"/>
-      <c r="U3" s="2"/>
-      <c r="V3" s="2"/>
-      <c r="W3" s="2"/>
-      <c r="X3" s="9"/>
+      <c r="C3" s="4" t="s">
+        <v>271</v>
+      </c>
+      <c r="D3" s="5"/>
+      <c r="E3" s="5"/>
+      <c r="F3" s="5"/>
+      <c r="G3" s="5"/>
+      <c r="H3" s="5"/>
+      <c r="I3" s="5"/>
+      <c r="J3" s="5"/>
+      <c r="K3" s="5"/>
+      <c r="L3" s="5"/>
+      <c r="M3" s="5"/>
+      <c r="N3" s="5"/>
+      <c r="O3" s="5"/>
+      <c r="P3" s="5"/>
+      <c r="Q3" s="5"/>
+      <c r="R3" s="5"/>
+      <c r="S3" s="5"/>
+      <c r="T3" s="5"/>
+      <c r="U3" s="5"/>
+      <c r="V3" s="5"/>
+      <c r="W3" s="5"/>
+      <c r="X3" s="13"/>
     </row>
     <row r="4" spans="2:24">
       <c r="B4" s="3"/>
-      <c r="C4" s="3"/>
+      <c r="C4" s="6"/>
       <c r="D4" s="1" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="E4" s="2"/>
       <c r="F4" s="2"/>
@@ -5799,14 +5551,14 @@
       <c r="U4" s="2"/>
       <c r="V4" s="2"/>
       <c r="W4" s="2"/>
-      <c r="X4" s="9"/>
+      <c r="X4" s="12"/>
     </row>
     <row r="5" spans="2:24">
       <c r="B5" s="3"/>
-      <c r="C5" s="3"/>
+      <c r="C5" s="6"/>
       <c r="D5" s="3"/>
-      <c r="E5" s="4" t="s">
-        <v>274</v>
+      <c r="E5" s="7" t="s">
+        <v>273</v>
       </c>
       <c r="F5" s="2"/>
       <c r="G5" s="2"/>
@@ -5826,14 +5578,14 @@
       <c r="U5" s="2"/>
       <c r="V5" s="2"/>
       <c r="W5" s="2"/>
-      <c r="X5" s="9"/>
+      <c r="X5" s="12"/>
     </row>
     <row r="6" spans="2:24">
       <c r="B6" s="3"/>
-      <c r="C6" s="3"/>
+      <c r="C6" s="6"/>
       <c r="D6" s="3"/>
-      <c r="E6" s="4" t="s">
-        <v>275</v>
+      <c r="E6" s="7" t="s">
+        <v>274</v>
       </c>
       <c r="F6" s="2"/>
       <c r="G6" s="2"/>
@@ -5853,14 +5605,14 @@
       <c r="U6" s="2"/>
       <c r="V6" s="2"/>
       <c r="W6" s="2"/>
-      <c r="X6" s="9"/>
+      <c r="X6" s="12"/>
     </row>
     <row r="7" spans="2:24">
       <c r="B7" s="3"/>
-      <c r="C7" s="3"/>
+      <c r="C7" s="6"/>
       <c r="D7" s="3"/>
-      <c r="E7" s="4" t="s">
-        <v>276</v>
+      <c r="E7" s="7" t="s">
+        <v>275</v>
       </c>
       <c r="F7" s="2"/>
       <c r="G7" s="2"/>
@@ -5880,14 +5632,14 @@
       <c r="U7" s="2"/>
       <c r="V7" s="2"/>
       <c r="W7" s="2"/>
-      <c r="X7" s="9"/>
+      <c r="X7" s="12"/>
     </row>
     <row r="8" spans="2:24">
       <c r="B8" s="3"/>
-      <c r="C8" s="3"/>
+      <c r="C8" s="6"/>
       <c r="D8" s="3"/>
-      <c r="E8" s="4" t="s">
-        <v>277</v>
+      <c r="E8" s="7" t="s">
+        <v>276</v>
       </c>
       <c r="F8" s="2"/>
       <c r="G8" s="2"/>
@@ -5907,40 +5659,40 @@
       <c r="U8" s="2"/>
       <c r="V8" s="2"/>
       <c r="W8" s="2"/>
-      <c r="X8" s="9"/>
+      <c r="X8" s="12"/>
     </row>
     <row r="9" spans="2:24">
       <c r="B9" s="3"/>
-      <c r="C9" s="1" t="s">
+      <c r="C9" s="4" t="s">
         <v>195</v>
       </c>
-      <c r="D9" s="5"/>
-      <c r="E9" s="4"/>
-      <c r="F9" s="2"/>
-      <c r="G9" s="2"/>
-      <c r="H9" s="2"/>
-      <c r="I9" s="2"/>
-      <c r="J9" s="2"/>
-      <c r="K9" s="2"/>
-      <c r="L9" s="2"/>
-      <c r="M9" s="2"/>
-      <c r="N9" s="2"/>
-      <c r="O9" s="2"/>
-      <c r="P9" s="2"/>
-      <c r="Q9" s="2"/>
-      <c r="R9" s="2"/>
-      <c r="S9" s="2"/>
-      <c r="T9" s="2"/>
-      <c r="U9" s="2"/>
-      <c r="V9" s="2"/>
-      <c r="W9" s="2"/>
-      <c r="X9" s="9"/>
+      <c r="D9" s="8"/>
+      <c r="E9" s="9"/>
+      <c r="F9" s="5"/>
+      <c r="G9" s="5"/>
+      <c r="H9" s="5"/>
+      <c r="I9" s="5"/>
+      <c r="J9" s="5"/>
+      <c r="K9" s="5"/>
+      <c r="L9" s="5"/>
+      <c r="M9" s="5"/>
+      <c r="N9" s="5"/>
+      <c r="O9" s="5"/>
+      <c r="P9" s="5"/>
+      <c r="Q9" s="5"/>
+      <c r="R9" s="5"/>
+      <c r="S9" s="5"/>
+      <c r="T9" s="5"/>
+      <c r="U9" s="5"/>
+      <c r="V9" s="5"/>
+      <c r="W9" s="5"/>
+      <c r="X9" s="13"/>
     </row>
     <row r="10" spans="2:24">
       <c r="B10" s="3"/>
-      <c r="C10" s="3"/>
+      <c r="C10" s="6"/>
       <c r="D10" s="1" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="E10" s="2"/>
       <c r="F10" s="2"/>
@@ -5961,14 +5713,14 @@
       <c r="U10" s="2"/>
       <c r="V10" s="2"/>
       <c r="W10" s="2"/>
-      <c r="X10" s="9"/>
+      <c r="X10" s="12"/>
     </row>
     <row r="11" spans="2:24">
       <c r="B11" s="3"/>
-      <c r="C11" s="3"/>
+      <c r="C11" s="6"/>
       <c r="D11" s="3"/>
-      <c r="E11" s="4" t="s">
-        <v>274</v>
+      <c r="E11" s="7" t="s">
+        <v>273</v>
       </c>
       <c r="F11" s="2"/>
       <c r="G11" s="2"/>
@@ -5988,14 +5740,14 @@
       <c r="U11" s="2"/>
       <c r="V11" s="2"/>
       <c r="W11" s="2"/>
-      <c r="X11" s="9"/>
+      <c r="X11" s="12"/>
     </row>
     <row r="12" spans="2:24">
       <c r="B12" s="3"/>
-      <c r="C12" s="3"/>
+      <c r="C12" s="6"/>
       <c r="D12" s="3"/>
-      <c r="E12" s="4" t="s">
-        <v>275</v>
+      <c r="E12" s="7" t="s">
+        <v>274</v>
       </c>
       <c r="F12" s="2"/>
       <c r="G12" s="2"/>
@@ -6015,14 +5767,14 @@
       <c r="U12" s="2"/>
       <c r="V12" s="2"/>
       <c r="W12" s="2"/>
-      <c r="X12" s="9"/>
+      <c r="X12" s="12"/>
     </row>
     <row r="13" spans="2:24">
       <c r="B13" s="3"/>
-      <c r="C13" s="3"/>
+      <c r="C13" s="6"/>
       <c r="D13" s="3"/>
-      <c r="E13" s="4" t="s">
-        <v>276</v>
+      <c r="E13" s="7" t="s">
+        <v>275</v>
       </c>
       <c r="F13" s="2"/>
       <c r="G13" s="2"/>
@@ -6042,14 +5794,14 @@
       <c r="U13" s="2"/>
       <c r="V13" s="2"/>
       <c r="W13" s="2"/>
-      <c r="X13" s="9"/>
+      <c r="X13" s="12"/>
     </row>
     <row r="14" spans="2:24">
       <c r="B14" s="3"/>
-      <c r="C14" s="3"/>
+      <c r="C14" s="6"/>
       <c r="D14" s="3"/>
-      <c r="E14" s="4" t="s">
-        <v>277</v>
+      <c r="E14" s="7" t="s">
+        <v>276</v>
       </c>
       <c r="F14" s="2"/>
       <c r="G14" s="2"/>
@@ -6069,15 +5821,15 @@
       <c r="U14" s="2"/>
       <c r="V14" s="2"/>
       <c r="W14" s="2"/>
-      <c r="X14" s="9"/>
+      <c r="X14" s="12"/>
     </row>
     <row r="15" spans="2:24">
       <c r="B15" s="3"/>
-      <c r="C15" s="3"/>
-      <c r="D15" s="6" t="s">
-        <v>278</v>
-      </c>
-      <c r="E15" s="4"/>
+      <c r="C15" s="6"/>
+      <c r="D15" s="10" t="s">
+        <v>277</v>
+      </c>
+      <c r="E15" s="7"/>
       <c r="F15" s="2"/>
       <c r="G15" s="2"/>
       <c r="H15" s="2"/>
@@ -6096,14 +5848,14 @@
       <c r="U15" s="2"/>
       <c r="V15" s="2"/>
       <c r="W15" s="2"/>
-      <c r="X15" s="9"/>
+      <c r="X15" s="12"/>
     </row>
     <row r="16" spans="2:24">
       <c r="B16" s="3"/>
-      <c r="C16" s="3"/>
+      <c r="C16" s="6"/>
       <c r="D16" s="3"/>
-      <c r="E16" s="4" t="s">
-        <v>274</v>
+      <c r="E16" s="7" t="s">
+        <v>273</v>
       </c>
       <c r="F16" s="2"/>
       <c r="G16" s="2"/>
@@ -6123,14 +5875,14 @@
       <c r="U16" s="2"/>
       <c r="V16" s="2"/>
       <c r="W16" s="2"/>
-      <c r="X16" s="9"/>
+      <c r="X16" s="12"/>
     </row>
     <row r="17" spans="2:24">
       <c r="B17" s="3"/>
-      <c r="C17" s="3"/>
+      <c r="C17" s="6"/>
       <c r="D17" s="3"/>
-      <c r="E17" s="4" t="s">
-        <v>275</v>
+      <c r="E17" s="7" t="s">
+        <v>274</v>
       </c>
       <c r="F17" s="2"/>
       <c r="G17" s="2"/>
@@ -6150,14 +5902,14 @@
       <c r="U17" s="2"/>
       <c r="V17" s="2"/>
       <c r="W17" s="2"/>
-      <c r="X17" s="9"/>
+      <c r="X17" s="12"/>
     </row>
     <row r="18" spans="2:24">
       <c r="B18" s="3"/>
-      <c r="C18" s="3"/>
+      <c r="C18" s="6"/>
       <c r="D18" s="3"/>
-      <c r="E18" s="4" t="s">
-        <v>276</v>
+      <c r="E18" s="7" t="s">
+        <v>275</v>
       </c>
       <c r="F18" s="2"/>
       <c r="G18" s="2"/>
@@ -6177,14 +5929,14 @@
       <c r="U18" s="2"/>
       <c r="V18" s="2"/>
       <c r="W18" s="2"/>
-      <c r="X18" s="9"/>
+      <c r="X18" s="12"/>
     </row>
     <row r="19" spans="2:24">
       <c r="B19" s="3"/>
-      <c r="C19" s="3"/>
+      <c r="C19" s="6"/>
       <c r="D19" s="3"/>
-      <c r="E19" s="4" t="s">
-        <v>277</v>
+      <c r="E19" s="7" t="s">
+        <v>276</v>
       </c>
       <c r="F19" s="2"/>
       <c r="G19" s="2"/>
@@ -6204,13 +5956,13 @@
       <c r="U19" s="2"/>
       <c r="V19" s="2"/>
       <c r="W19" s="2"/>
-      <c r="X19" s="9"/>
+      <c r="X19" s="12"/>
     </row>
     <row r="20" spans="2:24">
       <c r="B20" s="3"/>
-      <c r="C20" s="3"/>
+      <c r="C20" s="6"/>
       <c r="D20" s="1" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="E20" s="2"/>
       <c r="F20" s="2"/>
@@ -6231,14 +5983,14 @@
       <c r="U20" s="2"/>
       <c r="V20" s="2"/>
       <c r="W20" s="2"/>
-      <c r="X20" s="9"/>
+      <c r="X20" s="12"/>
     </row>
     <row r="21" spans="2:24">
       <c r="B21" s="3"/>
-      <c r="C21" s="3"/>
+      <c r="C21" s="6"/>
       <c r="D21" s="3"/>
       <c r="E21" s="1" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="F21" s="2"/>
       <c r="G21" s="2"/>
@@ -6258,14 +6010,14 @@
       <c r="U21" s="2"/>
       <c r="V21" s="2"/>
       <c r="W21" s="2"/>
-      <c r="X21" s="9"/>
+      <c r="X21" s="12"/>
     </row>
     <row r="22" spans="2:24">
       <c r="B22" s="3"/>
-      <c r="C22" s="3"/>
+      <c r="C22" s="6"/>
       <c r="D22" s="3"/>
       <c r="E22" s="3"/>
-      <c r="F22" s="7">
+      <c r="F22" s="11">
         <v>1</v>
       </c>
       <c r="G22" s="2"/>
@@ -6285,14 +6037,14 @@
       <c r="U22" s="2"/>
       <c r="V22" s="2"/>
       <c r="W22" s="2"/>
-      <c r="X22" s="9"/>
+      <c r="X22" s="12"/>
     </row>
     <row r="23" spans="2:24">
       <c r="B23" s="3"/>
-      <c r="C23" s="3"/>
+      <c r="C23" s="6"/>
       <c r="D23" s="3"/>
       <c r="E23" s="3"/>
-      <c r="F23" s="7">
+      <c r="F23" s="11">
         <v>2</v>
       </c>
       <c r="G23" s="2"/>
@@ -6312,14 +6064,14 @@
       <c r="U23" s="2"/>
       <c r="V23" s="2"/>
       <c r="W23" s="2"/>
-      <c r="X23" s="9"/>
+      <c r="X23" s="12"/>
     </row>
     <row r="24" hidden="1" outlineLevel="1" spans="2:24">
       <c r="B24" s="3"/>
-      <c r="C24" s="3"/>
+      <c r="C24" s="6"/>
       <c r="D24" s="3"/>
       <c r="E24" s="3"/>
-      <c r="F24" s="7">
+      <c r="F24" s="11">
         <v>3</v>
       </c>
       <c r="G24" s="2"/>
@@ -6339,14 +6091,14 @@
       <c r="U24" s="2"/>
       <c r="V24" s="2"/>
       <c r="W24" s="2"/>
-      <c r="X24" s="9"/>
+      <c r="X24" s="12"/>
     </row>
     <row r="25" hidden="1" outlineLevel="1" spans="2:24">
       <c r="B25" s="3"/>
-      <c r="C25" s="3"/>
+      <c r="C25" s="6"/>
       <c r="D25" s="3"/>
       <c r="E25" s="3"/>
-      <c r="F25" s="7">
+      <c r="F25" s="11">
         <v>4</v>
       </c>
       <c r="G25" s="2"/>
@@ -6366,14 +6118,14 @@
       <c r="U25" s="2"/>
       <c r="V25" s="2"/>
       <c r="W25" s="2"/>
-      <c r="X25" s="9"/>
+      <c r="X25" s="12"/>
     </row>
     <row r="26" hidden="1" outlineLevel="1" spans="2:24">
       <c r="B26" s="3"/>
-      <c r="C26" s="3"/>
+      <c r="C26" s="6"/>
       <c r="D26" s="3"/>
       <c r="E26" s="3"/>
-      <c r="F26" s="7">
+      <c r="F26" s="11">
         <v>5</v>
       </c>
       <c r="G26" s="2"/>
@@ -6393,14 +6145,14 @@
       <c r="U26" s="2"/>
       <c r="V26" s="2"/>
       <c r="W26" s="2"/>
-      <c r="X26" s="9"/>
+      <c r="X26" s="12"/>
     </row>
     <row r="27" hidden="1" outlineLevel="1" spans="2:24">
       <c r="B27" s="3"/>
-      <c r="C27" s="3"/>
+      <c r="C27" s="6"/>
       <c r="D27" s="3"/>
       <c r="E27" s="3"/>
-      <c r="F27" s="7">
+      <c r="F27" s="11">
         <v>6</v>
       </c>
       <c r="G27" s="2"/>
@@ -6420,14 +6172,14 @@
       <c r="U27" s="2"/>
       <c r="V27" s="2"/>
       <c r="W27" s="2"/>
-      <c r="X27" s="9"/>
+      <c r="X27" s="12"/>
     </row>
     <row r="28" hidden="1" outlineLevel="1" spans="2:24">
       <c r="B28" s="3"/>
-      <c r="C28" s="3"/>
+      <c r="C28" s="6"/>
       <c r="D28" s="3"/>
       <c r="E28" s="3"/>
-      <c r="F28" s="7">
+      <c r="F28" s="11">
         <v>7</v>
       </c>
       <c r="G28" s="2"/>
@@ -6447,14 +6199,14 @@
       <c r="U28" s="2"/>
       <c r="V28" s="2"/>
       <c r="W28" s="2"/>
-      <c r="X28" s="9"/>
+      <c r="X28" s="12"/>
     </row>
     <row r="29" hidden="1" outlineLevel="1" spans="2:24">
       <c r="B29" s="3"/>
-      <c r="C29" s="3"/>
+      <c r="C29" s="6"/>
       <c r="D29" s="3"/>
       <c r="E29" s="3"/>
-      <c r="F29" s="7">
+      <c r="F29" s="11">
         <v>8</v>
       </c>
       <c r="G29" s="2"/>
@@ -6474,14 +6226,14 @@
       <c r="U29" s="2"/>
       <c r="V29" s="2"/>
       <c r="W29" s="2"/>
-      <c r="X29" s="9"/>
+      <c r="X29" s="12"/>
     </row>
     <row r="30" hidden="1" outlineLevel="1" spans="2:24">
       <c r="B30" s="3"/>
-      <c r="C30" s="3"/>
+      <c r="C30" s="6"/>
       <c r="D30" s="3"/>
       <c r="E30" s="3"/>
-      <c r="F30" s="7">
+      <c r="F30" s="11">
         <v>9</v>
       </c>
       <c r="G30" s="2"/>
@@ -6501,14 +6253,14 @@
       <c r="U30" s="2"/>
       <c r="V30" s="2"/>
       <c r="W30" s="2"/>
-      <c r="X30" s="9"/>
+      <c r="X30" s="12"/>
     </row>
     <row r="31" hidden="1" outlineLevel="1" spans="2:24">
       <c r="B31" s="3"/>
-      <c r="C31" s="3"/>
+      <c r="C31" s="6"/>
       <c r="D31" s="3"/>
       <c r="E31" s="3"/>
-      <c r="F31" s="7">
+      <c r="F31" s="11">
         <v>10</v>
       </c>
       <c r="G31" s="2"/>
@@ -6528,14 +6280,14 @@
       <c r="U31" s="2"/>
       <c r="V31" s="2"/>
       <c r="W31" s="2"/>
-      <c r="X31" s="9"/>
+      <c r="X31" s="12"/>
     </row>
     <row r="32" hidden="1" outlineLevel="1" spans="2:24">
       <c r="B32" s="3"/>
-      <c r="C32" s="3"/>
+      <c r="C32" s="6"/>
       <c r="D32" s="3"/>
       <c r="E32" s="3"/>
-      <c r="F32" s="7">
+      <c r="F32" s="11">
         <v>11</v>
       </c>
       <c r="G32" s="2"/>
@@ -6555,14 +6307,14 @@
       <c r="U32" s="2"/>
       <c r="V32" s="2"/>
       <c r="W32" s="2"/>
-      <c r="X32" s="9"/>
+      <c r="X32" s="12"/>
     </row>
     <row r="33" hidden="1" outlineLevel="1" spans="2:24">
       <c r="B33" s="3"/>
-      <c r="C33" s="3"/>
+      <c r="C33" s="6"/>
       <c r="D33" s="3"/>
       <c r="E33" s="3"/>
-      <c r="F33" s="7">
+      <c r="F33" s="11">
         <v>12</v>
       </c>
       <c r="G33" s="2"/>
@@ -6582,14 +6334,14 @@
       <c r="U33" s="2"/>
       <c r="V33" s="2"/>
       <c r="W33" s="2"/>
-      <c r="X33" s="9"/>
+      <c r="X33" s="12"/>
     </row>
     <row r="34" hidden="1" outlineLevel="1" spans="2:24">
       <c r="B34" s="3"/>
-      <c r="C34" s="3"/>
+      <c r="C34" s="6"/>
       <c r="D34" s="3"/>
       <c r="E34" s="3"/>
-      <c r="F34" s="7">
+      <c r="F34" s="11">
         <v>13</v>
       </c>
       <c r="G34" s="2"/>
@@ -6609,14 +6361,14 @@
       <c r="U34" s="2"/>
       <c r="V34" s="2"/>
       <c r="W34" s="2"/>
-      <c r="X34" s="9"/>
+      <c r="X34" s="12"/>
     </row>
     <row r="35" hidden="1" outlineLevel="1" spans="2:24">
       <c r="B35" s="3"/>
-      <c r="C35" s="3"/>
+      <c r="C35" s="6"/>
       <c r="D35" s="3"/>
       <c r="E35" s="3"/>
-      <c r="F35" s="7">
+      <c r="F35" s="11">
         <v>14</v>
       </c>
       <c r="G35" s="2"/>
@@ -6636,14 +6388,14 @@
       <c r="U35" s="2"/>
       <c r="V35" s="2"/>
       <c r="W35" s="2"/>
-      <c r="X35" s="9"/>
+      <c r="X35" s="12"/>
     </row>
     <row r="36" hidden="1" outlineLevel="1" spans="2:24">
       <c r="B36" s="3"/>
-      <c r="C36" s="3"/>
+      <c r="C36" s="6"/>
       <c r="D36" s="3"/>
       <c r="E36" s="3"/>
-      <c r="F36" s="7">
+      <c r="F36" s="11">
         <v>15</v>
       </c>
       <c r="G36" s="2"/>
@@ -6663,14 +6415,14 @@
       <c r="U36" s="2"/>
       <c r="V36" s="2"/>
       <c r="W36" s="2"/>
-      <c r="X36" s="9"/>
+      <c r="X36" s="12"/>
     </row>
     <row r="37" hidden="1" outlineLevel="1" spans="2:24">
       <c r="B37" s="3"/>
-      <c r="C37" s="3"/>
+      <c r="C37" s="6"/>
       <c r="D37" s="3"/>
       <c r="E37" s="3"/>
-      <c r="F37" s="7">
+      <c r="F37" s="11">
         <v>16</v>
       </c>
       <c r="G37" s="2"/>
@@ -6690,14 +6442,14 @@
       <c r="U37" s="2"/>
       <c r="V37" s="2"/>
       <c r="W37" s="2"/>
-      <c r="X37" s="9"/>
+      <c r="X37" s="12"/>
     </row>
     <row r="38" hidden="1" outlineLevel="1" spans="2:24">
       <c r="B38" s="3"/>
-      <c r="C38" s="3"/>
+      <c r="C38" s="6"/>
       <c r="D38" s="3"/>
       <c r="E38" s="3"/>
-      <c r="F38" s="7">
+      <c r="F38" s="11">
         <v>17</v>
       </c>
       <c r="G38" s="2"/>
@@ -6717,14 +6469,14 @@
       <c r="U38" s="2"/>
       <c r="V38" s="2"/>
       <c r="W38" s="2"/>
-      <c r="X38" s="9"/>
+      <c r="X38" s="12"/>
     </row>
     <row r="39" hidden="1" outlineLevel="1" spans="2:24">
       <c r="B39" s="3"/>
-      <c r="C39" s="3"/>
+      <c r="C39" s="6"/>
       <c r="D39" s="3"/>
-      <c r="E39" s="8"/>
-      <c r="F39" s="7">
+      <c r="E39" s="3"/>
+      <c r="F39" s="11">
         <v>18</v>
       </c>
       <c r="G39" s="2"/>
@@ -6744,13 +6496,13 @@
       <c r="U39" s="2"/>
       <c r="V39" s="2"/>
       <c r="W39" s="2"/>
-      <c r="X39" s="9"/>
+      <c r="X39" s="12"/>
     </row>
     <row r="40" hidden="1" outlineLevel="1" spans="2:24">
       <c r="B40" s="3"/>
-      <c r="C40" s="3"/>
+      <c r="C40" s="6"/>
       <c r="D40" s="3"/>
-      <c r="E40" s="8"/>
+      <c r="E40" s="3"/>
       <c r="F40" s="2">
         <v>19</v>
       </c>
@@ -6771,13 +6523,13 @@
       <c r="U40" s="2"/>
       <c r="V40" s="2"/>
       <c r="W40" s="2"/>
-      <c r="X40" s="9"/>
+      <c r="X40" s="12"/>
     </row>
     <row r="41" hidden="1" outlineLevel="1" spans="2:24">
       <c r="B41" s="3"/>
-      <c r="C41" s="3"/>
+      <c r="C41" s="6"/>
       <c r="D41" s="3"/>
-      <c r="E41" s="8"/>
+      <c r="E41" s="3"/>
       <c r="F41" s="2">
         <v>20</v>
       </c>
@@ -6798,13 +6550,13 @@
       <c r="U41" s="2"/>
       <c r="V41" s="2"/>
       <c r="W41" s="2"/>
-      <c r="X41" s="9"/>
+      <c r="X41" s="12"/>
     </row>
     <row r="42" hidden="1" outlineLevel="1" spans="2:24">
       <c r="B42" s="3"/>
-      <c r="C42" s="3"/>
+      <c r="C42" s="6"/>
       <c r="D42" s="3"/>
-      <c r="E42" s="8"/>
+      <c r="E42" s="3"/>
       <c r="F42" s="2">
         <v>21</v>
       </c>
@@ -6825,13 +6577,13 @@
       <c r="U42" s="2"/>
       <c r="V42" s="2"/>
       <c r="W42" s="2"/>
-      <c r="X42" s="9"/>
+      <c r="X42" s="12"/>
     </row>
     <row r="43" hidden="1" outlineLevel="1" spans="2:24">
       <c r="B43" s="3"/>
-      <c r="C43" s="3"/>
+      <c r="C43" s="6"/>
       <c r="D43" s="3"/>
-      <c r="E43" s="8"/>
+      <c r="E43" s="3"/>
       <c r="F43" s="2">
         <v>22</v>
       </c>
@@ -6852,14 +6604,14 @@
       <c r="U43" s="2"/>
       <c r="V43" s="2"/>
       <c r="W43" s="2"/>
-      <c r="X43" s="9"/>
+      <c r="X43" s="12"/>
     </row>
     <row r="44" collapsed="1" spans="2:24">
       <c r="B44" s="3"/>
-      <c r="C44" s="3"/>
+      <c r="C44" s="6"/>
       <c r="D44" s="3"/>
-      <c r="E44" s="4" t="s">
-        <v>280</v>
+      <c r="E44" s="7" t="s">
+        <v>279</v>
       </c>
       <c r="F44" s="2"/>
       <c r="G44" s="2"/>
@@ -6879,14 +6631,14 @@
       <c r="U44" s="2"/>
       <c r="V44" s="2"/>
       <c r="W44" s="2"/>
-      <c r="X44" s="9"/>
+      <c r="X44" s="12"/>
     </row>
     <row r="45" customFormat="1" spans="2:24">
       <c r="B45" s="3"/>
-      <c r="C45" s="3"/>
+      <c r="C45" s="6"/>
       <c r="D45" s="3"/>
       <c r="E45" s="3"/>
-      <c r="F45" s="7">
+      <c r="F45" s="11">
         <v>1</v>
       </c>
       <c r="G45" s="2"/>
@@ -6906,14 +6658,14 @@
       <c r="U45" s="2"/>
       <c r="V45" s="2"/>
       <c r="W45" s="2"/>
-      <c r="X45" s="9"/>
+      <c r="X45" s="12"/>
     </row>
     <row r="46" customFormat="1" spans="2:24">
       <c r="B46" s="3"/>
-      <c r="C46" s="3"/>
+      <c r="C46" s="6"/>
       <c r="D46" s="3"/>
       <c r="E46" s="3"/>
-      <c r="F46" s="7">
+      <c r="F46" s="11">
         <v>2</v>
       </c>
       <c r="G46" s="2"/>
@@ -6933,14 +6685,14 @@
       <c r="U46" s="2"/>
       <c r="V46" s="2"/>
       <c r="W46" s="2"/>
-      <c r="X46" s="9"/>
+      <c r="X46" s="12"/>
     </row>
     <row r="47" customFormat="1" hidden="1" outlineLevel="1" spans="2:24">
       <c r="B47" s="3"/>
-      <c r="C47" s="3"/>
+      <c r="C47" s="6"/>
       <c r="D47" s="3"/>
       <c r="E47" s="3"/>
-      <c r="F47" s="7">
+      <c r="F47" s="11">
         <v>3</v>
       </c>
       <c r="G47" s="2"/>
@@ -6960,14 +6712,14 @@
       <c r="U47" s="2"/>
       <c r="V47" s="2"/>
       <c r="W47" s="2"/>
-      <c r="X47" s="9"/>
+      <c r="X47" s="12"/>
     </row>
     <row r="48" customFormat="1" hidden="1" outlineLevel="1" spans="2:24">
       <c r="B48" s="3"/>
-      <c r="C48" s="3"/>
+      <c r="C48" s="6"/>
       <c r="D48" s="3"/>
       <c r="E48" s="3"/>
-      <c r="F48" s="7">
+      <c r="F48" s="11">
         <v>4</v>
       </c>
       <c r="G48" s="2"/>
@@ -6987,14 +6739,14 @@
       <c r="U48" s="2"/>
       <c r="V48" s="2"/>
       <c r="W48" s="2"/>
-      <c r="X48" s="9"/>
+      <c r="X48" s="12"/>
     </row>
     <row r="49" customFormat="1" hidden="1" outlineLevel="1" spans="2:24">
       <c r="B49" s="3"/>
-      <c r="C49" s="3"/>
+      <c r="C49" s="6"/>
       <c r="D49" s="3"/>
       <c r="E49" s="3"/>
-      <c r="F49" s="7">
+      <c r="F49" s="11">
         <v>5</v>
       </c>
       <c r="G49" s="2"/>
@@ -7014,14 +6766,14 @@
       <c r="U49" s="2"/>
       <c r="V49" s="2"/>
       <c r="W49" s="2"/>
-      <c r="X49" s="9"/>
+      <c r="X49" s="12"/>
     </row>
     <row r="50" customFormat="1" hidden="1" outlineLevel="1" spans="2:24">
       <c r="B50" s="3"/>
-      <c r="C50" s="3"/>
+      <c r="C50" s="6"/>
       <c r="D50" s="3"/>
       <c r="E50" s="3"/>
-      <c r="F50" s="7">
+      <c r="F50" s="11">
         <v>6</v>
       </c>
       <c r="G50" s="2"/>
@@ -7041,14 +6793,14 @@
       <c r="U50" s="2"/>
       <c r="V50" s="2"/>
       <c r="W50" s="2"/>
-      <c r="X50" s="9"/>
+      <c r="X50" s="12"/>
     </row>
     <row r="51" customFormat="1" hidden="1" outlineLevel="1" spans="2:24">
       <c r="B51" s="3"/>
-      <c r="C51" s="3"/>
+      <c r="C51" s="6"/>
       <c r="D51" s="3"/>
       <c r="E51" s="3"/>
-      <c r="F51" s="7">
+      <c r="F51" s="11">
         <v>7</v>
       </c>
       <c r="G51" s="2"/>
@@ -7068,14 +6820,14 @@
       <c r="U51" s="2"/>
       <c r="V51" s="2"/>
       <c r="W51" s="2"/>
-      <c r="X51" s="9"/>
+      <c r="X51" s="12"/>
     </row>
     <row r="52" customFormat="1" hidden="1" outlineLevel="1" spans="2:24">
       <c r="B52" s="3"/>
-      <c r="C52" s="3"/>
+      <c r="C52" s="6"/>
       <c r="D52" s="3"/>
       <c r="E52" s="3"/>
-      <c r="F52" s="7">
+      <c r="F52" s="11">
         <v>8</v>
       </c>
       <c r="G52" s="2"/>
@@ -7095,14 +6847,14 @@
       <c r="U52" s="2"/>
       <c r="V52" s="2"/>
       <c r="W52" s="2"/>
-      <c r="X52" s="9"/>
+      <c r="X52" s="12"/>
     </row>
     <row r="53" customFormat="1" hidden="1" outlineLevel="1" spans="2:24">
       <c r="B53" s="3"/>
-      <c r="C53" s="3"/>
+      <c r="C53" s="6"/>
       <c r="D53" s="3"/>
       <c r="E53" s="3"/>
-      <c r="F53" s="7">
+      <c r="F53" s="11">
         <v>9</v>
       </c>
       <c r="G53" s="2"/>
@@ -7122,14 +6874,14 @@
       <c r="U53" s="2"/>
       <c r="V53" s="2"/>
       <c r="W53" s="2"/>
-      <c r="X53" s="9"/>
+      <c r="X53" s="12"/>
     </row>
     <row r="54" customFormat="1" hidden="1" outlineLevel="1" spans="2:24">
       <c r="B54" s="3"/>
-      <c r="C54" s="3"/>
+      <c r="C54" s="6"/>
       <c r="D54" s="3"/>
       <c r="E54" s="3"/>
-      <c r="F54" s="7">
+      <c r="F54" s="11">
         <v>10</v>
       </c>
       <c r="G54" s="2"/>
@@ -7149,14 +6901,14 @@
       <c r="U54" s="2"/>
       <c r="V54" s="2"/>
       <c r="W54" s="2"/>
-      <c r="X54" s="9"/>
+      <c r="X54" s="12"/>
     </row>
     <row r="55" customFormat="1" hidden="1" outlineLevel="1" spans="2:24">
       <c r="B55" s="3"/>
-      <c r="C55" s="3"/>
+      <c r="C55" s="6"/>
       <c r="D55" s="3"/>
       <c r="E55" s="3"/>
-      <c r="F55" s="7">
+      <c r="F55" s="11">
         <v>11</v>
       </c>
       <c r="G55" s="2"/>
@@ -7176,14 +6928,14 @@
       <c r="U55" s="2"/>
       <c r="V55" s="2"/>
       <c r="W55" s="2"/>
-      <c r="X55" s="9"/>
+      <c r="X55" s="12"/>
     </row>
     <row r="56" customFormat="1" hidden="1" outlineLevel="1" spans="2:24">
       <c r="B56" s="3"/>
-      <c r="C56" s="3"/>
+      <c r="C56" s="6"/>
       <c r="D56" s="3"/>
       <c r="E56" s="3"/>
-      <c r="F56" s="7">
+      <c r="F56" s="11">
         <v>12</v>
       </c>
       <c r="G56" s="2"/>
@@ -7203,14 +6955,14 @@
       <c r="U56" s="2"/>
       <c r="V56" s="2"/>
       <c r="W56" s="2"/>
-      <c r="X56" s="9"/>
+      <c r="X56" s="12"/>
     </row>
     <row r="57" customFormat="1" hidden="1" outlineLevel="1" spans="2:24">
       <c r="B57" s="3"/>
-      <c r="C57" s="3"/>
+      <c r="C57" s="6"/>
       <c r="D57" s="3"/>
       <c r="E57" s="3"/>
-      <c r="F57" s="7">
+      <c r="F57" s="11">
         <v>13</v>
       </c>
       <c r="G57" s="2"/>
@@ -7230,14 +6982,14 @@
       <c r="U57" s="2"/>
       <c r="V57" s="2"/>
       <c r="W57" s="2"/>
-      <c r="X57" s="9"/>
+      <c r="X57" s="12"/>
     </row>
     <row r="58" customFormat="1" hidden="1" outlineLevel="1" spans="2:24">
       <c r="B58" s="3"/>
-      <c r="C58" s="3"/>
+      <c r="C58" s="6"/>
       <c r="D58" s="3"/>
       <c r="E58" s="3"/>
-      <c r="F58" s="7">
+      <c r="F58" s="11">
         <v>14</v>
       </c>
       <c r="G58" s="2"/>
@@ -7257,14 +7009,14 @@
       <c r="U58" s="2"/>
       <c r="V58" s="2"/>
       <c r="W58" s="2"/>
-      <c r="X58" s="9"/>
+      <c r="X58" s="12"/>
     </row>
     <row r="59" customFormat="1" hidden="1" outlineLevel="1" spans="2:24">
       <c r="B59" s="3"/>
-      <c r="C59" s="3"/>
+      <c r="C59" s="6"/>
       <c r="D59" s="3"/>
       <c r="E59" s="3"/>
-      <c r="F59" s="7">
+      <c r="F59" s="11">
         <v>15</v>
       </c>
       <c r="G59" s="2"/>
@@ -7284,14 +7036,14 @@
       <c r="U59" s="2"/>
       <c r="V59" s="2"/>
       <c r="W59" s="2"/>
-      <c r="X59" s="9"/>
+      <c r="X59" s="12"/>
     </row>
     <row r="60" customFormat="1" hidden="1" outlineLevel="1" spans="2:24">
       <c r="B60" s="3"/>
-      <c r="C60" s="3"/>
+      <c r="C60" s="6"/>
       <c r="D60" s="3"/>
       <c r="E60" s="3"/>
-      <c r="F60" s="7">
+      <c r="F60" s="11">
         <v>16</v>
       </c>
       <c r="G60" s="2"/>
@@ -7311,14 +7063,14 @@
       <c r="U60" s="2"/>
       <c r="V60" s="2"/>
       <c r="W60" s="2"/>
-      <c r="X60" s="9"/>
+      <c r="X60" s="12"/>
     </row>
     <row r="61" customFormat="1" hidden="1" outlineLevel="1" spans="2:24">
       <c r="B61" s="3"/>
-      <c r="C61" s="3"/>
+      <c r="C61" s="6"/>
       <c r="D61" s="3"/>
       <c r="E61" s="3"/>
-      <c r="F61" s="7">
+      <c r="F61" s="11">
         <v>17</v>
       </c>
       <c r="G61" s="2"/>
@@ -7338,14 +7090,14 @@
       <c r="U61" s="2"/>
       <c r="V61" s="2"/>
       <c r="W61" s="2"/>
-      <c r="X61" s="9"/>
+      <c r="X61" s="12"/>
     </row>
     <row r="62" customFormat="1" hidden="1" outlineLevel="1" spans="2:24">
       <c r="B62" s="3"/>
-      <c r="C62" s="3"/>
+      <c r="C62" s="6"/>
       <c r="D62" s="3"/>
-      <c r="E62" s="8"/>
-      <c r="F62" s="7">
+      <c r="E62" s="3"/>
+      <c r="F62" s="11">
         <v>18</v>
       </c>
       <c r="G62" s="2"/>
@@ -7365,13 +7117,13 @@
       <c r="U62" s="2"/>
       <c r="V62" s="2"/>
       <c r="W62" s="2"/>
-      <c r="X62" s="9"/>
+      <c r="X62" s="12"/>
     </row>
     <row r="63" customFormat="1" hidden="1" outlineLevel="1" spans="2:24">
       <c r="B63" s="3"/>
-      <c r="C63" s="3"/>
+      <c r="C63" s="6"/>
       <c r="D63" s="3"/>
-      <c r="E63" s="8"/>
+      <c r="E63" s="3"/>
       <c r="F63" s="2">
         <v>19</v>
       </c>
@@ -7392,13 +7144,13 @@
       <c r="U63" s="2"/>
       <c r="V63" s="2"/>
       <c r="W63" s="2"/>
-      <c r="X63" s="9"/>
+      <c r="X63" s="12"/>
     </row>
     <row r="64" customFormat="1" hidden="1" outlineLevel="1" spans="2:24">
       <c r="B64" s="3"/>
-      <c r="C64" s="3"/>
+      <c r="C64" s="6"/>
       <c r="D64" s="3"/>
-      <c r="E64" s="8"/>
+      <c r="E64" s="3"/>
       <c r="F64" s="2">
         <v>20</v>
       </c>
@@ -7419,13 +7171,13 @@
       <c r="U64" s="2"/>
       <c r="V64" s="2"/>
       <c r="W64" s="2"/>
-      <c r="X64" s="9"/>
+      <c r="X64" s="12"/>
     </row>
     <row r="65" customFormat="1" hidden="1" outlineLevel="1" spans="2:24">
       <c r="B65" s="3"/>
-      <c r="C65" s="3"/>
+      <c r="C65" s="6"/>
       <c r="D65" s="3"/>
-      <c r="E65" s="8"/>
+      <c r="E65" s="3"/>
       <c r="F65" s="2">
         <v>21</v>
       </c>
@@ -7446,13 +7198,13 @@
       <c r="U65" s="2"/>
       <c r="V65" s="2"/>
       <c r="W65" s="2"/>
-      <c r="X65" s="9"/>
+      <c r="X65" s="12"/>
     </row>
     <row r="66" customFormat="1" hidden="1" outlineLevel="1" spans="2:24">
       <c r="B66" s="3"/>
-      <c r="C66" s="3"/>
+      <c r="C66" s="6"/>
       <c r="D66" s="3"/>
-      <c r="E66" s="8"/>
+      <c r="E66" s="3"/>
       <c r="F66" s="2">
         <v>22</v>
       </c>
@@ -7473,14 +7225,14 @@
       <c r="U66" s="2"/>
       <c r="V66" s="2"/>
       <c r="W66" s="2"/>
-      <c r="X66" s="9"/>
+      <c r="X66" s="12"/>
     </row>
     <row r="67" collapsed="1" spans="2:24">
       <c r="B67" s="3"/>
-      <c r="C67" s="3"/>
+      <c r="C67" s="6"/>
       <c r="D67" s="3"/>
-      <c r="E67" s="4" t="s">
-        <v>281</v>
+      <c r="E67" s="7" t="s">
+        <v>280</v>
       </c>
       <c r="F67" s="2"/>
       <c r="G67" s="2"/>
@@ -7500,14 +7252,14 @@
       <c r="U67" s="2"/>
       <c r="V67" s="2"/>
       <c r="W67" s="2"/>
-      <c r="X67" s="9"/>
+      <c r="X67" s="12"/>
     </row>
     <row r="68" customFormat="1" spans="2:24">
       <c r="B68" s="3"/>
-      <c r="C68" s="3"/>
+      <c r="C68" s="6"/>
       <c r="D68" s="3"/>
       <c r="E68" s="3"/>
-      <c r="F68" s="7">
+      <c r="F68" s="11">
         <v>1</v>
       </c>
       <c r="G68" s="2"/>
@@ -7527,14 +7279,14 @@
       <c r="U68" s="2"/>
       <c r="V68" s="2"/>
       <c r="W68" s="2"/>
-      <c r="X68" s="9"/>
+      <c r="X68" s="12"/>
     </row>
     <row r="69" customFormat="1" spans="2:24">
       <c r="B69" s="3"/>
-      <c r="C69" s="3"/>
+      <c r="C69" s="6"/>
       <c r="D69" s="3"/>
       <c r="E69" s="3"/>
-      <c r="F69" s="7">
+      <c r="F69" s="11">
         <v>2</v>
       </c>
       <c r="G69" s="2"/>
@@ -7554,14 +7306,14 @@
       <c r="U69" s="2"/>
       <c r="V69" s="2"/>
       <c r="W69" s="2"/>
-      <c r="X69" s="9"/>
+      <c r="X69" s="12"/>
     </row>
     <row r="70" customFormat="1" hidden="1" outlineLevel="1" spans="2:24">
       <c r="B70" s="3"/>
-      <c r="C70" s="3"/>
+      <c r="C70" s="6"/>
       <c r="D70" s="3"/>
       <c r="E70" s="3"/>
-      <c r="F70" s="7">
+      <c r="F70" s="11">
         <v>3</v>
       </c>
       <c r="G70" s="2"/>
@@ -7581,14 +7333,14 @@
       <c r="U70" s="2"/>
       <c r="V70" s="2"/>
       <c r="W70" s="2"/>
-      <c r="X70" s="9"/>
+      <c r="X70" s="12"/>
     </row>
     <row r="71" customFormat="1" hidden="1" outlineLevel="1" spans="2:24">
       <c r="B71" s="3"/>
-      <c r="C71" s="3"/>
+      <c r="C71" s="6"/>
       <c r="D71" s="3"/>
       <c r="E71" s="3"/>
-      <c r="F71" s="7">
+      <c r="F71" s="11">
         <v>4</v>
       </c>
       <c r="G71" s="2"/>
@@ -7608,14 +7360,14 @@
       <c r="U71" s="2"/>
       <c r="V71" s="2"/>
       <c r="W71" s="2"/>
-      <c r="X71" s="9"/>
+      <c r="X71" s="12"/>
     </row>
     <row r="72" customFormat="1" hidden="1" outlineLevel="1" spans="2:24">
       <c r="B72" s="3"/>
-      <c r="C72" s="3"/>
+      <c r="C72" s="6"/>
       <c r="D72" s="3"/>
       <c r="E72" s="3"/>
-      <c r="F72" s="7">
+      <c r="F72" s="11">
         <v>5</v>
       </c>
       <c r="G72" s="2"/>
@@ -7635,14 +7387,14 @@
       <c r="U72" s="2"/>
       <c r="V72" s="2"/>
       <c r="W72" s="2"/>
-      <c r="X72" s="9"/>
+      <c r="X72" s="12"/>
     </row>
     <row r="73" customFormat="1" hidden="1" outlineLevel="1" spans="2:24">
       <c r="B73" s="3"/>
-      <c r="C73" s="3"/>
+      <c r="C73" s="6"/>
       <c r="D73" s="3"/>
       <c r="E73" s="3"/>
-      <c r="F73" s="7">
+      <c r="F73" s="11">
         <v>6</v>
       </c>
       <c r="G73" s="2"/>
@@ -7662,14 +7414,14 @@
       <c r="U73" s="2"/>
       <c r="V73" s="2"/>
       <c r="W73" s="2"/>
-      <c r="X73" s="9"/>
+      <c r="X73" s="12"/>
     </row>
     <row r="74" customFormat="1" hidden="1" outlineLevel="1" spans="2:24">
       <c r="B74" s="3"/>
-      <c r="C74" s="3"/>
+      <c r="C74" s="6"/>
       <c r="D74" s="3"/>
       <c r="E74" s="3"/>
-      <c r="F74" s="7">
+      <c r="F74" s="11">
         <v>7</v>
       </c>
       <c r="G74" s="2"/>
@@ -7689,14 +7441,14 @@
       <c r="U74" s="2"/>
       <c r="V74" s="2"/>
       <c r="W74" s="2"/>
-      <c r="X74" s="9"/>
+      <c r="X74" s="12"/>
     </row>
     <row r="75" customFormat="1" hidden="1" outlineLevel="1" spans="2:24">
       <c r="B75" s="3"/>
-      <c r="C75" s="3"/>
+      <c r="C75" s="6"/>
       <c r="D75" s="3"/>
       <c r="E75" s="3"/>
-      <c r="F75" s="7">
+      <c r="F75" s="11">
         <v>8</v>
       </c>
       <c r="G75" s="2"/>
@@ -7716,14 +7468,14 @@
       <c r="U75" s="2"/>
       <c r="V75" s="2"/>
       <c r="W75" s="2"/>
-      <c r="X75" s="9"/>
+      <c r="X75" s="12"/>
     </row>
     <row r="76" customFormat="1" hidden="1" outlineLevel="1" spans="2:24">
       <c r="B76" s="3"/>
-      <c r="C76" s="3"/>
+      <c r="C76" s="6"/>
       <c r="D76" s="3"/>
       <c r="E76" s="3"/>
-      <c r="F76" s="7">
+      <c r="F76" s="11">
         <v>9</v>
       </c>
       <c r="G76" s="2"/>
@@ -7743,14 +7495,14 @@
       <c r="U76" s="2"/>
       <c r="V76" s="2"/>
       <c r="W76" s="2"/>
-      <c r="X76" s="9"/>
+      <c r="X76" s="12"/>
     </row>
     <row r="77" customFormat="1" hidden="1" outlineLevel="1" spans="2:24">
       <c r="B77" s="3"/>
-      <c r="C77" s="3"/>
+      <c r="C77" s="6"/>
       <c r="D77" s="3"/>
       <c r="E77" s="3"/>
-      <c r="F77" s="7">
+      <c r="F77" s="11">
         <v>10</v>
       </c>
       <c r="G77" s="2"/>
@@ -7770,14 +7522,14 @@
       <c r="U77" s="2"/>
       <c r="V77" s="2"/>
       <c r="W77" s="2"/>
-      <c r="X77" s="9"/>
+      <c r="X77" s="12"/>
     </row>
     <row r="78" customFormat="1" hidden="1" outlineLevel="1" spans="2:24">
       <c r="B78" s="3"/>
-      <c r="C78" s="3"/>
+      <c r="C78" s="6"/>
       <c r="D78" s="3"/>
       <c r="E78" s="3"/>
-      <c r="F78" s="7">
+      <c r="F78" s="11">
         <v>11</v>
       </c>
       <c r="G78" s="2"/>
@@ -7797,14 +7549,14 @@
       <c r="U78" s="2"/>
       <c r="V78" s="2"/>
       <c r="W78" s="2"/>
-      <c r="X78" s="9"/>
+      <c r="X78" s="12"/>
     </row>
     <row r="79" customFormat="1" hidden="1" outlineLevel="1" spans="2:24">
       <c r="B79" s="3"/>
-      <c r="C79" s="3"/>
+      <c r="C79" s="6"/>
       <c r="D79" s="3"/>
       <c r="E79" s="3"/>
-      <c r="F79" s="7">
+      <c r="F79" s="11">
         <v>12</v>
       </c>
       <c r="G79" s="2"/>
@@ -7824,14 +7576,14 @@
       <c r="U79" s="2"/>
       <c r="V79" s="2"/>
       <c r="W79" s="2"/>
-      <c r="X79" s="9"/>
+      <c r="X79" s="12"/>
     </row>
     <row r="80" customFormat="1" hidden="1" outlineLevel="1" spans="2:24">
       <c r="B80" s="3"/>
-      <c r="C80" s="3"/>
+      <c r="C80" s="6"/>
       <c r="D80" s="3"/>
       <c r="E80" s="3"/>
-      <c r="F80" s="7">
+      <c r="F80" s="11">
         <v>13</v>
       </c>
       <c r="G80" s="2"/>
@@ -7851,14 +7603,14 @@
       <c r="U80" s="2"/>
       <c r="V80" s="2"/>
       <c r="W80" s="2"/>
-      <c r="X80" s="9"/>
+      <c r="X80" s="12"/>
     </row>
     <row r="81" customFormat="1" hidden="1" outlineLevel="1" spans="2:24">
       <c r="B81" s="3"/>
-      <c r="C81" s="3"/>
+      <c r="C81" s="6"/>
       <c r="D81" s="3"/>
       <c r="E81" s="3"/>
-      <c r="F81" s="7">
+      <c r="F81" s="11">
         <v>14</v>
       </c>
       <c r="G81" s="2"/>
@@ -7878,14 +7630,14 @@
       <c r="U81" s="2"/>
       <c r="V81" s="2"/>
       <c r="W81" s="2"/>
-      <c r="X81" s="9"/>
+      <c r="X81" s="12"/>
     </row>
     <row r="82" customFormat="1" hidden="1" outlineLevel="1" spans="2:24">
       <c r="B82" s="3"/>
-      <c r="C82" s="3"/>
+      <c r="C82" s="6"/>
       <c r="D82" s="3"/>
       <c r="E82" s="3"/>
-      <c r="F82" s="7">
+      <c r="F82" s="11">
         <v>15</v>
       </c>
       <c r="G82" s="2"/>
@@ -7905,14 +7657,14 @@
       <c r="U82" s="2"/>
       <c r="V82" s="2"/>
       <c r="W82" s="2"/>
-      <c r="X82" s="9"/>
+      <c r="X82" s="12"/>
     </row>
     <row r="83" customFormat="1" hidden="1" outlineLevel="1" spans="2:24">
       <c r="B83" s="3"/>
-      <c r="C83" s="3"/>
+      <c r="C83" s="6"/>
       <c r="D83" s="3"/>
       <c r="E83" s="3"/>
-      <c r="F83" s="7">
+      <c r="F83" s="11">
         <v>16</v>
       </c>
       <c r="G83" s="2"/>
@@ -7932,14 +7684,14 @@
       <c r="U83" s="2"/>
       <c r="V83" s="2"/>
       <c r="W83" s="2"/>
-      <c r="X83" s="9"/>
+      <c r="X83" s="12"/>
     </row>
     <row r="84" customFormat="1" hidden="1" outlineLevel="1" spans="2:24">
       <c r="B84" s="3"/>
-      <c r="C84" s="3"/>
+      <c r="C84" s="6"/>
       <c r="D84" s="3"/>
       <c r="E84" s="3"/>
-      <c r="F84" s="7">
+      <c r="F84" s="11">
         <v>17</v>
       </c>
       <c r="G84" s="2"/>
@@ -7959,14 +7711,14 @@
       <c r="U84" s="2"/>
       <c r="V84" s="2"/>
       <c r="W84" s="2"/>
-      <c r="X84" s="9"/>
+      <c r="X84" s="12"/>
     </row>
     <row r="85" customFormat="1" hidden="1" outlineLevel="1" spans="2:24">
       <c r="B85" s="3"/>
-      <c r="C85" s="3"/>
+      <c r="C85" s="6"/>
       <c r="D85" s="3"/>
-      <c r="E85" s="8"/>
-      <c r="F85" s="7">
+      <c r="E85" s="3"/>
+      <c r="F85" s="11">
         <v>18</v>
       </c>
       <c r="G85" s="2"/>
@@ -7986,13 +7738,13 @@
       <c r="U85" s="2"/>
       <c r="V85" s="2"/>
       <c r="W85" s="2"/>
-      <c r="X85" s="9"/>
+      <c r="X85" s="12"/>
     </row>
     <row r="86" customFormat="1" hidden="1" outlineLevel="1" spans="2:24">
       <c r="B86" s="3"/>
-      <c r="C86" s="3"/>
+      <c r="C86" s="6"/>
       <c r="D86" s="3"/>
-      <c r="E86" s="8"/>
+      <c r="E86" s="3"/>
       <c r="F86" s="2">
         <v>19</v>
       </c>
@@ -8013,13 +7765,13 @@
       <c r="U86" s="2"/>
       <c r="V86" s="2"/>
       <c r="W86" s="2"/>
-      <c r="X86" s="9"/>
+      <c r="X86" s="12"/>
     </row>
     <row r="87" customFormat="1" hidden="1" outlineLevel="1" spans="2:24">
       <c r="B87" s="3"/>
-      <c r="C87" s="3"/>
+      <c r="C87" s="6"/>
       <c r="D87" s="3"/>
-      <c r="E87" s="8"/>
+      <c r="E87" s="3"/>
       <c r="F87" s="2">
         <v>20</v>
       </c>
@@ -8040,13 +7792,13 @@
       <c r="U87" s="2"/>
       <c r="V87" s="2"/>
       <c r="W87" s="2"/>
-      <c r="X87" s="9"/>
+      <c r="X87" s="12"/>
     </row>
     <row r="88" customFormat="1" hidden="1" outlineLevel="1" spans="2:24">
       <c r="B88" s="3"/>
-      <c r="C88" s="3"/>
+      <c r="C88" s="6"/>
       <c r="D88" s="3"/>
-      <c r="E88" s="8"/>
+      <c r="E88" s="3"/>
       <c r="F88" s="2">
         <v>21</v>
       </c>
@@ -8067,13 +7819,13 @@
       <c r="U88" s="2"/>
       <c r="V88" s="2"/>
       <c r="W88" s="2"/>
-      <c r="X88" s="9"/>
+      <c r="X88" s="12"/>
     </row>
     <row r="89" customFormat="1" hidden="1" outlineLevel="1" spans="2:24">
       <c r="B89" s="3"/>
-      <c r="C89" s="3"/>
+      <c r="C89" s="6"/>
       <c r="D89" s="3"/>
-      <c r="E89" s="8"/>
+      <c r="E89" s="3"/>
       <c r="F89" s="2">
         <v>22</v>
       </c>
@@ -8094,14 +7846,14 @@
       <c r="U89" s="2"/>
       <c r="V89" s="2"/>
       <c r="W89" s="2"/>
-      <c r="X89" s="9"/>
+      <c r="X89" s="12"/>
     </row>
     <row r="90" collapsed="1" spans="2:24">
       <c r="B90" s="3"/>
-      <c r="C90" s="3"/>
+      <c r="C90" s="6"/>
       <c r="D90" s="3"/>
-      <c r="E90" s="4" t="s">
-        <v>282</v>
+      <c r="E90" s="7" t="s">
+        <v>281</v>
       </c>
       <c r="F90" s="2"/>
       <c r="G90" s="2"/>
@@ -8121,14 +7873,14 @@
       <c r="U90" s="2"/>
       <c r="V90" s="2"/>
       <c r="W90" s="2"/>
-      <c r="X90" s="9"/>
+      <c r="X90" s="12"/>
     </row>
     <row r="91" customFormat="1" spans="2:24">
       <c r="B91" s="3"/>
-      <c r="C91" s="3"/>
+      <c r="C91" s="6"/>
       <c r="D91" s="3"/>
       <c r="E91" s="3"/>
-      <c r="F91" s="7">
+      <c r="F91" s="11">
         <v>1</v>
       </c>
       <c r="G91" s="2"/>
@@ -8148,14 +7900,14 @@
       <c r="U91" s="2"/>
       <c r="V91" s="2"/>
       <c r="W91" s="2"/>
-      <c r="X91" s="9"/>
+      <c r="X91" s="12"/>
     </row>
     <row r="92" customFormat="1" spans="2:24">
       <c r="B92" s="3"/>
-      <c r="C92" s="3"/>
+      <c r="C92" s="6"/>
       <c r="D92" s="3"/>
       <c r="E92" s="3"/>
-      <c r="F92" s="7">
+      <c r="F92" s="11">
         <v>2</v>
       </c>
       <c r="G92" s="2"/>
@@ -8175,14 +7927,14 @@
       <c r="U92" s="2"/>
       <c r="V92" s="2"/>
       <c r="W92" s="2"/>
-      <c r="X92" s="9"/>
+      <c r="X92" s="12"/>
     </row>
     <row r="93" customFormat="1" hidden="1" outlineLevel="1" spans="2:24">
       <c r="B93" s="3"/>
-      <c r="C93" s="3"/>
+      <c r="C93" s="6"/>
       <c r="D93" s="3"/>
       <c r="E93" s="3"/>
-      <c r="F93" s="7">
+      <c r="F93" s="11">
         <v>3</v>
       </c>
       <c r="G93" s="2"/>
@@ -8202,14 +7954,14 @@
       <c r="U93" s="2"/>
       <c r="V93" s="2"/>
       <c r="W93" s="2"/>
-      <c r="X93" s="9"/>
+      <c r="X93" s="12"/>
     </row>
     <row r="94" customFormat="1" hidden="1" outlineLevel="1" spans="2:24">
       <c r="B94" s="3"/>
-      <c r="C94" s="3"/>
+      <c r="C94" s="6"/>
       <c r="D94" s="3"/>
       <c r="E94" s="3"/>
-      <c r="F94" s="7">
+      <c r="F94" s="11">
         <v>4</v>
       </c>
       <c r="G94" s="2"/>
@@ -8229,14 +7981,14 @@
       <c r="U94" s="2"/>
       <c r="V94" s="2"/>
       <c r="W94" s="2"/>
-      <c r="X94" s="9"/>
+      <c r="X94" s="12"/>
     </row>
     <row r="95" customFormat="1" hidden="1" outlineLevel="1" spans="2:24">
       <c r="B95" s="3"/>
-      <c r="C95" s="3"/>
+      <c r="C95" s="6"/>
       <c r="D95" s="3"/>
       <c r="E95" s="3"/>
-      <c r="F95" s="7">
+      <c r="F95" s="11">
         <v>5</v>
       </c>
       <c r="G95" s="2"/>
@@ -8256,14 +8008,14 @@
       <c r="U95" s="2"/>
       <c r="V95" s="2"/>
       <c r="W95" s="2"/>
-      <c r="X95" s="9"/>
+      <c r="X95" s="12"/>
     </row>
     <row r="96" customFormat="1" hidden="1" outlineLevel="1" spans="2:24">
       <c r="B96" s="3"/>
-      <c r="C96" s="3"/>
+      <c r="C96" s="6"/>
       <c r="D96" s="3"/>
       <c r="E96" s="3"/>
-      <c r="F96" s="7">
+      <c r="F96" s="11">
         <v>6</v>
       </c>
       <c r="G96" s="2"/>
@@ -8283,14 +8035,14 @@
       <c r="U96" s="2"/>
       <c r="V96" s="2"/>
       <c r="W96" s="2"/>
-      <c r="X96" s="9"/>
+      <c r="X96" s="12"/>
     </row>
     <row r="97" customFormat="1" hidden="1" outlineLevel="1" spans="2:24">
       <c r="B97" s="3"/>
-      <c r="C97" s="3"/>
+      <c r="C97" s="6"/>
       <c r="D97" s="3"/>
       <c r="E97" s="3"/>
-      <c r="F97" s="7">
+      <c r="F97" s="11">
         <v>7</v>
       </c>
       <c r="G97" s="2"/>
@@ -8310,14 +8062,14 @@
       <c r="U97" s="2"/>
       <c r="V97" s="2"/>
       <c r="W97" s="2"/>
-      <c r="X97" s="9"/>
+      <c r="X97" s="12"/>
     </row>
     <row r="98" customFormat="1" hidden="1" outlineLevel="1" spans="2:24">
       <c r="B98" s="3"/>
-      <c r="C98" s="3"/>
+      <c r="C98" s="6"/>
       <c r="D98" s="3"/>
       <c r="E98" s="3"/>
-      <c r="F98" s="7">
+      <c r="F98" s="11">
         <v>8</v>
       </c>
       <c r="G98" s="2"/>
@@ -8337,14 +8089,14 @@
       <c r="U98" s="2"/>
       <c r="V98" s="2"/>
       <c r="W98" s="2"/>
-      <c r="X98" s="9"/>
+      <c r="X98" s="12"/>
     </row>
     <row r="99" customFormat="1" hidden="1" outlineLevel="1" spans="2:24">
       <c r="B99" s="3"/>
-      <c r="C99" s="3"/>
+      <c r="C99" s="6"/>
       <c r="D99" s="3"/>
       <c r="E99" s="3"/>
-      <c r="F99" s="7">
+      <c r="F99" s="11">
         <v>9</v>
       </c>
       <c r="G99" s="2"/>
@@ -8364,14 +8116,14 @@
       <c r="U99" s="2"/>
       <c r="V99" s="2"/>
       <c r="W99" s="2"/>
-      <c r="X99" s="9"/>
+      <c r="X99" s="12"/>
     </row>
     <row r="100" customFormat="1" hidden="1" outlineLevel="1" spans="2:24">
       <c r="B100" s="3"/>
-      <c r="C100" s="3"/>
+      <c r="C100" s="6"/>
       <c r="D100" s="3"/>
       <c r="E100" s="3"/>
-      <c r="F100" s="7">
+      <c r="F100" s="11">
         <v>10</v>
       </c>
       <c r="G100" s="2"/>
@@ -8391,14 +8143,14 @@
       <c r="U100" s="2"/>
       <c r="V100" s="2"/>
       <c r="W100" s="2"/>
-      <c r="X100" s="9"/>
+      <c r="X100" s="12"/>
     </row>
     <row r="101" customFormat="1" hidden="1" outlineLevel="1" spans="2:24">
       <c r="B101" s="3"/>
-      <c r="C101" s="3"/>
+      <c r="C101" s="6"/>
       <c r="D101" s="3"/>
       <c r="E101" s="3"/>
-      <c r="F101" s="7">
+      <c r="F101" s="11">
         <v>11</v>
       </c>
       <c r="G101" s="2"/>
@@ -8418,14 +8170,14 @@
       <c r="U101" s="2"/>
       <c r="V101" s="2"/>
       <c r="W101" s="2"/>
-      <c r="X101" s="9"/>
+      <c r="X101" s="12"/>
     </row>
     <row r="102" customFormat="1" hidden="1" outlineLevel="1" spans="2:24">
       <c r="B102" s="3"/>
-      <c r="C102" s="3"/>
+      <c r="C102" s="6"/>
       <c r="D102" s="3"/>
       <c r="E102" s="3"/>
-      <c r="F102" s="7">
+      <c r="F102" s="11">
         <v>12</v>
       </c>
       <c r="G102" s="2"/>
@@ -8445,14 +8197,14 @@
       <c r="U102" s="2"/>
       <c r="V102" s="2"/>
       <c r="W102" s="2"/>
-      <c r="X102" s="9"/>
+      <c r="X102" s="12"/>
     </row>
     <row r="103" customFormat="1" hidden="1" outlineLevel="1" spans="2:24">
       <c r="B103" s="3"/>
-      <c r="C103" s="3"/>
+      <c r="C103" s="6"/>
       <c r="D103" s="3"/>
       <c r="E103" s="3"/>
-      <c r="F103" s="7">
+      <c r="F103" s="11">
         <v>13</v>
       </c>
       <c r="G103" s="2"/>
@@ -8472,14 +8224,14 @@
       <c r="U103" s="2"/>
       <c r="V103" s="2"/>
       <c r="W103" s="2"/>
-      <c r="X103" s="9"/>
+      <c r="X103" s="12"/>
     </row>
     <row r="104" customFormat="1" hidden="1" outlineLevel="1" spans="2:24">
       <c r="B104" s="3"/>
-      <c r="C104" s="3"/>
+      <c r="C104" s="6"/>
       <c r="D104" s="3"/>
       <c r="E104" s="3"/>
-      <c r="F104" s="7">
+      <c r="F104" s="11">
         <v>14</v>
       </c>
       <c r="G104" s="2"/>
@@ -8499,14 +8251,14 @@
       <c r="U104" s="2"/>
       <c r="V104" s="2"/>
       <c r="W104" s="2"/>
-      <c r="X104" s="9"/>
+      <c r="X104" s="12"/>
     </row>
     <row r="105" customFormat="1" hidden="1" outlineLevel="1" spans="2:24">
       <c r="B105" s="3"/>
-      <c r="C105" s="3"/>
+      <c r="C105" s="6"/>
       <c r="D105" s="3"/>
       <c r="E105" s="3"/>
-      <c r="F105" s="7">
+      <c r="F105" s="11">
         <v>15</v>
       </c>
       <c r="G105" s="2"/>
@@ -8526,14 +8278,14 @@
       <c r="U105" s="2"/>
       <c r="V105" s="2"/>
       <c r="W105" s="2"/>
-      <c r="X105" s="9"/>
+      <c r="X105" s="12"/>
     </row>
     <row r="106" customFormat="1" hidden="1" outlineLevel="1" spans="2:24">
       <c r="B106" s="3"/>
-      <c r="C106" s="3"/>
+      <c r="C106" s="6"/>
       <c r="D106" s="3"/>
       <c r="E106" s="3"/>
-      <c r="F106" s="7">
+      <c r="F106" s="11">
         <v>16</v>
       </c>
       <c r="G106" s="2"/>
@@ -8553,14 +8305,14 @@
       <c r="U106" s="2"/>
       <c r="V106" s="2"/>
       <c r="W106" s="2"/>
-      <c r="X106" s="9"/>
+      <c r="X106" s="12"/>
     </row>
     <row r="107" customFormat="1" hidden="1" outlineLevel="1" spans="2:24">
       <c r="B107" s="3"/>
-      <c r="C107" s="3"/>
+      <c r="C107" s="6"/>
       <c r="D107" s="3"/>
       <c r="E107" s="3"/>
-      <c r="F107" s="7">
+      <c r="F107" s="11">
         <v>17</v>
       </c>
       <c r="G107" s="2"/>
@@ -8580,14 +8332,14 @@
       <c r="U107" s="2"/>
       <c r="V107" s="2"/>
       <c r="W107" s="2"/>
-      <c r="X107" s="9"/>
+      <c r="X107" s="12"/>
     </row>
     <row r="108" customFormat="1" hidden="1" outlineLevel="1" spans="2:24">
       <c r="B108" s="3"/>
-      <c r="C108" s="3"/>
+      <c r="C108" s="6"/>
       <c r="D108" s="3"/>
-      <c r="E108" s="8"/>
-      <c r="F108" s="7">
+      <c r="E108" s="3"/>
+      <c r="F108" s="11">
         <v>18</v>
       </c>
       <c r="G108" s="2"/>
@@ -8607,13 +8359,13 @@
       <c r="U108" s="2"/>
       <c r="V108" s="2"/>
       <c r="W108" s="2"/>
-      <c r="X108" s="9"/>
+      <c r="X108" s="12"/>
     </row>
     <row r="109" customFormat="1" hidden="1" outlineLevel="1" spans="2:24">
       <c r="B109" s="3"/>
-      <c r="C109" s="3"/>
+      <c r="C109" s="6"/>
       <c r="D109" s="3"/>
-      <c r="E109" s="8"/>
+      <c r="E109" s="3"/>
       <c r="F109" s="2">
         <v>19</v>
       </c>
@@ -8634,13 +8386,13 @@
       <c r="U109" s="2"/>
       <c r="V109" s="2"/>
       <c r="W109" s="2"/>
-      <c r="X109" s="9"/>
+      <c r="X109" s="12"/>
     </row>
     <row r="110" customFormat="1" hidden="1" outlineLevel="1" spans="2:24">
       <c r="B110" s="3"/>
-      <c r="C110" s="3"/>
+      <c r="C110" s="6"/>
       <c r="D110" s="3"/>
-      <c r="E110" s="8"/>
+      <c r="E110" s="3"/>
       <c r="F110" s="2">
         <v>20</v>
       </c>
@@ -8661,13 +8413,13 @@
       <c r="U110" s="2"/>
       <c r="V110" s="2"/>
       <c r="W110" s="2"/>
-      <c r="X110" s="9"/>
+      <c r="X110" s="12"/>
     </row>
     <row r="111" customFormat="1" hidden="1" outlineLevel="1" spans="2:24">
       <c r="B111" s="3"/>
-      <c r="C111" s="3"/>
+      <c r="C111" s="6"/>
       <c r="D111" s="3"/>
-      <c r="E111" s="8"/>
+      <c r="E111" s="3"/>
       <c r="F111" s="2">
         <v>21</v>
       </c>
@@ -8688,13 +8440,13 @@
       <c r="U111" s="2"/>
       <c r="V111" s="2"/>
       <c r="W111" s="2"/>
-      <c r="X111" s="9"/>
+      <c r="X111" s="12"/>
     </row>
     <row r="112" customFormat="1" hidden="1" outlineLevel="1" spans="2:24">
       <c r="B112" s="3"/>
-      <c r="C112" s="3"/>
+      <c r="C112" s="6"/>
       <c r="D112" s="3"/>
-      <c r="E112" s="8"/>
+      <c r="E112" s="3"/>
       <c r="F112" s="2">
         <v>22</v>
       </c>
@@ -8715,13 +8467,13 @@
       <c r="U112" s="2"/>
       <c r="V112" s="2"/>
       <c r="W112" s="2"/>
-      <c r="X112" s="9"/>
+      <c r="X112" s="12"/>
     </row>
     <row r="113" collapsed="1" spans="2:24">
       <c r="B113" s="3"/>
-      <c r="C113" s="3"/>
+      <c r="C113" s="6"/>
       <c r="D113" s="1" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="E113" s="2"/>
       <c r="F113" s="2"/>
@@ -8742,14 +8494,14 @@
       <c r="U113" s="2"/>
       <c r="V113" s="2"/>
       <c r="W113" s="2"/>
-      <c r="X113" s="9"/>
+      <c r="X113" s="12"/>
     </row>
     <row r="114" spans="2:24">
-      <c r="B114" s="8"/>
-      <c r="C114" s="8"/>
-      <c r="D114" s="10"/>
+      <c r="B114" s="3"/>
+      <c r="C114" s="6"/>
+      <c r="D114" s="14"/>
       <c r="E114" s="1" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="F114" s="2"/>
       <c r="G114" s="2"/>
@@ -8769,15 +8521,15 @@
       <c r="U114" s="2"/>
       <c r="V114" s="2"/>
       <c r="W114" s="2"/>
-      <c r="X114" s="9"/>
+      <c r="X114" s="12"/>
     </row>
     <row r="115" spans="2:24">
-      <c r="B115" s="8"/>
-      <c r="C115" s="8"/>
-      <c r="D115" s="10"/>
-      <c r="E115" s="11"/>
-      <c r="F115" s="4" t="s">
-        <v>274</v>
+      <c r="B115" s="3"/>
+      <c r="C115" s="6"/>
+      <c r="D115" s="14"/>
+      <c r="E115" s="14"/>
+      <c r="F115" s="7" t="s">
+        <v>273</v>
       </c>
       <c r="G115" s="2"/>
       <c r="H115" s="2"/>
@@ -8796,15 +8548,15 @@
       <c r="U115" s="2"/>
       <c r="V115" s="2"/>
       <c r="W115" s="2"/>
-      <c r="X115" s="9"/>
+      <c r="X115" s="12"/>
     </row>
     <row r="116" spans="2:24">
-      <c r="B116" s="8"/>
-      <c r="C116" s="8"/>
-      <c r="D116" s="10"/>
-      <c r="E116" s="11"/>
-      <c r="F116" s="4" t="s">
-        <v>274</v>
+      <c r="B116" s="3"/>
+      <c r="C116" s="6"/>
+      <c r="D116" s="14"/>
+      <c r="E116" s="14"/>
+      <c r="F116" s="7" t="s">
+        <v>273</v>
       </c>
       <c r="G116" s="2"/>
       <c r="H116" s="2"/>
@@ -8823,15 +8575,15 @@
       <c r="U116" s="2"/>
       <c r="V116" s="2"/>
       <c r="W116" s="2"/>
-      <c r="X116" s="9"/>
+      <c r="X116" s="12"/>
     </row>
     <row r="117" spans="2:24">
-      <c r="B117" s="8"/>
-      <c r="C117" s="8"/>
-      <c r="D117" s="10"/>
-      <c r="E117" s="12"/>
-      <c r="F117" s="4" t="s">
-        <v>274</v>
+      <c r="B117" s="3"/>
+      <c r="C117" s="6"/>
+      <c r="D117" s="14"/>
+      <c r="E117" s="15"/>
+      <c r="F117" s="7" t="s">
+        <v>273</v>
       </c>
       <c r="G117" s="2"/>
       <c r="H117" s="2"/>
@@ -8850,14 +8602,14 @@
       <c r="U117" s="2"/>
       <c r="V117" s="2"/>
       <c r="W117" s="2"/>
-      <c r="X117" s="9"/>
+      <c r="X117" s="12"/>
     </row>
     <row r="118" spans="2:24">
-      <c r="B118" s="8"/>
-      <c r="C118" s="8"/>
-      <c r="D118" s="10"/>
+      <c r="B118" s="3"/>
+      <c r="C118" s="6"/>
+      <c r="D118" s="14"/>
       <c r="E118" s="1" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="F118" s="2"/>
       <c r="G118" s="2"/>
@@ -8877,15 +8629,15 @@
       <c r="U118" s="2"/>
       <c r="V118" s="2"/>
       <c r="W118" s="2"/>
-      <c r="X118" s="9"/>
+      <c r="X118" s="12"/>
     </row>
     <row r="119" spans="2:24">
-      <c r="B119" s="8"/>
-      <c r="C119" s="8"/>
-      <c r="D119" s="10"/>
-      <c r="E119" s="11"/>
-      <c r="F119" s="4" t="s">
-        <v>274</v>
+      <c r="B119" s="3"/>
+      <c r="C119" s="6"/>
+      <c r="D119" s="14"/>
+      <c r="E119" s="14"/>
+      <c r="F119" s="7" t="s">
+        <v>273</v>
       </c>
       <c r="G119" s="2"/>
       <c r="H119" s="2"/>
@@ -8904,15 +8656,15 @@
       <c r="U119" s="2"/>
       <c r="V119" s="2"/>
       <c r="W119" s="2"/>
-      <c r="X119" s="9"/>
+      <c r="X119" s="12"/>
     </row>
     <row r="120" spans="2:24">
-      <c r="B120" s="8"/>
-      <c r="C120" s="8"/>
-      <c r="D120" s="10"/>
-      <c r="E120" s="11"/>
-      <c r="F120" s="4" t="s">
-        <v>274</v>
+      <c r="B120" s="3"/>
+      <c r="C120" s="6"/>
+      <c r="D120" s="14"/>
+      <c r="E120" s="14"/>
+      <c r="F120" s="7" t="s">
+        <v>273</v>
       </c>
       <c r="G120" s="2"/>
       <c r="H120" s="2"/>
@@ -8931,15 +8683,15 @@
       <c r="U120" s="2"/>
       <c r="V120" s="2"/>
       <c r="W120" s="2"/>
-      <c r="X120" s="9"/>
+      <c r="X120" s="12"/>
     </row>
     <row r="121" spans="2:24">
-      <c r="B121" s="8"/>
-      <c r="C121" s="8"/>
-      <c r="D121" s="10"/>
-      <c r="E121" s="12"/>
-      <c r="F121" s="4" t="s">
-        <v>274</v>
+      <c r="B121" s="3"/>
+      <c r="C121" s="6"/>
+      <c r="D121" s="14"/>
+      <c r="E121" s="15"/>
+      <c r="F121" s="7" t="s">
+        <v>273</v>
       </c>
       <c r="G121" s="2"/>
       <c r="H121" s="2"/>
@@ -8958,13 +8710,15 @@
       <c r="U121" s="2"/>
       <c r="V121" s="2"/>
       <c r="W121" s="2"/>
-      <c r="X121" s="9"/>
+      <c r="X121" s="12"/>
     </row>
     <row r="122" spans="2:24">
-      <c r="B122" s="13"/>
-      <c r="C122" s="13"/>
-      <c r="D122" s="13"/>
-      <c r="E122" s="4"/>
+      <c r="B122" s="3"/>
+      <c r="C122" s="6"/>
+      <c r="D122" s="1" t="s">
+        <v>285</v>
+      </c>
+      <c r="E122" s="16"/>
       <c r="F122" s="2"/>
       <c r="G122" s="2"/>
       <c r="H122" s="2"/>
@@ -8983,7 +8737,209 @@
       <c r="U122" s="2"/>
       <c r="V122" s="2"/>
       <c r="W122" s="2"/>
-      <c r="X122" s="9"/>
+      <c r="X122" s="12"/>
+    </row>
+    <row r="123" spans="2:24">
+      <c r="B123" s="3"/>
+      <c r="C123" s="6"/>
+      <c r="D123" s="14"/>
+      <c r="E123" s="15" t="s">
+        <v>286</v>
+      </c>
+      <c r="F123" s="2"/>
+      <c r="G123" s="2"/>
+      <c r="H123" s="2"/>
+      <c r="I123" s="2"/>
+      <c r="J123" s="2"/>
+      <c r="K123" s="2"/>
+      <c r="L123" s="2"/>
+      <c r="M123" s="2"/>
+      <c r="N123" s="2"/>
+      <c r="O123" s="2"/>
+      <c r="P123" s="2"/>
+      <c r="Q123" s="2"/>
+      <c r="R123" s="2"/>
+      <c r="S123" s="2"/>
+      <c r="T123" s="2"/>
+      <c r="U123" s="2"/>
+      <c r="V123" s="2"/>
+      <c r="W123" s="2"/>
+      <c r="X123" s="12"/>
+    </row>
+    <row r="124" spans="2:24">
+      <c r="B124" s="3"/>
+      <c r="C124" s="6"/>
+      <c r="D124" s="14"/>
+      <c r="E124" s="15"/>
+      <c r="F124" s="2"/>
+      <c r="G124" s="2"/>
+      <c r="H124" s="2"/>
+      <c r="I124" s="2"/>
+      <c r="J124" s="2"/>
+      <c r="K124" s="2"/>
+      <c r="L124" s="2"/>
+      <c r="M124" s="2"/>
+      <c r="N124" s="2"/>
+      <c r="O124" s="2"/>
+      <c r="P124" s="2"/>
+      <c r="Q124" s="2"/>
+      <c r="R124" s="2"/>
+      <c r="S124" s="2"/>
+      <c r="T124" s="2"/>
+      <c r="U124" s="2"/>
+      <c r="V124" s="2"/>
+      <c r="W124" s="2"/>
+      <c r="X124" s="12"/>
+    </row>
+    <row r="125" spans="2:24">
+      <c r="B125" s="3"/>
+      <c r="C125" s="6"/>
+      <c r="D125" s="14"/>
+      <c r="E125" s="15"/>
+      <c r="F125" s="2"/>
+      <c r="G125" s="2"/>
+      <c r="H125" s="2"/>
+      <c r="I125" s="2"/>
+      <c r="J125" s="2"/>
+      <c r="K125" s="2"/>
+      <c r="L125" s="2"/>
+      <c r="M125" s="2"/>
+      <c r="N125" s="2"/>
+      <c r="O125" s="2"/>
+      <c r="P125" s="2"/>
+      <c r="Q125" s="2"/>
+      <c r="R125" s="2"/>
+      <c r="S125" s="2"/>
+      <c r="T125" s="2"/>
+      <c r="U125" s="2"/>
+      <c r="V125" s="2"/>
+      <c r="W125" s="2"/>
+      <c r="X125" s="12"/>
+    </row>
+    <row r="126" spans="2:24">
+      <c r="B126" s="3"/>
+      <c r="C126" s="6"/>
+      <c r="D126" s="14"/>
+      <c r="E126" s="15"/>
+      <c r="F126" s="2"/>
+      <c r="G126" s="2"/>
+      <c r="H126" s="2"/>
+      <c r="I126" s="2"/>
+      <c r="J126" s="2"/>
+      <c r="K126" s="2"/>
+      <c r="L126" s="2"/>
+      <c r="M126" s="2"/>
+      <c r="N126" s="2"/>
+      <c r="O126" s="2"/>
+      <c r="P126" s="2"/>
+      <c r="Q126" s="2"/>
+      <c r="R126" s="2"/>
+      <c r="S126" s="2"/>
+      <c r="T126" s="2"/>
+      <c r="U126" s="2"/>
+      <c r="V126" s="2"/>
+      <c r="W126" s="2"/>
+      <c r="X126" s="12"/>
+    </row>
+    <row r="127" spans="2:24">
+      <c r="B127" s="3"/>
+      <c r="C127" s="6"/>
+      <c r="D127" s="14"/>
+      <c r="E127" s="15"/>
+      <c r="F127" s="2"/>
+      <c r="G127" s="2"/>
+      <c r="H127" s="2"/>
+      <c r="I127" s="2"/>
+      <c r="J127" s="2"/>
+      <c r="K127" s="2"/>
+      <c r="L127" s="2"/>
+      <c r="M127" s="2"/>
+      <c r="N127" s="2"/>
+      <c r="O127" s="2"/>
+      <c r="P127" s="2"/>
+      <c r="Q127" s="2"/>
+      <c r="R127" s="2"/>
+      <c r="S127" s="2"/>
+      <c r="T127" s="2"/>
+      <c r="U127" s="2"/>
+      <c r="V127" s="2"/>
+      <c r="W127" s="2"/>
+      <c r="X127" s="12"/>
+    </row>
+    <row r="128" spans="2:24">
+      <c r="B128" s="3"/>
+      <c r="C128" s="6"/>
+      <c r="D128" s="14"/>
+      <c r="E128" s="15"/>
+      <c r="F128" s="2"/>
+      <c r="G128" s="2"/>
+      <c r="H128" s="2"/>
+      <c r="I128" s="2"/>
+      <c r="J128" s="2"/>
+      <c r="K128" s="2"/>
+      <c r="L128" s="2"/>
+      <c r="M128" s="2"/>
+      <c r="N128" s="2"/>
+      <c r="O128" s="2"/>
+      <c r="P128" s="2"/>
+      <c r="Q128" s="2"/>
+      <c r="R128" s="2"/>
+      <c r="S128" s="2"/>
+      <c r="T128" s="2"/>
+      <c r="U128" s="2"/>
+      <c r="V128" s="2"/>
+      <c r="W128" s="2"/>
+      <c r="X128" s="12"/>
+    </row>
+    <row r="129" spans="2:24">
+      <c r="B129" s="3"/>
+      <c r="C129" s="6"/>
+      <c r="D129" s="14"/>
+      <c r="E129" s="15"/>
+      <c r="F129" s="2"/>
+      <c r="G129" s="2"/>
+      <c r="H129" s="2"/>
+      <c r="I129" s="2"/>
+      <c r="J129" s="2"/>
+      <c r="K129" s="2"/>
+      <c r="L129" s="2"/>
+      <c r="M129" s="2"/>
+      <c r="N129" s="2"/>
+      <c r="O129" s="2"/>
+      <c r="P129" s="2"/>
+      <c r="Q129" s="2"/>
+      <c r="R129" s="2"/>
+      <c r="S129" s="2"/>
+      <c r="T129" s="2"/>
+      <c r="U129" s="2"/>
+      <c r="V129" s="2"/>
+      <c r="W129" s="2"/>
+      <c r="X129" s="12"/>
+    </row>
+    <row r="130" spans="2:24">
+      <c r="B130" s="17"/>
+      <c r="C130" s="18"/>
+      <c r="D130" s="17"/>
+      <c r="E130" s="7"/>
+      <c r="F130" s="2"/>
+      <c r="G130" s="2"/>
+      <c r="H130" s="2"/>
+      <c r="I130" s="2"/>
+      <c r="J130" s="2"/>
+      <c r="K130" s="2"/>
+      <c r="L130" s="2"/>
+      <c r="M130" s="2"/>
+      <c r="N130" s="2"/>
+      <c r="O130" s="2"/>
+      <c r="P130" s="2"/>
+      <c r="Q130" s="2"/>
+      <c r="R130" s="2"/>
+      <c r="S130" s="2"/>
+      <c r="T130" s="2"/>
+      <c r="U130" s="2"/>
+      <c r="V130" s="2"/>
+      <c r="W130" s="2"/>
+      <c r="X130" s="12"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
